--- a/docs/worklogs/Trystan_Gaillard_worklog.xlsx
+++ b/docs/worklogs/Trystan_Gaillard_worklog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sytabram/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduvaud-my.sharepoint.com/personal/py16coy_eduvaud_ch/Documents/Bureau/Trystan Gaillard/CPNV/Year - 2/Semestre - 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD54EA4-EC57-C94E-AE6B-BAFBBC005BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="265" documentId="13_ncr:1_{EFDCB34D-4D99-487E-82C9-6E7A8D14F32E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C85D8EA-FB60-CD4E-B84E-FB46E11E2DD5}"/>
   <bookViews>
-    <workbookView xWindow="42060" yWindow="10640" windowWidth="21600" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3345" yWindow="1605" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="36">
   <si>
     <t>Jour</t>
   </si>
@@ -86,16 +86,7 @@
     <t>Découvert du groupe et du projet.</t>
   </si>
   <si>
-    <t>Je n'avais pas mon ordinateur portable</t>
-  </si>
-  <si>
     <t>/</t>
-  </si>
-  <si>
-    <t>Diffiulté dut à mon faible niveau de Code + première fois en C++</t>
-  </si>
-  <si>
-    <t>Compléxité du moteur</t>
   </si>
   <si>
     <t>Mer. 14 janvier 2026</t>
@@ -119,16 +110,43 @@
     <t>Conception d'un PowerPoint.</t>
   </si>
   <si>
-    <t>Recherche sur le fonctionnement du moteur.</t>
-  </si>
-  <si>
     <t>Réalisation du code afin de faire fonction le dit capteur.</t>
   </si>
   <si>
     <t>Recherche sur le fonctionnement du capteur de distance.</t>
   </si>
   <si>
-    <t>Travail en binôme avec un membre du groupe.</t>
+    <t>Prise en main et analyse du matériel et de la méthode de travail.</t>
+  </si>
+  <si>
+    <t>Mer. 21 janvier 2026</t>
+  </si>
+  <si>
+    <t>Recherche sur le fonctionnement du Novak Brushless 8.5.</t>
+  </si>
+  <si>
+    <t>Modification et avancement du Powerpoint.</t>
+  </si>
+  <si>
+    <t>Brasage des câbles pour les phares.</t>
+  </si>
+  <si>
+    <t>Documentation des LEDs</t>
+  </si>
+  <si>
+    <t>Jeu. 22 janvier 2026</t>
+  </si>
+  <si>
+    <t>Compléxité du moteur.</t>
+  </si>
+  <si>
+    <t>Diffiulté dut à mon faible niveau de Code + première fois en C++.</t>
+  </si>
+  <si>
+    <t>Je n'avais pas mon ordinateur portable.</t>
+  </si>
+  <si>
+    <t>Debut du brasage du moteur</t>
   </si>
 </sst>
 </file>
@@ -138,16 +156,9 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Century Gothic"/>
       <family val="2"/>
@@ -194,12 +205,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -211,41 +222,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -333,7 +341,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -863,7 +871,7 @@
                   <c:v>3.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.75</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -872,7 +880,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>3.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1895,19 +1903,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F500"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="24.83203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="68.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="82.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.31640625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="15.19921875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="24.75" style="5" customWidth="1"/>
+    <col min="5" max="5" width="68.47265625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="82.19140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1930,9 +1938,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B2" s="14">
         <v>1</v>
@@ -1947,12 +1955,12 @@
         <v>14</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="B3" s="14">
         <v>1</v>
@@ -1963,16 +1971,16 @@
       <c r="D3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>29</v>
+      <c r="E3" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B4" s="14">
         <v>1</v>
@@ -1984,15 +1992,15 @@
         <v>7</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B5" s="14">
         <v>1</v>
@@ -2004,15 +2012,15 @@
         <v>8</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F5" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="B6" s="14">
         <v>1</v>
@@ -2024,35 +2032,35 @@
         <v>7</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="B7" s="14">
         <v>1</v>
       </c>
       <c r="C7" s="11">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8" s="14">
         <v>1</v>
@@ -2064,73 +2072,133 @@
         <v>13</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B9" s="14">
         <v>2</v>
       </c>
       <c r="C9" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="6"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="6"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="6"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="6"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="6"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="14">
+        <v>2</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="14">
+        <v>2</v>
+      </c>
+      <c r="C11" s="11">
+        <v>3.75</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="14">
+        <v>2</v>
+      </c>
+      <c r="C12" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="14">
+        <v>2</v>
+      </c>
+      <c r="C13" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="14">
+        <v>2</v>
+      </c>
+      <c r="C14" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
       <c r="B15" s="14"/>
       <c r="C15" s="11"/>
@@ -2138,7 +2206,7 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
       <c r="B16" s="14"/>
       <c r="C16" s="11"/>
@@ -2146,7 +2214,7 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
       <c r="B17" s="14"/>
       <c r="C17" s="11"/>
@@ -2154,7 +2222,7 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
       <c r="B18" s="14"/>
       <c r="C18" s="11"/>
@@ -2162,7 +2230,7 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
       <c r="B19" s="14"/>
       <c r="C19" s="11"/>
@@ -2170,7 +2238,7 @@
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
       <c r="B20" s="14"/>
       <c r="C20" s="11"/>
@@ -2178,7 +2246,7 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6"/>
       <c r="B21" s="14"/>
       <c r="C21" s="11"/>
@@ -2186,7 +2254,7 @@
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
       <c r="B22" s="14"/>
       <c r="C22" s="11"/>
@@ -2194,7 +2262,7 @@
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
       <c r="B23" s="14"/>
       <c r="C23" s="11"/>
@@ -2202,7 +2270,7 @@
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
     </row>
-    <row r="24" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6"/>
       <c r="B24" s="14"/>
       <c r="C24" s="11"/>
@@ -2210,7 +2278,7 @@
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
     </row>
-    <row r="25" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6"/>
       <c r="B25" s="14"/>
       <c r="C25" s="11"/>
@@ -2218,7 +2286,7 @@
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
     </row>
-    <row r="26" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6"/>
       <c r="B26" s="14"/>
       <c r="C26" s="11"/>
@@ -2226,7 +2294,7 @@
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
     </row>
-    <row r="27" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6"/>
       <c r="B27" s="14"/>
       <c r="C27" s="11"/>
@@ -2234,7 +2302,7 @@
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
     </row>
-    <row r="28" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6"/>
       <c r="B28" s="14"/>
       <c r="C28" s="11"/>
@@ -2242,7 +2310,7 @@
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
     </row>
-    <row r="29" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="6"/>
       <c r="B29" s="14"/>
       <c r="C29" s="11"/>
@@ -2250,7 +2318,7 @@
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
     </row>
-    <row r="30" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6"/>
       <c r="B30" s="14"/>
       <c r="C30" s="11"/>
@@ -2258,7 +2326,7 @@
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
     </row>
-    <row r="31" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="6"/>
       <c r="B31" s="14"/>
       <c r="C31" s="11"/>
@@ -2266,7 +2334,7 @@
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
     </row>
-    <row r="32" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="6"/>
       <c r="B32" s="14"/>
       <c r="C32" s="11"/>
@@ -2274,7 +2342,7 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
     </row>
-    <row r="33" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="6"/>
       <c r="B33" s="14"/>
       <c r="C33" s="11"/>
@@ -2282,7 +2350,7 @@
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
     </row>
-    <row r="34" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6"/>
       <c r="B34" s="14"/>
       <c r="C34" s="11"/>
@@ -2290,7 +2358,7 @@
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
     </row>
-    <row r="35" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="6"/>
       <c r="B35" s="14"/>
       <c r="C35" s="11"/>
@@ -2298,7 +2366,7 @@
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
     </row>
-    <row r="36" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="6"/>
       <c r="B36" s="14"/>
       <c r="C36" s="11"/>
@@ -2306,7 +2374,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
     </row>
-    <row r="37" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="6"/>
       <c r="B37" s="14"/>
       <c r="C37" s="11"/>
@@ -2314,7 +2382,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
     </row>
-    <row r="38" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6"/>
       <c r="B38" s="14"/>
       <c r="C38" s="11"/>
@@ -2322,7 +2390,7 @@
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
     </row>
-    <row r="39" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="6"/>
       <c r="B39" s="14"/>
       <c r="C39" s="11"/>
@@ -2330,7 +2398,7 @@
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
     </row>
-    <row r="40" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="6"/>
       <c r="B40" s="14"/>
       <c r="C40" s="11"/>
@@ -2338,7 +2406,7 @@
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
     </row>
-    <row r="41" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6"/>
       <c r="B41" s="14"/>
       <c r="C41" s="11"/>
@@ -2346,7 +2414,7 @@
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
     </row>
-    <row r="42" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="6"/>
       <c r="B42" s="14"/>
       <c r="C42" s="11"/>
@@ -2354,7 +2422,7 @@
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
     </row>
-    <row r="43" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="6"/>
       <c r="B43" s="14"/>
       <c r="C43" s="11"/>
@@ -2362,7 +2430,7 @@
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
     </row>
-    <row r="44" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="6"/>
       <c r="B44" s="14"/>
       <c r="C44" s="11"/>
@@ -2370,7 +2438,7 @@
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
     </row>
-    <row r="45" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="6"/>
       <c r="B45" s="14"/>
       <c r="C45" s="11"/>
@@ -2378,7 +2446,7 @@
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
     </row>
-    <row r="46" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="6"/>
       <c r="B46" s="14"/>
       <c r="C46" s="11"/>
@@ -2386,7 +2454,7 @@
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
     </row>
-    <row r="47" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="6"/>
       <c r="B47" s="14"/>
       <c r="C47" s="11"/>
@@ -2394,7 +2462,7 @@
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
     </row>
-    <row r="48" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6"/>
       <c r="B48" s="14"/>
       <c r="C48" s="11"/>
@@ -2402,7 +2470,7 @@
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
     </row>
-    <row r="49" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6"/>
       <c r="B49" s="14"/>
       <c r="C49" s="11"/>
@@ -2410,7 +2478,7 @@
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
     </row>
-    <row r="50" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6"/>
       <c r="B50" s="14"/>
       <c r="C50" s="11"/>
@@ -2418,7 +2486,7 @@
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
     </row>
-    <row r="51" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="6"/>
       <c r="B51" s="14"/>
       <c r="C51" s="11"/>
@@ -2426,7 +2494,7 @@
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
     </row>
-    <row r="52" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="6"/>
       <c r="B52" s="14"/>
       <c r="C52" s="11"/>
@@ -2434,7 +2502,7 @@
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
     </row>
-    <row r="53" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="6"/>
       <c r="B53" s="14"/>
       <c r="C53" s="11"/>
@@ -2442,7 +2510,7 @@
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
     </row>
-    <row r="54" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="6"/>
       <c r="B54" s="14"/>
       <c r="C54" s="11"/>
@@ -2450,7 +2518,7 @@
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
     </row>
-    <row r="55" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="6"/>
       <c r="B55" s="14"/>
       <c r="C55" s="11"/>
@@ -2458,7 +2526,7 @@
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
     </row>
-    <row r="56" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6"/>
       <c r="B56" s="14"/>
       <c r="C56" s="11"/>
@@ -2466,7 +2534,7 @@
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
     </row>
-    <row r="57" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6"/>
       <c r="B57" s="14"/>
       <c r="C57" s="11"/>
@@ -2474,7 +2542,7 @@
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
     </row>
-    <row r="58" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6"/>
       <c r="B58" s="14"/>
       <c r="C58" s="11"/>
@@ -2482,7 +2550,7 @@
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
     </row>
-    <row r="59" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="6"/>
       <c r="B59" s="14"/>
       <c r="C59" s="11"/>
@@ -2490,7 +2558,7 @@
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
     </row>
-    <row r="60" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="6"/>
       <c r="B60" s="14"/>
       <c r="C60" s="11"/>
@@ -2498,7 +2566,7 @@
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
     </row>
-    <row r="61" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="6"/>
       <c r="B61" s="14"/>
       <c r="C61" s="11"/>
@@ -2506,7 +2574,7 @@
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
     </row>
-    <row r="62" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="6"/>
       <c r="B62" s="14"/>
       <c r="C62" s="11"/>
@@ -2514,7 +2582,7 @@
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
     </row>
-    <row r="63" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="6"/>
       <c r="B63" s="14"/>
       <c r="C63" s="11"/>
@@ -2522,7 +2590,7 @@
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
     </row>
-    <row r="64" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="6"/>
       <c r="B64" s="14"/>
       <c r="C64" s="11"/>
@@ -2530,7 +2598,7 @@
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
     </row>
-    <row r="65" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="6"/>
       <c r="B65" s="14"/>
       <c r="C65" s="11"/>
@@ -2538,7 +2606,7 @@
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
     </row>
-    <row r="66" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="6"/>
       <c r="B66" s="14"/>
       <c r="C66" s="11"/>
@@ -2546,7 +2614,7 @@
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
     </row>
-    <row r="67" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="6"/>
       <c r="B67" s="14"/>
       <c r="C67" s="11"/>
@@ -2554,7 +2622,7 @@
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
     </row>
-    <row r="68" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="6"/>
       <c r="B68" s="14"/>
       <c r="C68" s="11"/>
@@ -2562,7 +2630,7 @@
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
     </row>
-    <row r="69" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="6"/>
       <c r="B69" s="14"/>
       <c r="C69" s="11"/>
@@ -2570,7 +2638,7 @@
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
     </row>
-    <row r="70" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="6"/>
       <c r="B70" s="14"/>
       <c r="C70" s="11"/>
@@ -2578,7 +2646,7 @@
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
     </row>
-    <row r="71" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="6"/>
       <c r="B71" s="14"/>
       <c r="C71" s="11"/>
@@ -2586,7 +2654,7 @@
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
     </row>
-    <row r="72" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="6"/>
       <c r="B72" s="14"/>
       <c r="C72" s="11"/>
@@ -2594,7 +2662,7 @@
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
     </row>
-    <row r="73" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="6"/>
       <c r="B73" s="14"/>
       <c r="C73" s="11"/>
@@ -2602,7 +2670,7 @@
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
     </row>
-    <row r="74" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="6"/>
       <c r="B74" s="14"/>
       <c r="C74" s="11"/>
@@ -2610,7 +2678,7 @@
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
     </row>
-    <row r="75" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="6"/>
       <c r="B75" s="14"/>
       <c r="C75" s="11"/>
@@ -2618,7 +2686,7 @@
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
     </row>
-    <row r="76" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="6"/>
       <c r="B76" s="14"/>
       <c r="C76" s="11"/>
@@ -2626,7 +2694,7 @@
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
     </row>
-    <row r="77" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="6"/>
       <c r="B77" s="14"/>
       <c r="C77" s="11"/>
@@ -2634,7 +2702,7 @@
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
     </row>
-    <row r="78" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="6"/>
       <c r="B78" s="14"/>
       <c r="C78" s="11"/>
@@ -2642,7 +2710,7 @@
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
     </row>
-    <row r="79" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="6"/>
       <c r="B79" s="14"/>
       <c r="C79" s="11"/>
@@ -2650,7 +2718,7 @@
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
     </row>
-    <row r="80" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6"/>
       <c r="B80" s="14"/>
       <c r="C80" s="11"/>
@@ -2658,7 +2726,7 @@
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
     </row>
-    <row r="81" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6"/>
       <c r="B81" s="14"/>
       <c r="C81" s="11"/>
@@ -2666,7 +2734,7 @@
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
     </row>
-    <row r="82" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6"/>
       <c r="B82" s="14"/>
       <c r="C82" s="11"/>
@@ -2674,7 +2742,7 @@
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
     </row>
-    <row r="83" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="6"/>
       <c r="B83" s="14"/>
       <c r="C83" s="11"/>
@@ -2682,7 +2750,7 @@
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
     </row>
-    <row r="84" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="6"/>
       <c r="B84" s="14"/>
       <c r="C84" s="11"/>
@@ -2690,7 +2758,7 @@
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
     </row>
-    <row r="85" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="6"/>
       <c r="B85" s="14"/>
       <c r="C85" s="11"/>
@@ -2698,7 +2766,7 @@
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
     </row>
-    <row r="86" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="6"/>
       <c r="B86" s="14"/>
       <c r="C86" s="11"/>
@@ -2706,7 +2774,7 @@
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
     </row>
-    <row r="87" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="6"/>
       <c r="B87" s="14"/>
       <c r="C87" s="11"/>
@@ -2714,7 +2782,7 @@
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
     </row>
-    <row r="88" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6"/>
       <c r="B88" s="14"/>
       <c r="C88" s="11"/>
@@ -2722,7 +2790,7 @@
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
     </row>
-    <row r="89" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6"/>
       <c r="B89" s="14"/>
       <c r="C89" s="11"/>
@@ -2730,7 +2798,7 @@
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
     </row>
-    <row r="90" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6"/>
       <c r="B90" s="14"/>
       <c r="C90" s="11"/>
@@ -2738,7 +2806,7 @@
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
     </row>
-    <row r="91" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="6"/>
       <c r="B91" s="14"/>
       <c r="C91" s="11"/>
@@ -2746,7 +2814,7 @@
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
     </row>
-    <row r="92" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="6"/>
       <c r="B92" s="14"/>
       <c r="C92" s="11"/>
@@ -2754,7 +2822,7 @@
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
     </row>
-    <row r="93" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="6"/>
       <c r="B93" s="14"/>
       <c r="C93" s="11"/>
@@ -2762,7 +2830,7 @@
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
     </row>
-    <row r="94" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="6"/>
       <c r="B94" s="14"/>
       <c r="C94" s="11"/>
@@ -2770,7 +2838,7 @@
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
     </row>
-    <row r="95" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="6"/>
       <c r="B95" s="14"/>
       <c r="C95" s="11"/>
@@ -2778,7 +2846,7 @@
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
     </row>
-    <row r="96" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="6"/>
       <c r="B96" s="14"/>
       <c r="C96" s="11"/>
@@ -2786,7 +2854,7 @@
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
     </row>
-    <row r="97" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="6"/>
       <c r="B97" s="14"/>
       <c r="C97" s="11"/>
@@ -2794,7 +2862,7 @@
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
     </row>
-    <row r="98" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="6"/>
       <c r="B98" s="14"/>
       <c r="C98" s="11"/>
@@ -2802,7 +2870,7 @@
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
     </row>
-    <row r="99" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="6"/>
       <c r="B99" s="14"/>
       <c r="C99" s="11"/>
@@ -2810,7 +2878,7 @@
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
     </row>
-    <row r="100" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="6"/>
       <c r="B100" s="14"/>
       <c r="C100" s="11"/>
@@ -2818,7 +2886,7 @@
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
     </row>
-    <row r="101" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="6"/>
       <c r="B101" s="14"/>
       <c r="C101" s="11"/>
@@ -2826,7 +2894,7 @@
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
     </row>
-    <row r="102" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="6"/>
       <c r="B102" s="14"/>
       <c r="C102" s="11"/>
@@ -2834,7 +2902,7 @@
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
     </row>
-    <row r="103" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="6"/>
       <c r="B103" s="14"/>
       <c r="C103" s="11"/>
@@ -2842,7 +2910,7 @@
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
     </row>
-    <row r="104" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="6"/>
       <c r="B104" s="14"/>
       <c r="C104" s="11"/>
@@ -2850,7 +2918,7 @@
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
     </row>
-    <row r="105" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="6"/>
       <c r="B105" s="14"/>
       <c r="C105" s="11"/>
@@ -2858,7 +2926,7 @@
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
     </row>
-    <row r="106" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="6"/>
       <c r="B106" s="14"/>
       <c r="C106" s="11"/>
@@ -2866,7 +2934,7 @@
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
     </row>
-    <row r="107" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="6"/>
       <c r="B107" s="14"/>
       <c r="C107" s="11"/>
@@ -2874,7 +2942,7 @@
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
     </row>
-    <row r="108" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="6"/>
       <c r="B108" s="14"/>
       <c r="C108" s="11"/>
@@ -2882,7 +2950,7 @@
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
     </row>
-    <row r="109" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="6"/>
       <c r="B109" s="14"/>
       <c r="C109" s="11"/>
@@ -2890,7 +2958,7 @@
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
     </row>
-    <row r="110" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="6"/>
       <c r="B110" s="14"/>
       <c r="C110" s="11"/>
@@ -2898,7 +2966,7 @@
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
     </row>
-    <row r="111" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="6"/>
       <c r="B111" s="14"/>
       <c r="C111" s="11"/>
@@ -2906,7 +2974,7 @@
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
     </row>
-    <row r="112" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="6"/>
       <c r="B112" s="14"/>
       <c r="C112" s="11"/>
@@ -2914,7 +2982,7 @@
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
     </row>
-    <row r="113" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="6"/>
       <c r="B113" s="14"/>
       <c r="C113" s="11"/>
@@ -2922,7 +2990,7 @@
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
     </row>
-    <row r="114" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="6"/>
       <c r="B114" s="14"/>
       <c r="C114" s="11"/>
@@ -2930,7 +2998,7 @@
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
     </row>
-    <row r="115" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="6"/>
       <c r="B115" s="14"/>
       <c r="C115" s="11"/>
@@ -2938,7 +3006,7 @@
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
     </row>
-    <row r="116" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="6"/>
       <c r="B116" s="14"/>
       <c r="C116" s="11"/>
@@ -2946,7 +3014,7 @@
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
     </row>
-    <row r="117" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="6"/>
       <c r="B117" s="14"/>
       <c r="C117" s="11"/>
@@ -2954,7 +3022,7 @@
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
     </row>
-    <row r="118" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="6"/>
       <c r="B118" s="14"/>
       <c r="C118" s="11"/>
@@ -2962,7 +3030,7 @@
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
     </row>
-    <row r="119" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="6"/>
       <c r="B119" s="14"/>
       <c r="C119" s="11"/>
@@ -2970,7 +3038,7 @@
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
     </row>
-    <row r="120" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="6"/>
       <c r="B120" s="14"/>
       <c r="C120" s="11"/>
@@ -2978,7 +3046,7 @@
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
     </row>
-    <row r="121" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="6"/>
       <c r="B121" s="14"/>
       <c r="C121" s="11"/>
@@ -2986,7 +3054,7 @@
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
     </row>
-    <row r="122" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="6"/>
       <c r="B122" s="14"/>
       <c r="C122" s="11"/>
@@ -2994,7 +3062,7 @@
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
     </row>
-    <row r="123" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="6"/>
       <c r="B123" s="14"/>
       <c r="C123" s="11"/>
@@ -3002,7 +3070,7 @@
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
     </row>
-    <row r="124" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="6"/>
       <c r="B124" s="14"/>
       <c r="C124" s="11"/>
@@ -3010,7 +3078,7 @@
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
     </row>
-    <row r="125" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="6"/>
       <c r="B125" s="14"/>
       <c r="C125" s="11"/>
@@ -3018,7 +3086,7 @@
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
     </row>
-    <row r="126" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="6"/>
       <c r="B126" s="14"/>
       <c r="C126" s="11"/>
@@ -3026,7 +3094,7 @@
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
     </row>
-    <row r="127" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="6"/>
       <c r="B127" s="14"/>
       <c r="C127" s="11"/>
@@ -3034,7 +3102,7 @@
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
     </row>
-    <row r="128" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="6"/>
       <c r="B128" s="14"/>
       <c r="C128" s="11"/>
@@ -3042,7 +3110,7 @@
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
     </row>
-    <row r="129" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="6"/>
       <c r="B129" s="14"/>
       <c r="C129" s="11"/>
@@ -3050,7 +3118,7 @@
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
     </row>
-    <row r="130" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="6"/>
       <c r="B130" s="14"/>
       <c r="C130" s="11"/>
@@ -3058,7 +3126,7 @@
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
     </row>
-    <row r="131" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="6"/>
       <c r="B131" s="14"/>
       <c r="C131" s="11"/>
@@ -3066,7 +3134,7 @@
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
     </row>
-    <row r="132" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="6"/>
       <c r="B132" s="14"/>
       <c r="C132" s="11"/>
@@ -3074,7 +3142,7 @@
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
     </row>
-    <row r="133" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="6"/>
       <c r="B133" s="14"/>
       <c r="C133" s="11"/>
@@ -3082,7 +3150,7 @@
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
     </row>
-    <row r="134" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="6"/>
       <c r="B134" s="14"/>
       <c r="C134" s="11"/>
@@ -3090,7 +3158,7 @@
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
     </row>
-    <row r="135" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="6"/>
       <c r="B135" s="14"/>
       <c r="C135" s="11"/>
@@ -3098,7 +3166,7 @@
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
     </row>
-    <row r="136" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="6"/>
       <c r="B136" s="14"/>
       <c r="C136" s="11"/>
@@ -3106,7 +3174,7 @@
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
     </row>
-    <row r="137" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="6"/>
       <c r="B137" s="14"/>
       <c r="C137" s="11"/>
@@ -3114,7 +3182,7 @@
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
     </row>
-    <row r="138" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="6"/>
       <c r="B138" s="14"/>
       <c r="C138" s="11"/>
@@ -3122,7 +3190,7 @@
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
     </row>
-    <row r="139" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="6"/>
       <c r="B139" s="14"/>
       <c r="C139" s="11"/>
@@ -3130,7 +3198,7 @@
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
     </row>
-    <row r="140" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="6"/>
       <c r="B140" s="14"/>
       <c r="C140" s="11"/>
@@ -3138,7 +3206,7 @@
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
     </row>
-    <row r="141" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="6"/>
       <c r="B141" s="14"/>
       <c r="C141" s="11"/>
@@ -3146,7 +3214,7 @@
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
     </row>
-    <row r="142" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="6"/>
       <c r="B142" s="14"/>
       <c r="C142" s="11"/>
@@ -3154,7 +3222,7 @@
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
     </row>
-    <row r="143" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="6"/>
       <c r="B143" s="14"/>
       <c r="C143" s="11"/>
@@ -3162,7 +3230,7 @@
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
     </row>
-    <row r="144" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="6"/>
       <c r="B144" s="14"/>
       <c r="C144" s="11"/>
@@ -3170,7 +3238,7 @@
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
     </row>
-    <row r="145" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="6"/>
       <c r="B145" s="14"/>
       <c r="C145" s="11"/>
@@ -3178,7 +3246,7 @@
       <c r="E145" s="8"/>
       <c r="F145" s="8"/>
     </row>
-    <row r="146" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="6"/>
       <c r="B146" s="14"/>
       <c r="C146" s="11"/>
@@ -3186,7 +3254,7 @@
       <c r="E146" s="8"/>
       <c r="F146" s="8"/>
     </row>
-    <row r="147" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="6"/>
       <c r="B147" s="14"/>
       <c r="C147" s="11"/>
@@ -3194,7 +3262,7 @@
       <c r="E147" s="8"/>
       <c r="F147" s="8"/>
     </row>
-    <row r="148" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="6"/>
       <c r="B148" s="14"/>
       <c r="C148" s="11"/>
@@ -3202,7 +3270,7 @@
       <c r="E148" s="8"/>
       <c r="F148" s="8"/>
     </row>
-    <row r="149" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="6"/>
       <c r="B149" s="14"/>
       <c r="C149" s="11"/>
@@ -3210,7 +3278,7 @@
       <c r="E149" s="8"/>
       <c r="F149" s="8"/>
     </row>
-    <row r="150" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="6"/>
       <c r="B150" s="14"/>
       <c r="C150" s="11"/>
@@ -3218,7 +3286,7 @@
       <c r="E150" s="8"/>
       <c r="F150" s="8"/>
     </row>
-    <row r="151" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="6"/>
       <c r="B151" s="14"/>
       <c r="C151" s="11"/>
@@ -3226,7 +3294,7 @@
       <c r="E151" s="8"/>
       <c r="F151" s="8"/>
     </row>
-    <row r="152" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="6"/>
       <c r="B152" s="14"/>
       <c r="C152" s="11"/>
@@ -3234,7 +3302,7 @@
       <c r="E152" s="8"/>
       <c r="F152" s="8"/>
     </row>
-    <row r="153" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="6"/>
       <c r="B153" s="14"/>
       <c r="C153" s="11"/>
@@ -3242,7 +3310,7 @@
       <c r="E153" s="8"/>
       <c r="F153" s="8"/>
     </row>
-    <row r="154" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="6"/>
       <c r="B154" s="14"/>
       <c r="C154" s="11"/>
@@ -3250,7 +3318,7 @@
       <c r="E154" s="8"/>
       <c r="F154" s="8"/>
     </row>
-    <row r="155" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="6"/>
       <c r="B155" s="14"/>
       <c r="C155" s="11"/>
@@ -3258,7 +3326,7 @@
       <c r="E155" s="8"/>
       <c r="F155" s="8"/>
     </row>
-    <row r="156" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="6"/>
       <c r="B156" s="14"/>
       <c r="C156" s="11"/>
@@ -3266,7 +3334,7 @@
       <c r="E156" s="8"/>
       <c r="F156" s="8"/>
     </row>
-    <row r="157" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="6"/>
       <c r="B157" s="14"/>
       <c r="C157" s="11"/>
@@ -3274,7 +3342,7 @@
       <c r="E157" s="8"/>
       <c r="F157" s="8"/>
     </row>
-    <row r="158" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="6"/>
       <c r="B158" s="14"/>
       <c r="C158" s="11"/>
@@ -3282,7 +3350,7 @@
       <c r="E158" s="8"/>
       <c r="F158" s="8"/>
     </row>
-    <row r="159" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="6"/>
       <c r="B159" s="14"/>
       <c r="C159" s="11"/>
@@ -3290,7 +3358,7 @@
       <c r="E159" s="8"/>
       <c r="F159" s="8"/>
     </row>
-    <row r="160" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="6"/>
       <c r="B160" s="14"/>
       <c r="C160" s="11"/>
@@ -3298,7 +3366,7 @@
       <c r="E160" s="8"/>
       <c r="F160" s="8"/>
     </row>
-    <row r="161" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="6"/>
       <c r="B161" s="14"/>
       <c r="C161" s="11"/>
@@ -3306,7 +3374,7 @@
       <c r="E161" s="8"/>
       <c r="F161" s="8"/>
     </row>
-    <row r="162" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="6"/>
       <c r="B162" s="14"/>
       <c r="C162" s="11"/>
@@ -3314,7 +3382,7 @@
       <c r="E162" s="8"/>
       <c r="F162" s="8"/>
     </row>
-    <row r="163" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="6"/>
       <c r="B163" s="14"/>
       <c r="C163" s="11"/>
@@ -3322,7 +3390,7 @@
       <c r="E163" s="8"/>
       <c r="F163" s="8"/>
     </row>
-    <row r="164" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="6"/>
       <c r="B164" s="14"/>
       <c r="C164" s="11"/>
@@ -3330,7 +3398,7 @@
       <c r="E164" s="8"/>
       <c r="F164" s="8"/>
     </row>
-    <row r="165" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="6"/>
       <c r="B165" s="14"/>
       <c r="C165" s="11"/>
@@ -3338,7 +3406,7 @@
       <c r="E165" s="8"/>
       <c r="F165" s="8"/>
     </row>
-    <row r="166" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="6"/>
       <c r="B166" s="14"/>
       <c r="C166" s="11"/>
@@ -3346,7 +3414,7 @@
       <c r="E166" s="8"/>
       <c r="F166" s="8"/>
     </row>
-    <row r="167" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="6"/>
       <c r="B167" s="14"/>
       <c r="C167" s="11"/>
@@ -3354,7 +3422,7 @@
       <c r="E167" s="8"/>
       <c r="F167" s="8"/>
     </row>
-    <row r="168" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="6"/>
       <c r="B168" s="14"/>
       <c r="C168" s="11"/>
@@ -3362,7 +3430,7 @@
       <c r="E168" s="8"/>
       <c r="F168" s="8"/>
     </row>
-    <row r="169" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="6"/>
       <c r="B169" s="14"/>
       <c r="C169" s="11"/>
@@ -3370,7 +3438,7 @@
       <c r="E169" s="8"/>
       <c r="F169" s="8"/>
     </row>
-    <row r="170" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="6"/>
       <c r="B170" s="14"/>
       <c r="C170" s="11"/>
@@ -3378,7 +3446,7 @@
       <c r="E170" s="8"/>
       <c r="F170" s="8"/>
     </row>
-    <row r="171" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="6"/>
       <c r="B171" s="14"/>
       <c r="C171" s="11"/>
@@ -3386,7 +3454,7 @@
       <c r="E171" s="8"/>
       <c r="F171" s="8"/>
     </row>
-    <row r="172" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="6"/>
       <c r="B172" s="14"/>
       <c r="C172" s="11"/>
@@ -3394,7 +3462,7 @@
       <c r="E172" s="8"/>
       <c r="F172" s="8"/>
     </row>
-    <row r="173" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="6"/>
       <c r="B173" s="14"/>
       <c r="C173" s="11"/>
@@ -3402,7 +3470,7 @@
       <c r="E173" s="8"/>
       <c r="F173" s="8"/>
     </row>
-    <row r="174" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="6"/>
       <c r="B174" s="14"/>
       <c r="C174" s="11"/>
@@ -3410,7 +3478,7 @@
       <c r="E174" s="8"/>
       <c r="F174" s="8"/>
     </row>
-    <row r="175" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="6"/>
       <c r="B175" s="14"/>
       <c r="C175" s="11"/>
@@ -3418,7 +3486,7 @@
       <c r="E175" s="8"/>
       <c r="F175" s="8"/>
     </row>
-    <row r="176" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="6"/>
       <c r="B176" s="14"/>
       <c r="C176" s="11"/>
@@ -3426,7 +3494,7 @@
       <c r="E176" s="8"/>
       <c r="F176" s="8"/>
     </row>
-    <row r="177" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="6"/>
       <c r="B177" s="14"/>
       <c r="C177" s="11"/>
@@ -3434,7 +3502,7 @@
       <c r="E177" s="8"/>
       <c r="F177" s="8"/>
     </row>
-    <row r="178" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="6"/>
       <c r="B178" s="14"/>
       <c r="C178" s="11"/>
@@ -3442,7 +3510,7 @@
       <c r="E178" s="8"/>
       <c r="F178" s="8"/>
     </row>
-    <row r="179" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="6"/>
       <c r="B179" s="14"/>
       <c r="C179" s="11"/>
@@ -3450,7 +3518,7 @@
       <c r="E179" s="8"/>
       <c r="F179" s="8"/>
     </row>
-    <row r="180" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="6"/>
       <c r="B180" s="14"/>
       <c r="C180" s="11"/>
@@ -3458,7 +3526,7 @@
       <c r="E180" s="8"/>
       <c r="F180" s="8"/>
     </row>
-    <row r="181" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="6"/>
       <c r="B181" s="14"/>
       <c r="C181" s="11"/>
@@ -3466,7 +3534,7 @@
       <c r="E181" s="8"/>
       <c r="F181" s="8"/>
     </row>
-    <row r="182" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="6"/>
       <c r="B182" s="14"/>
       <c r="C182" s="11"/>
@@ -3474,7 +3542,7 @@
       <c r="E182" s="8"/>
       <c r="F182" s="8"/>
     </row>
-    <row r="183" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="6"/>
       <c r="B183" s="14"/>
       <c r="C183" s="11"/>
@@ -3482,7 +3550,7 @@
       <c r="E183" s="8"/>
       <c r="F183" s="8"/>
     </row>
-    <row r="184" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="6"/>
       <c r="B184" s="14"/>
       <c r="C184" s="11"/>
@@ -3490,7 +3558,7 @@
       <c r="E184" s="8"/>
       <c r="F184" s="8"/>
     </row>
-    <row r="185" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="6"/>
       <c r="B185" s="14"/>
       <c r="C185" s="11"/>
@@ -3498,7 +3566,7 @@
       <c r="E185" s="8"/>
       <c r="F185" s="8"/>
     </row>
-    <row r="186" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="6"/>
       <c r="B186" s="14"/>
       <c r="C186" s="11"/>
@@ -3506,7 +3574,7 @@
       <c r="E186" s="8"/>
       <c r="F186" s="8"/>
     </row>
-    <row r="187" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="6"/>
       <c r="B187" s="14"/>
       <c r="C187" s="11"/>
@@ -3514,7 +3582,7 @@
       <c r="E187" s="8"/>
       <c r="F187" s="8"/>
     </row>
-    <row r="188" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="6"/>
       <c r="B188" s="14"/>
       <c r="C188" s="11"/>
@@ -3522,7 +3590,7 @@
       <c r="E188" s="8"/>
       <c r="F188" s="8"/>
     </row>
-    <row r="189" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="6"/>
       <c r="B189" s="14"/>
       <c r="C189" s="11"/>
@@ -3530,7 +3598,7 @@
       <c r="E189" s="8"/>
       <c r="F189" s="8"/>
     </row>
-    <row r="190" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="6"/>
       <c r="B190" s="14"/>
       <c r="C190" s="11"/>
@@ -3538,7 +3606,7 @@
       <c r="E190" s="8"/>
       <c r="F190" s="8"/>
     </row>
-    <row r="191" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="6"/>
       <c r="B191" s="14"/>
       <c r="C191" s="11"/>
@@ -3546,7 +3614,7 @@
       <c r="E191" s="8"/>
       <c r="F191" s="8"/>
     </row>
-    <row r="192" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="6"/>
       <c r="B192" s="14"/>
       <c r="C192" s="11"/>
@@ -3554,7 +3622,7 @@
       <c r="E192" s="8"/>
       <c r="F192" s="8"/>
     </row>
-    <row r="193" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="6"/>
       <c r="B193" s="14"/>
       <c r="C193" s="11"/>
@@ -3562,7 +3630,7 @@
       <c r="E193" s="8"/>
       <c r="F193" s="8"/>
     </row>
-    <row r="194" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="6"/>
       <c r="B194" s="14"/>
       <c r="C194" s="11"/>
@@ -3570,7 +3638,7 @@
       <c r="E194" s="8"/>
       <c r="F194" s="8"/>
     </row>
-    <row r="195" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="6"/>
       <c r="B195" s="14"/>
       <c r="C195" s="11"/>
@@ -3578,7 +3646,7 @@
       <c r="E195" s="8"/>
       <c r="F195" s="8"/>
     </row>
-    <row r="196" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="6"/>
       <c r="B196" s="14"/>
       <c r="C196" s="11"/>
@@ -3586,7 +3654,7 @@
       <c r="E196" s="8"/>
       <c r="F196" s="8"/>
     </row>
-    <row r="197" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="6"/>
       <c r="B197" s="14"/>
       <c r="C197" s="11"/>
@@ -3594,7 +3662,7 @@
       <c r="E197" s="8"/>
       <c r="F197" s="8"/>
     </row>
-    <row r="198" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="6"/>
       <c r="B198" s="14"/>
       <c r="C198" s="11"/>
@@ -3602,7 +3670,7 @@
       <c r="E198" s="8"/>
       <c r="F198" s="8"/>
     </row>
-    <row r="199" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="6"/>
       <c r="B199" s="14"/>
       <c r="C199" s="11"/>
@@ -3610,7 +3678,7 @@
       <c r="E199" s="8"/>
       <c r="F199" s="8"/>
     </row>
-    <row r="200" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="6"/>
       <c r="B200" s="14"/>
       <c r="C200" s="11"/>
@@ -3618,7 +3686,7 @@
       <c r="E200" s="8"/>
       <c r="F200" s="8"/>
     </row>
-    <row r="201" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="6"/>
       <c r="B201" s="14"/>
       <c r="C201" s="11"/>
@@ -3626,7 +3694,7 @@
       <c r="E201" s="8"/>
       <c r="F201" s="8"/>
     </row>
-    <row r="202" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="6"/>
       <c r="B202" s="14"/>
       <c r="C202" s="11"/>
@@ -3634,7 +3702,7 @@
       <c r="E202" s="8"/>
       <c r="F202" s="8"/>
     </row>
-    <row r="203" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="6"/>
       <c r="B203" s="14"/>
       <c r="C203" s="11"/>
@@ -3642,7 +3710,7 @@
       <c r="E203" s="8"/>
       <c r="F203" s="8"/>
     </row>
-    <row r="204" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="6"/>
       <c r="B204" s="14"/>
       <c r="C204" s="11"/>
@@ -3650,7 +3718,7 @@
       <c r="E204" s="8"/>
       <c r="F204" s="8"/>
     </row>
-    <row r="205" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="6"/>
       <c r="B205" s="14"/>
       <c r="C205" s="11"/>
@@ -3658,7 +3726,7 @@
       <c r="E205" s="8"/>
       <c r="F205" s="8"/>
     </row>
-    <row r="206" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="6"/>
       <c r="B206" s="14"/>
       <c r="C206" s="11"/>
@@ -3666,7 +3734,7 @@
       <c r="E206" s="8"/>
       <c r="F206" s="8"/>
     </row>
-    <row r="207" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="6"/>
       <c r="B207" s="14"/>
       <c r="C207" s="11"/>
@@ -3674,7 +3742,7 @@
       <c r="E207" s="8"/>
       <c r="F207" s="8"/>
     </row>
-    <row r="208" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="6"/>
       <c r="B208" s="14"/>
       <c r="C208" s="11"/>
@@ -3682,7 +3750,7 @@
       <c r="E208" s="8"/>
       <c r="F208" s="8"/>
     </row>
-    <row r="209" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="6"/>
       <c r="B209" s="14"/>
       <c r="C209" s="11"/>
@@ -3690,7 +3758,7 @@
       <c r="E209" s="8"/>
       <c r="F209" s="8"/>
     </row>
-    <row r="210" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="6"/>
       <c r="B210" s="14"/>
       <c r="C210" s="11"/>
@@ -3698,7 +3766,7 @@
       <c r="E210" s="8"/>
       <c r="F210" s="8"/>
     </row>
-    <row r="211" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="6"/>
       <c r="B211" s="14"/>
       <c r="C211" s="11"/>
@@ -3706,7 +3774,7 @@
       <c r="E211" s="8"/>
       <c r="F211" s="8"/>
     </row>
-    <row r="212" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="6"/>
       <c r="B212" s="14"/>
       <c r="C212" s="11"/>
@@ -3714,7 +3782,7 @@
       <c r="E212" s="8"/>
       <c r="F212" s="8"/>
     </row>
-    <row r="213" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="6"/>
       <c r="B213" s="14"/>
       <c r="C213" s="11"/>
@@ -3722,7 +3790,7 @@
       <c r="E213" s="8"/>
       <c r="F213" s="8"/>
     </row>
-    <row r="214" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="6"/>
       <c r="B214" s="14"/>
       <c r="C214" s="11"/>
@@ -3730,7 +3798,7 @@
       <c r="E214" s="8"/>
       <c r="F214" s="8"/>
     </row>
-    <row r="215" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="6"/>
       <c r="B215" s="14"/>
       <c r="C215" s="11"/>
@@ -3738,7 +3806,7 @@
       <c r="E215" s="8"/>
       <c r="F215" s="8"/>
     </row>
-    <row r="216" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="6"/>
       <c r="B216" s="14"/>
       <c r="C216" s="11"/>
@@ -3746,7 +3814,7 @@
       <c r="E216" s="8"/>
       <c r="F216" s="8"/>
     </row>
-    <row r="217" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="6"/>
       <c r="B217" s="14"/>
       <c r="C217" s="11"/>
@@ -3754,7 +3822,7 @@
       <c r="E217" s="8"/>
       <c r="F217" s="8"/>
     </row>
-    <row r="218" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="6"/>
       <c r="B218" s="14"/>
       <c r="C218" s="11"/>
@@ -3762,7 +3830,7 @@
       <c r="E218" s="8"/>
       <c r="F218" s="8"/>
     </row>
-    <row r="219" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="6"/>
       <c r="B219" s="14"/>
       <c r="C219" s="11"/>
@@ -3770,7 +3838,7 @@
       <c r="E219" s="8"/>
       <c r="F219" s="8"/>
     </row>
-    <row r="220" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="6"/>
       <c r="B220" s="14"/>
       <c r="C220" s="11"/>
@@ -3778,7 +3846,7 @@
       <c r="E220" s="8"/>
       <c r="F220" s="8"/>
     </row>
-    <row r="221" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="6"/>
       <c r="B221" s="14"/>
       <c r="C221" s="11"/>
@@ -3786,7 +3854,7 @@
       <c r="E221" s="8"/>
       <c r="F221" s="8"/>
     </row>
-    <row r="222" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="6"/>
       <c r="B222" s="14"/>
       <c r="C222" s="11"/>
@@ -3794,7 +3862,7 @@
       <c r="E222" s="8"/>
       <c r="F222" s="8"/>
     </row>
-    <row r="223" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="6"/>
       <c r="B223" s="14"/>
       <c r="C223" s="11"/>
@@ -3802,7 +3870,7 @@
       <c r="E223" s="8"/>
       <c r="F223" s="8"/>
     </row>
-    <row r="224" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="6"/>
       <c r="B224" s="14"/>
       <c r="C224" s="11"/>
@@ -3810,7 +3878,7 @@
       <c r="E224" s="8"/>
       <c r="F224" s="8"/>
     </row>
-    <row r="225" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="6"/>
       <c r="B225" s="14"/>
       <c r="C225" s="11"/>
@@ -3818,7 +3886,7 @@
       <c r="E225" s="8"/>
       <c r="F225" s="8"/>
     </row>
-    <row r="226" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="6"/>
       <c r="B226" s="14"/>
       <c r="C226" s="11"/>
@@ -3826,7 +3894,7 @@
       <c r="E226" s="8"/>
       <c r="F226" s="8"/>
     </row>
-    <row r="227" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="6"/>
       <c r="B227" s="14"/>
       <c r="C227" s="11"/>
@@ -3834,7 +3902,7 @@
       <c r="E227" s="8"/>
       <c r="F227" s="8"/>
     </row>
-    <row r="228" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="6"/>
       <c r="B228" s="14"/>
       <c r="C228" s="11"/>
@@ -3842,7 +3910,7 @@
       <c r="E228" s="8"/>
       <c r="F228" s="8"/>
     </row>
-    <row r="229" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="6"/>
       <c r="B229" s="14"/>
       <c r="C229" s="11"/>
@@ -3850,7 +3918,7 @@
       <c r="E229" s="8"/>
       <c r="F229" s="8"/>
     </row>
-    <row r="230" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="6"/>
       <c r="B230" s="14"/>
       <c r="C230" s="11"/>
@@ -3858,7 +3926,7 @@
       <c r="E230" s="8"/>
       <c r="F230" s="8"/>
     </row>
-    <row r="231" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="6"/>
       <c r="B231" s="14"/>
       <c r="C231" s="11"/>
@@ -3866,7 +3934,7 @@
       <c r="E231" s="8"/>
       <c r="F231" s="8"/>
     </row>
-    <row r="232" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="6"/>
       <c r="B232" s="14"/>
       <c r="C232" s="11"/>
@@ -3874,7 +3942,7 @@
       <c r="E232" s="8"/>
       <c r="F232" s="8"/>
     </row>
-    <row r="233" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="6"/>
       <c r="B233" s="14"/>
       <c r="C233" s="11"/>
@@ -3882,7 +3950,7 @@
       <c r="E233" s="8"/>
       <c r="F233" s="8"/>
     </row>
-    <row r="234" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="6"/>
       <c r="B234" s="14"/>
       <c r="C234" s="11"/>
@@ -3890,7 +3958,7 @@
       <c r="E234" s="8"/>
       <c r="F234" s="8"/>
     </row>
-    <row r="235" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="6"/>
       <c r="B235" s="14"/>
       <c r="C235" s="11"/>
@@ -3898,7 +3966,7 @@
       <c r="E235" s="8"/>
       <c r="F235" s="8"/>
     </row>
-    <row r="236" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="6"/>
       <c r="B236" s="14"/>
       <c r="C236" s="11"/>
@@ -3906,7 +3974,7 @@
       <c r="E236" s="8"/>
       <c r="F236" s="8"/>
     </row>
-    <row r="237" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="6"/>
       <c r="B237" s="14"/>
       <c r="C237" s="11"/>
@@ -3914,7 +3982,7 @@
       <c r="E237" s="8"/>
       <c r="F237" s="8"/>
     </row>
-    <row r="238" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="6"/>
       <c r="B238" s="14"/>
       <c r="C238" s="11"/>
@@ -3922,7 +3990,7 @@
       <c r="E238" s="8"/>
       <c r="F238" s="8"/>
     </row>
-    <row r="239" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="6"/>
       <c r="B239" s="14"/>
       <c r="C239" s="11"/>
@@ -3930,7 +3998,7 @@
       <c r="E239" s="8"/>
       <c r="F239" s="8"/>
     </row>
-    <row r="240" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="6"/>
       <c r="B240" s="14"/>
       <c r="C240" s="11"/>
@@ -3938,7 +4006,7 @@
       <c r="E240" s="8"/>
       <c r="F240" s="8"/>
     </row>
-    <row r="241" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="6"/>
       <c r="B241" s="14"/>
       <c r="C241" s="11"/>
@@ -3946,7 +4014,7 @@
       <c r="E241" s="8"/>
       <c r="F241" s="8"/>
     </row>
-    <row r="242" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="6"/>
       <c r="B242" s="14"/>
       <c r="C242" s="11"/>
@@ -3954,7 +4022,7 @@
       <c r="E242" s="8"/>
       <c r="F242" s="8"/>
     </row>
-    <row r="243" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="6"/>
       <c r="B243" s="14"/>
       <c r="C243" s="11"/>
@@ -3962,7 +4030,7 @@
       <c r="E243" s="8"/>
       <c r="F243" s="8"/>
     </row>
-    <row r="244" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="6"/>
       <c r="B244" s="14"/>
       <c r="C244" s="11"/>
@@ -3970,7 +4038,7 @@
       <c r="E244" s="8"/>
       <c r="F244" s="8"/>
     </row>
-    <row r="245" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="6"/>
       <c r="B245" s="14"/>
       <c r="C245" s="11"/>
@@ -3978,7 +4046,7 @@
       <c r="E245" s="8"/>
       <c r="F245" s="8"/>
     </row>
-    <row r="246" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="6"/>
       <c r="B246" s="14"/>
       <c r="C246" s="11"/>
@@ -3986,7 +4054,7 @@
       <c r="E246" s="8"/>
       <c r="F246" s="8"/>
     </row>
-    <row r="247" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="6"/>
       <c r="B247" s="14"/>
       <c r="C247" s="11"/>
@@ -3994,7 +4062,7 @@
       <c r="E247" s="8"/>
       <c r="F247" s="8"/>
     </row>
-    <row r="248" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A248" s="6"/>
       <c r="B248" s="14"/>
       <c r="C248" s="11"/>
@@ -4002,7 +4070,7 @@
       <c r="E248" s="8"/>
       <c r="F248" s="8"/>
     </row>
-    <row r="249" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A249" s="6"/>
       <c r="B249" s="14"/>
       <c r="C249" s="11"/>
@@ -4010,7 +4078,7 @@
       <c r="E249" s="8"/>
       <c r="F249" s="8"/>
     </row>
-    <row r="250" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A250" s="6"/>
       <c r="B250" s="14"/>
       <c r="C250" s="11"/>
@@ -4018,7 +4086,7 @@
       <c r="E250" s="8"/>
       <c r="F250" s="8"/>
     </row>
-    <row r="251" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A251" s="6"/>
       <c r="B251" s="14"/>
       <c r="C251" s="11"/>
@@ -4026,7 +4094,7 @@
       <c r="E251" s="8"/>
       <c r="F251" s="8"/>
     </row>
-    <row r="252" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A252" s="6"/>
       <c r="B252" s="14"/>
       <c r="C252" s="11"/>
@@ -4034,7 +4102,7 @@
       <c r="E252" s="8"/>
       <c r="F252" s="8"/>
     </row>
-    <row r="253" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A253" s="6"/>
       <c r="B253" s="14"/>
       <c r="C253" s="11"/>
@@ -4042,7 +4110,7 @@
       <c r="E253" s="8"/>
       <c r="F253" s="8"/>
     </row>
-    <row r="254" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A254" s="6"/>
       <c r="B254" s="14"/>
       <c r="C254" s="11"/>
@@ -4050,7 +4118,7 @@
       <c r="E254" s="8"/>
       <c r="F254" s="8"/>
     </row>
-    <row r="255" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A255" s="6"/>
       <c r="B255" s="14"/>
       <c r="C255" s="11"/>
@@ -4058,7 +4126,7 @@
       <c r="E255" s="8"/>
       <c r="F255" s="8"/>
     </row>
-    <row r="256" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A256" s="6"/>
       <c r="B256" s="14"/>
       <c r="C256" s="11"/>
@@ -4066,7 +4134,7 @@
       <c r="E256" s="8"/>
       <c r="F256" s="8"/>
     </row>
-    <row r="257" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A257" s="6"/>
       <c r="B257" s="14"/>
       <c r="C257" s="11"/>
@@ -4074,7 +4142,7 @@
       <c r="E257" s="8"/>
       <c r="F257" s="8"/>
     </row>
-    <row r="258" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A258" s="6"/>
       <c r="B258" s="14"/>
       <c r="C258" s="11"/>
@@ -4082,7 +4150,7 @@
       <c r="E258" s="8"/>
       <c r="F258" s="8"/>
     </row>
-    <row r="259" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A259" s="6"/>
       <c r="B259" s="14"/>
       <c r="C259" s="11"/>
@@ -4090,7 +4158,7 @@
       <c r="E259" s="8"/>
       <c r="F259" s="8"/>
     </row>
-    <row r="260" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A260" s="6"/>
       <c r="B260" s="14"/>
       <c r="C260" s="11"/>
@@ -4098,7 +4166,7 @@
       <c r="E260" s="8"/>
       <c r="F260" s="8"/>
     </row>
-    <row r="261" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A261" s="6"/>
       <c r="B261" s="14"/>
       <c r="C261" s="11"/>
@@ -4106,7 +4174,7 @@
       <c r="E261" s="8"/>
       <c r="F261" s="8"/>
     </row>
-    <row r="262" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A262" s="6"/>
       <c r="B262" s="14"/>
       <c r="C262" s="11"/>
@@ -4114,7 +4182,7 @@
       <c r="E262" s="8"/>
       <c r="F262" s="8"/>
     </row>
-    <row r="263" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A263" s="6"/>
       <c r="B263" s="14"/>
       <c r="C263" s="11"/>
@@ -4122,7 +4190,7 @@
       <c r="E263" s="8"/>
       <c r="F263" s="8"/>
     </row>
-    <row r="264" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A264" s="6"/>
       <c r="B264" s="14"/>
       <c r="C264" s="11"/>
@@ -4130,7 +4198,7 @@
       <c r="E264" s="8"/>
       <c r="F264" s="8"/>
     </row>
-    <row r="265" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A265" s="6"/>
       <c r="B265" s="14"/>
       <c r="C265" s="11"/>
@@ -4138,7 +4206,7 @@
       <c r="E265" s="8"/>
       <c r="F265" s="8"/>
     </row>
-    <row r="266" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A266" s="6"/>
       <c r="B266" s="14"/>
       <c r="C266" s="11"/>
@@ -4146,7 +4214,7 @@
       <c r="E266" s="8"/>
       <c r="F266" s="8"/>
     </row>
-    <row r="267" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A267" s="6"/>
       <c r="B267" s="14"/>
       <c r="C267" s="11"/>
@@ -4154,7 +4222,7 @@
       <c r="E267" s="8"/>
       <c r="F267" s="8"/>
     </row>
-    <row r="268" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A268" s="6"/>
       <c r="B268" s="14"/>
       <c r="C268" s="11"/>
@@ -4162,7 +4230,7 @@
       <c r="E268" s="8"/>
       <c r="F268" s="8"/>
     </row>
-    <row r="269" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A269" s="6"/>
       <c r="B269" s="14"/>
       <c r="C269" s="11"/>
@@ -4170,7 +4238,7 @@
       <c r="E269" s="8"/>
       <c r="F269" s="8"/>
     </row>
-    <row r="270" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A270" s="6"/>
       <c r="B270" s="14"/>
       <c r="C270" s="11"/>
@@ -4178,7 +4246,7 @@
       <c r="E270" s="8"/>
       <c r="F270" s="8"/>
     </row>
-    <row r="271" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A271" s="6"/>
       <c r="B271" s="14"/>
       <c r="C271" s="11"/>
@@ -4186,7 +4254,7 @@
       <c r="E271" s="8"/>
       <c r="F271" s="8"/>
     </row>
-    <row r="272" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A272" s="6"/>
       <c r="B272" s="14"/>
       <c r="C272" s="11"/>
@@ -4194,7 +4262,7 @@
       <c r="E272" s="8"/>
       <c r="F272" s="8"/>
     </row>
-    <row r="273" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A273" s="6"/>
       <c r="B273" s="14"/>
       <c r="C273" s="11"/>
@@ -4202,7 +4270,7 @@
       <c r="E273" s="8"/>
       <c r="F273" s="8"/>
     </row>
-    <row r="274" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A274" s="6"/>
       <c r="B274" s="14"/>
       <c r="C274" s="11"/>
@@ -4210,7 +4278,7 @@
       <c r="E274" s="8"/>
       <c r="F274" s="8"/>
     </row>
-    <row r="275" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A275" s="6"/>
       <c r="B275" s="14"/>
       <c r="C275" s="11"/>
@@ -4218,7 +4286,7 @@
       <c r="E275" s="8"/>
       <c r="F275" s="8"/>
     </row>
-    <row r="276" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A276" s="6"/>
       <c r="B276" s="14"/>
       <c r="C276" s="11"/>
@@ -4226,7 +4294,7 @@
       <c r="E276" s="8"/>
       <c r="F276" s="8"/>
     </row>
-    <row r="277" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A277" s="6"/>
       <c r="B277" s="14"/>
       <c r="C277" s="11"/>
@@ -4234,7 +4302,7 @@
       <c r="E277" s="8"/>
       <c r="F277" s="8"/>
     </row>
-    <row r="278" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A278" s="6"/>
       <c r="B278" s="14"/>
       <c r="C278" s="11"/>
@@ -4242,7 +4310,7 @@
       <c r="E278" s="8"/>
       <c r="F278" s="8"/>
     </row>
-    <row r="279" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A279" s="6"/>
       <c r="B279" s="14"/>
       <c r="C279" s="11"/>
@@ -4250,7 +4318,7 @@
       <c r="E279" s="8"/>
       <c r="F279" s="8"/>
     </row>
-    <row r="280" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A280" s="6"/>
       <c r="B280" s="14"/>
       <c r="C280" s="11"/>
@@ -4258,7 +4326,7 @@
       <c r="E280" s="8"/>
       <c r="F280" s="8"/>
     </row>
-    <row r="281" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A281" s="6"/>
       <c r="B281" s="14"/>
       <c r="C281" s="11"/>
@@ -4266,7 +4334,7 @@
       <c r="E281" s="8"/>
       <c r="F281" s="8"/>
     </row>
-    <row r="282" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A282" s="6"/>
       <c r="B282" s="14"/>
       <c r="C282" s="11"/>
@@ -4274,7 +4342,7 @@
       <c r="E282" s="8"/>
       <c r="F282" s="8"/>
     </row>
-    <row r="283" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A283" s="6"/>
       <c r="B283" s="14"/>
       <c r="C283" s="11"/>
@@ -4282,7 +4350,7 @@
       <c r="E283" s="8"/>
       <c r="F283" s="8"/>
     </row>
-    <row r="284" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A284" s="6"/>
       <c r="B284" s="14"/>
       <c r="C284" s="11"/>
@@ -4290,7 +4358,7 @@
       <c r="E284" s="8"/>
       <c r="F284" s="8"/>
     </row>
-    <row r="285" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A285" s="6"/>
       <c r="B285" s="14"/>
       <c r="C285" s="11"/>
@@ -4298,7 +4366,7 @@
       <c r="E285" s="8"/>
       <c r="F285" s="8"/>
     </row>
-    <row r="286" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A286" s="6"/>
       <c r="B286" s="14"/>
       <c r="C286" s="11"/>
@@ -4306,7 +4374,7 @@
       <c r="E286" s="8"/>
       <c r="F286" s="8"/>
     </row>
-    <row r="287" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A287" s="6"/>
       <c r="B287" s="14"/>
       <c r="C287" s="11"/>
@@ -4314,7 +4382,7 @@
       <c r="E287" s="8"/>
       <c r="F287" s="8"/>
     </row>
-    <row r="288" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A288" s="6"/>
       <c r="B288" s="14"/>
       <c r="C288" s="11"/>
@@ -4322,7 +4390,7 @@
       <c r="E288" s="8"/>
       <c r="F288" s="8"/>
     </row>
-    <row r="289" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A289" s="6"/>
       <c r="B289" s="14"/>
       <c r="C289" s="11"/>
@@ -4330,7 +4398,7 @@
       <c r="E289" s="8"/>
       <c r="F289" s="8"/>
     </row>
-    <row r="290" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A290" s="6"/>
       <c r="B290" s="14"/>
       <c r="C290" s="11"/>
@@ -4338,7 +4406,7 @@
       <c r="E290" s="8"/>
       <c r="F290" s="8"/>
     </row>
-    <row r="291" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A291" s="6"/>
       <c r="B291" s="14"/>
       <c r="C291" s="11"/>
@@ -4346,7 +4414,7 @@
       <c r="E291" s="8"/>
       <c r="F291" s="8"/>
     </row>
-    <row r="292" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A292" s="6"/>
       <c r="B292" s="14"/>
       <c r="C292" s="11"/>
@@ -4354,7 +4422,7 @@
       <c r="E292" s="8"/>
       <c r="F292" s="8"/>
     </row>
-    <row r="293" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A293" s="6"/>
       <c r="B293" s="14"/>
       <c r="C293" s="11"/>
@@ -4362,7 +4430,7 @@
       <c r="E293" s="8"/>
       <c r="F293" s="8"/>
     </row>
-    <row r="294" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A294" s="6"/>
       <c r="B294" s="14"/>
       <c r="C294" s="11"/>
@@ -4370,7 +4438,7 @@
       <c r="E294" s="8"/>
       <c r="F294" s="8"/>
     </row>
-    <row r="295" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A295" s="6"/>
       <c r="B295" s="14"/>
       <c r="C295" s="11"/>
@@ -4378,7 +4446,7 @@
       <c r="E295" s="8"/>
       <c r="F295" s="8"/>
     </row>
-    <row r="296" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A296" s="6"/>
       <c r="B296" s="14"/>
       <c r="C296" s="11"/>
@@ -4386,7 +4454,7 @@
       <c r="E296" s="8"/>
       <c r="F296" s="8"/>
     </row>
-    <row r="297" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A297" s="6"/>
       <c r="B297" s="14"/>
       <c r="C297" s="11"/>
@@ -4394,7 +4462,7 @@
       <c r="E297" s="8"/>
       <c r="F297" s="8"/>
     </row>
-    <row r="298" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A298" s="6"/>
       <c r="B298" s="14"/>
       <c r="C298" s="11"/>
@@ -4402,7 +4470,7 @@
       <c r="E298" s="8"/>
       <c r="F298" s="8"/>
     </row>
-    <row r="299" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A299" s="6"/>
       <c r="B299" s="14"/>
       <c r="C299" s="11"/>
@@ -4410,7 +4478,7 @@
       <c r="E299" s="8"/>
       <c r="F299" s="8"/>
     </row>
-    <row r="300" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A300" s="6"/>
       <c r="B300" s="14"/>
       <c r="C300" s="11"/>
@@ -4418,7 +4486,7 @@
       <c r="E300" s="8"/>
       <c r="F300" s="8"/>
     </row>
-    <row r="301" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A301" s="6"/>
       <c r="B301" s="14"/>
       <c r="C301" s="11"/>
@@ -4426,7 +4494,7 @@
       <c r="E301" s="8"/>
       <c r="F301" s="8"/>
     </row>
-    <row r="302" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A302" s="6"/>
       <c r="B302" s="14"/>
       <c r="C302" s="11"/>
@@ -4434,7 +4502,7 @@
       <c r="E302" s="8"/>
       <c r="F302" s="8"/>
     </row>
-    <row r="303" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A303" s="6"/>
       <c r="B303" s="14"/>
       <c r="C303" s="11"/>
@@ -4442,7 +4510,7 @@
       <c r="E303" s="8"/>
       <c r="F303" s="8"/>
     </row>
-    <row r="304" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A304" s="6"/>
       <c r="B304" s="14"/>
       <c r="C304" s="11"/>
@@ -4450,7 +4518,7 @@
       <c r="E304" s="8"/>
       <c r="F304" s="8"/>
     </row>
-    <row r="305" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A305" s="6"/>
       <c r="B305" s="14"/>
       <c r="C305" s="11"/>
@@ -4458,7 +4526,7 @@
       <c r="E305" s="8"/>
       <c r="F305" s="8"/>
     </row>
-    <row r="306" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A306" s="6"/>
       <c r="B306" s="14"/>
       <c r="C306" s="11"/>
@@ -4466,7 +4534,7 @@
       <c r="E306" s="8"/>
       <c r="F306" s="8"/>
     </row>
-    <row r="307" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A307" s="6"/>
       <c r="B307" s="14"/>
       <c r="C307" s="11"/>
@@ -4474,7 +4542,7 @@
       <c r="E307" s="8"/>
       <c r="F307" s="8"/>
     </row>
-    <row r="308" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A308" s="6"/>
       <c r="B308" s="14"/>
       <c r="C308" s="11"/>
@@ -4482,7 +4550,7 @@
       <c r="E308" s="8"/>
       <c r="F308" s="8"/>
     </row>
-    <row r="309" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A309" s="6"/>
       <c r="B309" s="14"/>
       <c r="C309" s="11"/>
@@ -4490,7 +4558,7 @@
       <c r="E309" s="8"/>
       <c r="F309" s="8"/>
     </row>
-    <row r="310" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A310" s="6"/>
       <c r="B310" s="14"/>
       <c r="C310" s="11"/>
@@ -4498,7 +4566,7 @@
       <c r="E310" s="8"/>
       <c r="F310" s="8"/>
     </row>
-    <row r="311" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A311" s="6"/>
       <c r="B311" s="14"/>
       <c r="C311" s="11"/>
@@ -4506,7 +4574,7 @@
       <c r="E311" s="8"/>
       <c r="F311" s="8"/>
     </row>
-    <row r="312" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A312" s="6"/>
       <c r="B312" s="14"/>
       <c r="C312" s="11"/>
@@ -4514,7 +4582,7 @@
       <c r="E312" s="8"/>
       <c r="F312" s="8"/>
     </row>
-    <row r="313" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A313" s="6"/>
       <c r="B313" s="14"/>
       <c r="C313" s="11"/>
@@ -4522,7 +4590,7 @@
       <c r="E313" s="8"/>
       <c r="F313" s="8"/>
     </row>
-    <row r="314" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A314" s="6"/>
       <c r="B314" s="14"/>
       <c r="C314" s="11"/>
@@ -4530,7 +4598,7 @@
       <c r="E314" s="8"/>
       <c r="F314" s="8"/>
     </row>
-    <row r="315" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A315" s="6"/>
       <c r="B315" s="14"/>
       <c r="C315" s="11"/>
@@ -4538,7 +4606,7 @@
       <c r="E315" s="8"/>
       <c r="F315" s="8"/>
     </row>
-    <row r="316" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A316" s="6"/>
       <c r="B316" s="14"/>
       <c r="C316" s="11"/>
@@ -4546,7 +4614,7 @@
       <c r="E316" s="8"/>
       <c r="F316" s="8"/>
     </row>
-    <row r="317" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A317" s="6"/>
       <c r="B317" s="14"/>
       <c r="C317" s="11"/>
@@ -4554,7 +4622,7 @@
       <c r="E317" s="8"/>
       <c r="F317" s="8"/>
     </row>
-    <row r="318" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A318" s="6"/>
       <c r="B318" s="14"/>
       <c r="C318" s="11"/>
@@ -4562,7 +4630,7 @@
       <c r="E318" s="8"/>
       <c r="F318" s="8"/>
     </row>
-    <row r="319" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A319" s="6"/>
       <c r="B319" s="14"/>
       <c r="C319" s="11"/>
@@ -4570,7 +4638,7 @@
       <c r="E319" s="8"/>
       <c r="F319" s="8"/>
     </row>
-    <row r="320" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A320" s="6"/>
       <c r="B320" s="14"/>
       <c r="C320" s="11"/>
@@ -4578,7 +4646,7 @@
       <c r="E320" s="8"/>
       <c r="F320" s="8"/>
     </row>
-    <row r="321" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A321" s="6"/>
       <c r="B321" s="14"/>
       <c r="C321" s="11"/>
@@ -4586,7 +4654,7 @@
       <c r="E321" s="8"/>
       <c r="F321" s="8"/>
     </row>
-    <row r="322" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A322" s="6"/>
       <c r="B322" s="14"/>
       <c r="C322" s="11"/>
@@ -4594,7 +4662,7 @@
       <c r="E322" s="8"/>
       <c r="F322" s="8"/>
     </row>
-    <row r="323" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A323" s="6"/>
       <c r="B323" s="14"/>
       <c r="C323" s="11"/>
@@ -4602,7 +4670,7 @@
       <c r="E323" s="8"/>
       <c r="F323" s="8"/>
     </row>
-    <row r="324" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A324" s="6"/>
       <c r="B324" s="14"/>
       <c r="C324" s="11"/>
@@ -4610,7 +4678,7 @@
       <c r="E324" s="8"/>
       <c r="F324" s="8"/>
     </row>
-    <row r="325" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A325" s="6"/>
       <c r="B325" s="14"/>
       <c r="C325" s="11"/>
@@ -4618,7 +4686,7 @@
       <c r="E325" s="8"/>
       <c r="F325" s="8"/>
     </row>
-    <row r="326" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A326" s="6"/>
       <c r="B326" s="14"/>
       <c r="C326" s="11"/>
@@ -4626,7 +4694,7 @@
       <c r="E326" s="8"/>
       <c r="F326" s="8"/>
     </row>
-    <row r="327" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A327" s="6"/>
       <c r="B327" s="14"/>
       <c r="C327" s="11"/>
@@ -4634,7 +4702,7 @@
       <c r="E327" s="8"/>
       <c r="F327" s="8"/>
     </row>
-    <row r="328" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A328" s="6"/>
       <c r="B328" s="14"/>
       <c r="C328" s="11"/>
@@ -4642,7 +4710,7 @@
       <c r="E328" s="8"/>
       <c r="F328" s="8"/>
     </row>
-    <row r="329" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A329" s="6"/>
       <c r="B329" s="14"/>
       <c r="C329" s="11"/>
@@ -4650,7 +4718,7 @@
       <c r="E329" s="8"/>
       <c r="F329" s="8"/>
     </row>
-    <row r="330" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A330" s="6"/>
       <c r="B330" s="14"/>
       <c r="C330" s="11"/>
@@ -4658,7 +4726,7 @@
       <c r="E330" s="8"/>
       <c r="F330" s="8"/>
     </row>
-    <row r="331" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A331" s="6"/>
       <c r="B331" s="14"/>
       <c r="C331" s="11"/>
@@ -4666,7 +4734,7 @@
       <c r="E331" s="8"/>
       <c r="F331" s="8"/>
     </row>
-    <row r="332" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A332" s="6"/>
       <c r="B332" s="14"/>
       <c r="C332" s="11"/>
@@ -4674,7 +4742,7 @@
       <c r="E332" s="8"/>
       <c r="F332" s="8"/>
     </row>
-    <row r="333" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A333" s="6"/>
       <c r="B333" s="14"/>
       <c r="C333" s="11"/>
@@ -4682,7 +4750,7 @@
       <c r="E333" s="8"/>
       <c r="F333" s="8"/>
     </row>
-    <row r="334" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A334" s="6"/>
       <c r="B334" s="14"/>
       <c r="C334" s="11"/>
@@ -4690,7 +4758,7 @@
       <c r="E334" s="8"/>
       <c r="F334" s="8"/>
     </row>
-    <row r="335" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A335" s="6"/>
       <c r="B335" s="14"/>
       <c r="C335" s="11"/>
@@ -4698,7 +4766,7 @@
       <c r="E335" s="8"/>
       <c r="F335" s="8"/>
     </row>
-    <row r="336" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A336" s="6"/>
       <c r="B336" s="14"/>
       <c r="C336" s="11"/>
@@ -4706,7 +4774,7 @@
       <c r="E336" s="8"/>
       <c r="F336" s="8"/>
     </row>
-    <row r="337" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A337" s="6"/>
       <c r="B337" s="14"/>
       <c r="C337" s="11"/>
@@ -4714,7 +4782,7 @@
       <c r="E337" s="8"/>
       <c r="F337" s="8"/>
     </row>
-    <row r="338" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A338" s="6"/>
       <c r="B338" s="14"/>
       <c r="C338" s="11"/>
@@ -4722,7 +4790,7 @@
       <c r="E338" s="8"/>
       <c r="F338" s="8"/>
     </row>
-    <row r="339" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A339" s="6"/>
       <c r="B339" s="14"/>
       <c r="C339" s="11"/>
@@ -4730,7 +4798,7 @@
       <c r="E339" s="8"/>
       <c r="F339" s="8"/>
     </row>
-    <row r="340" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A340" s="6"/>
       <c r="B340" s="14"/>
       <c r="C340" s="11"/>
@@ -4738,7 +4806,7 @@
       <c r="E340" s="8"/>
       <c r="F340" s="8"/>
     </row>
-    <row r="341" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A341" s="6"/>
       <c r="B341" s="14"/>
       <c r="C341" s="11"/>
@@ -4746,7 +4814,7 @@
       <c r="E341" s="8"/>
       <c r="F341" s="8"/>
     </row>
-    <row r="342" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A342" s="6"/>
       <c r="B342" s="14"/>
       <c r="C342" s="11"/>
@@ -4754,7 +4822,7 @@
       <c r="E342" s="8"/>
       <c r="F342" s="8"/>
     </row>
-    <row r="343" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A343" s="6"/>
       <c r="B343" s="14"/>
       <c r="C343" s="11"/>
@@ -4762,7 +4830,7 @@
       <c r="E343" s="8"/>
       <c r="F343" s="8"/>
     </row>
-    <row r="344" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A344" s="6"/>
       <c r="B344" s="14"/>
       <c r="C344" s="11"/>
@@ -4770,7 +4838,7 @@
       <c r="E344" s="8"/>
       <c r="F344" s="8"/>
     </row>
-    <row r="345" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A345" s="6"/>
       <c r="B345" s="14"/>
       <c r="C345" s="11"/>
@@ -4778,7 +4846,7 @@
       <c r="E345" s="8"/>
       <c r="F345" s="8"/>
     </row>
-    <row r="346" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A346" s="6"/>
       <c r="B346" s="14"/>
       <c r="C346" s="11"/>
@@ -4786,7 +4854,7 @@
       <c r="E346" s="8"/>
       <c r="F346" s="8"/>
     </row>
-    <row r="347" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A347" s="6"/>
       <c r="B347" s="14"/>
       <c r="C347" s="11"/>
@@ -4794,7 +4862,7 @@
       <c r="E347" s="8"/>
       <c r="F347" s="8"/>
     </row>
-    <row r="348" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A348" s="6"/>
       <c r="B348" s="14"/>
       <c r="C348" s="11"/>
@@ -4802,7 +4870,7 @@
       <c r="E348" s="8"/>
       <c r="F348" s="8"/>
     </row>
-    <row r="349" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A349" s="6"/>
       <c r="B349" s="14"/>
       <c r="C349" s="11"/>
@@ -4810,7 +4878,7 @@
       <c r="E349" s="8"/>
       <c r="F349" s="8"/>
     </row>
-    <row r="350" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A350" s="6"/>
       <c r="B350" s="14"/>
       <c r="C350" s="11"/>
@@ -4818,7 +4886,7 @@
       <c r="E350" s="8"/>
       <c r="F350" s="8"/>
     </row>
-    <row r="351" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A351" s="6"/>
       <c r="B351" s="14"/>
       <c r="C351" s="11"/>
@@ -4826,7 +4894,7 @@
       <c r="E351" s="8"/>
       <c r="F351" s="8"/>
     </row>
-    <row r="352" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A352" s="6"/>
       <c r="B352" s="14"/>
       <c r="C352" s="11"/>
@@ -4834,7 +4902,7 @@
       <c r="E352" s="8"/>
       <c r="F352" s="8"/>
     </row>
-    <row r="353" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A353" s="6"/>
       <c r="B353" s="14"/>
       <c r="C353" s="11"/>
@@ -4842,7 +4910,7 @@
       <c r="E353" s="8"/>
       <c r="F353" s="8"/>
     </row>
-    <row r="354" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A354" s="6"/>
       <c r="B354" s="14"/>
       <c r="C354" s="11"/>
@@ -4850,7 +4918,7 @@
       <c r="E354" s="8"/>
       <c r="F354" s="8"/>
     </row>
-    <row r="355" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A355" s="6"/>
       <c r="B355" s="14"/>
       <c r="C355" s="11"/>
@@ -4858,7 +4926,7 @@
       <c r="E355" s="8"/>
       <c r="F355" s="8"/>
     </row>
-    <row r="356" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A356" s="6"/>
       <c r="B356" s="14"/>
       <c r="C356" s="11"/>
@@ -4866,7 +4934,7 @@
       <c r="E356" s="8"/>
       <c r="F356" s="8"/>
     </row>
-    <row r="357" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A357" s="6"/>
       <c r="B357" s="14"/>
       <c r="C357" s="11"/>
@@ -4874,7 +4942,7 @@
       <c r="E357" s="8"/>
       <c r="F357" s="8"/>
     </row>
-    <row r="358" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A358" s="6"/>
       <c r="B358" s="14"/>
       <c r="C358" s="11"/>
@@ -4882,7 +4950,7 @@
       <c r="E358" s="8"/>
       <c r="F358" s="8"/>
     </row>
-    <row r="359" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A359" s="6"/>
       <c r="B359" s="14"/>
       <c r="C359" s="11"/>
@@ -4890,7 +4958,7 @@
       <c r="E359" s="8"/>
       <c r="F359" s="8"/>
     </row>
-    <row r="360" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A360" s="6"/>
       <c r="B360" s="14"/>
       <c r="C360" s="11"/>
@@ -4898,7 +4966,7 @@
       <c r="E360" s="8"/>
       <c r="F360" s="8"/>
     </row>
-    <row r="361" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A361" s="6"/>
       <c r="B361" s="14"/>
       <c r="C361" s="11"/>
@@ -4906,7 +4974,7 @@
       <c r="E361" s="8"/>
       <c r="F361" s="8"/>
     </row>
-    <row r="362" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A362" s="6"/>
       <c r="B362" s="14"/>
       <c r="C362" s="11"/>
@@ -4914,7 +4982,7 @@
       <c r="E362" s="8"/>
       <c r="F362" s="8"/>
     </row>
-    <row r="363" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A363" s="6"/>
       <c r="B363" s="14"/>
       <c r="C363" s="11"/>
@@ -4922,7 +4990,7 @@
       <c r="E363" s="8"/>
       <c r="F363" s="8"/>
     </row>
-    <row r="364" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A364" s="6"/>
       <c r="B364" s="14"/>
       <c r="C364" s="11"/>
@@ -4930,7 +4998,7 @@
       <c r="E364" s="8"/>
       <c r="F364" s="8"/>
     </row>
-    <row r="365" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A365" s="6"/>
       <c r="B365" s="14"/>
       <c r="C365" s="11"/>
@@ -4938,7 +5006,7 @@
       <c r="E365" s="8"/>
       <c r="F365" s="8"/>
     </row>
-    <row r="366" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A366" s="6"/>
       <c r="B366" s="14"/>
       <c r="C366" s="11"/>
@@ -4946,7 +5014,7 @@
       <c r="E366" s="8"/>
       <c r="F366" s="8"/>
     </row>
-    <row r="367" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A367" s="6"/>
       <c r="B367" s="14"/>
       <c r="C367" s="11"/>
@@ -4954,7 +5022,7 @@
       <c r="E367" s="8"/>
       <c r="F367" s="8"/>
     </row>
-    <row r="368" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A368" s="6"/>
       <c r="B368" s="14"/>
       <c r="C368" s="11"/>
@@ -4962,7 +5030,7 @@
       <c r="E368" s="8"/>
       <c r="F368" s="8"/>
     </row>
-    <row r="369" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A369" s="6"/>
       <c r="B369" s="14"/>
       <c r="C369" s="11"/>
@@ -4970,7 +5038,7 @@
       <c r="E369" s="8"/>
       <c r="F369" s="8"/>
     </row>
-    <row r="370" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A370" s="6"/>
       <c r="B370" s="14"/>
       <c r="C370" s="11"/>
@@ -4978,7 +5046,7 @@
       <c r="E370" s="8"/>
       <c r="F370" s="8"/>
     </row>
-    <row r="371" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A371" s="6"/>
       <c r="B371" s="14"/>
       <c r="C371" s="11"/>
@@ -4986,7 +5054,7 @@
       <c r="E371" s="8"/>
       <c r="F371" s="8"/>
     </row>
-    <row r="372" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A372" s="6"/>
       <c r="B372" s="14"/>
       <c r="C372" s="11"/>
@@ -4994,7 +5062,7 @@
       <c r="E372" s="8"/>
       <c r="F372" s="8"/>
     </row>
-    <row r="373" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A373" s="6"/>
       <c r="B373" s="14"/>
       <c r="C373" s="11"/>
@@ -5002,7 +5070,7 @@
       <c r="E373" s="8"/>
       <c r="F373" s="8"/>
     </row>
-    <row r="374" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A374" s="6"/>
       <c r="B374" s="14"/>
       <c r="C374" s="11"/>
@@ -5010,7 +5078,7 @@
       <c r="E374" s="8"/>
       <c r="F374" s="8"/>
     </row>
-    <row r="375" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A375" s="6"/>
       <c r="B375" s="14"/>
       <c r="C375" s="11"/>
@@ -5018,7 +5086,7 @@
       <c r="E375" s="8"/>
       <c r="F375" s="8"/>
     </row>
-    <row r="376" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A376" s="6"/>
       <c r="B376" s="14"/>
       <c r="C376" s="11"/>
@@ -5026,7 +5094,7 @@
       <c r="E376" s="8"/>
       <c r="F376" s="8"/>
     </row>
-    <row r="377" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A377" s="6"/>
       <c r="B377" s="14"/>
       <c r="C377" s="11"/>
@@ -5034,7 +5102,7 @@
       <c r="E377" s="8"/>
       <c r="F377" s="8"/>
     </row>
-    <row r="378" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A378" s="6"/>
       <c r="B378" s="14"/>
       <c r="C378" s="11"/>
@@ -5042,7 +5110,7 @@
       <c r="E378" s="8"/>
       <c r="F378" s="8"/>
     </row>
-    <row r="379" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A379" s="6"/>
       <c r="B379" s="14"/>
       <c r="C379" s="11"/>
@@ -5050,7 +5118,7 @@
       <c r="E379" s="8"/>
       <c r="F379" s="8"/>
     </row>
-    <row r="380" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A380" s="6"/>
       <c r="B380" s="14"/>
       <c r="C380" s="11"/>
@@ -5058,7 +5126,7 @@
       <c r="E380" s="8"/>
       <c r="F380" s="8"/>
     </row>
-    <row r="381" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A381" s="6"/>
       <c r="B381" s="14"/>
       <c r="C381" s="11"/>
@@ -5066,7 +5134,7 @@
       <c r="E381" s="8"/>
       <c r="F381" s="8"/>
     </row>
-    <row r="382" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A382" s="6"/>
       <c r="B382" s="14"/>
       <c r="C382" s="11"/>
@@ -5074,7 +5142,7 @@
       <c r="E382" s="8"/>
       <c r="F382" s="8"/>
     </row>
-    <row r="383" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A383" s="6"/>
       <c r="B383" s="14"/>
       <c r="C383" s="11"/>
@@ -5082,7 +5150,7 @@
       <c r="E383" s="8"/>
       <c r="F383" s="8"/>
     </row>
-    <row r="384" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A384" s="6"/>
       <c r="B384" s="14"/>
       <c r="C384" s="11"/>
@@ -5090,7 +5158,7 @@
       <c r="E384" s="8"/>
       <c r="F384" s="8"/>
     </row>
-    <row r="385" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A385" s="6"/>
       <c r="B385" s="14"/>
       <c r="C385" s="11"/>
@@ -5098,7 +5166,7 @@
       <c r="E385" s="8"/>
       <c r="F385" s="8"/>
     </row>
-    <row r="386" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A386" s="6"/>
       <c r="B386" s="14"/>
       <c r="C386" s="11"/>
@@ -5106,7 +5174,7 @@
       <c r="E386" s="8"/>
       <c r="F386" s="8"/>
     </row>
-    <row r="387" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A387" s="6"/>
       <c r="B387" s="14"/>
       <c r="C387" s="11"/>
@@ -5114,7 +5182,7 @@
       <c r="E387" s="8"/>
       <c r="F387" s="8"/>
     </row>
-    <row r="388" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A388" s="6"/>
       <c r="B388" s="14"/>
       <c r="C388" s="11"/>
@@ -5122,7 +5190,7 @@
       <c r="E388" s="8"/>
       <c r="F388" s="8"/>
     </row>
-    <row r="389" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A389" s="6"/>
       <c r="B389" s="14"/>
       <c r="C389" s="11"/>
@@ -5130,7 +5198,7 @@
       <c r="E389" s="8"/>
       <c r="F389" s="8"/>
     </row>
-    <row r="390" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A390" s="6"/>
       <c r="B390" s="14"/>
       <c r="C390" s="11"/>
@@ -5138,7 +5206,7 @@
       <c r="E390" s="8"/>
       <c r="F390" s="8"/>
     </row>
-    <row r="391" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A391" s="6"/>
       <c r="B391" s="14"/>
       <c r="C391" s="11"/>
@@ -5146,7 +5214,7 @@
       <c r="E391" s="8"/>
       <c r="F391" s="8"/>
     </row>
-    <row r="392" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A392" s="6"/>
       <c r="B392" s="14"/>
       <c r="C392" s="11"/>
@@ -5154,7 +5222,7 @@
       <c r="E392" s="8"/>
       <c r="F392" s="8"/>
     </row>
-    <row r="393" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A393" s="6"/>
       <c r="B393" s="14"/>
       <c r="C393" s="11"/>
@@ -5162,7 +5230,7 @@
       <c r="E393" s="8"/>
       <c r="F393" s="8"/>
     </row>
-    <row r="394" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A394" s="6"/>
       <c r="B394" s="14"/>
       <c r="C394" s="11"/>
@@ -5170,7 +5238,7 @@
       <c r="E394" s="8"/>
       <c r="F394" s="8"/>
     </row>
-    <row r="395" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A395" s="6"/>
       <c r="B395" s="14"/>
       <c r="C395" s="11"/>
@@ -5178,7 +5246,7 @@
       <c r="E395" s="8"/>
       <c r="F395" s="8"/>
     </row>
-    <row r="396" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A396" s="6"/>
       <c r="B396" s="14"/>
       <c r="C396" s="11"/>
@@ -5186,7 +5254,7 @@
       <c r="E396" s="8"/>
       <c r="F396" s="8"/>
     </row>
-    <row r="397" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A397" s="6"/>
       <c r="B397" s="14"/>
       <c r="C397" s="11"/>
@@ -5194,7 +5262,7 @@
       <c r="E397" s="8"/>
       <c r="F397" s="8"/>
     </row>
-    <row r="398" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A398" s="6"/>
       <c r="B398" s="14"/>
       <c r="C398" s="11"/>
@@ -5202,7 +5270,7 @@
       <c r="E398" s="8"/>
       <c r="F398" s="8"/>
     </row>
-    <row r="399" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A399" s="6"/>
       <c r="B399" s="14"/>
       <c r="C399" s="11"/>
@@ -5210,7 +5278,7 @@
       <c r="E399" s="8"/>
       <c r="F399" s="8"/>
     </row>
-    <row r="400" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A400" s="6"/>
       <c r="B400" s="14"/>
       <c r="C400" s="11"/>
@@ -5218,7 +5286,7 @@
       <c r="E400" s="8"/>
       <c r="F400" s="8"/>
     </row>
-    <row r="401" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A401" s="6"/>
       <c r="B401" s="14"/>
       <c r="C401" s="11"/>
@@ -5226,7 +5294,7 @@
       <c r="E401" s="8"/>
       <c r="F401" s="8"/>
     </row>
-    <row r="402" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A402" s="6"/>
       <c r="B402" s="14"/>
       <c r="C402" s="11"/>
@@ -5234,7 +5302,7 @@
       <c r="E402" s="8"/>
       <c r="F402" s="8"/>
     </row>
-    <row r="403" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A403" s="6"/>
       <c r="B403" s="14"/>
       <c r="C403" s="11"/>
@@ -5242,7 +5310,7 @@
       <c r="E403" s="8"/>
       <c r="F403" s="8"/>
     </row>
-    <row r="404" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A404" s="6"/>
       <c r="B404" s="14"/>
       <c r="C404" s="11"/>
@@ -5250,7 +5318,7 @@
       <c r="E404" s="8"/>
       <c r="F404" s="8"/>
     </row>
-    <row r="405" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A405" s="6"/>
       <c r="B405" s="14"/>
       <c r="C405" s="11"/>
@@ -5258,7 +5326,7 @@
       <c r="E405" s="8"/>
       <c r="F405" s="8"/>
     </row>
-    <row r="406" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A406" s="6"/>
       <c r="B406" s="14"/>
       <c r="C406" s="11"/>
@@ -5266,7 +5334,7 @@
       <c r="E406" s="8"/>
       <c r="F406" s="8"/>
     </row>
-    <row r="407" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A407" s="6"/>
       <c r="B407" s="14"/>
       <c r="C407" s="11"/>
@@ -5274,7 +5342,7 @@
       <c r="E407" s="8"/>
       <c r="F407" s="8"/>
     </row>
-    <row r="408" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A408" s="6"/>
       <c r="B408" s="14"/>
       <c r="C408" s="11"/>
@@ -5282,7 +5350,7 @@
       <c r="E408" s="8"/>
       <c r="F408" s="8"/>
     </row>
-    <row r="409" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A409" s="6"/>
       <c r="B409" s="14"/>
       <c r="C409" s="11"/>
@@ -5290,7 +5358,7 @@
       <c r="E409" s="8"/>
       <c r="F409" s="8"/>
     </row>
-    <row r="410" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A410" s="6"/>
       <c r="B410" s="14"/>
       <c r="C410" s="11"/>
@@ -5298,7 +5366,7 @@
       <c r="E410" s="8"/>
       <c r="F410" s="8"/>
     </row>
-    <row r="411" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A411" s="6"/>
       <c r="B411" s="14"/>
       <c r="C411" s="11"/>
@@ -5306,7 +5374,7 @@
       <c r="E411" s="8"/>
       <c r="F411" s="8"/>
     </row>
-    <row r="412" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A412" s="6"/>
       <c r="B412" s="14"/>
       <c r="C412" s="11"/>
@@ -5314,7 +5382,7 @@
       <c r="E412" s="8"/>
       <c r="F412" s="8"/>
     </row>
-    <row r="413" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A413" s="6"/>
       <c r="B413" s="14"/>
       <c r="C413" s="11"/>
@@ -5322,7 +5390,7 @@
       <c r="E413" s="8"/>
       <c r="F413" s="8"/>
     </row>
-    <row r="414" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A414" s="6"/>
       <c r="B414" s="14"/>
       <c r="C414" s="11"/>
@@ -5330,7 +5398,7 @@
       <c r="E414" s="8"/>
       <c r="F414" s="8"/>
     </row>
-    <row r="415" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A415" s="6"/>
       <c r="B415" s="14"/>
       <c r="C415" s="11"/>
@@ -5338,7 +5406,7 @@
       <c r="E415" s="8"/>
       <c r="F415" s="8"/>
     </row>
-    <row r="416" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A416" s="6"/>
       <c r="B416" s="14"/>
       <c r="C416" s="11"/>
@@ -5346,7 +5414,7 @@
       <c r="E416" s="8"/>
       <c r="F416" s="8"/>
     </row>
-    <row r="417" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A417" s="6"/>
       <c r="B417" s="14"/>
       <c r="C417" s="11"/>
@@ -5354,7 +5422,7 @@
       <c r="E417" s="8"/>
       <c r="F417" s="8"/>
     </row>
-    <row r="418" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A418" s="6"/>
       <c r="B418" s="14"/>
       <c r="C418" s="11"/>
@@ -5362,7 +5430,7 @@
       <c r="E418" s="8"/>
       <c r="F418" s="8"/>
     </row>
-    <row r="419" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A419" s="6"/>
       <c r="B419" s="14"/>
       <c r="C419" s="11"/>
@@ -5370,7 +5438,7 @@
       <c r="E419" s="8"/>
       <c r="F419" s="8"/>
     </row>
-    <row r="420" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A420" s="6"/>
       <c r="B420" s="14"/>
       <c r="C420" s="11"/>
@@ -5378,7 +5446,7 @@
       <c r="E420" s="8"/>
       <c r="F420" s="8"/>
     </row>
-    <row r="421" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A421" s="6"/>
       <c r="B421" s="14"/>
       <c r="C421" s="11"/>
@@ -5386,7 +5454,7 @@
       <c r="E421" s="8"/>
       <c r="F421" s="8"/>
     </row>
-    <row r="422" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A422" s="6"/>
       <c r="B422" s="14"/>
       <c r="C422" s="11"/>
@@ -5394,7 +5462,7 @@
       <c r="E422" s="8"/>
       <c r="F422" s="8"/>
     </row>
-    <row r="423" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A423" s="6"/>
       <c r="B423" s="14"/>
       <c r="C423" s="11"/>
@@ -5402,7 +5470,7 @@
       <c r="E423" s="8"/>
       <c r="F423" s="8"/>
     </row>
-    <row r="424" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A424" s="6"/>
       <c r="B424" s="14"/>
       <c r="C424" s="11"/>
@@ -5410,7 +5478,7 @@
       <c r="E424" s="8"/>
       <c r="F424" s="8"/>
     </row>
-    <row r="425" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A425" s="6"/>
       <c r="B425" s="14"/>
       <c r="C425" s="11"/>
@@ -5418,7 +5486,7 @@
       <c r="E425" s="8"/>
       <c r="F425" s="8"/>
     </row>
-    <row r="426" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A426" s="6"/>
       <c r="B426" s="14"/>
       <c r="C426" s="11"/>
@@ -5426,7 +5494,7 @@
       <c r="E426" s="8"/>
       <c r="F426" s="8"/>
     </row>
-    <row r="427" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A427" s="6"/>
       <c r="B427" s="14"/>
       <c r="C427" s="11"/>
@@ -5434,7 +5502,7 @@
       <c r="E427" s="8"/>
       <c r="F427" s="8"/>
     </row>
-    <row r="428" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A428" s="6"/>
       <c r="B428" s="14"/>
       <c r="C428" s="11"/>
@@ -5442,7 +5510,7 @@
       <c r="E428" s="8"/>
       <c r="F428" s="8"/>
     </row>
-    <row r="429" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A429" s="6"/>
       <c r="B429" s="14"/>
       <c r="C429" s="11"/>
@@ -5450,7 +5518,7 @@
       <c r="E429" s="8"/>
       <c r="F429" s="8"/>
     </row>
-    <row r="430" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A430" s="6"/>
       <c r="B430" s="14"/>
       <c r="C430" s="11"/>
@@ -5458,7 +5526,7 @@
       <c r="E430" s="8"/>
       <c r="F430" s="8"/>
     </row>
-    <row r="431" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A431" s="6"/>
       <c r="B431" s="14"/>
       <c r="C431" s="11"/>
@@ -5466,7 +5534,7 @@
       <c r="E431" s="8"/>
       <c r="F431" s="8"/>
     </row>
-    <row r="432" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A432" s="6"/>
       <c r="B432" s="14"/>
       <c r="C432" s="11"/>
@@ -5474,7 +5542,7 @@
       <c r="E432" s="8"/>
       <c r="F432" s="8"/>
     </row>
-    <row r="433" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A433" s="6"/>
       <c r="B433" s="14"/>
       <c r="C433" s="11"/>
@@ -5482,7 +5550,7 @@
       <c r="E433" s="8"/>
       <c r="F433" s="8"/>
     </row>
-    <row r="434" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A434" s="6"/>
       <c r="B434" s="14"/>
       <c r="C434" s="11"/>
@@ -5490,7 +5558,7 @@
       <c r="E434" s="8"/>
       <c r="F434" s="8"/>
     </row>
-    <row r="435" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A435" s="6"/>
       <c r="B435" s="14"/>
       <c r="C435" s="11"/>
@@ -5498,7 +5566,7 @@
       <c r="E435" s="8"/>
       <c r="F435" s="8"/>
     </row>
-    <row r="436" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A436" s="6"/>
       <c r="B436" s="14"/>
       <c r="C436" s="11"/>
@@ -5506,7 +5574,7 @@
       <c r="E436" s="8"/>
       <c r="F436" s="8"/>
     </row>
-    <row r="437" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A437" s="6"/>
       <c r="B437" s="14"/>
       <c r="C437" s="11"/>
@@ -5514,7 +5582,7 @@
       <c r="E437" s="8"/>
       <c r="F437" s="8"/>
     </row>
-    <row r="438" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A438" s="6"/>
       <c r="B438" s="14"/>
       <c r="C438" s="11"/>
@@ -5522,7 +5590,7 @@
       <c r="E438" s="8"/>
       <c r="F438" s="8"/>
     </row>
-    <row r="439" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A439" s="6"/>
       <c r="B439" s="14"/>
       <c r="C439" s="11"/>
@@ -5530,7 +5598,7 @@
       <c r="E439" s="8"/>
       <c r="F439" s="8"/>
     </row>
-    <row r="440" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A440" s="6"/>
       <c r="B440" s="14"/>
       <c r="C440" s="11"/>
@@ -5538,7 +5606,7 @@
       <c r="E440" s="8"/>
       <c r="F440" s="8"/>
     </row>
-    <row r="441" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A441" s="6"/>
       <c r="B441" s="14"/>
       <c r="C441" s="11"/>
@@ -5546,7 +5614,7 @@
       <c r="E441" s="8"/>
       <c r="F441" s="8"/>
     </row>
-    <row r="442" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A442" s="6"/>
       <c r="B442" s="14"/>
       <c r="C442" s="11"/>
@@ -5554,7 +5622,7 @@
       <c r="E442" s="8"/>
       <c r="F442" s="8"/>
     </row>
-    <row r="443" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A443" s="6"/>
       <c r="B443" s="14"/>
       <c r="C443" s="11"/>
@@ -5562,7 +5630,7 @@
       <c r="E443" s="8"/>
       <c r="F443" s="8"/>
     </row>
-    <row r="444" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A444" s="6"/>
       <c r="B444" s="14"/>
       <c r="C444" s="11"/>
@@ -5570,7 +5638,7 @@
       <c r="E444" s="8"/>
       <c r="F444" s="8"/>
     </row>
-    <row r="445" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A445" s="6"/>
       <c r="B445" s="14"/>
       <c r="C445" s="11"/>
@@ -5578,7 +5646,7 @@
       <c r="E445" s="8"/>
       <c r="F445" s="8"/>
     </row>
-    <row r="446" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A446" s="6"/>
       <c r="B446" s="14"/>
       <c r="C446" s="11"/>
@@ -5586,7 +5654,7 @@
       <c r="E446" s="8"/>
       <c r="F446" s="8"/>
     </row>
-    <row r="447" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A447" s="6"/>
       <c r="B447" s="14"/>
       <c r="C447" s="11"/>
@@ -5594,7 +5662,7 @@
       <c r="E447" s="8"/>
       <c r="F447" s="8"/>
     </row>
-    <row r="448" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A448" s="6"/>
       <c r="B448" s="14"/>
       <c r="C448" s="11"/>
@@ -5602,7 +5670,7 @@
       <c r="E448" s="8"/>
       <c r="F448" s="8"/>
     </row>
-    <row r="449" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A449" s="6"/>
       <c r="B449" s="14"/>
       <c r="C449" s="11"/>
@@ -5610,7 +5678,7 @@
       <c r="E449" s="8"/>
       <c r="F449" s="8"/>
     </row>
-    <row r="450" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A450" s="6"/>
       <c r="B450" s="14"/>
       <c r="C450" s="11"/>
@@ -5618,7 +5686,7 @@
       <c r="E450" s="8"/>
       <c r="F450" s="8"/>
     </row>
-    <row r="451" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A451" s="6"/>
       <c r="B451" s="14"/>
       <c r="C451" s="11"/>
@@ -5626,7 +5694,7 @@
       <c r="E451" s="8"/>
       <c r="F451" s="8"/>
     </row>
-    <row r="452" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A452" s="6"/>
       <c r="B452" s="14"/>
       <c r="C452" s="11"/>
@@ -5634,7 +5702,7 @@
       <c r="E452" s="8"/>
       <c r="F452" s="8"/>
     </row>
-    <row r="453" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A453" s="6"/>
       <c r="B453" s="14"/>
       <c r="C453" s="11"/>
@@ -5642,7 +5710,7 @@
       <c r="E453" s="8"/>
       <c r="F453" s="8"/>
     </row>
-    <row r="454" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A454" s="6"/>
       <c r="B454" s="14"/>
       <c r="C454" s="11"/>
@@ -5650,7 +5718,7 @@
       <c r="E454" s="8"/>
       <c r="F454" s="8"/>
     </row>
-    <row r="455" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A455" s="6"/>
       <c r="B455" s="14"/>
       <c r="C455" s="11"/>
@@ -5658,7 +5726,7 @@
       <c r="E455" s="8"/>
       <c r="F455" s="8"/>
     </row>
-    <row r="456" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A456" s="6"/>
       <c r="B456" s="14"/>
       <c r="C456" s="11"/>
@@ -5666,7 +5734,7 @@
       <c r="E456" s="8"/>
       <c r="F456" s="8"/>
     </row>
-    <row r="457" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A457" s="6"/>
       <c r="B457" s="14"/>
       <c r="C457" s="11"/>
@@ -5674,7 +5742,7 @@
       <c r="E457" s="8"/>
       <c r="F457" s="8"/>
     </row>
-    <row r="458" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A458" s="6"/>
       <c r="B458" s="14"/>
       <c r="C458" s="11"/>
@@ -5682,7 +5750,7 @@
       <c r="E458" s="8"/>
       <c r="F458" s="8"/>
     </row>
-    <row r="459" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A459" s="6"/>
       <c r="B459" s="14"/>
       <c r="C459" s="11"/>
@@ -5690,7 +5758,7 @@
       <c r="E459" s="8"/>
       <c r="F459" s="8"/>
     </row>
-    <row r="460" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A460" s="6"/>
       <c r="B460" s="14"/>
       <c r="C460" s="11"/>
@@ -5698,7 +5766,7 @@
       <c r="E460" s="8"/>
       <c r="F460" s="8"/>
     </row>
-    <row r="461" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A461" s="6"/>
       <c r="B461" s="14"/>
       <c r="C461" s="11"/>
@@ -5706,7 +5774,7 @@
       <c r="E461" s="8"/>
       <c r="F461" s="8"/>
     </row>
-    <row r="462" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A462" s="6"/>
       <c r="B462" s="14"/>
       <c r="C462" s="11"/>
@@ -5714,7 +5782,7 @@
       <c r="E462" s="8"/>
       <c r="F462" s="8"/>
     </row>
-    <row r="463" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A463" s="6"/>
       <c r="B463" s="14"/>
       <c r="C463" s="11"/>
@@ -5722,7 +5790,7 @@
       <c r="E463" s="8"/>
       <c r="F463" s="8"/>
     </row>
-    <row r="464" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A464" s="6"/>
       <c r="B464" s="14"/>
       <c r="C464" s="11"/>
@@ -5730,7 +5798,7 @@
       <c r="E464" s="8"/>
       <c r="F464" s="8"/>
     </row>
-    <row r="465" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A465" s="6"/>
       <c r="B465" s="14"/>
       <c r="C465" s="11"/>
@@ -5738,7 +5806,7 @@
       <c r="E465" s="8"/>
       <c r="F465" s="8"/>
     </row>
-    <row r="466" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A466" s="6"/>
       <c r="B466" s="14"/>
       <c r="C466" s="11"/>
@@ -5746,7 +5814,7 @@
       <c r="E466" s="8"/>
       <c r="F466" s="8"/>
     </row>
-    <row r="467" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A467" s="6"/>
       <c r="B467" s="14"/>
       <c r="C467" s="11"/>
@@ -5754,7 +5822,7 @@
       <c r="E467" s="8"/>
       <c r="F467" s="8"/>
     </row>
-    <row r="468" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A468" s="6"/>
       <c r="B468" s="14"/>
       <c r="C468" s="11"/>
@@ -5762,7 +5830,7 @@
       <c r="E468" s="8"/>
       <c r="F468" s="8"/>
     </row>
-    <row r="469" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A469" s="6"/>
       <c r="B469" s="14"/>
       <c r="C469" s="11"/>
@@ -5770,7 +5838,7 @@
       <c r="E469" s="8"/>
       <c r="F469" s="8"/>
     </row>
-    <row r="470" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A470" s="6"/>
       <c r="B470" s="14"/>
       <c r="C470" s="11"/>
@@ -5778,7 +5846,7 @@
       <c r="E470" s="8"/>
       <c r="F470" s="8"/>
     </row>
-    <row r="471" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A471" s="6"/>
       <c r="B471" s="14"/>
       <c r="C471" s="11"/>
@@ -5786,7 +5854,7 @@
       <c r="E471" s="8"/>
       <c r="F471" s="8"/>
     </row>
-    <row r="472" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A472" s="6"/>
       <c r="B472" s="14"/>
       <c r="C472" s="11"/>
@@ -5794,7 +5862,7 @@
       <c r="E472" s="8"/>
       <c r="F472" s="8"/>
     </row>
-    <row r="473" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A473" s="6"/>
       <c r="B473" s="14"/>
       <c r="C473" s="11"/>
@@ -5802,7 +5870,7 @@
       <c r="E473" s="8"/>
       <c r="F473" s="8"/>
     </row>
-    <row r="474" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A474" s="6"/>
       <c r="B474" s="14"/>
       <c r="C474" s="11"/>
@@ -5810,7 +5878,7 @@
       <c r="E474" s="8"/>
       <c r="F474" s="8"/>
     </row>
-    <row r="475" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A475" s="6"/>
       <c r="B475" s="14"/>
       <c r="C475" s="11"/>
@@ -5818,7 +5886,7 @@
       <c r="E475" s="8"/>
       <c r="F475" s="8"/>
     </row>
-    <row r="476" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A476" s="6"/>
       <c r="B476" s="14"/>
       <c r="C476" s="11"/>
@@ -5826,7 +5894,7 @@
       <c r="E476" s="8"/>
       <c r="F476" s="8"/>
     </row>
-    <row r="477" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A477" s="6"/>
       <c r="B477" s="14"/>
       <c r="C477" s="11"/>
@@ -5834,7 +5902,7 @@
       <c r="E477" s="8"/>
       <c r="F477" s="8"/>
     </row>
-    <row r="478" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A478" s="6"/>
       <c r="B478" s="14"/>
       <c r="C478" s="11"/>
@@ -5842,7 +5910,7 @@
       <c r="E478" s="8"/>
       <c r="F478" s="8"/>
     </row>
-    <row r="479" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A479" s="6"/>
       <c r="B479" s="14"/>
       <c r="C479" s="11"/>
@@ -5850,7 +5918,7 @@
       <c r="E479" s="8"/>
       <c r="F479" s="8"/>
     </row>
-    <row r="480" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A480" s="6"/>
       <c r="B480" s="14"/>
       <c r="C480" s="11"/>
@@ -5858,7 +5926,7 @@
       <c r="E480" s="8"/>
       <c r="F480" s="8"/>
     </row>
-    <row r="481" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A481" s="6"/>
       <c r="B481" s="14"/>
       <c r="C481" s="11"/>
@@ -5866,7 +5934,7 @@
       <c r="E481" s="8"/>
       <c r="F481" s="8"/>
     </row>
-    <row r="482" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A482" s="6"/>
       <c r="B482" s="14"/>
       <c r="C482" s="11"/>
@@ -5874,7 +5942,7 @@
       <c r="E482" s="8"/>
       <c r="F482" s="8"/>
     </row>
-    <row r="483" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A483" s="6"/>
       <c r="B483" s="14"/>
       <c r="C483" s="11"/>
@@ -5882,7 +5950,7 @@
       <c r="E483" s="8"/>
       <c r="F483" s="8"/>
     </row>
-    <row r="484" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A484" s="6"/>
       <c r="B484" s="14"/>
       <c r="C484" s="11"/>
@@ -5890,7 +5958,7 @@
       <c r="E484" s="8"/>
       <c r="F484" s="8"/>
     </row>
-    <row r="485" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A485" s="6"/>
       <c r="B485" s="14"/>
       <c r="C485" s="11"/>
@@ -5898,7 +5966,7 @@
       <c r="E485" s="8"/>
       <c r="F485" s="8"/>
     </row>
-    <row r="486" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A486" s="6"/>
       <c r="B486" s="14"/>
       <c r="C486" s="11"/>
@@ -5906,7 +5974,7 @@
       <c r="E486" s="8"/>
       <c r="F486" s="8"/>
     </row>
-    <row r="487" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A487" s="6"/>
       <c r="B487" s="14"/>
       <c r="C487" s="11"/>
@@ -5914,7 +5982,7 @@
       <c r="E487" s="8"/>
       <c r="F487" s="8"/>
     </row>
-    <row r="488" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A488" s="6"/>
       <c r="B488" s="14"/>
       <c r="C488" s="11"/>
@@ -5922,7 +5990,7 @@
       <c r="E488" s="8"/>
       <c r="F488" s="8"/>
     </row>
-    <row r="489" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A489" s="6"/>
       <c r="B489" s="14"/>
       <c r="C489" s="11"/>
@@ -5930,7 +5998,7 @@
       <c r="E489" s="8"/>
       <c r="F489" s="8"/>
     </row>
-    <row r="490" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A490" s="6"/>
       <c r="B490" s="14"/>
       <c r="C490" s="11"/>
@@ -5938,7 +6006,7 @@
       <c r="E490" s="8"/>
       <c r="F490" s="8"/>
     </row>
-    <row r="491" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A491" s="6"/>
       <c r="B491" s="14"/>
       <c r="C491" s="11"/>
@@ -5946,7 +6014,7 @@
       <c r="E491" s="8"/>
       <c r="F491" s="8"/>
     </row>
-    <row r="492" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A492" s="6"/>
       <c r="B492" s="14"/>
       <c r="C492" s="11"/>
@@ -5954,7 +6022,7 @@
       <c r="E492" s="8"/>
       <c r="F492" s="8"/>
     </row>
-    <row r="493" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A493" s="6"/>
       <c r="B493" s="14"/>
       <c r="C493" s="11"/>
@@ -5962,7 +6030,7 @@
       <c r="E493" s="8"/>
       <c r="F493" s="8"/>
     </row>
-    <row r="494" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A494" s="6"/>
       <c r="B494" s="14"/>
       <c r="C494" s="11"/>
@@ -5970,7 +6038,7 @@
       <c r="E494" s="8"/>
       <c r="F494" s="8"/>
     </row>
-    <row r="495" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A495" s="6"/>
       <c r="B495" s="14"/>
       <c r="C495" s="11"/>
@@ -5978,7 +6046,7 @@
       <c r="E495" s="8"/>
       <c r="F495" s="8"/>
     </row>
-    <row r="496" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A496" s="6"/>
       <c r="B496" s="14"/>
       <c r="C496" s="11"/>
@@ -5986,7 +6054,7 @@
       <c r="E496" s="8"/>
       <c r="F496" s="8"/>
     </row>
-    <row r="497" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A497" s="6"/>
       <c r="B497" s="14"/>
       <c r="C497" s="11"/>
@@ -5994,7 +6062,7 @@
       <c r="E497" s="8"/>
       <c r="F497" s="8"/>
     </row>
-    <row r="498" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A498" s="6"/>
       <c r="B498" s="14"/>
       <c r="C498" s="11"/>
@@ -6002,7 +6070,7 @@
       <c r="E498" s="8"/>
       <c r="F498" s="8"/>
     </row>
-    <row r="499" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A499" s="6"/>
       <c r="B499" s="14"/>
       <c r="C499" s="11"/>
@@ -6010,7 +6078,7 @@
       <c r="E499" s="8"/>
       <c r="F499" s="8"/>
     </row>
-    <row r="500" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A500" s="6"/>
       <c r="B500" s="14"/>
       <c r="C500" s="11"/>
@@ -6019,7 +6087,7 @@
       <c r="F500" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B300" xr:uid="{E1FCDE41-ACF1-4A68-9483-C062BB428146}">
       <formula1>1</formula1>
@@ -6062,10 +6130,10 @@
       <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.83203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.19921875" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -6076,7 +6144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="16" t="s">
         <v>7</v>
       </c>
@@ -6085,16 +6153,16 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="11">
         <f>SUMIF(Journal!$D$2:$D$160,Tableau13[[#This Row],[Type]],Journal!$C$2:$C$160)</f>
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="16" t="s">
         <v>9</v>
       </c>
@@ -6103,7 +6171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="16" t="s">
         <v>10</v>
       </c>
@@ -6112,16 +6180,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="11">
         <f>SUMIF(Journal!$D$2:$D$160,Tableau13[[#This Row],[Type]],Journal!$C$2:$C$160)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
         <v>6</v>
       </c>
@@ -6130,7 +6198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
@@ -6139,7 +6207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
         <v>13</v>
       </c>
@@ -6148,1967 +6216,1967 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" s="11"/>
     </row>
-    <row r="11" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
       <c r="B11" s="11"/>
     </row>
-    <row r="12" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
       <c r="B12" s="11"/>
     </row>
-    <row r="13" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
       <c r="B13" s="11"/>
     </row>
-    <row r="14" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
       <c r="B14" s="11"/>
     </row>
-    <row r="15" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
       <c r="B15" s="11"/>
     </row>
-    <row r="16" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
       <c r="B16" s="11"/>
     </row>
-    <row r="17" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
       <c r="B17" s="11"/>
     </row>
-    <row r="18" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
       <c r="B18" s="11"/>
     </row>
-    <row r="19" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
       <c r="B19" s="11"/>
     </row>
-    <row r="20" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
       <c r="B20" s="11"/>
     </row>
-    <row r="21" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6"/>
       <c r="B21" s="11"/>
     </row>
-    <row r="22" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
       <c r="B22" s="11"/>
     </row>
-    <row r="23" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
     </row>
-    <row r="24" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6"/>
       <c r="B24" s="11"/>
     </row>
-    <row r="25" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6"/>
       <c r="B25" s="11"/>
     </row>
-    <row r="26" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6"/>
       <c r="B26" s="11"/>
     </row>
-    <row r="27" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6"/>
       <c r="B27" s="11"/>
     </row>
-    <row r="28" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6"/>
       <c r="B28" s="11"/>
     </row>
-    <row r="29" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="6"/>
       <c r="B29" s="11"/>
     </row>
-    <row r="30" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6"/>
       <c r="B30" s="11"/>
     </row>
-    <row r="31" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="6"/>
       <c r="B31" s="11"/>
     </row>
-    <row r="32" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="6"/>
       <c r="B32" s="11"/>
     </row>
-    <row r="33" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="6"/>
       <c r="B33" s="11"/>
     </row>
-    <row r="34" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6"/>
       <c r="B34" s="11"/>
     </row>
-    <row r="35" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="6"/>
       <c r="B35" s="11"/>
     </row>
-    <row r="36" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="6"/>
       <c r="B36" s="11"/>
     </row>
-    <row r="37" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="6"/>
       <c r="B37" s="11"/>
     </row>
-    <row r="38" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6"/>
       <c r="B38" s="11"/>
     </row>
-    <row r="39" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="6"/>
       <c r="B39" s="11"/>
     </row>
-    <row r="40" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="6"/>
       <c r="B40" s="11"/>
     </row>
-    <row r="41" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6"/>
       <c r="B41" s="11"/>
     </row>
-    <row r="42" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="6"/>
       <c r="B42" s="11"/>
     </row>
-    <row r="43" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="6"/>
       <c r="B43" s="11"/>
     </row>
-    <row r="44" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="6"/>
       <c r="B44" s="11"/>
     </row>
-    <row r="45" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="6"/>
       <c r="B45" s="11"/>
     </row>
-    <row r="46" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="6"/>
       <c r="B46" s="11"/>
     </row>
-    <row r="47" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="6"/>
       <c r="B47" s="11"/>
     </row>
-    <row r="48" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6"/>
       <c r="B48" s="11"/>
     </row>
-    <row r="49" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6"/>
       <c r="B49" s="11"/>
     </row>
-    <row r="50" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6"/>
       <c r="B50" s="11"/>
     </row>
-    <row r="51" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="6"/>
       <c r="B51" s="11"/>
     </row>
-    <row r="52" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="6"/>
       <c r="B52" s="11"/>
     </row>
-    <row r="53" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="6"/>
       <c r="B53" s="11"/>
     </row>
-    <row r="54" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="6"/>
       <c r="B54" s="11"/>
     </row>
-    <row r="55" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="6"/>
       <c r="B55" s="11"/>
     </row>
-    <row r="56" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6"/>
       <c r="B56" s="11"/>
     </row>
-    <row r="57" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6"/>
       <c r="B57" s="11"/>
     </row>
-    <row r="58" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6"/>
       <c r="B58" s="11"/>
     </row>
-    <row r="59" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="6"/>
       <c r="B59" s="11"/>
     </row>
-    <row r="60" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="6"/>
       <c r="B60" s="11"/>
     </row>
-    <row r="61" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="6"/>
       <c r="B61" s="11"/>
     </row>
-    <row r="62" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="6"/>
       <c r="B62" s="11"/>
     </row>
-    <row r="63" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="6"/>
       <c r="B63" s="11"/>
     </row>
-    <row r="64" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="6"/>
       <c r="B64" s="11"/>
     </row>
-    <row r="65" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="6"/>
       <c r="B65" s="11"/>
     </row>
-    <row r="66" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="6"/>
       <c r="B66" s="11"/>
     </row>
-    <row r="67" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="6"/>
       <c r="B67" s="11"/>
     </row>
-    <row r="68" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="6"/>
       <c r="B68" s="11"/>
     </row>
-    <row r="69" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="6"/>
       <c r="B69" s="11"/>
     </row>
-    <row r="70" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="6"/>
       <c r="B70" s="11"/>
     </row>
-    <row r="71" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="6"/>
       <c r="B71" s="11"/>
     </row>
-    <row r="72" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="6"/>
       <c r="B72" s="11"/>
     </row>
-    <row r="73" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="6"/>
       <c r="B73" s="11"/>
     </row>
-    <row r="74" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="6"/>
       <c r="B74" s="11"/>
     </row>
-    <row r="75" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="6"/>
       <c r="B75" s="11"/>
     </row>
-    <row r="76" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="6"/>
       <c r="B76" s="11"/>
     </row>
-    <row r="77" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="6"/>
       <c r="B77" s="11"/>
     </row>
-    <row r="78" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="6"/>
       <c r="B78" s="11"/>
     </row>
-    <row r="79" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="6"/>
       <c r="B79" s="11"/>
     </row>
-    <row r="80" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6"/>
       <c r="B80" s="11"/>
     </row>
-    <row r="81" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6"/>
       <c r="B81" s="11"/>
     </row>
-    <row r="82" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6"/>
       <c r="B82" s="11"/>
     </row>
-    <row r="83" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="6"/>
       <c r="B83" s="11"/>
     </row>
-    <row r="84" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="6"/>
       <c r="B84" s="11"/>
     </row>
-    <row r="85" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="6"/>
       <c r="B85" s="11"/>
     </row>
-    <row r="86" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="6"/>
       <c r="B86" s="11"/>
     </row>
-    <row r="87" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="6"/>
       <c r="B87" s="11"/>
     </row>
-    <row r="88" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6"/>
       <c r="B88" s="11"/>
     </row>
-    <row r="89" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6"/>
       <c r="B89" s="11"/>
     </row>
-    <row r="90" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6"/>
       <c r="B90" s="11"/>
     </row>
-    <row r="91" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="6"/>
       <c r="B91" s="11"/>
     </row>
-    <row r="92" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="6"/>
       <c r="B92" s="11"/>
     </row>
-    <row r="93" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="6"/>
       <c r="B93" s="11"/>
     </row>
-    <row r="94" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="6"/>
       <c r="B94" s="11"/>
     </row>
-    <row r="95" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="6"/>
       <c r="B95" s="11"/>
     </row>
-    <row r="96" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="6"/>
       <c r="B96" s="11"/>
     </row>
-    <row r="97" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="6"/>
       <c r="B97" s="11"/>
     </row>
-    <row r="98" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="6"/>
       <c r="B98" s="11"/>
     </row>
-    <row r="99" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="6"/>
       <c r="B99" s="11"/>
     </row>
-    <row r="100" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="6"/>
       <c r="B100" s="11"/>
     </row>
-    <row r="101" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="6"/>
       <c r="B101" s="11"/>
     </row>
-    <row r="102" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="6"/>
       <c r="B102" s="11"/>
     </row>
-    <row r="103" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="6"/>
       <c r="B103" s="11"/>
     </row>
-    <row r="104" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="6"/>
       <c r="B104" s="11"/>
     </row>
-    <row r="105" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="6"/>
       <c r="B105" s="11"/>
     </row>
-    <row r="106" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="6"/>
       <c r="B106" s="11"/>
     </row>
-    <row r="107" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="6"/>
       <c r="B107" s="11"/>
     </row>
-    <row r="108" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="6"/>
       <c r="B108" s="11"/>
     </row>
-    <row r="109" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="6"/>
       <c r="B109" s="11"/>
     </row>
-    <row r="110" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="6"/>
       <c r="B110" s="11"/>
     </row>
-    <row r="111" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="6"/>
       <c r="B111" s="11"/>
     </row>
-    <row r="112" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="6"/>
       <c r="B112" s="11"/>
     </row>
-    <row r="113" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="6"/>
       <c r="B113" s="11"/>
     </row>
-    <row r="114" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="6"/>
       <c r="B114" s="11"/>
     </row>
-    <row r="115" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="6"/>
       <c r="B115" s="11"/>
     </row>
-    <row r="116" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="6"/>
       <c r="B116" s="11"/>
     </row>
-    <row r="117" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="6"/>
       <c r="B117" s="11"/>
     </row>
-    <row r="118" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="6"/>
       <c r="B118" s="11"/>
     </row>
-    <row r="119" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="6"/>
       <c r="B119" s="11"/>
     </row>
-    <row r="120" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="6"/>
       <c r="B120" s="11"/>
     </row>
-    <row r="121" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="6"/>
       <c r="B121" s="11"/>
     </row>
-    <row r="122" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="6"/>
       <c r="B122" s="11"/>
     </row>
-    <row r="123" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="6"/>
       <c r="B123" s="11"/>
     </row>
-    <row r="124" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="6"/>
       <c r="B124" s="11"/>
     </row>
-    <row r="125" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="6"/>
       <c r="B125" s="11"/>
     </row>
-    <row r="126" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="6"/>
       <c r="B126" s="11"/>
     </row>
-    <row r="127" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="6"/>
       <c r="B127" s="11"/>
     </row>
-    <row r="128" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="6"/>
       <c r="B128" s="11"/>
     </row>
-    <row r="129" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="6"/>
       <c r="B129" s="11"/>
     </row>
-    <row r="130" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="6"/>
       <c r="B130" s="11"/>
     </row>
-    <row r="131" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="6"/>
       <c r="B131" s="11"/>
     </row>
-    <row r="132" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="6"/>
       <c r="B132" s="11"/>
     </row>
-    <row r="133" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="6"/>
       <c r="B133" s="11"/>
     </row>
-    <row r="134" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="6"/>
       <c r="B134" s="11"/>
     </row>
-    <row r="135" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="6"/>
       <c r="B135" s="11"/>
     </row>
-    <row r="136" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="6"/>
       <c r="B136" s="11"/>
     </row>
-    <row r="137" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="6"/>
       <c r="B137" s="11"/>
     </row>
-    <row r="138" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="6"/>
       <c r="B138" s="11"/>
     </row>
-    <row r="139" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="6"/>
       <c r="B139" s="11"/>
     </row>
-    <row r="140" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="6"/>
       <c r="B140" s="11"/>
     </row>
-    <row r="141" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="6"/>
       <c r="B141" s="11"/>
     </row>
-    <row r="142" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="6"/>
       <c r="B142" s="11"/>
     </row>
-    <row r="143" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="6"/>
       <c r="B143" s="11"/>
     </row>
-    <row r="144" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="6"/>
       <c r="B144" s="11"/>
     </row>
-    <row r="145" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="6"/>
       <c r="B145" s="11"/>
     </row>
-    <row r="146" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="6"/>
       <c r="B146" s="11"/>
     </row>
-    <row r="147" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="6"/>
       <c r="B147" s="11"/>
     </row>
-    <row r="148" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="6"/>
       <c r="B148" s="11"/>
     </row>
-    <row r="149" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="6"/>
       <c r="B149" s="11"/>
     </row>
-    <row r="150" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="6"/>
       <c r="B150" s="11"/>
     </row>
-    <row r="151" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="6"/>
       <c r="B151" s="11"/>
     </row>
-    <row r="152" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="6"/>
       <c r="B152" s="11"/>
     </row>
-    <row r="153" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="6"/>
       <c r="B153" s="11"/>
     </row>
-    <row r="154" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="6"/>
       <c r="B154" s="11"/>
     </row>
-    <row r="155" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="6"/>
       <c r="B155" s="11"/>
     </row>
-    <row r="156" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="6"/>
       <c r="B156" s="11"/>
     </row>
-    <row r="157" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="6"/>
       <c r="B157" s="11"/>
     </row>
-    <row r="158" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="6"/>
       <c r="B158" s="11"/>
     </row>
-    <row r="159" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="6"/>
       <c r="B159" s="11"/>
     </row>
-    <row r="160" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="6"/>
       <c r="B160" s="11"/>
     </row>
-    <row r="161" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="6"/>
       <c r="B161" s="11"/>
     </row>
-    <row r="162" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="6"/>
       <c r="B162" s="11"/>
     </row>
-    <row r="163" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="6"/>
       <c r="B163" s="11"/>
     </row>
-    <row r="164" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="6"/>
       <c r="B164" s="11"/>
     </row>
-    <row r="165" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="6"/>
       <c r="B165" s="11"/>
     </row>
-    <row r="166" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="6"/>
       <c r="B166" s="11"/>
     </row>
-    <row r="167" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="6"/>
       <c r="B167" s="11"/>
     </row>
-    <row r="168" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="6"/>
       <c r="B168" s="11"/>
     </row>
-    <row r="169" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="6"/>
       <c r="B169" s="11"/>
     </row>
-    <row r="170" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="6"/>
       <c r="B170" s="11"/>
     </row>
-    <row r="171" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="6"/>
       <c r="B171" s="11"/>
     </row>
-    <row r="172" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="6"/>
       <c r="B172" s="11"/>
     </row>
-    <row r="173" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="6"/>
       <c r="B173" s="11"/>
     </row>
-    <row r="174" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="6"/>
       <c r="B174" s="11"/>
     </row>
-    <row r="175" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="6"/>
       <c r="B175" s="11"/>
     </row>
-    <row r="176" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="6"/>
       <c r="B176" s="11"/>
     </row>
-    <row r="177" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="6"/>
       <c r="B177" s="11"/>
     </row>
-    <row r="178" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="6"/>
       <c r="B178" s="11"/>
     </row>
-    <row r="179" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="6"/>
       <c r="B179" s="11"/>
     </row>
-    <row r="180" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="6"/>
       <c r="B180" s="11"/>
     </row>
-    <row r="181" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="6"/>
       <c r="B181" s="11"/>
     </row>
-    <row r="182" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="6"/>
       <c r="B182" s="11"/>
     </row>
-    <row r="183" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="6"/>
       <c r="B183" s="11"/>
     </row>
-    <row r="184" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="6"/>
       <c r="B184" s="11"/>
     </row>
-    <row r="185" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="6"/>
       <c r="B185" s="11"/>
     </row>
-    <row r="186" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="6"/>
       <c r="B186" s="11"/>
     </row>
-    <row r="187" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="6"/>
       <c r="B187" s="11"/>
     </row>
-    <row r="188" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="6"/>
       <c r="B188" s="11"/>
     </row>
-    <row r="189" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="6"/>
       <c r="B189" s="11"/>
     </row>
-    <row r="190" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="6"/>
       <c r="B190" s="11"/>
     </row>
-    <row r="191" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="6"/>
       <c r="B191" s="11"/>
     </row>
-    <row r="192" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="6"/>
       <c r="B192" s="11"/>
     </row>
-    <row r="193" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="6"/>
       <c r="B193" s="11"/>
     </row>
-    <row r="194" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="6"/>
       <c r="B194" s="11"/>
     </row>
-    <row r="195" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="6"/>
       <c r="B195" s="11"/>
     </row>
-    <row r="196" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="6"/>
       <c r="B196" s="11"/>
     </row>
-    <row r="197" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="6"/>
       <c r="B197" s="11"/>
     </row>
-    <row r="198" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="6"/>
       <c r="B198" s="11"/>
     </row>
-    <row r="199" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="6"/>
       <c r="B199" s="11"/>
     </row>
-    <row r="200" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="6"/>
       <c r="B200" s="11"/>
     </row>
-    <row r="201" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="6"/>
       <c r="B201" s="11"/>
     </row>
-    <row r="202" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="6"/>
       <c r="B202" s="11"/>
     </row>
-    <row r="203" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="6"/>
       <c r="B203" s="11"/>
     </row>
-    <row r="204" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="6"/>
       <c r="B204" s="11"/>
     </row>
-    <row r="205" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="6"/>
       <c r="B205" s="11"/>
     </row>
-    <row r="206" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="6"/>
       <c r="B206" s="11"/>
     </row>
-    <row r="207" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="6"/>
       <c r="B207" s="11"/>
     </row>
-    <row r="208" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="6"/>
       <c r="B208" s="11"/>
     </row>
-    <row r="209" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="6"/>
       <c r="B209" s="11"/>
     </row>
-    <row r="210" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="6"/>
       <c r="B210" s="11"/>
     </row>
-    <row r="211" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="6"/>
       <c r="B211" s="11"/>
     </row>
-    <row r="212" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="6"/>
       <c r="B212" s="11"/>
     </row>
-    <row r="213" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="6"/>
       <c r="B213" s="11"/>
     </row>
-    <row r="214" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="6"/>
       <c r="B214" s="11"/>
     </row>
-    <row r="215" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="6"/>
       <c r="B215" s="11"/>
     </row>
-    <row r="216" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="6"/>
       <c r="B216" s="11"/>
     </row>
-    <row r="217" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="6"/>
       <c r="B217" s="11"/>
     </row>
-    <row r="218" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="6"/>
       <c r="B218" s="11"/>
     </row>
-    <row r="219" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="6"/>
       <c r="B219" s="11"/>
     </row>
-    <row r="220" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="6"/>
       <c r="B220" s="11"/>
     </row>
-    <row r="221" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="6"/>
       <c r="B221" s="11"/>
     </row>
-    <row r="222" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="6"/>
       <c r="B222" s="11"/>
     </row>
-    <row r="223" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="6"/>
       <c r="B223" s="11"/>
     </row>
-    <row r="224" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="6"/>
       <c r="B224" s="11"/>
     </row>
-    <row r="225" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="6"/>
       <c r="B225" s="11"/>
     </row>
-    <row r="226" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="6"/>
       <c r="B226" s="11"/>
     </row>
-    <row r="227" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="6"/>
       <c r="B227" s="11"/>
     </row>
-    <row r="228" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="6"/>
       <c r="B228" s="11"/>
     </row>
-    <row r="229" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="6"/>
       <c r="B229" s="11"/>
     </row>
-    <row r="230" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="6"/>
       <c r="B230" s="11"/>
     </row>
-    <row r="231" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="6"/>
       <c r="B231" s="11"/>
     </row>
-    <row r="232" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="6"/>
       <c r="B232" s="11"/>
     </row>
-    <row r="233" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="6"/>
       <c r="B233" s="11"/>
     </row>
-    <row r="234" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="6"/>
       <c r="B234" s="11"/>
     </row>
-    <row r="235" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="6"/>
       <c r="B235" s="11"/>
     </row>
-    <row r="236" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="6"/>
       <c r="B236" s="11"/>
     </row>
-    <row r="237" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="6"/>
       <c r="B237" s="11"/>
     </row>
-    <row r="238" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="6"/>
       <c r="B238" s="11"/>
     </row>
-    <row r="239" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="6"/>
       <c r="B239" s="11"/>
     </row>
-    <row r="240" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="6"/>
       <c r="B240" s="11"/>
     </row>
-    <row r="241" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="6"/>
       <c r="B241" s="11"/>
     </row>
-    <row r="242" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="6"/>
       <c r="B242" s="11"/>
     </row>
-    <row r="243" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="6"/>
       <c r="B243" s="11"/>
     </row>
-    <row r="244" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="6"/>
       <c r="B244" s="11"/>
     </row>
-    <row r="245" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="6"/>
       <c r="B245" s="11"/>
     </row>
-    <row r="246" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="6"/>
       <c r="B246" s="11"/>
     </row>
-    <row r="247" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="6"/>
       <c r="B247" s="11"/>
     </row>
-    <row r="248" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A248" s="6"/>
       <c r="B248" s="11"/>
     </row>
-    <row r="249" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A249" s="6"/>
       <c r="B249" s="11"/>
     </row>
-    <row r="250" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A250" s="6"/>
       <c r="B250" s="11"/>
     </row>
-    <row r="251" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A251" s="6"/>
       <c r="B251" s="11"/>
     </row>
-    <row r="252" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A252" s="6"/>
       <c r="B252" s="11"/>
     </row>
-    <row r="253" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A253" s="6"/>
       <c r="B253" s="11"/>
     </row>
-    <row r="254" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A254" s="6"/>
       <c r="B254" s="11"/>
     </row>
-    <row r="255" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A255" s="6"/>
       <c r="B255" s="11"/>
     </row>
-    <row r="256" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A256" s="6"/>
       <c r="B256" s="11"/>
     </row>
-    <row r="257" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A257" s="6"/>
       <c r="B257" s="11"/>
     </row>
-    <row r="258" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A258" s="6"/>
       <c r="B258" s="11"/>
     </row>
-    <row r="259" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A259" s="6"/>
       <c r="B259" s="11"/>
     </row>
-    <row r="260" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A260" s="6"/>
       <c r="B260" s="11"/>
     </row>
-    <row r="261" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A261" s="6"/>
       <c r="B261" s="11"/>
     </row>
-    <row r="262" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A262" s="6"/>
       <c r="B262" s="11"/>
     </row>
-    <row r="263" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A263" s="6"/>
       <c r="B263" s="11"/>
     </row>
-    <row r="264" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A264" s="6"/>
       <c r="B264" s="11"/>
     </row>
-    <row r="265" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A265" s="6"/>
       <c r="B265" s="11"/>
     </row>
-    <row r="266" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A266" s="6"/>
       <c r="B266" s="11"/>
     </row>
-    <row r="267" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A267" s="6"/>
       <c r="B267" s="11"/>
     </row>
-    <row r="268" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A268" s="6"/>
       <c r="B268" s="11"/>
     </row>
-    <row r="269" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A269" s="6"/>
       <c r="B269" s="11"/>
     </row>
-    <row r="270" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A270" s="6"/>
       <c r="B270" s="11"/>
     </row>
-    <row r="271" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A271" s="6"/>
       <c r="B271" s="11"/>
     </row>
-    <row r="272" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A272" s="6"/>
       <c r="B272" s="11"/>
     </row>
-    <row r="273" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A273" s="6"/>
       <c r="B273" s="11"/>
     </row>
-    <row r="274" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A274" s="6"/>
       <c r="B274" s="11"/>
     </row>
-    <row r="275" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A275" s="6"/>
       <c r="B275" s="11"/>
     </row>
-    <row r="276" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A276" s="6"/>
       <c r="B276" s="11"/>
     </row>
-    <row r="277" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A277" s="6"/>
       <c r="B277" s="11"/>
     </row>
-    <row r="278" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A278" s="6"/>
       <c r="B278" s="11"/>
     </row>
-    <row r="279" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A279" s="6"/>
       <c r="B279" s="11"/>
     </row>
-    <row r="280" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A280" s="6"/>
       <c r="B280" s="11"/>
     </row>
-    <row r="281" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A281" s="6"/>
       <c r="B281" s="11"/>
     </row>
-    <row r="282" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A282" s="6"/>
       <c r="B282" s="11"/>
     </row>
-    <row r="283" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A283" s="6"/>
       <c r="B283" s="11"/>
     </row>
-    <row r="284" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A284" s="6"/>
       <c r="B284" s="11"/>
     </row>
-    <row r="285" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A285" s="6"/>
       <c r="B285" s="11"/>
     </row>
-    <row r="286" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A286" s="6"/>
       <c r="B286" s="11"/>
     </row>
-    <row r="287" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A287" s="6"/>
       <c r="B287" s="11"/>
     </row>
-    <row r="288" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A288" s="6"/>
       <c r="B288" s="11"/>
     </row>
-    <row r="289" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A289" s="6"/>
       <c r="B289" s="11"/>
     </row>
-    <row r="290" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A290" s="6"/>
       <c r="B290" s="11"/>
     </row>
-    <row r="291" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A291" s="6"/>
       <c r="B291" s="11"/>
     </row>
-    <row r="292" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A292" s="6"/>
       <c r="B292" s="11"/>
     </row>
-    <row r="293" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A293" s="6"/>
       <c r="B293" s="11"/>
     </row>
-    <row r="294" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A294" s="6"/>
       <c r="B294" s="11"/>
     </row>
-    <row r="295" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A295" s="6"/>
       <c r="B295" s="11"/>
     </row>
-    <row r="296" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A296" s="6"/>
       <c r="B296" s="11"/>
     </row>
-    <row r="297" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A297" s="6"/>
       <c r="B297" s="11"/>
     </row>
-    <row r="298" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A298" s="6"/>
       <c r="B298" s="11"/>
     </row>
-    <row r="299" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A299" s="6"/>
       <c r="B299" s="11"/>
     </row>
-    <row r="300" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A300" s="6"/>
       <c r="B300" s="11"/>
     </row>
-    <row r="301" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A301" s="6"/>
       <c r="B301" s="11"/>
     </row>
-    <row r="302" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A302" s="6"/>
       <c r="B302" s="11"/>
     </row>
-    <row r="303" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A303" s="6"/>
       <c r="B303" s="11"/>
     </row>
-    <row r="304" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A304" s="6"/>
       <c r="B304" s="11"/>
     </row>
-    <row r="305" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A305" s="6"/>
       <c r="B305" s="11"/>
     </row>
-    <row r="306" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A306" s="6"/>
       <c r="B306" s="11"/>
     </row>
-    <row r="307" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A307" s="6"/>
       <c r="B307" s="11"/>
     </row>
-    <row r="308" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A308" s="6"/>
       <c r="B308" s="11"/>
     </row>
-    <row r="309" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A309" s="6"/>
       <c r="B309" s="11"/>
     </row>
-    <row r="310" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A310" s="6"/>
       <c r="B310" s="11"/>
     </row>
-    <row r="311" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A311" s="6"/>
       <c r="B311" s="11"/>
     </row>
-    <row r="312" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A312" s="6"/>
       <c r="B312" s="11"/>
     </row>
-    <row r="313" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A313" s="6"/>
       <c r="B313" s="11"/>
     </row>
-    <row r="314" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A314" s="6"/>
       <c r="B314" s="11"/>
     </row>
-    <row r="315" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A315" s="6"/>
       <c r="B315" s="11"/>
     </row>
-    <row r="316" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A316" s="6"/>
       <c r="B316" s="11"/>
     </row>
-    <row r="317" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A317" s="6"/>
       <c r="B317" s="11"/>
     </row>
-    <row r="318" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A318" s="6"/>
       <c r="B318" s="11"/>
     </row>
-    <row r="319" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A319" s="6"/>
       <c r="B319" s="11"/>
     </row>
-    <row r="320" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A320" s="6"/>
       <c r="B320" s="11"/>
     </row>
-    <row r="321" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A321" s="6"/>
       <c r="B321" s="11"/>
     </row>
-    <row r="322" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A322" s="6"/>
       <c r="B322" s="11"/>
     </row>
-    <row r="323" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A323" s="6"/>
       <c r="B323" s="11"/>
     </row>
-    <row r="324" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A324" s="6"/>
       <c r="B324" s="11"/>
     </row>
-    <row r="325" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A325" s="6"/>
       <c r="B325" s="11"/>
     </row>
-    <row r="326" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A326" s="6"/>
       <c r="B326" s="11"/>
     </row>
-    <row r="327" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A327" s="6"/>
       <c r="B327" s="11"/>
     </row>
-    <row r="328" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A328" s="6"/>
       <c r="B328" s="11"/>
     </row>
-    <row r="329" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A329" s="6"/>
       <c r="B329" s="11"/>
     </row>
-    <row r="330" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A330" s="6"/>
       <c r="B330" s="11"/>
     </row>
-    <row r="331" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A331" s="6"/>
       <c r="B331" s="11"/>
     </row>
-    <row r="332" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A332" s="6"/>
       <c r="B332" s="11"/>
     </row>
-    <row r="333" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A333" s="6"/>
       <c r="B333" s="11"/>
     </row>
-    <row r="334" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A334" s="6"/>
       <c r="B334" s="11"/>
     </row>
-    <row r="335" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A335" s="6"/>
       <c r="B335" s="11"/>
     </row>
-    <row r="336" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A336" s="6"/>
       <c r="B336" s="11"/>
     </row>
-    <row r="337" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A337" s="6"/>
       <c r="B337" s="11"/>
     </row>
-    <row r="338" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A338" s="6"/>
       <c r="B338" s="11"/>
     </row>
-    <row r="339" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A339" s="6"/>
       <c r="B339" s="11"/>
     </row>
-    <row r="340" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A340" s="6"/>
       <c r="B340" s="11"/>
     </row>
-    <row r="341" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A341" s="6"/>
       <c r="B341" s="11"/>
     </row>
-    <row r="342" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A342" s="6"/>
       <c r="B342" s="11"/>
     </row>
-    <row r="343" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A343" s="6"/>
       <c r="B343" s="11"/>
     </row>
-    <row r="344" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A344" s="6"/>
       <c r="B344" s="11"/>
     </row>
-    <row r="345" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A345" s="6"/>
       <c r="B345" s="11"/>
     </row>
-    <row r="346" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A346" s="6"/>
       <c r="B346" s="11"/>
     </row>
-    <row r="347" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A347" s="6"/>
       <c r="B347" s="11"/>
     </row>
-    <row r="348" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A348" s="6"/>
       <c r="B348" s="11"/>
     </row>
-    <row r="349" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A349" s="6"/>
       <c r="B349" s="11"/>
     </row>
-    <row r="350" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A350" s="6"/>
       <c r="B350" s="11"/>
     </row>
-    <row r="351" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A351" s="6"/>
       <c r="B351" s="11"/>
     </row>
-    <row r="352" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A352" s="6"/>
       <c r="B352" s="11"/>
     </row>
-    <row r="353" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A353" s="6"/>
       <c r="B353" s="11"/>
     </row>
-    <row r="354" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A354" s="6"/>
       <c r="B354" s="11"/>
     </row>
-    <row r="355" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A355" s="6"/>
       <c r="B355" s="11"/>
     </row>
-    <row r="356" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A356" s="6"/>
       <c r="B356" s="11"/>
     </row>
-    <row r="357" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A357" s="6"/>
       <c r="B357" s="11"/>
     </row>
-    <row r="358" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A358" s="6"/>
       <c r="B358" s="11"/>
     </row>
-    <row r="359" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A359" s="6"/>
       <c r="B359" s="11"/>
     </row>
-    <row r="360" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A360" s="6"/>
       <c r="B360" s="11"/>
     </row>
-    <row r="361" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A361" s="6"/>
       <c r="B361" s="11"/>
     </row>
-    <row r="362" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A362" s="6"/>
       <c r="B362" s="11"/>
     </row>
-    <row r="363" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A363" s="6"/>
       <c r="B363" s="11"/>
     </row>
-    <row r="364" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A364" s="6"/>
       <c r="B364" s="11"/>
     </row>
-    <row r="365" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A365" s="6"/>
       <c r="B365" s="11"/>
     </row>
-    <row r="366" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A366" s="6"/>
       <c r="B366" s="11"/>
     </row>
-    <row r="367" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A367" s="6"/>
       <c r="B367" s="11"/>
     </row>
-    <row r="368" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A368" s="6"/>
       <c r="B368" s="11"/>
     </row>
-    <row r="369" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A369" s="6"/>
       <c r="B369" s="11"/>
     </row>
-    <row r="370" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A370" s="6"/>
       <c r="B370" s="11"/>
     </row>
-    <row r="371" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A371" s="6"/>
       <c r="B371" s="11"/>
     </row>
-    <row r="372" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A372" s="6"/>
       <c r="B372" s="11"/>
     </row>
-    <row r="373" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A373" s="6"/>
       <c r="B373" s="11"/>
     </row>
-    <row r="374" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A374" s="6"/>
       <c r="B374" s="11"/>
     </row>
-    <row r="375" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A375" s="6"/>
       <c r="B375" s="11"/>
     </row>
-    <row r="376" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A376" s="6"/>
       <c r="B376" s="11"/>
     </row>
-    <row r="377" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A377" s="6"/>
       <c r="B377" s="11"/>
     </row>
-    <row r="378" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A378" s="6"/>
       <c r="B378" s="11"/>
     </row>
-    <row r="379" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A379" s="6"/>
       <c r="B379" s="11"/>
     </row>
-    <row r="380" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A380" s="6"/>
       <c r="B380" s="11"/>
     </row>
-    <row r="381" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A381" s="6"/>
       <c r="B381" s="11"/>
     </row>
-    <row r="382" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A382" s="6"/>
       <c r="B382" s="11"/>
     </row>
-    <row r="383" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A383" s="6"/>
       <c r="B383" s="11"/>
     </row>
-    <row r="384" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A384" s="6"/>
       <c r="B384" s="11"/>
     </row>
-    <row r="385" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A385" s="6"/>
       <c r="B385" s="11"/>
     </row>
-    <row r="386" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A386" s="6"/>
       <c r="B386" s="11"/>
     </row>
-    <row r="387" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A387" s="6"/>
       <c r="B387" s="11"/>
     </row>
-    <row r="388" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A388" s="6"/>
       <c r="B388" s="11"/>
     </row>
-    <row r="389" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A389" s="6"/>
       <c r="B389" s="11"/>
     </row>
-    <row r="390" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A390" s="6"/>
       <c r="B390" s="11"/>
     </row>
-    <row r="391" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A391" s="6"/>
       <c r="B391" s="11"/>
     </row>
-    <row r="392" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A392" s="6"/>
       <c r="B392" s="11"/>
     </row>
-    <row r="393" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A393" s="6"/>
       <c r="B393" s="11"/>
     </row>
-    <row r="394" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A394" s="6"/>
       <c r="B394" s="11"/>
     </row>
-    <row r="395" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A395" s="6"/>
       <c r="B395" s="11"/>
     </row>
-    <row r="396" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A396" s="6"/>
       <c r="B396" s="11"/>
     </row>
-    <row r="397" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A397" s="6"/>
       <c r="B397" s="11"/>
     </row>
-    <row r="398" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A398" s="6"/>
       <c r="B398" s="11"/>
     </row>
-    <row r="399" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A399" s="6"/>
       <c r="B399" s="11"/>
     </row>
-    <row r="400" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A400" s="6"/>
       <c r="B400" s="11"/>
     </row>
-    <row r="401" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A401" s="6"/>
       <c r="B401" s="11"/>
     </row>
-    <row r="402" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A402" s="6"/>
       <c r="B402" s="11"/>
     </row>
-    <row r="403" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A403" s="6"/>
       <c r="B403" s="11"/>
     </row>
-    <row r="404" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A404" s="6"/>
       <c r="B404" s="11"/>
     </row>
-    <row r="405" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A405" s="6"/>
       <c r="B405" s="11"/>
     </row>
-    <row r="406" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A406" s="6"/>
       <c r="B406" s="11"/>
     </row>
-    <row r="407" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A407" s="6"/>
       <c r="B407" s="11"/>
     </row>
-    <row r="408" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A408" s="6"/>
       <c r="B408" s="11"/>
     </row>
-    <row r="409" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A409" s="6"/>
       <c r="B409" s="11"/>
     </row>
-    <row r="410" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A410" s="6"/>
       <c r="B410" s="11"/>
     </row>
-    <row r="411" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A411" s="6"/>
       <c r="B411" s="11"/>
     </row>
-    <row r="412" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A412" s="6"/>
       <c r="B412" s="11"/>
     </row>
-    <row r="413" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A413" s="6"/>
       <c r="B413" s="11"/>
     </row>
-    <row r="414" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A414" s="6"/>
       <c r="B414" s="11"/>
     </row>
-    <row r="415" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A415" s="6"/>
       <c r="B415" s="11"/>
     </row>
-    <row r="416" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A416" s="6"/>
       <c r="B416" s="11"/>
     </row>
-    <row r="417" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A417" s="6"/>
       <c r="B417" s="11"/>
     </row>
-    <row r="418" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A418" s="6"/>
       <c r="B418" s="11"/>
     </row>
-    <row r="419" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A419" s="6"/>
       <c r="B419" s="11"/>
     </row>
-    <row r="420" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A420" s="6"/>
       <c r="B420" s="11"/>
     </row>
-    <row r="421" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A421" s="6"/>
       <c r="B421" s="11"/>
     </row>
-    <row r="422" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A422" s="6"/>
       <c r="B422" s="11"/>
     </row>
-    <row r="423" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A423" s="6"/>
       <c r="B423" s="11"/>
     </row>
-    <row r="424" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A424" s="6"/>
       <c r="B424" s="11"/>
     </row>
-    <row r="425" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A425" s="6"/>
       <c r="B425" s="11"/>
     </row>
-    <row r="426" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A426" s="6"/>
       <c r="B426" s="11"/>
     </row>
-    <row r="427" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A427" s="6"/>
       <c r="B427" s="11"/>
     </row>
-    <row r="428" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A428" s="6"/>
       <c r="B428" s="11"/>
     </row>
-    <row r="429" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A429" s="6"/>
       <c r="B429" s="11"/>
     </row>
-    <row r="430" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A430" s="6"/>
       <c r="B430" s="11"/>
     </row>
-    <row r="431" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A431" s="6"/>
       <c r="B431" s="11"/>
     </row>
-    <row r="432" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A432" s="6"/>
       <c r="B432" s="11"/>
     </row>
-    <row r="433" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A433" s="6"/>
       <c r="B433" s="11"/>
     </row>
-    <row r="434" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A434" s="6"/>
       <c r="B434" s="11"/>
     </row>
-    <row r="435" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A435" s="6"/>
       <c r="B435" s="11"/>
     </row>
-    <row r="436" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A436" s="6"/>
       <c r="B436" s="11"/>
     </row>
-    <row r="437" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A437" s="6"/>
       <c r="B437" s="11"/>
     </row>
-    <row r="438" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A438" s="6"/>
       <c r="B438" s="11"/>
     </row>
-    <row r="439" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A439" s="6"/>
       <c r="B439" s="11"/>
     </row>
-    <row r="440" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A440" s="6"/>
       <c r="B440" s="11"/>
     </row>
-    <row r="441" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A441" s="6"/>
       <c r="B441" s="11"/>
     </row>
-    <row r="442" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A442" s="6"/>
       <c r="B442" s="11"/>
     </row>
-    <row r="443" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A443" s="6"/>
       <c r="B443" s="11"/>
     </row>
-    <row r="444" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A444" s="6"/>
       <c r="B444" s="11"/>
     </row>
-    <row r="445" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A445" s="6"/>
       <c r="B445" s="11"/>
     </row>
-    <row r="446" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A446" s="6"/>
       <c r="B446" s="11"/>
     </row>
-    <row r="447" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A447" s="6"/>
       <c r="B447" s="11"/>
     </row>
-    <row r="448" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A448" s="6"/>
       <c r="B448" s="11"/>
     </row>
-    <row r="449" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A449" s="6"/>
       <c r="B449" s="11"/>
     </row>
-    <row r="450" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A450" s="6"/>
       <c r="B450" s="11"/>
     </row>
-    <row r="451" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A451" s="6"/>
       <c r="B451" s="11"/>
     </row>
-    <row r="452" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A452" s="6"/>
       <c r="B452" s="11"/>
     </row>
-    <row r="453" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A453" s="6"/>
       <c r="B453" s="11"/>
     </row>
-    <row r="454" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A454" s="6"/>
       <c r="B454" s="11"/>
     </row>
-    <row r="455" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A455" s="6"/>
       <c r="B455" s="11"/>
     </row>
-    <row r="456" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A456" s="6"/>
       <c r="B456" s="11"/>
     </row>
-    <row r="457" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A457" s="6"/>
       <c r="B457" s="11"/>
     </row>
-    <row r="458" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A458" s="6"/>
       <c r="B458" s="11"/>
     </row>
-    <row r="459" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A459" s="6"/>
       <c r="B459" s="11"/>
     </row>
-    <row r="460" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A460" s="6"/>
       <c r="B460" s="11"/>
     </row>
-    <row r="461" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A461" s="6"/>
       <c r="B461" s="11"/>
     </row>
-    <row r="462" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A462" s="6"/>
       <c r="B462" s="11"/>
     </row>
-    <row r="463" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A463" s="6"/>
       <c r="B463" s="11"/>
     </row>
-    <row r="464" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A464" s="6"/>
       <c r="B464" s="11"/>
     </row>
-    <row r="465" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A465" s="6"/>
       <c r="B465" s="11"/>
     </row>
-    <row r="466" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A466" s="6"/>
       <c r="B466" s="11"/>
     </row>
-    <row r="467" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A467" s="6"/>
       <c r="B467" s="11"/>
     </row>
-    <row r="468" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A468" s="6"/>
       <c r="B468" s="11"/>
     </row>
-    <row r="469" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A469" s="6"/>
       <c r="B469" s="11"/>
     </row>
-    <row r="470" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A470" s="6"/>
       <c r="B470" s="11"/>
     </row>
-    <row r="471" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A471" s="6"/>
       <c r="B471" s="11"/>
     </row>
-    <row r="472" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A472" s="6"/>
       <c r="B472" s="11"/>
     </row>
-    <row r="473" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A473" s="6"/>
       <c r="B473" s="11"/>
     </row>
-    <row r="474" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A474" s="6"/>
       <c r="B474" s="11"/>
     </row>
-    <row r="475" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A475" s="6"/>
       <c r="B475" s="11"/>
     </row>
-    <row r="476" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A476" s="6"/>
       <c r="B476" s="11"/>
     </row>
-    <row r="477" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A477" s="6"/>
       <c r="B477" s="11"/>
     </row>
-    <row r="478" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A478" s="6"/>
       <c r="B478" s="11"/>
     </row>
-    <row r="479" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A479" s="6"/>
       <c r="B479" s="11"/>
     </row>
-    <row r="480" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A480" s="6"/>
       <c r="B480" s="11"/>
     </row>
-    <row r="481" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A481" s="6"/>
       <c r="B481" s="11"/>
     </row>
-    <row r="482" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A482" s="6"/>
       <c r="B482" s="11"/>
     </row>
-    <row r="483" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A483" s="6"/>
       <c r="B483" s="11"/>
     </row>
-    <row r="484" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A484" s="6"/>
       <c r="B484" s="11"/>
     </row>
-    <row r="485" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A485" s="6"/>
       <c r="B485" s="11"/>
     </row>
-    <row r="486" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A486" s="6"/>
       <c r="B486" s="11"/>
     </row>
-    <row r="487" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A487" s="6"/>
       <c r="B487" s="11"/>
     </row>
-    <row r="488" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A488" s="6"/>
       <c r="B488" s="11"/>
     </row>
-    <row r="489" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A489" s="6"/>
       <c r="B489" s="11"/>
     </row>
-    <row r="490" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A490" s="6"/>
       <c r="B490" s="11"/>
     </row>
-    <row r="491" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A491" s="6"/>
       <c r="B491" s="11"/>
     </row>
-    <row r="492" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A492" s="6"/>
       <c r="B492" s="11"/>
     </row>
-    <row r="493" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A493" s="6"/>
       <c r="B493" s="11"/>
     </row>
-    <row r="494" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A494" s="6"/>
       <c r="B494" s="11"/>
     </row>
-    <row r="495" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A495" s="6"/>
       <c r="B495" s="11"/>
     </row>
-    <row r="496" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A496" s="6"/>
       <c r="B496" s="11"/>
     </row>
-    <row r="497" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A497" s="6"/>
       <c r="B497" s="11"/>
     </row>
-    <row r="498" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A498" s="6"/>
       <c r="B498" s="11"/>
     </row>
-    <row r="499" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A499" s="6"/>
       <c r="B499" s="11"/>
     </row>
-    <row r="500" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A500" s="6"/>
       <c r="B500" s="11"/>
     </row>
@@ -8139,52 +8207,52 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="1" max="1" width="16.94921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
     </row>
   </sheetData>

--- a/docs/worklogs/Trystan_Gaillard_worklog.xlsx
+++ b/docs/worklogs/Trystan_Gaillard_worklog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduvaud-my.sharepoint.com/personal/py16coy_eduvaud_ch/Documents/Bureau/Trystan Gaillard/CPNV/Year - 2/Semestre - 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sytabram/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="265" documentId="13_ncr:1_{EFDCB34D-4D99-487E-82C9-6E7A8D14F32E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C85D8EA-FB60-CD4E-B84E-FB46E11E2DD5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F20DBE-DD60-7E48-8039-0F2923CAB73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3345" yWindow="1605" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3440" yWindow="660" windowWidth="30100" windowHeight="21680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="47">
   <si>
     <t>Jour</t>
   </si>
@@ -107,9 +107,6 @@
     <t>Meeting hebdomadaire avec chef de projet.</t>
   </si>
   <si>
-    <t>Conception d'un PowerPoint.</t>
-  </si>
-  <si>
     <t>Réalisation du code afin de faire fonction le dit capteur.</t>
   </si>
   <si>
@@ -148,6 +145,42 @@
   <si>
     <t>Debut du brasage du moteur</t>
   </si>
+  <si>
+    <t>Ven. 23 janvier 2026</t>
+  </si>
+  <si>
+    <t>Brassage du moteur</t>
+  </si>
+  <si>
+    <t>Notre classe était en visite à HEIGvd</t>
+  </si>
+  <si>
+    <t>Long car brasage assez complexe (je n'ai pas réussi à finir pendant cette session)</t>
+  </si>
+  <si>
+    <t>Lun. 26 janvier 2026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brassage du moteur </t>
+  </si>
+  <si>
+    <t>Beaucoup trop de temps passer desus mais enfin fini</t>
+  </si>
+  <si>
+    <t>Petit bout du code du moteur</t>
+  </si>
+  <si>
+    <t>Toujours difficile le code pour moi</t>
+  </si>
+  <si>
+    <t>Mar. 27 janvier 2026</t>
+  </si>
+  <si>
+    <t>Réalisation d'un plan pour moteur plan B</t>
+  </si>
+  <si>
+    <t>J'ai appris que j'ai également des difficuluté à créer des schémas</t>
+  </si>
 </sst>
 </file>
 
@@ -156,9 +189,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Century Gothic"/>
       <family val="2"/>
@@ -205,12 +245,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -222,38 +262,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -341,7 +387,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -871,22 +917,22 @@
                   <c:v>3.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.5</c:v>
+                  <c:v>5.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.75</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2.25</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>5</c:v>
@@ -1564,7 +1610,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9305925" cy="6076950"/>
+    <xdr:ext cx="9309100" cy="6070600"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1">
@@ -1905,17 +1951,17 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.31640625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="15.19921875" style="12" customWidth="1"/>
-    <col min="4" max="4" width="24.75" style="5" customWidth="1"/>
-    <col min="5" max="5" width="68.47265625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="82.19140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="68.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="82.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1938,7 +1984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>16</v>
       </c>
@@ -1958,7 +2004,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
@@ -1972,13 +2018,13 @@
         <v>13</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
@@ -1992,13 +2038,13 @@
         <v>7</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
@@ -2012,13 +2058,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>17</v>
       </c>
@@ -2032,13 +2078,13 @@
         <v>7</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
@@ -2046,70 +2092,70 @@
         <v>1</v>
       </c>
       <c r="C7" s="11">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" s="11">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B9" s="14">
         <v>2</v>
       </c>
       <c r="C9" s="11">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="14">
         <v>2</v>
       </c>
       <c r="C10" s="11">
-        <v>0.25</v>
+        <v>3.75</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>28</v>
@@ -2118,18 +2164,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="14">
         <v>2</v>
       </c>
       <c r="C11" s="11">
-        <v>3.75</v>
+        <v>0.75</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>29</v>
@@ -2138,107 +2184,154 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B12" s="14">
         <v>2</v>
       </c>
       <c r="C12" s="11">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="14">
         <v>2</v>
       </c>
       <c r="C13" s="11">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B14" s="14">
         <v>2</v>
       </c>
       <c r="C14" s="11">
+        <v>3</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="14">
+        <v>2</v>
+      </c>
+      <c r="C15" s="11">
+        <v>2.25</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="14">
+        <v>3</v>
+      </c>
+      <c r="C16" s="11">
+        <v>3</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="14">
+        <v>3</v>
+      </c>
+      <c r="C17" s="11">
         <v>0.75</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="14">
+        <v>3</v>
+      </c>
+      <c r="C18" s="11">
+        <v>3</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="6"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="6"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="6"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="6"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="6"/>
+      <c r="E18" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="14"/>
       <c r="C19" s="11"/>
       <c r="D19" s="7"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
       <c r="B20" s="14"/>
       <c r="C20" s="11"/>
@@ -2246,7 +2339,7 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6"/>
       <c r="B21" s="14"/>
       <c r="C21" s="11"/>
@@ -2254,7 +2347,7 @@
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
       <c r="B22" s="14"/>
       <c r="C22" s="11"/>
@@ -2262,7 +2355,7 @@
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
       <c r="B23" s="14"/>
       <c r="C23" s="11"/>
@@ -2270,7 +2363,7 @@
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
     </row>
-    <row r="24" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6"/>
       <c r="B24" s="14"/>
       <c r="C24" s="11"/>
@@ -2278,7 +2371,7 @@
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
     </row>
-    <row r="25" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6"/>
       <c r="B25" s="14"/>
       <c r="C25" s="11"/>
@@ -2286,7 +2379,7 @@
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
     </row>
-    <row r="26" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6"/>
       <c r="B26" s="14"/>
       <c r="C26" s="11"/>
@@ -2294,7 +2387,7 @@
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
     </row>
-    <row r="27" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6"/>
       <c r="B27" s="14"/>
       <c r="C27" s="11"/>
@@ -2302,7 +2395,7 @@
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
     </row>
-    <row r="28" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6"/>
       <c r="B28" s="14"/>
       <c r="C28" s="11"/>
@@ -2310,7 +2403,7 @@
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
     </row>
-    <row r="29" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="6"/>
       <c r="B29" s="14"/>
       <c r="C29" s="11"/>
@@ -2318,7 +2411,7 @@
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
     </row>
-    <row r="30" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6"/>
       <c r="B30" s="14"/>
       <c r="C30" s="11"/>
@@ -2326,7 +2419,7 @@
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
     </row>
-    <row r="31" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="6"/>
       <c r="B31" s="14"/>
       <c r="C31" s="11"/>
@@ -2334,7 +2427,7 @@
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
     </row>
-    <row r="32" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="6"/>
       <c r="B32" s="14"/>
       <c r="C32" s="11"/>
@@ -2342,7 +2435,7 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
     </row>
-    <row r="33" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="6"/>
       <c r="B33" s="14"/>
       <c r="C33" s="11"/>
@@ -2350,7 +2443,7 @@
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
     </row>
-    <row r="34" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6"/>
       <c r="B34" s="14"/>
       <c r="C34" s="11"/>
@@ -2358,7 +2451,7 @@
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
     </row>
-    <row r="35" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="6"/>
       <c r="B35" s="14"/>
       <c r="C35" s="11"/>
@@ -2366,7 +2459,7 @@
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
     </row>
-    <row r="36" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="6"/>
       <c r="B36" s="14"/>
       <c r="C36" s="11"/>
@@ -2374,7 +2467,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
     </row>
-    <row r="37" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="6"/>
       <c r="B37" s="14"/>
       <c r="C37" s="11"/>
@@ -2382,7 +2475,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
     </row>
-    <row r="38" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6"/>
       <c r="B38" s="14"/>
       <c r="C38" s="11"/>
@@ -2390,7 +2483,7 @@
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
     </row>
-    <row r="39" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="6"/>
       <c r="B39" s="14"/>
       <c r="C39" s="11"/>
@@ -2398,7 +2491,7 @@
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
     </row>
-    <row r="40" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="6"/>
       <c r="B40" s="14"/>
       <c r="C40" s="11"/>
@@ -2406,7 +2499,7 @@
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
     </row>
-    <row r="41" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6"/>
       <c r="B41" s="14"/>
       <c r="C41" s="11"/>
@@ -2414,7 +2507,7 @@
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
     </row>
-    <row r="42" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="6"/>
       <c r="B42" s="14"/>
       <c r="C42" s="11"/>
@@ -2422,7 +2515,7 @@
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
     </row>
-    <row r="43" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="6"/>
       <c r="B43" s="14"/>
       <c r="C43" s="11"/>
@@ -2430,7 +2523,7 @@
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
     </row>
-    <row r="44" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="6"/>
       <c r="B44" s="14"/>
       <c r="C44" s="11"/>
@@ -2438,7 +2531,7 @@
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
     </row>
-    <row r="45" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="6"/>
       <c r="B45" s="14"/>
       <c r="C45" s="11"/>
@@ -2446,7 +2539,7 @@
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
     </row>
-    <row r="46" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="6"/>
       <c r="B46" s="14"/>
       <c r="C46" s="11"/>
@@ -2454,7 +2547,7 @@
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
     </row>
-    <row r="47" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="6"/>
       <c r="B47" s="14"/>
       <c r="C47" s="11"/>
@@ -2462,7 +2555,7 @@
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
     </row>
-    <row r="48" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6"/>
       <c r="B48" s="14"/>
       <c r="C48" s="11"/>
@@ -2470,7 +2563,7 @@
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
     </row>
-    <row r="49" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6"/>
       <c r="B49" s="14"/>
       <c r="C49" s="11"/>
@@ -2478,7 +2571,7 @@
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
     </row>
-    <row r="50" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6"/>
       <c r="B50" s="14"/>
       <c r="C50" s="11"/>
@@ -2486,7 +2579,7 @@
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
     </row>
-    <row r="51" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="6"/>
       <c r="B51" s="14"/>
       <c r="C51" s="11"/>
@@ -2494,7 +2587,7 @@
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
     </row>
-    <row r="52" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="6"/>
       <c r="B52" s="14"/>
       <c r="C52" s="11"/>
@@ -2502,7 +2595,7 @@
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
     </row>
-    <row r="53" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="6"/>
       <c r="B53" s="14"/>
       <c r="C53" s="11"/>
@@ -2510,7 +2603,7 @@
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
     </row>
-    <row r="54" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="6"/>
       <c r="B54" s="14"/>
       <c r="C54" s="11"/>
@@ -2518,7 +2611,7 @@
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
     </row>
-    <row r="55" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="6"/>
       <c r="B55" s="14"/>
       <c r="C55" s="11"/>
@@ -2526,7 +2619,7 @@
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
     </row>
-    <row r="56" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6"/>
       <c r="B56" s="14"/>
       <c r="C56" s="11"/>
@@ -2534,7 +2627,7 @@
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
     </row>
-    <row r="57" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6"/>
       <c r="B57" s="14"/>
       <c r="C57" s="11"/>
@@ -2542,7 +2635,7 @@
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
     </row>
-    <row r="58" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6"/>
       <c r="B58" s="14"/>
       <c r="C58" s="11"/>
@@ -2550,7 +2643,7 @@
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
     </row>
-    <row r="59" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="6"/>
       <c r="B59" s="14"/>
       <c r="C59" s="11"/>
@@ -2558,7 +2651,7 @@
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
     </row>
-    <row r="60" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="6"/>
       <c r="B60" s="14"/>
       <c r="C60" s="11"/>
@@ -2566,7 +2659,7 @@
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
     </row>
-    <row r="61" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="6"/>
       <c r="B61" s="14"/>
       <c r="C61" s="11"/>
@@ -2574,7 +2667,7 @@
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
     </row>
-    <row r="62" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="6"/>
       <c r="B62" s="14"/>
       <c r="C62" s="11"/>
@@ -2582,7 +2675,7 @@
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
     </row>
-    <row r="63" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="6"/>
       <c r="B63" s="14"/>
       <c r="C63" s="11"/>
@@ -2590,7 +2683,7 @@
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
     </row>
-    <row r="64" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="6"/>
       <c r="B64" s="14"/>
       <c r="C64" s="11"/>
@@ -2598,7 +2691,7 @@
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
     </row>
-    <row r="65" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="6"/>
       <c r="B65" s="14"/>
       <c r="C65" s="11"/>
@@ -2606,7 +2699,7 @@
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
     </row>
-    <row r="66" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="6"/>
       <c r="B66" s="14"/>
       <c r="C66" s="11"/>
@@ -2614,7 +2707,7 @@
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
     </row>
-    <row r="67" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="6"/>
       <c r="B67" s="14"/>
       <c r="C67" s="11"/>
@@ -2622,7 +2715,7 @@
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
     </row>
-    <row r="68" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="6"/>
       <c r="B68" s="14"/>
       <c r="C68" s="11"/>
@@ -2630,7 +2723,7 @@
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
     </row>
-    <row r="69" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="6"/>
       <c r="B69" s="14"/>
       <c r="C69" s="11"/>
@@ -2638,7 +2731,7 @@
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
     </row>
-    <row r="70" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="6"/>
       <c r="B70" s="14"/>
       <c r="C70" s="11"/>
@@ -2646,7 +2739,7 @@
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
     </row>
-    <row r="71" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="6"/>
       <c r="B71" s="14"/>
       <c r="C71" s="11"/>
@@ -2654,7 +2747,7 @@
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
     </row>
-    <row r="72" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="6"/>
       <c r="B72" s="14"/>
       <c r="C72" s="11"/>
@@ -2662,7 +2755,7 @@
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
     </row>
-    <row r="73" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="6"/>
       <c r="B73" s="14"/>
       <c r="C73" s="11"/>
@@ -2670,7 +2763,7 @@
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
     </row>
-    <row r="74" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="6"/>
       <c r="B74" s="14"/>
       <c r="C74" s="11"/>
@@ -2678,7 +2771,7 @@
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
     </row>
-    <row r="75" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="6"/>
       <c r="B75" s="14"/>
       <c r="C75" s="11"/>
@@ -2686,7 +2779,7 @@
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
     </row>
-    <row r="76" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="6"/>
       <c r="B76" s="14"/>
       <c r="C76" s="11"/>
@@ -2694,7 +2787,7 @@
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
     </row>
-    <row r="77" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="6"/>
       <c r="B77" s="14"/>
       <c r="C77" s="11"/>
@@ -2702,7 +2795,7 @@
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
     </row>
-    <row r="78" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="6"/>
       <c r="B78" s="14"/>
       <c r="C78" s="11"/>
@@ -2710,7 +2803,7 @@
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
     </row>
-    <row r="79" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="6"/>
       <c r="B79" s="14"/>
       <c r="C79" s="11"/>
@@ -2718,7 +2811,7 @@
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
     </row>
-    <row r="80" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6"/>
       <c r="B80" s="14"/>
       <c r="C80" s="11"/>
@@ -2726,7 +2819,7 @@
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
     </row>
-    <row r="81" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6"/>
       <c r="B81" s="14"/>
       <c r="C81" s="11"/>
@@ -2734,7 +2827,7 @@
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
     </row>
-    <row r="82" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6"/>
       <c r="B82" s="14"/>
       <c r="C82" s="11"/>
@@ -2742,7 +2835,7 @@
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
     </row>
-    <row r="83" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="6"/>
       <c r="B83" s="14"/>
       <c r="C83" s="11"/>
@@ -2750,7 +2843,7 @@
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
     </row>
-    <row r="84" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="6"/>
       <c r="B84" s="14"/>
       <c r="C84" s="11"/>
@@ -2758,7 +2851,7 @@
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
     </row>
-    <row r="85" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="6"/>
       <c r="B85" s="14"/>
       <c r="C85" s="11"/>
@@ -2766,7 +2859,7 @@
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
     </row>
-    <row r="86" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="6"/>
       <c r="B86" s="14"/>
       <c r="C86" s="11"/>
@@ -2774,7 +2867,7 @@
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
     </row>
-    <row r="87" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="6"/>
       <c r="B87" s="14"/>
       <c r="C87" s="11"/>
@@ -2782,7 +2875,7 @@
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
     </row>
-    <row r="88" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6"/>
       <c r="B88" s="14"/>
       <c r="C88" s="11"/>
@@ -2790,7 +2883,7 @@
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
     </row>
-    <row r="89" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6"/>
       <c r="B89" s="14"/>
       <c r="C89" s="11"/>
@@ -2798,7 +2891,7 @@
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
     </row>
-    <row r="90" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6"/>
       <c r="B90" s="14"/>
       <c r="C90" s="11"/>
@@ -2806,7 +2899,7 @@
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
     </row>
-    <row r="91" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="6"/>
       <c r="B91" s="14"/>
       <c r="C91" s="11"/>
@@ -2814,7 +2907,7 @@
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
     </row>
-    <row r="92" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="6"/>
       <c r="B92" s="14"/>
       <c r="C92" s="11"/>
@@ -2822,7 +2915,7 @@
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
     </row>
-    <row r="93" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="6"/>
       <c r="B93" s="14"/>
       <c r="C93" s="11"/>
@@ -2830,7 +2923,7 @@
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
     </row>
-    <row r="94" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="6"/>
       <c r="B94" s="14"/>
       <c r="C94" s="11"/>
@@ -2838,7 +2931,7 @@
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
     </row>
-    <row r="95" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="6"/>
       <c r="B95" s="14"/>
       <c r="C95" s="11"/>
@@ -2846,7 +2939,7 @@
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
     </row>
-    <row r="96" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="6"/>
       <c r="B96" s="14"/>
       <c r="C96" s="11"/>
@@ -2854,7 +2947,7 @@
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
     </row>
-    <row r="97" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="6"/>
       <c r="B97" s="14"/>
       <c r="C97" s="11"/>
@@ -2862,7 +2955,7 @@
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
     </row>
-    <row r="98" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="6"/>
       <c r="B98" s="14"/>
       <c r="C98" s="11"/>
@@ -2870,7 +2963,7 @@
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
     </row>
-    <row r="99" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="6"/>
       <c r="B99" s="14"/>
       <c r="C99" s="11"/>
@@ -2878,7 +2971,7 @@
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
     </row>
-    <row r="100" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="6"/>
       <c r="B100" s="14"/>
       <c r="C100" s="11"/>
@@ -2886,7 +2979,7 @@
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
     </row>
-    <row r="101" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="6"/>
       <c r="B101" s="14"/>
       <c r="C101" s="11"/>
@@ -2894,7 +2987,7 @@
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
     </row>
-    <row r="102" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="6"/>
       <c r="B102" s="14"/>
       <c r="C102" s="11"/>
@@ -2902,7 +2995,7 @@
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
     </row>
-    <row r="103" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="6"/>
       <c r="B103" s="14"/>
       <c r="C103" s="11"/>
@@ -2910,7 +3003,7 @@
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
     </row>
-    <row r="104" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="6"/>
       <c r="B104" s="14"/>
       <c r="C104" s="11"/>
@@ -2918,7 +3011,7 @@
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
     </row>
-    <row r="105" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="6"/>
       <c r="B105" s="14"/>
       <c r="C105" s="11"/>
@@ -2926,7 +3019,7 @@
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
     </row>
-    <row r="106" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="6"/>
       <c r="B106" s="14"/>
       <c r="C106" s="11"/>
@@ -2934,7 +3027,7 @@
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
     </row>
-    <row r="107" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="6"/>
       <c r="B107" s="14"/>
       <c r="C107" s="11"/>
@@ -2942,7 +3035,7 @@
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
     </row>
-    <row r="108" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="6"/>
       <c r="B108" s="14"/>
       <c r="C108" s="11"/>
@@ -2950,7 +3043,7 @@
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
     </row>
-    <row r="109" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="6"/>
       <c r="B109" s="14"/>
       <c r="C109" s="11"/>
@@ -2958,7 +3051,7 @@
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
     </row>
-    <row r="110" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="6"/>
       <c r="B110" s="14"/>
       <c r="C110" s="11"/>
@@ -2966,7 +3059,7 @@
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
     </row>
-    <row r="111" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="6"/>
       <c r="B111" s="14"/>
       <c r="C111" s="11"/>
@@ -2974,7 +3067,7 @@
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
     </row>
-    <row r="112" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="6"/>
       <c r="B112" s="14"/>
       <c r="C112" s="11"/>
@@ -2982,7 +3075,7 @@
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
     </row>
-    <row r="113" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="6"/>
       <c r="B113" s="14"/>
       <c r="C113" s="11"/>
@@ -2990,7 +3083,7 @@
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
     </row>
-    <row r="114" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="6"/>
       <c r="B114" s="14"/>
       <c r="C114" s="11"/>
@@ -2998,7 +3091,7 @@
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
     </row>
-    <row r="115" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="6"/>
       <c r="B115" s="14"/>
       <c r="C115" s="11"/>
@@ -3006,7 +3099,7 @@
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
     </row>
-    <row r="116" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="6"/>
       <c r="B116" s="14"/>
       <c r="C116" s="11"/>
@@ -3014,7 +3107,7 @@
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
     </row>
-    <row r="117" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="6"/>
       <c r="B117" s="14"/>
       <c r="C117" s="11"/>
@@ -3022,7 +3115,7 @@
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
     </row>
-    <row r="118" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="6"/>
       <c r="B118" s="14"/>
       <c r="C118" s="11"/>
@@ -3030,7 +3123,7 @@
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
     </row>
-    <row r="119" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="6"/>
       <c r="B119" s="14"/>
       <c r="C119" s="11"/>
@@ -3038,7 +3131,7 @@
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
     </row>
-    <row r="120" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="6"/>
       <c r="B120" s="14"/>
       <c r="C120" s="11"/>
@@ -3046,7 +3139,7 @@
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
     </row>
-    <row r="121" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="6"/>
       <c r="B121" s="14"/>
       <c r="C121" s="11"/>
@@ -3054,7 +3147,7 @@
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
     </row>
-    <row r="122" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="6"/>
       <c r="B122" s="14"/>
       <c r="C122" s="11"/>
@@ -3062,7 +3155,7 @@
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
     </row>
-    <row r="123" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="6"/>
       <c r="B123" s="14"/>
       <c r="C123" s="11"/>
@@ -3070,7 +3163,7 @@
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
     </row>
-    <row r="124" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="6"/>
       <c r="B124" s="14"/>
       <c r="C124" s="11"/>
@@ -3078,7 +3171,7 @@
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
     </row>
-    <row r="125" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="6"/>
       <c r="B125" s="14"/>
       <c r="C125" s="11"/>
@@ -3086,7 +3179,7 @@
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
     </row>
-    <row r="126" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="6"/>
       <c r="B126" s="14"/>
       <c r="C126" s="11"/>
@@ -3094,7 +3187,7 @@
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
     </row>
-    <row r="127" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="6"/>
       <c r="B127" s="14"/>
       <c r="C127" s="11"/>
@@ -3102,7 +3195,7 @@
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
     </row>
-    <row r="128" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="6"/>
       <c r="B128" s="14"/>
       <c r="C128" s="11"/>
@@ -3110,7 +3203,7 @@
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
     </row>
-    <row r="129" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="6"/>
       <c r="B129" s="14"/>
       <c r="C129" s="11"/>
@@ -3118,7 +3211,7 @@
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
     </row>
-    <row r="130" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="6"/>
       <c r="B130" s="14"/>
       <c r="C130" s="11"/>
@@ -3126,7 +3219,7 @@
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
     </row>
-    <row r="131" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="6"/>
       <c r="B131" s="14"/>
       <c r="C131" s="11"/>
@@ -3134,7 +3227,7 @@
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
     </row>
-    <row r="132" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="6"/>
       <c r="B132" s="14"/>
       <c r="C132" s="11"/>
@@ -3142,7 +3235,7 @@
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
     </row>
-    <row r="133" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="6"/>
       <c r="B133" s="14"/>
       <c r="C133" s="11"/>
@@ -3150,7 +3243,7 @@
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
     </row>
-    <row r="134" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="6"/>
       <c r="B134" s="14"/>
       <c r="C134" s="11"/>
@@ -3158,7 +3251,7 @@
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
     </row>
-    <row r="135" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="6"/>
       <c r="B135" s="14"/>
       <c r="C135" s="11"/>
@@ -3166,7 +3259,7 @@
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
     </row>
-    <row r="136" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="6"/>
       <c r="B136" s="14"/>
       <c r="C136" s="11"/>
@@ -3174,7 +3267,7 @@
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
     </row>
-    <row r="137" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="6"/>
       <c r="B137" s="14"/>
       <c r="C137" s="11"/>
@@ -3182,7 +3275,7 @@
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
     </row>
-    <row r="138" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="6"/>
       <c r="B138" s="14"/>
       <c r="C138" s="11"/>
@@ -3190,7 +3283,7 @@
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
     </row>
-    <row r="139" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="6"/>
       <c r="B139" s="14"/>
       <c r="C139" s="11"/>
@@ -3198,7 +3291,7 @@
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
     </row>
-    <row r="140" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="6"/>
       <c r="B140" s="14"/>
       <c r="C140" s="11"/>
@@ -3206,7 +3299,7 @@
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
     </row>
-    <row r="141" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="6"/>
       <c r="B141" s="14"/>
       <c r="C141" s="11"/>
@@ -3214,7 +3307,7 @@
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
     </row>
-    <row r="142" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="6"/>
       <c r="B142" s="14"/>
       <c r="C142" s="11"/>
@@ -3222,7 +3315,7 @@
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
     </row>
-    <row r="143" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="6"/>
       <c r="B143" s="14"/>
       <c r="C143" s="11"/>
@@ -3230,7 +3323,7 @@
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
     </row>
-    <row r="144" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="6"/>
       <c r="B144" s="14"/>
       <c r="C144" s="11"/>
@@ -3238,7 +3331,7 @@
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
     </row>
-    <row r="145" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="6"/>
       <c r="B145" s="14"/>
       <c r="C145" s="11"/>
@@ -3246,7 +3339,7 @@
       <c r="E145" s="8"/>
       <c r="F145" s="8"/>
     </row>
-    <row r="146" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="6"/>
       <c r="B146" s="14"/>
       <c r="C146" s="11"/>
@@ -3254,7 +3347,7 @@
       <c r="E146" s="8"/>
       <c r="F146" s="8"/>
     </row>
-    <row r="147" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="6"/>
       <c r="B147" s="14"/>
       <c r="C147" s="11"/>
@@ -3262,7 +3355,7 @@
       <c r="E147" s="8"/>
       <c r="F147" s="8"/>
     </row>
-    <row r="148" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="6"/>
       <c r="B148" s="14"/>
       <c r="C148" s="11"/>
@@ -3270,7 +3363,7 @@
       <c r="E148" s="8"/>
       <c r="F148" s="8"/>
     </row>
-    <row r="149" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="6"/>
       <c r="B149" s="14"/>
       <c r="C149" s="11"/>
@@ -3278,7 +3371,7 @@
       <c r="E149" s="8"/>
       <c r="F149" s="8"/>
     </row>
-    <row r="150" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="6"/>
       <c r="B150" s="14"/>
       <c r="C150" s="11"/>
@@ -3286,7 +3379,7 @@
       <c r="E150" s="8"/>
       <c r="F150" s="8"/>
     </row>
-    <row r="151" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="6"/>
       <c r="B151" s="14"/>
       <c r="C151" s="11"/>
@@ -3294,7 +3387,7 @@
       <c r="E151" s="8"/>
       <c r="F151" s="8"/>
     </row>
-    <row r="152" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="6"/>
       <c r="B152" s="14"/>
       <c r="C152" s="11"/>
@@ -3302,7 +3395,7 @@
       <c r="E152" s="8"/>
       <c r="F152" s="8"/>
     </row>
-    <row r="153" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="6"/>
       <c r="B153" s="14"/>
       <c r="C153" s="11"/>
@@ -3310,7 +3403,7 @@
       <c r="E153" s="8"/>
       <c r="F153" s="8"/>
     </row>
-    <row r="154" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="6"/>
       <c r="B154" s="14"/>
       <c r="C154" s="11"/>
@@ -3318,7 +3411,7 @@
       <c r="E154" s="8"/>
       <c r="F154" s="8"/>
     </row>
-    <row r="155" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="6"/>
       <c r="B155" s="14"/>
       <c r="C155" s="11"/>
@@ -3326,7 +3419,7 @@
       <c r="E155" s="8"/>
       <c r="F155" s="8"/>
     </row>
-    <row r="156" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="6"/>
       <c r="B156" s="14"/>
       <c r="C156" s="11"/>
@@ -3334,7 +3427,7 @@
       <c r="E156" s="8"/>
       <c r="F156" s="8"/>
     </row>
-    <row r="157" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="6"/>
       <c r="B157" s="14"/>
       <c r="C157" s="11"/>
@@ -3342,7 +3435,7 @@
       <c r="E157" s="8"/>
       <c r="F157" s="8"/>
     </row>
-    <row r="158" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="6"/>
       <c r="B158" s="14"/>
       <c r="C158" s="11"/>
@@ -3350,7 +3443,7 @@
       <c r="E158" s="8"/>
       <c r="F158" s="8"/>
     </row>
-    <row r="159" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="6"/>
       <c r="B159" s="14"/>
       <c r="C159" s="11"/>
@@ -3358,7 +3451,7 @@
       <c r="E159" s="8"/>
       <c r="F159" s="8"/>
     </row>
-    <row r="160" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="6"/>
       <c r="B160" s="14"/>
       <c r="C160" s="11"/>
@@ -3366,7 +3459,7 @@
       <c r="E160" s="8"/>
       <c r="F160" s="8"/>
     </row>
-    <row r="161" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="6"/>
       <c r="B161" s="14"/>
       <c r="C161" s="11"/>
@@ -3374,7 +3467,7 @@
       <c r="E161" s="8"/>
       <c r="F161" s="8"/>
     </row>
-    <row r="162" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="6"/>
       <c r="B162" s="14"/>
       <c r="C162" s="11"/>
@@ -3382,7 +3475,7 @@
       <c r="E162" s="8"/>
       <c r="F162" s="8"/>
     </row>
-    <row r="163" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="6"/>
       <c r="B163" s="14"/>
       <c r="C163" s="11"/>
@@ -3390,7 +3483,7 @@
       <c r="E163" s="8"/>
       <c r="F163" s="8"/>
     </row>
-    <row r="164" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="6"/>
       <c r="B164" s="14"/>
       <c r="C164" s="11"/>
@@ -3398,7 +3491,7 @@
       <c r="E164" s="8"/>
       <c r="F164" s="8"/>
     </row>
-    <row r="165" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="6"/>
       <c r="B165" s="14"/>
       <c r="C165" s="11"/>
@@ -3406,7 +3499,7 @@
       <c r="E165" s="8"/>
       <c r="F165" s="8"/>
     </row>
-    <row r="166" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="6"/>
       <c r="B166" s="14"/>
       <c r="C166" s="11"/>
@@ -3414,7 +3507,7 @@
       <c r="E166" s="8"/>
       <c r="F166" s="8"/>
     </row>
-    <row r="167" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="6"/>
       <c r="B167" s="14"/>
       <c r="C167" s="11"/>
@@ -3422,7 +3515,7 @@
       <c r="E167" s="8"/>
       <c r="F167" s="8"/>
     </row>
-    <row r="168" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="6"/>
       <c r="B168" s="14"/>
       <c r="C168" s="11"/>
@@ -3430,7 +3523,7 @@
       <c r="E168" s="8"/>
       <c r="F168" s="8"/>
     </row>
-    <row r="169" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="6"/>
       <c r="B169" s="14"/>
       <c r="C169" s="11"/>
@@ -3438,7 +3531,7 @@
       <c r="E169" s="8"/>
       <c r="F169" s="8"/>
     </row>
-    <row r="170" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="6"/>
       <c r="B170" s="14"/>
       <c r="C170" s="11"/>
@@ -3446,7 +3539,7 @@
       <c r="E170" s="8"/>
       <c r="F170" s="8"/>
     </row>
-    <row r="171" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="6"/>
       <c r="B171" s="14"/>
       <c r="C171" s="11"/>
@@ -3454,7 +3547,7 @@
       <c r="E171" s="8"/>
       <c r="F171" s="8"/>
     </row>
-    <row r="172" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="6"/>
       <c r="B172" s="14"/>
       <c r="C172" s="11"/>
@@ -3462,7 +3555,7 @@
       <c r="E172" s="8"/>
       <c r="F172" s="8"/>
     </row>
-    <row r="173" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="6"/>
       <c r="B173" s="14"/>
       <c r="C173" s="11"/>
@@ -3470,7 +3563,7 @@
       <c r="E173" s="8"/>
       <c r="F173" s="8"/>
     </row>
-    <row r="174" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="6"/>
       <c r="B174" s="14"/>
       <c r="C174" s="11"/>
@@ -3478,7 +3571,7 @@
       <c r="E174" s="8"/>
       <c r="F174" s="8"/>
     </row>
-    <row r="175" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="6"/>
       <c r="B175" s="14"/>
       <c r="C175" s="11"/>
@@ -3486,7 +3579,7 @@
       <c r="E175" s="8"/>
       <c r="F175" s="8"/>
     </row>
-    <row r="176" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="6"/>
       <c r="B176" s="14"/>
       <c r="C176" s="11"/>
@@ -3494,7 +3587,7 @@
       <c r="E176" s="8"/>
       <c r="F176" s="8"/>
     </row>
-    <row r="177" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="6"/>
       <c r="B177" s="14"/>
       <c r="C177" s="11"/>
@@ -3502,7 +3595,7 @@
       <c r="E177" s="8"/>
       <c r="F177" s="8"/>
     </row>
-    <row r="178" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="6"/>
       <c r="B178" s="14"/>
       <c r="C178" s="11"/>
@@ -3510,7 +3603,7 @@
       <c r="E178" s="8"/>
       <c r="F178" s="8"/>
     </row>
-    <row r="179" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="6"/>
       <c r="B179" s="14"/>
       <c r="C179" s="11"/>
@@ -3518,7 +3611,7 @@
       <c r="E179" s="8"/>
       <c r="F179" s="8"/>
     </row>
-    <row r="180" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="6"/>
       <c r="B180" s="14"/>
       <c r="C180" s="11"/>
@@ -3526,7 +3619,7 @@
       <c r="E180" s="8"/>
       <c r="F180" s="8"/>
     </row>
-    <row r="181" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="6"/>
       <c r="B181" s="14"/>
       <c r="C181" s="11"/>
@@ -3534,7 +3627,7 @@
       <c r="E181" s="8"/>
       <c r="F181" s="8"/>
     </row>
-    <row r="182" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="6"/>
       <c r="B182" s="14"/>
       <c r="C182" s="11"/>
@@ -3542,7 +3635,7 @@
       <c r="E182" s="8"/>
       <c r="F182" s="8"/>
     </row>
-    <row r="183" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="6"/>
       <c r="B183" s="14"/>
       <c r="C183" s="11"/>
@@ -3550,7 +3643,7 @@
       <c r="E183" s="8"/>
       <c r="F183" s="8"/>
     </row>
-    <row r="184" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="6"/>
       <c r="B184" s="14"/>
       <c r="C184" s="11"/>
@@ -3558,7 +3651,7 @@
       <c r="E184" s="8"/>
       <c r="F184" s="8"/>
     </row>
-    <row r="185" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="6"/>
       <c r="B185" s="14"/>
       <c r="C185" s="11"/>
@@ -3566,7 +3659,7 @@
       <c r="E185" s="8"/>
       <c r="F185" s="8"/>
     </row>
-    <row r="186" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="6"/>
       <c r="B186" s="14"/>
       <c r="C186" s="11"/>
@@ -3574,7 +3667,7 @@
       <c r="E186" s="8"/>
       <c r="F186" s="8"/>
     </row>
-    <row r="187" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="6"/>
       <c r="B187" s="14"/>
       <c r="C187" s="11"/>
@@ -3582,7 +3675,7 @@
       <c r="E187" s="8"/>
       <c r="F187" s="8"/>
     </row>
-    <row r="188" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="6"/>
       <c r="B188" s="14"/>
       <c r="C188" s="11"/>
@@ -3590,7 +3683,7 @@
       <c r="E188" s="8"/>
       <c r="F188" s="8"/>
     </row>
-    <row r="189" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="6"/>
       <c r="B189" s="14"/>
       <c r="C189" s="11"/>
@@ -3598,7 +3691,7 @@
       <c r="E189" s="8"/>
       <c r="F189" s="8"/>
     </row>
-    <row r="190" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="6"/>
       <c r="B190" s="14"/>
       <c r="C190" s="11"/>
@@ -3606,7 +3699,7 @@
       <c r="E190" s="8"/>
       <c r="F190" s="8"/>
     </row>
-    <row r="191" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="6"/>
       <c r="B191" s="14"/>
       <c r="C191" s="11"/>
@@ -3614,7 +3707,7 @@
       <c r="E191" s="8"/>
       <c r="F191" s="8"/>
     </row>
-    <row r="192" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="6"/>
       <c r="B192" s="14"/>
       <c r="C192" s="11"/>
@@ -3622,7 +3715,7 @@
       <c r="E192" s="8"/>
       <c r="F192" s="8"/>
     </row>
-    <row r="193" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="6"/>
       <c r="B193" s="14"/>
       <c r="C193" s="11"/>
@@ -3630,7 +3723,7 @@
       <c r="E193" s="8"/>
       <c r="F193" s="8"/>
     </row>
-    <row r="194" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="6"/>
       <c r="B194" s="14"/>
       <c r="C194" s="11"/>
@@ -3638,7 +3731,7 @@
       <c r="E194" s="8"/>
       <c r="F194" s="8"/>
     </row>
-    <row r="195" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="6"/>
       <c r="B195" s="14"/>
       <c r="C195" s="11"/>
@@ -3646,7 +3739,7 @@
       <c r="E195" s="8"/>
       <c r="F195" s="8"/>
     </row>
-    <row r="196" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="6"/>
       <c r="B196" s="14"/>
       <c r="C196" s="11"/>
@@ -3654,7 +3747,7 @@
       <c r="E196" s="8"/>
       <c r="F196" s="8"/>
     </row>
-    <row r="197" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="6"/>
       <c r="B197" s="14"/>
       <c r="C197" s="11"/>
@@ -3662,7 +3755,7 @@
       <c r="E197" s="8"/>
       <c r="F197" s="8"/>
     </row>
-    <row r="198" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="6"/>
       <c r="B198" s="14"/>
       <c r="C198" s="11"/>
@@ -3670,7 +3763,7 @@
       <c r="E198" s="8"/>
       <c r="F198" s="8"/>
     </row>
-    <row r="199" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="6"/>
       <c r="B199" s="14"/>
       <c r="C199" s="11"/>
@@ -3678,7 +3771,7 @@
       <c r="E199" s="8"/>
       <c r="F199" s="8"/>
     </row>
-    <row r="200" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="6"/>
       <c r="B200" s="14"/>
       <c r="C200" s="11"/>
@@ -3686,7 +3779,7 @@
       <c r="E200" s="8"/>
       <c r="F200" s="8"/>
     </row>
-    <row r="201" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="6"/>
       <c r="B201" s="14"/>
       <c r="C201" s="11"/>
@@ -3694,7 +3787,7 @@
       <c r="E201" s="8"/>
       <c r="F201" s="8"/>
     </row>
-    <row r="202" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="6"/>
       <c r="B202" s="14"/>
       <c r="C202" s="11"/>
@@ -3702,7 +3795,7 @@
       <c r="E202" s="8"/>
       <c r="F202" s="8"/>
     </row>
-    <row r="203" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="6"/>
       <c r="B203" s="14"/>
       <c r="C203" s="11"/>
@@ -3710,7 +3803,7 @@
       <c r="E203" s="8"/>
       <c r="F203" s="8"/>
     </row>
-    <row r="204" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="6"/>
       <c r="B204" s="14"/>
       <c r="C204" s="11"/>
@@ -3718,7 +3811,7 @@
       <c r="E204" s="8"/>
       <c r="F204" s="8"/>
     </row>
-    <row r="205" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="6"/>
       <c r="B205" s="14"/>
       <c r="C205" s="11"/>
@@ -3726,7 +3819,7 @@
       <c r="E205" s="8"/>
       <c r="F205" s="8"/>
     </row>
-    <row r="206" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="6"/>
       <c r="B206" s="14"/>
       <c r="C206" s="11"/>
@@ -3734,7 +3827,7 @@
       <c r="E206" s="8"/>
       <c r="F206" s="8"/>
     </row>
-    <row r="207" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="6"/>
       <c r="B207" s="14"/>
       <c r="C207" s="11"/>
@@ -3742,7 +3835,7 @@
       <c r="E207" s="8"/>
       <c r="F207" s="8"/>
     </row>
-    <row r="208" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="6"/>
       <c r="B208" s="14"/>
       <c r="C208" s="11"/>
@@ -3750,7 +3843,7 @@
       <c r="E208" s="8"/>
       <c r="F208" s="8"/>
     </row>
-    <row r="209" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="6"/>
       <c r="B209" s="14"/>
       <c r="C209" s="11"/>
@@ -3758,7 +3851,7 @@
       <c r="E209" s="8"/>
       <c r="F209" s="8"/>
     </row>
-    <row r="210" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="6"/>
       <c r="B210" s="14"/>
       <c r="C210" s="11"/>
@@ -3766,7 +3859,7 @@
       <c r="E210" s="8"/>
       <c r="F210" s="8"/>
     </row>
-    <row r="211" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="6"/>
       <c r="B211" s="14"/>
       <c r="C211" s="11"/>
@@ -3774,7 +3867,7 @@
       <c r="E211" s="8"/>
       <c r="F211" s="8"/>
     </row>
-    <row r="212" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="6"/>
       <c r="B212" s="14"/>
       <c r="C212" s="11"/>
@@ -3782,7 +3875,7 @@
       <c r="E212" s="8"/>
       <c r="F212" s="8"/>
     </row>
-    <row r="213" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="6"/>
       <c r="B213" s="14"/>
       <c r="C213" s="11"/>
@@ -3790,7 +3883,7 @@
       <c r="E213" s="8"/>
       <c r="F213" s="8"/>
     </row>
-    <row r="214" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="6"/>
       <c r="B214" s="14"/>
       <c r="C214" s="11"/>
@@ -3798,7 +3891,7 @@
       <c r="E214" s="8"/>
       <c r="F214" s="8"/>
     </row>
-    <row r="215" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="6"/>
       <c r="B215" s="14"/>
       <c r="C215" s="11"/>
@@ -3806,7 +3899,7 @@
       <c r="E215" s="8"/>
       <c r="F215" s="8"/>
     </row>
-    <row r="216" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="6"/>
       <c r="B216" s="14"/>
       <c r="C216" s="11"/>
@@ -3814,7 +3907,7 @@
       <c r="E216" s="8"/>
       <c r="F216" s="8"/>
     </row>
-    <row r="217" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="6"/>
       <c r="B217" s="14"/>
       <c r="C217" s="11"/>
@@ -3822,7 +3915,7 @@
       <c r="E217" s="8"/>
       <c r="F217" s="8"/>
     </row>
-    <row r="218" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="6"/>
       <c r="B218" s="14"/>
       <c r="C218" s="11"/>
@@ -3830,7 +3923,7 @@
       <c r="E218" s="8"/>
       <c r="F218" s="8"/>
     </row>
-    <row r="219" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="6"/>
       <c r="B219" s="14"/>
       <c r="C219" s="11"/>
@@ -3838,7 +3931,7 @@
       <c r="E219" s="8"/>
       <c r="F219" s="8"/>
     </row>
-    <row r="220" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="6"/>
       <c r="B220" s="14"/>
       <c r="C220" s="11"/>
@@ -3846,7 +3939,7 @@
       <c r="E220" s="8"/>
       <c r="F220" s="8"/>
     </row>
-    <row r="221" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="6"/>
       <c r="B221" s="14"/>
       <c r="C221" s="11"/>
@@ -3854,7 +3947,7 @@
       <c r="E221" s="8"/>
       <c r="F221" s="8"/>
     </row>
-    <row r="222" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="6"/>
       <c r="B222" s="14"/>
       <c r="C222" s="11"/>
@@ -3862,7 +3955,7 @@
       <c r="E222" s="8"/>
       <c r="F222" s="8"/>
     </row>
-    <row r="223" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="6"/>
       <c r="B223" s="14"/>
       <c r="C223" s="11"/>
@@ -3870,7 +3963,7 @@
       <c r="E223" s="8"/>
       <c r="F223" s="8"/>
     </row>
-    <row r="224" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="6"/>
       <c r="B224" s="14"/>
       <c r="C224" s="11"/>
@@ -3878,7 +3971,7 @@
       <c r="E224" s="8"/>
       <c r="F224" s="8"/>
     </row>
-    <row r="225" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="6"/>
       <c r="B225" s="14"/>
       <c r="C225" s="11"/>
@@ -3886,7 +3979,7 @@
       <c r="E225" s="8"/>
       <c r="F225" s="8"/>
     </row>
-    <row r="226" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="6"/>
       <c r="B226" s="14"/>
       <c r="C226" s="11"/>
@@ -3894,7 +3987,7 @@
       <c r="E226" s="8"/>
       <c r="F226" s="8"/>
     </row>
-    <row r="227" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="6"/>
       <c r="B227" s="14"/>
       <c r="C227" s="11"/>
@@ -3902,7 +3995,7 @@
       <c r="E227" s="8"/>
       <c r="F227" s="8"/>
     </row>
-    <row r="228" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="6"/>
       <c r="B228" s="14"/>
       <c r="C228" s="11"/>
@@ -3910,7 +4003,7 @@
       <c r="E228" s="8"/>
       <c r="F228" s="8"/>
     </row>
-    <row r="229" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="6"/>
       <c r="B229" s="14"/>
       <c r="C229" s="11"/>
@@ -3918,7 +4011,7 @@
       <c r="E229" s="8"/>
       <c r="F229" s="8"/>
     </row>
-    <row r="230" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="6"/>
       <c r="B230" s="14"/>
       <c r="C230" s="11"/>
@@ -3926,7 +4019,7 @@
       <c r="E230" s="8"/>
       <c r="F230" s="8"/>
     </row>
-    <row r="231" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="6"/>
       <c r="B231" s="14"/>
       <c r="C231" s="11"/>
@@ -3934,7 +4027,7 @@
       <c r="E231" s="8"/>
       <c r="F231" s="8"/>
     </row>
-    <row r="232" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="6"/>
       <c r="B232" s="14"/>
       <c r="C232" s="11"/>
@@ -3942,7 +4035,7 @@
       <c r="E232" s="8"/>
       <c r="F232" s="8"/>
     </row>
-    <row r="233" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="6"/>
       <c r="B233" s="14"/>
       <c r="C233" s="11"/>
@@ -3950,7 +4043,7 @@
       <c r="E233" s="8"/>
       <c r="F233" s="8"/>
     </row>
-    <row r="234" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="6"/>
       <c r="B234" s="14"/>
       <c r="C234" s="11"/>
@@ -3958,7 +4051,7 @@
       <c r="E234" s="8"/>
       <c r="F234" s="8"/>
     </row>
-    <row r="235" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="6"/>
       <c r="B235" s="14"/>
       <c r="C235" s="11"/>
@@ -3966,7 +4059,7 @@
       <c r="E235" s="8"/>
       <c r="F235" s="8"/>
     </row>
-    <row r="236" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="6"/>
       <c r="B236" s="14"/>
       <c r="C236" s="11"/>
@@ -3974,7 +4067,7 @@
       <c r="E236" s="8"/>
       <c r="F236" s="8"/>
     </row>
-    <row r="237" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="6"/>
       <c r="B237" s="14"/>
       <c r="C237" s="11"/>
@@ -3982,7 +4075,7 @@
       <c r="E237" s="8"/>
       <c r="F237" s="8"/>
     </row>
-    <row r="238" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="6"/>
       <c r="B238" s="14"/>
       <c r="C238" s="11"/>
@@ -3990,7 +4083,7 @@
       <c r="E238" s="8"/>
       <c r="F238" s="8"/>
     </row>
-    <row r="239" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="6"/>
       <c r="B239" s="14"/>
       <c r="C239" s="11"/>
@@ -3998,7 +4091,7 @@
       <c r="E239" s="8"/>
       <c r="F239" s="8"/>
     </row>
-    <row r="240" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="6"/>
       <c r="B240" s="14"/>
       <c r="C240" s="11"/>
@@ -4006,7 +4099,7 @@
       <c r="E240" s="8"/>
       <c r="F240" s="8"/>
     </row>
-    <row r="241" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="6"/>
       <c r="B241" s="14"/>
       <c r="C241" s="11"/>
@@ -4014,7 +4107,7 @@
       <c r="E241" s="8"/>
       <c r="F241" s="8"/>
     </row>
-    <row r="242" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="6"/>
       <c r="B242" s="14"/>
       <c r="C242" s="11"/>
@@ -4022,7 +4115,7 @@
       <c r="E242" s="8"/>
       <c r="F242" s="8"/>
     </row>
-    <row r="243" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="6"/>
       <c r="B243" s="14"/>
       <c r="C243" s="11"/>
@@ -4030,7 +4123,7 @@
       <c r="E243" s="8"/>
       <c r="F243" s="8"/>
     </row>
-    <row r="244" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="6"/>
       <c r="B244" s="14"/>
       <c r="C244" s="11"/>
@@ -4038,7 +4131,7 @@
       <c r="E244" s="8"/>
       <c r="F244" s="8"/>
     </row>
-    <row r="245" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="6"/>
       <c r="B245" s="14"/>
       <c r="C245" s="11"/>
@@ -4046,7 +4139,7 @@
       <c r="E245" s="8"/>
       <c r="F245" s="8"/>
     </row>
-    <row r="246" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="6"/>
       <c r="B246" s="14"/>
       <c r="C246" s="11"/>
@@ -4054,7 +4147,7 @@
       <c r="E246" s="8"/>
       <c r="F246" s="8"/>
     </row>
-    <row r="247" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="6"/>
       <c r="B247" s="14"/>
       <c r="C247" s="11"/>
@@ -4062,7 +4155,7 @@
       <c r="E247" s="8"/>
       <c r="F247" s="8"/>
     </row>
-    <row r="248" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A248" s="6"/>
       <c r="B248" s="14"/>
       <c r="C248" s="11"/>
@@ -4070,7 +4163,7 @@
       <c r="E248" s="8"/>
       <c r="F248" s="8"/>
     </row>
-    <row r="249" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A249" s="6"/>
       <c r="B249" s="14"/>
       <c r="C249" s="11"/>
@@ -4078,7 +4171,7 @@
       <c r="E249" s="8"/>
       <c r="F249" s="8"/>
     </row>
-    <row r="250" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A250" s="6"/>
       <c r="B250" s="14"/>
       <c r="C250" s="11"/>
@@ -4086,7 +4179,7 @@
       <c r="E250" s="8"/>
       <c r="F250" s="8"/>
     </row>
-    <row r="251" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A251" s="6"/>
       <c r="B251" s="14"/>
       <c r="C251" s="11"/>
@@ -4094,7 +4187,7 @@
       <c r="E251" s="8"/>
       <c r="F251" s="8"/>
     </row>
-    <row r="252" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A252" s="6"/>
       <c r="B252" s="14"/>
       <c r="C252" s="11"/>
@@ -4102,7 +4195,7 @@
       <c r="E252" s="8"/>
       <c r="F252" s="8"/>
     </row>
-    <row r="253" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A253" s="6"/>
       <c r="B253" s="14"/>
       <c r="C253" s="11"/>
@@ -4110,7 +4203,7 @@
       <c r="E253" s="8"/>
       <c r="F253" s="8"/>
     </row>
-    <row r="254" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A254" s="6"/>
       <c r="B254" s="14"/>
       <c r="C254" s="11"/>
@@ -4118,7 +4211,7 @@
       <c r="E254" s="8"/>
       <c r="F254" s="8"/>
     </row>
-    <row r="255" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A255" s="6"/>
       <c r="B255" s="14"/>
       <c r="C255" s="11"/>
@@ -4126,7 +4219,7 @@
       <c r="E255" s="8"/>
       <c r="F255" s="8"/>
     </row>
-    <row r="256" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A256" s="6"/>
       <c r="B256" s="14"/>
       <c r="C256" s="11"/>
@@ -4134,7 +4227,7 @@
       <c r="E256" s="8"/>
       <c r="F256" s="8"/>
     </row>
-    <row r="257" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A257" s="6"/>
       <c r="B257" s="14"/>
       <c r="C257" s="11"/>
@@ -4142,7 +4235,7 @@
       <c r="E257" s="8"/>
       <c r="F257" s="8"/>
     </row>
-    <row r="258" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A258" s="6"/>
       <c r="B258" s="14"/>
       <c r="C258" s="11"/>
@@ -4150,7 +4243,7 @@
       <c r="E258" s="8"/>
       <c r="F258" s="8"/>
     </row>
-    <row r="259" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A259" s="6"/>
       <c r="B259" s="14"/>
       <c r="C259" s="11"/>
@@ -4158,7 +4251,7 @@
       <c r="E259" s="8"/>
       <c r="F259" s="8"/>
     </row>
-    <row r="260" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A260" s="6"/>
       <c r="B260" s="14"/>
       <c r="C260" s="11"/>
@@ -4166,7 +4259,7 @@
       <c r="E260" s="8"/>
       <c r="F260" s="8"/>
     </row>
-    <row r="261" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A261" s="6"/>
       <c r="B261" s="14"/>
       <c r="C261" s="11"/>
@@ -4174,7 +4267,7 @@
       <c r="E261" s="8"/>
       <c r="F261" s="8"/>
     </row>
-    <row r="262" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A262" s="6"/>
       <c r="B262" s="14"/>
       <c r="C262" s="11"/>
@@ -4182,7 +4275,7 @@
       <c r="E262" s="8"/>
       <c r="F262" s="8"/>
     </row>
-    <row r="263" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A263" s="6"/>
       <c r="B263" s="14"/>
       <c r="C263" s="11"/>
@@ -4190,7 +4283,7 @@
       <c r="E263" s="8"/>
       <c r="F263" s="8"/>
     </row>
-    <row r="264" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A264" s="6"/>
       <c r="B264" s="14"/>
       <c r="C264" s="11"/>
@@ -4198,7 +4291,7 @@
       <c r="E264" s="8"/>
       <c r="F264" s="8"/>
     </row>
-    <row r="265" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A265" s="6"/>
       <c r="B265" s="14"/>
       <c r="C265" s="11"/>
@@ -4206,7 +4299,7 @@
       <c r="E265" s="8"/>
       <c r="F265" s="8"/>
     </row>
-    <row r="266" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A266" s="6"/>
       <c r="B266" s="14"/>
       <c r="C266" s="11"/>
@@ -4214,7 +4307,7 @@
       <c r="E266" s="8"/>
       <c r="F266" s="8"/>
     </row>
-    <row r="267" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A267" s="6"/>
       <c r="B267" s="14"/>
       <c r="C267" s="11"/>
@@ -4222,7 +4315,7 @@
       <c r="E267" s="8"/>
       <c r="F267" s="8"/>
     </row>
-    <row r="268" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A268" s="6"/>
       <c r="B268" s="14"/>
       <c r="C268" s="11"/>
@@ -4230,7 +4323,7 @@
       <c r="E268" s="8"/>
       <c r="F268" s="8"/>
     </row>
-    <row r="269" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A269" s="6"/>
       <c r="B269" s="14"/>
       <c r="C269" s="11"/>
@@ -4238,7 +4331,7 @@
       <c r="E269" s="8"/>
       <c r="F269" s="8"/>
     </row>
-    <row r="270" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A270" s="6"/>
       <c r="B270" s="14"/>
       <c r="C270" s="11"/>
@@ -4246,7 +4339,7 @@
       <c r="E270" s="8"/>
       <c r="F270" s="8"/>
     </row>
-    <row r="271" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A271" s="6"/>
       <c r="B271" s="14"/>
       <c r="C271" s="11"/>
@@ -4254,7 +4347,7 @@
       <c r="E271" s="8"/>
       <c r="F271" s="8"/>
     </row>
-    <row r="272" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A272" s="6"/>
       <c r="B272" s="14"/>
       <c r="C272" s="11"/>
@@ -4262,7 +4355,7 @@
       <c r="E272" s="8"/>
       <c r="F272" s="8"/>
     </row>
-    <row r="273" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A273" s="6"/>
       <c r="B273" s="14"/>
       <c r="C273" s="11"/>
@@ -4270,7 +4363,7 @@
       <c r="E273" s="8"/>
       <c r="F273" s="8"/>
     </row>
-    <row r="274" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A274" s="6"/>
       <c r="B274" s="14"/>
       <c r="C274" s="11"/>
@@ -4278,7 +4371,7 @@
       <c r="E274" s="8"/>
       <c r="F274" s="8"/>
     </row>
-    <row r="275" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A275" s="6"/>
       <c r="B275" s="14"/>
       <c r="C275" s="11"/>
@@ -4286,7 +4379,7 @@
       <c r="E275" s="8"/>
       <c r="F275" s="8"/>
     </row>
-    <row r="276" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A276" s="6"/>
       <c r="B276" s="14"/>
       <c r="C276" s="11"/>
@@ -4294,7 +4387,7 @@
       <c r="E276" s="8"/>
       <c r="F276" s="8"/>
     </row>
-    <row r="277" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A277" s="6"/>
       <c r="B277" s="14"/>
       <c r="C277" s="11"/>
@@ -4302,7 +4395,7 @@
       <c r="E277" s="8"/>
       <c r="F277" s="8"/>
     </row>
-    <row r="278" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A278" s="6"/>
       <c r="B278" s="14"/>
       <c r="C278" s="11"/>
@@ -4310,7 +4403,7 @@
       <c r="E278" s="8"/>
       <c r="F278" s="8"/>
     </row>
-    <row r="279" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A279" s="6"/>
       <c r="B279" s="14"/>
       <c r="C279" s="11"/>
@@ -4318,7 +4411,7 @@
       <c r="E279" s="8"/>
       <c r="F279" s="8"/>
     </row>
-    <row r="280" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A280" s="6"/>
       <c r="B280" s="14"/>
       <c r="C280" s="11"/>
@@ -4326,7 +4419,7 @@
       <c r="E280" s="8"/>
       <c r="F280" s="8"/>
     </row>
-    <row r="281" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A281" s="6"/>
       <c r="B281" s="14"/>
       <c r="C281" s="11"/>
@@ -4334,7 +4427,7 @@
       <c r="E281" s="8"/>
       <c r="F281" s="8"/>
     </row>
-    <row r="282" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A282" s="6"/>
       <c r="B282" s="14"/>
       <c r="C282" s="11"/>
@@ -4342,7 +4435,7 @@
       <c r="E282" s="8"/>
       <c r="F282" s="8"/>
     </row>
-    <row r="283" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A283" s="6"/>
       <c r="B283" s="14"/>
       <c r="C283" s="11"/>
@@ -4350,7 +4443,7 @@
       <c r="E283" s="8"/>
       <c r="F283" s="8"/>
     </row>
-    <row r="284" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A284" s="6"/>
       <c r="B284" s="14"/>
       <c r="C284" s="11"/>
@@ -4358,7 +4451,7 @@
       <c r="E284" s="8"/>
       <c r="F284" s="8"/>
     </row>
-    <row r="285" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A285" s="6"/>
       <c r="B285" s="14"/>
       <c r="C285" s="11"/>
@@ -4366,7 +4459,7 @@
       <c r="E285" s="8"/>
       <c r="F285" s="8"/>
     </row>
-    <row r="286" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A286" s="6"/>
       <c r="B286" s="14"/>
       <c r="C286" s="11"/>
@@ -4374,7 +4467,7 @@
       <c r="E286" s="8"/>
       <c r="F286" s="8"/>
     </row>
-    <row r="287" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A287" s="6"/>
       <c r="B287" s="14"/>
       <c r="C287" s="11"/>
@@ -4382,7 +4475,7 @@
       <c r="E287" s="8"/>
       <c r="F287" s="8"/>
     </row>
-    <row r="288" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A288" s="6"/>
       <c r="B288" s="14"/>
       <c r="C288" s="11"/>
@@ -4390,7 +4483,7 @@
       <c r="E288" s="8"/>
       <c r="F288" s="8"/>
     </row>
-    <row r="289" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A289" s="6"/>
       <c r="B289" s="14"/>
       <c r="C289" s="11"/>
@@ -4398,7 +4491,7 @@
       <c r="E289" s="8"/>
       <c r="F289" s="8"/>
     </row>
-    <row r="290" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A290" s="6"/>
       <c r="B290" s="14"/>
       <c r="C290" s="11"/>
@@ -4406,7 +4499,7 @@
       <c r="E290" s="8"/>
       <c r="F290" s="8"/>
     </row>
-    <row r="291" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A291" s="6"/>
       <c r="B291" s="14"/>
       <c r="C291" s="11"/>
@@ -4414,7 +4507,7 @@
       <c r="E291" s="8"/>
       <c r="F291" s="8"/>
     </row>
-    <row r="292" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A292" s="6"/>
       <c r="B292" s="14"/>
       <c r="C292" s="11"/>
@@ -4422,7 +4515,7 @@
       <c r="E292" s="8"/>
       <c r="F292" s="8"/>
     </row>
-    <row r="293" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A293" s="6"/>
       <c r="B293" s="14"/>
       <c r="C293" s="11"/>
@@ -4430,7 +4523,7 @@
       <c r="E293" s="8"/>
       <c r="F293" s="8"/>
     </row>
-    <row r="294" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A294" s="6"/>
       <c r="B294" s="14"/>
       <c r="C294" s="11"/>
@@ -4438,7 +4531,7 @@
       <c r="E294" s="8"/>
       <c r="F294" s="8"/>
     </row>
-    <row r="295" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A295" s="6"/>
       <c r="B295" s="14"/>
       <c r="C295" s="11"/>
@@ -4446,7 +4539,7 @@
       <c r="E295" s="8"/>
       <c r="F295" s="8"/>
     </row>
-    <row r="296" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A296" s="6"/>
       <c r="B296" s="14"/>
       <c r="C296" s="11"/>
@@ -4454,7 +4547,7 @@
       <c r="E296" s="8"/>
       <c r="F296" s="8"/>
     </row>
-    <row r="297" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A297" s="6"/>
       <c r="B297" s="14"/>
       <c r="C297" s="11"/>
@@ -4462,7 +4555,7 @@
       <c r="E297" s="8"/>
       <c r="F297" s="8"/>
     </row>
-    <row r="298" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A298" s="6"/>
       <c r="B298" s="14"/>
       <c r="C298" s="11"/>
@@ -4470,7 +4563,7 @@
       <c r="E298" s="8"/>
       <c r="F298" s="8"/>
     </row>
-    <row r="299" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A299" s="6"/>
       <c r="B299" s="14"/>
       <c r="C299" s="11"/>
@@ -4478,7 +4571,7 @@
       <c r="E299" s="8"/>
       <c r="F299" s="8"/>
     </row>
-    <row r="300" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A300" s="6"/>
       <c r="B300" s="14"/>
       <c r="C300" s="11"/>
@@ -4486,7 +4579,7 @@
       <c r="E300" s="8"/>
       <c r="F300" s="8"/>
     </row>
-    <row r="301" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A301" s="6"/>
       <c r="B301" s="14"/>
       <c r="C301" s="11"/>
@@ -4494,7 +4587,7 @@
       <c r="E301" s="8"/>
       <c r="F301" s="8"/>
     </row>
-    <row r="302" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A302" s="6"/>
       <c r="B302" s="14"/>
       <c r="C302" s="11"/>
@@ -4502,7 +4595,7 @@
       <c r="E302" s="8"/>
       <c r="F302" s="8"/>
     </row>
-    <row r="303" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A303" s="6"/>
       <c r="B303" s="14"/>
       <c r="C303" s="11"/>
@@ -4510,7 +4603,7 @@
       <c r="E303" s="8"/>
       <c r="F303" s="8"/>
     </row>
-    <row r="304" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A304" s="6"/>
       <c r="B304" s="14"/>
       <c r="C304" s="11"/>
@@ -4518,7 +4611,7 @@
       <c r="E304" s="8"/>
       <c r="F304" s="8"/>
     </row>
-    <row r="305" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A305" s="6"/>
       <c r="B305" s="14"/>
       <c r="C305" s="11"/>
@@ -4526,7 +4619,7 @@
       <c r="E305" s="8"/>
       <c r="F305" s="8"/>
     </row>
-    <row r="306" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A306" s="6"/>
       <c r="B306" s="14"/>
       <c r="C306" s="11"/>
@@ -4534,7 +4627,7 @@
       <c r="E306" s="8"/>
       <c r="F306" s="8"/>
     </row>
-    <row r="307" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A307" s="6"/>
       <c r="B307" s="14"/>
       <c r="C307" s="11"/>
@@ -4542,7 +4635,7 @@
       <c r="E307" s="8"/>
       <c r="F307" s="8"/>
     </row>
-    <row r="308" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A308" s="6"/>
       <c r="B308" s="14"/>
       <c r="C308" s="11"/>
@@ -4550,7 +4643,7 @@
       <c r="E308" s="8"/>
       <c r="F308" s="8"/>
     </row>
-    <row r="309" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A309" s="6"/>
       <c r="B309" s="14"/>
       <c r="C309" s="11"/>
@@ -4558,7 +4651,7 @@
       <c r="E309" s="8"/>
       <c r="F309" s="8"/>
     </row>
-    <row r="310" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A310" s="6"/>
       <c r="B310" s="14"/>
       <c r="C310" s="11"/>
@@ -4566,7 +4659,7 @@
       <c r="E310" s="8"/>
       <c r="F310" s="8"/>
     </row>
-    <row r="311" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A311" s="6"/>
       <c r="B311" s="14"/>
       <c r="C311" s="11"/>
@@ -4574,7 +4667,7 @@
       <c r="E311" s="8"/>
       <c r="F311" s="8"/>
     </row>
-    <row r="312" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A312" s="6"/>
       <c r="B312" s="14"/>
       <c r="C312" s="11"/>
@@ -4582,7 +4675,7 @@
       <c r="E312" s="8"/>
       <c r="F312" s="8"/>
     </row>
-    <row r="313" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A313" s="6"/>
       <c r="B313" s="14"/>
       <c r="C313" s="11"/>
@@ -4590,7 +4683,7 @@
       <c r="E313" s="8"/>
       <c r="F313" s="8"/>
     </row>
-    <row r="314" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A314" s="6"/>
       <c r="B314" s="14"/>
       <c r="C314" s="11"/>
@@ -4598,7 +4691,7 @@
       <c r="E314" s="8"/>
       <c r="F314" s="8"/>
     </row>
-    <row r="315" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A315" s="6"/>
       <c r="B315" s="14"/>
       <c r="C315" s="11"/>
@@ -4606,7 +4699,7 @@
       <c r="E315" s="8"/>
       <c r="F315" s="8"/>
     </row>
-    <row r="316" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A316" s="6"/>
       <c r="B316" s="14"/>
       <c r="C316" s="11"/>
@@ -4614,7 +4707,7 @@
       <c r="E316" s="8"/>
       <c r="F316" s="8"/>
     </row>
-    <row r="317" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A317" s="6"/>
       <c r="B317" s="14"/>
       <c r="C317" s="11"/>
@@ -4622,7 +4715,7 @@
       <c r="E317" s="8"/>
       <c r="F317" s="8"/>
     </row>
-    <row r="318" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A318" s="6"/>
       <c r="B318" s="14"/>
       <c r="C318" s="11"/>
@@ -4630,7 +4723,7 @@
       <c r="E318" s="8"/>
       <c r="F318" s="8"/>
     </row>
-    <row r="319" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A319" s="6"/>
       <c r="B319" s="14"/>
       <c r="C319" s="11"/>
@@ -4638,7 +4731,7 @@
       <c r="E319" s="8"/>
       <c r="F319" s="8"/>
     </row>
-    <row r="320" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A320" s="6"/>
       <c r="B320" s="14"/>
       <c r="C320" s="11"/>
@@ -4646,7 +4739,7 @@
       <c r="E320" s="8"/>
       <c r="F320" s="8"/>
     </row>
-    <row r="321" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A321" s="6"/>
       <c r="B321" s="14"/>
       <c r="C321" s="11"/>
@@ -4654,7 +4747,7 @@
       <c r="E321" s="8"/>
       <c r="F321" s="8"/>
     </row>
-    <row r="322" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A322" s="6"/>
       <c r="B322" s="14"/>
       <c r="C322" s="11"/>
@@ -4662,7 +4755,7 @@
       <c r="E322" s="8"/>
       <c r="F322" s="8"/>
     </row>
-    <row r="323" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A323" s="6"/>
       <c r="B323" s="14"/>
       <c r="C323" s="11"/>
@@ -4670,7 +4763,7 @@
       <c r="E323" s="8"/>
       <c r="F323" s="8"/>
     </row>
-    <row r="324" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A324" s="6"/>
       <c r="B324" s="14"/>
       <c r="C324" s="11"/>
@@ -4678,7 +4771,7 @@
       <c r="E324" s="8"/>
       <c r="F324" s="8"/>
     </row>
-    <row r="325" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A325" s="6"/>
       <c r="B325" s="14"/>
       <c r="C325" s="11"/>
@@ -4686,7 +4779,7 @@
       <c r="E325" s="8"/>
       <c r="F325" s="8"/>
     </row>
-    <row r="326" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A326" s="6"/>
       <c r="B326" s="14"/>
       <c r="C326" s="11"/>
@@ -4694,7 +4787,7 @@
       <c r="E326" s="8"/>
       <c r="F326" s="8"/>
     </row>
-    <row r="327" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A327" s="6"/>
       <c r="B327" s="14"/>
       <c r="C327" s="11"/>
@@ -4702,7 +4795,7 @@
       <c r="E327" s="8"/>
       <c r="F327" s="8"/>
     </row>
-    <row r="328" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A328" s="6"/>
       <c r="B328" s="14"/>
       <c r="C328" s="11"/>
@@ -4710,7 +4803,7 @@
       <c r="E328" s="8"/>
       <c r="F328" s="8"/>
     </row>
-    <row r="329" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A329" s="6"/>
       <c r="B329" s="14"/>
       <c r="C329" s="11"/>
@@ -4718,7 +4811,7 @@
       <c r="E329" s="8"/>
       <c r="F329" s="8"/>
     </row>
-    <row r="330" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A330" s="6"/>
       <c r="B330" s="14"/>
       <c r="C330" s="11"/>
@@ -4726,7 +4819,7 @@
       <c r="E330" s="8"/>
       <c r="F330" s="8"/>
     </row>
-    <row r="331" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A331" s="6"/>
       <c r="B331" s="14"/>
       <c r="C331" s="11"/>
@@ -4734,7 +4827,7 @@
       <c r="E331" s="8"/>
       <c r="F331" s="8"/>
     </row>
-    <row r="332" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A332" s="6"/>
       <c r="B332" s="14"/>
       <c r="C332" s="11"/>
@@ -4742,7 +4835,7 @@
       <c r="E332" s="8"/>
       <c r="F332" s="8"/>
     </row>
-    <row r="333" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A333" s="6"/>
       <c r="B333" s="14"/>
       <c r="C333" s="11"/>
@@ -4750,7 +4843,7 @@
       <c r="E333" s="8"/>
       <c r="F333" s="8"/>
     </row>
-    <row r="334" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A334" s="6"/>
       <c r="B334" s="14"/>
       <c r="C334" s="11"/>
@@ -4758,7 +4851,7 @@
       <c r="E334" s="8"/>
       <c r="F334" s="8"/>
     </row>
-    <row r="335" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A335" s="6"/>
       <c r="B335" s="14"/>
       <c r="C335" s="11"/>
@@ -4766,7 +4859,7 @@
       <c r="E335" s="8"/>
       <c r="F335" s="8"/>
     </row>
-    <row r="336" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A336" s="6"/>
       <c r="B336" s="14"/>
       <c r="C336" s="11"/>
@@ -4774,7 +4867,7 @@
       <c r="E336" s="8"/>
       <c r="F336" s="8"/>
     </row>
-    <row r="337" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A337" s="6"/>
       <c r="B337" s="14"/>
       <c r="C337" s="11"/>
@@ -4782,7 +4875,7 @@
       <c r="E337" s="8"/>
       <c r="F337" s="8"/>
     </row>
-    <row r="338" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A338" s="6"/>
       <c r="B338" s="14"/>
       <c r="C338" s="11"/>
@@ -4790,7 +4883,7 @@
       <c r="E338" s="8"/>
       <c r="F338" s="8"/>
     </row>
-    <row r="339" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A339" s="6"/>
       <c r="B339" s="14"/>
       <c r="C339" s="11"/>
@@ -4798,7 +4891,7 @@
       <c r="E339" s="8"/>
       <c r="F339" s="8"/>
     </row>
-    <row r="340" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A340" s="6"/>
       <c r="B340" s="14"/>
       <c r="C340" s="11"/>
@@ -4806,7 +4899,7 @@
       <c r="E340" s="8"/>
       <c r="F340" s="8"/>
     </row>
-    <row r="341" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A341" s="6"/>
       <c r="B341" s="14"/>
       <c r="C341" s="11"/>
@@ -4814,7 +4907,7 @@
       <c r="E341" s="8"/>
       <c r="F341" s="8"/>
     </row>
-    <row r="342" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A342" s="6"/>
       <c r="B342" s="14"/>
       <c r="C342" s="11"/>
@@ -4822,7 +4915,7 @@
       <c r="E342" s="8"/>
       <c r="F342" s="8"/>
     </row>
-    <row r="343" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A343" s="6"/>
       <c r="B343" s="14"/>
       <c r="C343" s="11"/>
@@ -4830,7 +4923,7 @@
       <c r="E343" s="8"/>
       <c r="F343" s="8"/>
     </row>
-    <row r="344" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A344" s="6"/>
       <c r="B344" s="14"/>
       <c r="C344" s="11"/>
@@ -4838,7 +4931,7 @@
       <c r="E344" s="8"/>
       <c r="F344" s="8"/>
     </row>
-    <row r="345" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A345" s="6"/>
       <c r="B345" s="14"/>
       <c r="C345" s="11"/>
@@ -4846,7 +4939,7 @@
       <c r="E345" s="8"/>
       <c r="F345" s="8"/>
     </row>
-    <row r="346" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A346" s="6"/>
       <c r="B346" s="14"/>
       <c r="C346" s="11"/>
@@ -4854,7 +4947,7 @@
       <c r="E346" s="8"/>
       <c r="F346" s="8"/>
     </row>
-    <row r="347" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A347" s="6"/>
       <c r="B347" s="14"/>
       <c r="C347" s="11"/>
@@ -4862,7 +4955,7 @@
       <c r="E347" s="8"/>
       <c r="F347" s="8"/>
     </row>
-    <row r="348" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A348" s="6"/>
       <c r="B348" s="14"/>
       <c r="C348" s="11"/>
@@ -4870,7 +4963,7 @@
       <c r="E348" s="8"/>
       <c r="F348" s="8"/>
     </row>
-    <row r="349" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A349" s="6"/>
       <c r="B349" s="14"/>
       <c r="C349" s="11"/>
@@ -4878,7 +4971,7 @@
       <c r="E349" s="8"/>
       <c r="F349" s="8"/>
     </row>
-    <row r="350" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A350" s="6"/>
       <c r="B350" s="14"/>
       <c r="C350" s="11"/>
@@ -4886,7 +4979,7 @@
       <c r="E350" s="8"/>
       <c r="F350" s="8"/>
     </row>
-    <row r="351" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A351" s="6"/>
       <c r="B351" s="14"/>
       <c r="C351" s="11"/>
@@ -4894,7 +4987,7 @@
       <c r="E351" s="8"/>
       <c r="F351" s="8"/>
     </row>
-    <row r="352" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A352" s="6"/>
       <c r="B352" s="14"/>
       <c r="C352" s="11"/>
@@ -4902,7 +4995,7 @@
       <c r="E352" s="8"/>
       <c r="F352" s="8"/>
     </row>
-    <row r="353" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A353" s="6"/>
       <c r="B353" s="14"/>
       <c r="C353" s="11"/>
@@ -4910,7 +5003,7 @@
       <c r="E353" s="8"/>
       <c r="F353" s="8"/>
     </row>
-    <row r="354" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A354" s="6"/>
       <c r="B354" s="14"/>
       <c r="C354" s="11"/>
@@ -4918,7 +5011,7 @@
       <c r="E354" s="8"/>
       <c r="F354" s="8"/>
     </row>
-    <row r="355" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A355" s="6"/>
       <c r="B355" s="14"/>
       <c r="C355" s="11"/>
@@ -4926,7 +5019,7 @@
       <c r="E355" s="8"/>
       <c r="F355" s="8"/>
     </row>
-    <row r="356" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A356" s="6"/>
       <c r="B356" s="14"/>
       <c r="C356" s="11"/>
@@ -4934,7 +5027,7 @@
       <c r="E356" s="8"/>
       <c r="F356" s="8"/>
     </row>
-    <row r="357" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A357" s="6"/>
       <c r="B357" s="14"/>
       <c r="C357" s="11"/>
@@ -4942,7 +5035,7 @@
       <c r="E357" s="8"/>
       <c r="F357" s="8"/>
     </row>
-    <row r="358" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A358" s="6"/>
       <c r="B358" s="14"/>
       <c r="C358" s="11"/>
@@ -4950,7 +5043,7 @@
       <c r="E358" s="8"/>
       <c r="F358" s="8"/>
     </row>
-    <row r="359" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A359" s="6"/>
       <c r="B359" s="14"/>
       <c r="C359" s="11"/>
@@ -4958,7 +5051,7 @@
       <c r="E359" s="8"/>
       <c r="F359" s="8"/>
     </row>
-    <row r="360" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A360" s="6"/>
       <c r="B360" s="14"/>
       <c r="C360" s="11"/>
@@ -4966,7 +5059,7 @@
       <c r="E360" s="8"/>
       <c r="F360" s="8"/>
     </row>
-    <row r="361" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A361" s="6"/>
       <c r="B361" s="14"/>
       <c r="C361" s="11"/>
@@ -4974,7 +5067,7 @@
       <c r="E361" s="8"/>
       <c r="F361" s="8"/>
     </row>
-    <row r="362" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A362" s="6"/>
       <c r="B362" s="14"/>
       <c r="C362" s="11"/>
@@ -4982,7 +5075,7 @@
       <c r="E362" s="8"/>
       <c r="F362" s="8"/>
     </row>
-    <row r="363" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A363" s="6"/>
       <c r="B363" s="14"/>
       <c r="C363" s="11"/>
@@ -4990,7 +5083,7 @@
       <c r="E363" s="8"/>
       <c r="F363" s="8"/>
     </row>
-    <row r="364" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A364" s="6"/>
       <c r="B364" s="14"/>
       <c r="C364" s="11"/>
@@ -4998,7 +5091,7 @@
       <c r="E364" s="8"/>
       <c r="F364" s="8"/>
     </row>
-    <row r="365" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A365" s="6"/>
       <c r="B365" s="14"/>
       <c r="C365" s="11"/>
@@ -5006,7 +5099,7 @@
       <c r="E365" s="8"/>
       <c r="F365" s="8"/>
     </row>
-    <row r="366" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A366" s="6"/>
       <c r="B366" s="14"/>
       <c r="C366" s="11"/>
@@ -5014,7 +5107,7 @@
       <c r="E366" s="8"/>
       <c r="F366" s="8"/>
     </row>
-    <row r="367" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A367" s="6"/>
       <c r="B367" s="14"/>
       <c r="C367" s="11"/>
@@ -5022,7 +5115,7 @@
       <c r="E367" s="8"/>
       <c r="F367" s="8"/>
     </row>
-    <row r="368" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A368" s="6"/>
       <c r="B368" s="14"/>
       <c r="C368" s="11"/>
@@ -5030,7 +5123,7 @@
       <c r="E368" s="8"/>
       <c r="F368" s="8"/>
     </row>
-    <row r="369" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A369" s="6"/>
       <c r="B369" s="14"/>
       <c r="C369" s="11"/>
@@ -5038,7 +5131,7 @@
       <c r="E369" s="8"/>
       <c r="F369" s="8"/>
     </row>
-    <row r="370" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A370" s="6"/>
       <c r="B370" s="14"/>
       <c r="C370" s="11"/>
@@ -5046,7 +5139,7 @@
       <c r="E370" s="8"/>
       <c r="F370" s="8"/>
     </row>
-    <row r="371" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A371" s="6"/>
       <c r="B371" s="14"/>
       <c r="C371" s="11"/>
@@ -5054,7 +5147,7 @@
       <c r="E371" s="8"/>
       <c r="F371" s="8"/>
     </row>
-    <row r="372" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A372" s="6"/>
       <c r="B372" s="14"/>
       <c r="C372" s="11"/>
@@ -5062,7 +5155,7 @@
       <c r="E372" s="8"/>
       <c r="F372" s="8"/>
     </row>
-    <row r="373" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A373" s="6"/>
       <c r="B373" s="14"/>
       <c r="C373" s="11"/>
@@ -5070,7 +5163,7 @@
       <c r="E373" s="8"/>
       <c r="F373" s="8"/>
     </row>
-    <row r="374" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A374" s="6"/>
       <c r="B374" s="14"/>
       <c r="C374" s="11"/>
@@ -5078,7 +5171,7 @@
       <c r="E374" s="8"/>
       <c r="F374" s="8"/>
     </row>
-    <row r="375" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A375" s="6"/>
       <c r="B375" s="14"/>
       <c r="C375" s="11"/>
@@ -5086,7 +5179,7 @@
       <c r="E375" s="8"/>
       <c r="F375" s="8"/>
     </row>
-    <row r="376" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A376" s="6"/>
       <c r="B376" s="14"/>
       <c r="C376" s="11"/>
@@ -5094,7 +5187,7 @@
       <c r="E376" s="8"/>
       <c r="F376" s="8"/>
     </row>
-    <row r="377" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A377" s="6"/>
       <c r="B377" s="14"/>
       <c r="C377" s="11"/>
@@ -5102,7 +5195,7 @@
       <c r="E377" s="8"/>
       <c r="F377" s="8"/>
     </row>
-    <row r="378" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A378" s="6"/>
       <c r="B378" s="14"/>
       <c r="C378" s="11"/>
@@ -5110,7 +5203,7 @@
       <c r="E378" s="8"/>
       <c r="F378" s="8"/>
     </row>
-    <row r="379" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A379" s="6"/>
       <c r="B379" s="14"/>
       <c r="C379" s="11"/>
@@ -5118,7 +5211,7 @@
       <c r="E379" s="8"/>
       <c r="F379" s="8"/>
     </row>
-    <row r="380" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A380" s="6"/>
       <c r="B380" s="14"/>
       <c r="C380" s="11"/>
@@ -5126,7 +5219,7 @@
       <c r="E380" s="8"/>
       <c r="F380" s="8"/>
     </row>
-    <row r="381" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A381" s="6"/>
       <c r="B381" s="14"/>
       <c r="C381" s="11"/>
@@ -5134,7 +5227,7 @@
       <c r="E381" s="8"/>
       <c r="F381" s="8"/>
     </row>
-    <row r="382" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A382" s="6"/>
       <c r="B382" s="14"/>
       <c r="C382" s="11"/>
@@ -5142,7 +5235,7 @@
       <c r="E382" s="8"/>
       <c r="F382" s="8"/>
     </row>
-    <row r="383" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A383" s="6"/>
       <c r="B383" s="14"/>
       <c r="C383" s="11"/>
@@ -5150,7 +5243,7 @@
       <c r="E383" s="8"/>
       <c r="F383" s="8"/>
     </row>
-    <row r="384" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A384" s="6"/>
       <c r="B384" s="14"/>
       <c r="C384" s="11"/>
@@ -5158,7 +5251,7 @@
       <c r="E384" s="8"/>
       <c r="F384" s="8"/>
     </row>
-    <row r="385" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A385" s="6"/>
       <c r="B385" s="14"/>
       <c r="C385" s="11"/>
@@ -5166,7 +5259,7 @@
       <c r="E385" s="8"/>
       <c r="F385" s="8"/>
     </row>
-    <row r="386" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A386" s="6"/>
       <c r="B386" s="14"/>
       <c r="C386" s="11"/>
@@ -5174,7 +5267,7 @@
       <c r="E386" s="8"/>
       <c r="F386" s="8"/>
     </row>
-    <row r="387" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A387" s="6"/>
       <c r="B387" s="14"/>
       <c r="C387" s="11"/>
@@ -5182,7 +5275,7 @@
       <c r="E387" s="8"/>
       <c r="F387" s="8"/>
     </row>
-    <row r="388" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A388" s="6"/>
       <c r="B388" s="14"/>
       <c r="C388" s="11"/>
@@ -5190,7 +5283,7 @@
       <c r="E388" s="8"/>
       <c r="F388" s="8"/>
     </row>
-    <row r="389" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A389" s="6"/>
       <c r="B389" s="14"/>
       <c r="C389" s="11"/>
@@ -5198,7 +5291,7 @@
       <c r="E389" s="8"/>
       <c r="F389" s="8"/>
     </row>
-    <row r="390" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A390" s="6"/>
       <c r="B390" s="14"/>
       <c r="C390" s="11"/>
@@ -5206,7 +5299,7 @@
       <c r="E390" s="8"/>
       <c r="F390" s="8"/>
     </row>
-    <row r="391" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A391" s="6"/>
       <c r="B391" s="14"/>
       <c r="C391" s="11"/>
@@ -5214,7 +5307,7 @@
       <c r="E391" s="8"/>
       <c r="F391" s="8"/>
     </row>
-    <row r="392" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A392" s="6"/>
       <c r="B392" s="14"/>
       <c r="C392" s="11"/>
@@ -5222,7 +5315,7 @@
       <c r="E392" s="8"/>
       <c r="F392" s="8"/>
     </row>
-    <row r="393" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A393" s="6"/>
       <c r="B393" s="14"/>
       <c r="C393" s="11"/>
@@ -5230,7 +5323,7 @@
       <c r="E393" s="8"/>
       <c r="F393" s="8"/>
     </row>
-    <row r="394" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A394" s="6"/>
       <c r="B394" s="14"/>
       <c r="C394" s="11"/>
@@ -5238,7 +5331,7 @@
       <c r="E394" s="8"/>
       <c r="F394" s="8"/>
     </row>
-    <row r="395" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A395" s="6"/>
       <c r="B395" s="14"/>
       <c r="C395" s="11"/>
@@ -5246,7 +5339,7 @@
       <c r="E395" s="8"/>
       <c r="F395" s="8"/>
     </row>
-    <row r="396" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A396" s="6"/>
       <c r="B396" s="14"/>
       <c r="C396" s="11"/>
@@ -5254,7 +5347,7 @@
       <c r="E396" s="8"/>
       <c r="F396" s="8"/>
     </row>
-    <row r="397" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A397" s="6"/>
       <c r="B397" s="14"/>
       <c r="C397" s="11"/>
@@ -5262,7 +5355,7 @@
       <c r="E397" s="8"/>
       <c r="F397" s="8"/>
     </row>
-    <row r="398" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A398" s="6"/>
       <c r="B398" s="14"/>
       <c r="C398" s="11"/>
@@ -5270,7 +5363,7 @@
       <c r="E398" s="8"/>
       <c r="F398" s="8"/>
     </row>
-    <row r="399" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A399" s="6"/>
       <c r="B399" s="14"/>
       <c r="C399" s="11"/>
@@ -5278,7 +5371,7 @@
       <c r="E399" s="8"/>
       <c r="F399" s="8"/>
     </row>
-    <row r="400" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A400" s="6"/>
       <c r="B400" s="14"/>
       <c r="C400" s="11"/>
@@ -5286,7 +5379,7 @@
       <c r="E400" s="8"/>
       <c r="F400" s="8"/>
     </row>
-    <row r="401" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A401" s="6"/>
       <c r="B401" s="14"/>
       <c r="C401" s="11"/>
@@ -5294,7 +5387,7 @@
       <c r="E401" s="8"/>
       <c r="F401" s="8"/>
     </row>
-    <row r="402" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A402" s="6"/>
       <c r="B402" s="14"/>
       <c r="C402" s="11"/>
@@ -5302,7 +5395,7 @@
       <c r="E402" s="8"/>
       <c r="F402" s="8"/>
     </row>
-    <row r="403" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A403" s="6"/>
       <c r="B403" s="14"/>
       <c r="C403" s="11"/>
@@ -5310,7 +5403,7 @@
       <c r="E403" s="8"/>
       <c r="F403" s="8"/>
     </row>
-    <row r="404" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A404" s="6"/>
       <c r="B404" s="14"/>
       <c r="C404" s="11"/>
@@ -5318,7 +5411,7 @@
       <c r="E404" s="8"/>
       <c r="F404" s="8"/>
     </row>
-    <row r="405" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A405" s="6"/>
       <c r="B405" s="14"/>
       <c r="C405" s="11"/>
@@ -5326,7 +5419,7 @@
       <c r="E405" s="8"/>
       <c r="F405" s="8"/>
     </row>
-    <row r="406" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A406" s="6"/>
       <c r="B406" s="14"/>
       <c r="C406" s="11"/>
@@ -5334,7 +5427,7 @@
       <c r="E406" s="8"/>
       <c r="F406" s="8"/>
     </row>
-    <row r="407" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A407" s="6"/>
       <c r="B407" s="14"/>
       <c r="C407" s="11"/>
@@ -5342,7 +5435,7 @@
       <c r="E407" s="8"/>
       <c r="F407" s="8"/>
     </row>
-    <row r="408" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A408" s="6"/>
       <c r="B408" s="14"/>
       <c r="C408" s="11"/>
@@ -5350,7 +5443,7 @@
       <c r="E408" s="8"/>
       <c r="F408" s="8"/>
     </row>
-    <row r="409" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A409" s="6"/>
       <c r="B409" s="14"/>
       <c r="C409" s="11"/>
@@ -5358,7 +5451,7 @@
       <c r="E409" s="8"/>
       <c r="F409" s="8"/>
     </row>
-    <row r="410" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A410" s="6"/>
       <c r="B410" s="14"/>
       <c r="C410" s="11"/>
@@ -5366,7 +5459,7 @@
       <c r="E410" s="8"/>
       <c r="F410" s="8"/>
     </row>
-    <row r="411" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A411" s="6"/>
       <c r="B411" s="14"/>
       <c r="C411" s="11"/>
@@ -5374,7 +5467,7 @@
       <c r="E411" s="8"/>
       <c r="F411" s="8"/>
     </row>
-    <row r="412" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A412" s="6"/>
       <c r="B412" s="14"/>
       <c r="C412" s="11"/>
@@ -5382,7 +5475,7 @@
       <c r="E412" s="8"/>
       <c r="F412" s="8"/>
     </row>
-    <row r="413" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A413" s="6"/>
       <c r="B413" s="14"/>
       <c r="C413" s="11"/>
@@ -5390,7 +5483,7 @@
       <c r="E413" s="8"/>
       <c r="F413" s="8"/>
     </row>
-    <row r="414" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A414" s="6"/>
       <c r="B414" s="14"/>
       <c r="C414" s="11"/>
@@ -5398,7 +5491,7 @@
       <c r="E414" s="8"/>
       <c r="F414" s="8"/>
     </row>
-    <row r="415" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A415" s="6"/>
       <c r="B415" s="14"/>
       <c r="C415" s="11"/>
@@ -5406,7 +5499,7 @@
       <c r="E415" s="8"/>
       <c r="F415" s="8"/>
     </row>
-    <row r="416" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A416" s="6"/>
       <c r="B416" s="14"/>
       <c r="C416" s="11"/>
@@ -5414,7 +5507,7 @@
       <c r="E416" s="8"/>
       <c r="F416" s="8"/>
     </row>
-    <row r="417" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A417" s="6"/>
       <c r="B417" s="14"/>
       <c r="C417" s="11"/>
@@ -5422,7 +5515,7 @@
       <c r="E417" s="8"/>
       <c r="F417" s="8"/>
     </row>
-    <row r="418" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A418" s="6"/>
       <c r="B418" s="14"/>
       <c r="C418" s="11"/>
@@ -5430,7 +5523,7 @@
       <c r="E418" s="8"/>
       <c r="F418" s="8"/>
     </row>
-    <row r="419" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A419" s="6"/>
       <c r="B419" s="14"/>
       <c r="C419" s="11"/>
@@ -5438,7 +5531,7 @@
       <c r="E419" s="8"/>
       <c r="F419" s="8"/>
     </row>
-    <row r="420" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A420" s="6"/>
       <c r="B420" s="14"/>
       <c r="C420" s="11"/>
@@ -5446,7 +5539,7 @@
       <c r="E420" s="8"/>
       <c r="F420" s="8"/>
     </row>
-    <row r="421" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A421" s="6"/>
       <c r="B421" s="14"/>
       <c r="C421" s="11"/>
@@ -5454,7 +5547,7 @@
       <c r="E421" s="8"/>
       <c r="F421" s="8"/>
     </row>
-    <row r="422" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A422" s="6"/>
       <c r="B422" s="14"/>
       <c r="C422" s="11"/>
@@ -5462,7 +5555,7 @@
       <c r="E422" s="8"/>
       <c r="F422" s="8"/>
     </row>
-    <row r="423" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A423" s="6"/>
       <c r="B423" s="14"/>
       <c r="C423" s="11"/>
@@ -5470,7 +5563,7 @@
       <c r="E423" s="8"/>
       <c r="F423" s="8"/>
     </row>
-    <row r="424" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A424" s="6"/>
       <c r="B424" s="14"/>
       <c r="C424" s="11"/>
@@ -5478,7 +5571,7 @@
       <c r="E424" s="8"/>
       <c r="F424" s="8"/>
     </row>
-    <row r="425" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A425" s="6"/>
       <c r="B425" s="14"/>
       <c r="C425" s="11"/>
@@ -5486,7 +5579,7 @@
       <c r="E425" s="8"/>
       <c r="F425" s="8"/>
     </row>
-    <row r="426" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A426" s="6"/>
       <c r="B426" s="14"/>
       <c r="C426" s="11"/>
@@ -5494,7 +5587,7 @@
       <c r="E426" s="8"/>
       <c r="F426" s="8"/>
     </row>
-    <row r="427" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A427" s="6"/>
       <c r="B427" s="14"/>
       <c r="C427" s="11"/>
@@ -5502,7 +5595,7 @@
       <c r="E427" s="8"/>
       <c r="F427" s="8"/>
     </row>
-    <row r="428" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A428" s="6"/>
       <c r="B428" s="14"/>
       <c r="C428" s="11"/>
@@ -5510,7 +5603,7 @@
       <c r="E428" s="8"/>
       <c r="F428" s="8"/>
     </row>
-    <row r="429" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A429" s="6"/>
       <c r="B429" s="14"/>
       <c r="C429" s="11"/>
@@ -5518,7 +5611,7 @@
       <c r="E429" s="8"/>
       <c r="F429" s="8"/>
     </row>
-    <row r="430" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A430" s="6"/>
       <c r="B430" s="14"/>
       <c r="C430" s="11"/>
@@ -5526,7 +5619,7 @@
       <c r="E430" s="8"/>
       <c r="F430" s="8"/>
     </row>
-    <row r="431" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A431" s="6"/>
       <c r="B431" s="14"/>
       <c r="C431" s="11"/>
@@ -5534,7 +5627,7 @@
       <c r="E431" s="8"/>
       <c r="F431" s="8"/>
     </row>
-    <row r="432" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A432" s="6"/>
       <c r="B432" s="14"/>
       <c r="C432" s="11"/>
@@ -5542,7 +5635,7 @@
       <c r="E432" s="8"/>
       <c r="F432" s="8"/>
     </row>
-    <row r="433" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A433" s="6"/>
       <c r="B433" s="14"/>
       <c r="C433" s="11"/>
@@ -5550,7 +5643,7 @@
       <c r="E433" s="8"/>
       <c r="F433" s="8"/>
     </row>
-    <row r="434" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A434" s="6"/>
       <c r="B434" s="14"/>
       <c r="C434" s="11"/>
@@ -5558,7 +5651,7 @@
       <c r="E434" s="8"/>
       <c r="F434" s="8"/>
     </row>
-    <row r="435" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A435" s="6"/>
       <c r="B435" s="14"/>
       <c r="C435" s="11"/>
@@ -5566,7 +5659,7 @@
       <c r="E435" s="8"/>
       <c r="F435" s="8"/>
     </row>
-    <row r="436" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A436" s="6"/>
       <c r="B436" s="14"/>
       <c r="C436" s="11"/>
@@ -5574,7 +5667,7 @@
       <c r="E436" s="8"/>
       <c r="F436" s="8"/>
     </row>
-    <row r="437" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A437" s="6"/>
       <c r="B437" s="14"/>
       <c r="C437" s="11"/>
@@ -5582,7 +5675,7 @@
       <c r="E437" s="8"/>
       <c r="F437" s="8"/>
     </row>
-    <row r="438" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A438" s="6"/>
       <c r="B438" s="14"/>
       <c r="C438" s="11"/>
@@ -5590,7 +5683,7 @@
       <c r="E438" s="8"/>
       <c r="F438" s="8"/>
     </row>
-    <row r="439" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A439" s="6"/>
       <c r="B439" s="14"/>
       <c r="C439" s="11"/>
@@ -5598,7 +5691,7 @@
       <c r="E439" s="8"/>
       <c r="F439" s="8"/>
     </row>
-    <row r="440" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A440" s="6"/>
       <c r="B440" s="14"/>
       <c r="C440" s="11"/>
@@ -5606,7 +5699,7 @@
       <c r="E440" s="8"/>
       <c r="F440" s="8"/>
     </row>
-    <row r="441" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A441" s="6"/>
       <c r="B441" s="14"/>
       <c r="C441" s="11"/>
@@ -5614,7 +5707,7 @@
       <c r="E441" s="8"/>
       <c r="F441" s="8"/>
     </row>
-    <row r="442" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A442" s="6"/>
       <c r="B442" s="14"/>
       <c r="C442" s="11"/>
@@ -5622,7 +5715,7 @@
       <c r="E442" s="8"/>
       <c r="F442" s="8"/>
     </row>
-    <row r="443" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A443" s="6"/>
       <c r="B443" s="14"/>
       <c r="C443" s="11"/>
@@ -5630,7 +5723,7 @@
       <c r="E443" s="8"/>
       <c r="F443" s="8"/>
     </row>
-    <row r="444" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A444" s="6"/>
       <c r="B444" s="14"/>
       <c r="C444" s="11"/>
@@ -5638,7 +5731,7 @@
       <c r="E444" s="8"/>
       <c r="F444" s="8"/>
     </row>
-    <row r="445" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A445" s="6"/>
       <c r="B445" s="14"/>
       <c r="C445" s="11"/>
@@ -5646,7 +5739,7 @@
       <c r="E445" s="8"/>
       <c r="F445" s="8"/>
     </row>
-    <row r="446" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A446" s="6"/>
       <c r="B446" s="14"/>
       <c r="C446" s="11"/>
@@ -5654,7 +5747,7 @@
       <c r="E446" s="8"/>
       <c r="F446" s="8"/>
     </row>
-    <row r="447" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A447" s="6"/>
       <c r="B447" s="14"/>
       <c r="C447" s="11"/>
@@ -5662,7 +5755,7 @@
       <c r="E447" s="8"/>
       <c r="F447" s="8"/>
     </row>
-    <row r="448" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A448" s="6"/>
       <c r="B448" s="14"/>
       <c r="C448" s="11"/>
@@ -5670,7 +5763,7 @@
       <c r="E448" s="8"/>
       <c r="F448" s="8"/>
     </row>
-    <row r="449" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A449" s="6"/>
       <c r="B449" s="14"/>
       <c r="C449" s="11"/>
@@ -5678,7 +5771,7 @@
       <c r="E449" s="8"/>
       <c r="F449" s="8"/>
     </row>
-    <row r="450" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A450" s="6"/>
       <c r="B450" s="14"/>
       <c r="C450" s="11"/>
@@ -5686,7 +5779,7 @@
       <c r="E450" s="8"/>
       <c r="F450" s="8"/>
     </row>
-    <row r="451" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A451" s="6"/>
       <c r="B451" s="14"/>
       <c r="C451" s="11"/>
@@ -5694,7 +5787,7 @@
       <c r="E451" s="8"/>
       <c r="F451" s="8"/>
     </row>
-    <row r="452" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A452" s="6"/>
       <c r="B452" s="14"/>
       <c r="C452" s="11"/>
@@ -5702,7 +5795,7 @@
       <c r="E452" s="8"/>
       <c r="F452" s="8"/>
     </row>
-    <row r="453" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A453" s="6"/>
       <c r="B453" s="14"/>
       <c r="C453" s="11"/>
@@ -5710,7 +5803,7 @@
       <c r="E453" s="8"/>
       <c r="F453" s="8"/>
     </row>
-    <row r="454" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A454" s="6"/>
       <c r="B454" s="14"/>
       <c r="C454" s="11"/>
@@ -5718,7 +5811,7 @@
       <c r="E454" s="8"/>
       <c r="F454" s="8"/>
     </row>
-    <row r="455" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A455" s="6"/>
       <c r="B455" s="14"/>
       <c r="C455" s="11"/>
@@ -5726,7 +5819,7 @@
       <c r="E455" s="8"/>
       <c r="F455" s="8"/>
     </row>
-    <row r="456" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A456" s="6"/>
       <c r="B456" s="14"/>
       <c r="C456" s="11"/>
@@ -5734,7 +5827,7 @@
       <c r="E456" s="8"/>
       <c r="F456" s="8"/>
     </row>
-    <row r="457" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A457" s="6"/>
       <c r="B457" s="14"/>
       <c r="C457" s="11"/>
@@ -5742,7 +5835,7 @@
       <c r="E457" s="8"/>
       <c r="F457" s="8"/>
     </row>
-    <row r="458" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A458" s="6"/>
       <c r="B458" s="14"/>
       <c r="C458" s="11"/>
@@ -5750,7 +5843,7 @@
       <c r="E458" s="8"/>
       <c r="F458" s="8"/>
     </row>
-    <row r="459" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A459" s="6"/>
       <c r="B459" s="14"/>
       <c r="C459" s="11"/>
@@ -5758,7 +5851,7 @@
       <c r="E459" s="8"/>
       <c r="F459" s="8"/>
     </row>
-    <row r="460" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A460" s="6"/>
       <c r="B460" s="14"/>
       <c r="C460" s="11"/>
@@ -5766,7 +5859,7 @@
       <c r="E460" s="8"/>
       <c r="F460" s="8"/>
     </row>
-    <row r="461" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A461" s="6"/>
       <c r="B461" s="14"/>
       <c r="C461" s="11"/>
@@ -5774,7 +5867,7 @@
       <c r="E461" s="8"/>
       <c r="F461" s="8"/>
     </row>
-    <row r="462" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A462" s="6"/>
       <c r="B462" s="14"/>
       <c r="C462" s="11"/>
@@ -5782,7 +5875,7 @@
       <c r="E462" s="8"/>
       <c r="F462" s="8"/>
     </row>
-    <row r="463" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A463" s="6"/>
       <c r="B463" s="14"/>
       <c r="C463" s="11"/>
@@ -5790,7 +5883,7 @@
       <c r="E463" s="8"/>
       <c r="F463" s="8"/>
     </row>
-    <row r="464" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A464" s="6"/>
       <c r="B464" s="14"/>
       <c r="C464" s="11"/>
@@ -5798,7 +5891,7 @@
       <c r="E464" s="8"/>
       <c r="F464" s="8"/>
     </row>
-    <row r="465" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A465" s="6"/>
       <c r="B465" s="14"/>
       <c r="C465" s="11"/>
@@ -5806,7 +5899,7 @@
       <c r="E465" s="8"/>
       <c r="F465" s="8"/>
     </row>
-    <row r="466" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A466" s="6"/>
       <c r="B466" s="14"/>
       <c r="C466" s="11"/>
@@ -5814,7 +5907,7 @@
       <c r="E466" s="8"/>
       <c r="F466" s="8"/>
     </row>
-    <row r="467" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A467" s="6"/>
       <c r="B467" s="14"/>
       <c r="C467" s="11"/>
@@ -5822,7 +5915,7 @@
       <c r="E467" s="8"/>
       <c r="F467" s="8"/>
     </row>
-    <row r="468" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A468" s="6"/>
       <c r="B468" s="14"/>
       <c r="C468" s="11"/>
@@ -5830,7 +5923,7 @@
       <c r="E468" s="8"/>
       <c r="F468" s="8"/>
     </row>
-    <row r="469" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A469" s="6"/>
       <c r="B469" s="14"/>
       <c r="C469" s="11"/>
@@ -5838,7 +5931,7 @@
       <c r="E469" s="8"/>
       <c r="F469" s="8"/>
     </row>
-    <row r="470" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A470" s="6"/>
       <c r="B470" s="14"/>
       <c r="C470" s="11"/>
@@ -5846,7 +5939,7 @@
       <c r="E470" s="8"/>
       <c r="F470" s="8"/>
     </row>
-    <row r="471" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A471" s="6"/>
       <c r="B471" s="14"/>
       <c r="C471" s="11"/>
@@ -5854,7 +5947,7 @@
       <c r="E471" s="8"/>
       <c r="F471" s="8"/>
     </row>
-    <row r="472" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A472" s="6"/>
       <c r="B472" s="14"/>
       <c r="C472" s="11"/>
@@ -5862,7 +5955,7 @@
       <c r="E472" s="8"/>
       <c r="F472" s="8"/>
     </row>
-    <row r="473" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A473" s="6"/>
       <c r="B473" s="14"/>
       <c r="C473" s="11"/>
@@ -5870,7 +5963,7 @@
       <c r="E473" s="8"/>
       <c r="F473" s="8"/>
     </row>
-    <row r="474" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A474" s="6"/>
       <c r="B474" s="14"/>
       <c r="C474" s="11"/>
@@ -5878,7 +5971,7 @@
       <c r="E474" s="8"/>
       <c r="F474" s="8"/>
     </row>
-    <row r="475" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A475" s="6"/>
       <c r="B475" s="14"/>
       <c r="C475" s="11"/>
@@ -5886,7 +5979,7 @@
       <c r="E475" s="8"/>
       <c r="F475" s="8"/>
     </row>
-    <row r="476" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A476" s="6"/>
       <c r="B476" s="14"/>
       <c r="C476" s="11"/>
@@ -5894,7 +5987,7 @@
       <c r="E476" s="8"/>
       <c r="F476" s="8"/>
     </row>
-    <row r="477" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A477" s="6"/>
       <c r="B477" s="14"/>
       <c r="C477" s="11"/>
@@ -5902,7 +5995,7 @@
       <c r="E477" s="8"/>
       <c r="F477" s="8"/>
     </row>
-    <row r="478" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A478" s="6"/>
       <c r="B478" s="14"/>
       <c r="C478" s="11"/>
@@ -5910,7 +6003,7 @@
       <c r="E478" s="8"/>
       <c r="F478" s="8"/>
     </row>
-    <row r="479" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A479" s="6"/>
       <c r="B479" s="14"/>
       <c r="C479" s="11"/>
@@ -5918,7 +6011,7 @@
       <c r="E479" s="8"/>
       <c r="F479" s="8"/>
     </row>
-    <row r="480" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A480" s="6"/>
       <c r="B480" s="14"/>
       <c r="C480" s="11"/>
@@ -5926,7 +6019,7 @@
       <c r="E480" s="8"/>
       <c r="F480" s="8"/>
     </row>
-    <row r="481" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A481" s="6"/>
       <c r="B481" s="14"/>
       <c r="C481" s="11"/>
@@ -5934,7 +6027,7 @@
       <c r="E481" s="8"/>
       <c r="F481" s="8"/>
     </row>
-    <row r="482" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A482" s="6"/>
       <c r="B482" s="14"/>
       <c r="C482" s="11"/>
@@ -5942,7 +6035,7 @@
       <c r="E482" s="8"/>
       <c r="F482" s="8"/>
     </row>
-    <row r="483" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A483" s="6"/>
       <c r="B483" s="14"/>
       <c r="C483" s="11"/>
@@ -5950,7 +6043,7 @@
       <c r="E483" s="8"/>
       <c r="F483" s="8"/>
     </row>
-    <row r="484" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A484" s="6"/>
       <c r="B484" s="14"/>
       <c r="C484" s="11"/>
@@ -5958,7 +6051,7 @@
       <c r="E484" s="8"/>
       <c r="F484" s="8"/>
     </row>
-    <row r="485" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A485" s="6"/>
       <c r="B485" s="14"/>
       <c r="C485" s="11"/>
@@ -5966,7 +6059,7 @@
       <c r="E485" s="8"/>
       <c r="F485" s="8"/>
     </row>
-    <row r="486" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A486" s="6"/>
       <c r="B486" s="14"/>
       <c r="C486" s="11"/>
@@ -5974,7 +6067,7 @@
       <c r="E486" s="8"/>
       <c r="F486" s="8"/>
     </row>
-    <row r="487" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A487" s="6"/>
       <c r="B487" s="14"/>
       <c r="C487" s="11"/>
@@ -5982,7 +6075,7 @@
       <c r="E487" s="8"/>
       <c r="F487" s="8"/>
     </row>
-    <row r="488" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A488" s="6"/>
       <c r="B488" s="14"/>
       <c r="C488" s="11"/>
@@ -5990,7 +6083,7 @@
       <c r="E488" s="8"/>
       <c r="F488" s="8"/>
     </row>
-    <row r="489" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A489" s="6"/>
       <c r="B489" s="14"/>
       <c r="C489" s="11"/>
@@ -5998,7 +6091,7 @@
       <c r="E489" s="8"/>
       <c r="F489" s="8"/>
     </row>
-    <row r="490" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A490" s="6"/>
       <c r="B490" s="14"/>
       <c r="C490" s="11"/>
@@ -6006,7 +6099,7 @@
       <c r="E490" s="8"/>
       <c r="F490" s="8"/>
     </row>
-    <row r="491" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A491" s="6"/>
       <c r="B491" s="14"/>
       <c r="C491" s="11"/>
@@ -6014,7 +6107,7 @@
       <c r="E491" s="8"/>
       <c r="F491" s="8"/>
     </row>
-    <row r="492" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A492" s="6"/>
       <c r="B492" s="14"/>
       <c r="C492" s="11"/>
@@ -6022,7 +6115,7 @@
       <c r="E492" s="8"/>
       <c r="F492" s="8"/>
     </row>
-    <row r="493" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A493" s="6"/>
       <c r="B493" s="14"/>
       <c r="C493" s="11"/>
@@ -6030,7 +6123,7 @@
       <c r="E493" s="8"/>
       <c r="F493" s="8"/>
     </row>
-    <row r="494" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A494" s="6"/>
       <c r="B494" s="14"/>
       <c r="C494" s="11"/>
@@ -6038,7 +6131,7 @@
       <c r="E494" s="8"/>
       <c r="F494" s="8"/>
     </row>
-    <row r="495" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A495" s="6"/>
       <c r="B495" s="14"/>
       <c r="C495" s="11"/>
@@ -6046,7 +6139,7 @@
       <c r="E495" s="8"/>
       <c r="F495" s="8"/>
     </row>
-    <row r="496" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A496" s="6"/>
       <c r="B496" s="14"/>
       <c r="C496" s="11"/>
@@ -6054,7 +6147,7 @@
       <c r="E496" s="8"/>
       <c r="F496" s="8"/>
     </row>
-    <row r="497" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A497" s="6"/>
       <c r="B497" s="14"/>
       <c r="C497" s="11"/>
@@ -6062,7 +6155,7 @@
       <c r="E497" s="8"/>
       <c r="F497" s="8"/>
     </row>
-    <row r="498" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A498" s="6"/>
       <c r="B498" s="14"/>
       <c r="C498" s="11"/>
@@ -6070,7 +6163,7 @@
       <c r="E498" s="8"/>
       <c r="F498" s="8"/>
     </row>
-    <row r="499" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A499" s="6"/>
       <c r="B499" s="14"/>
       <c r="C499" s="11"/>
@@ -6078,7 +6171,7 @@
       <c r="E499" s="8"/>
       <c r="F499" s="8"/>
     </row>
-    <row r="500" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A500" s="6"/>
       <c r="B500" s="14"/>
       <c r="C500" s="11"/>
@@ -6087,7 +6180,7 @@
       <c r="F500" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B300" xr:uid="{E1FCDE41-ACF1-4A68-9483-C062BB428146}">
       <formula1>1</formula1>
@@ -6130,10 +6223,10 @@
       <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.19921875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -6144,7 +6237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="16" t="s">
         <v>7</v>
       </c>
@@ -6153,25 +6246,25 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="11">
         <f>SUMIF(Journal!$D$2:$D$160,Tableau13[[#This Row],[Type]],Journal!$C$2:$C$160)</f>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="11">
         <f>SUMIF(Journal!$D$2:$D$160,Tableau13[[#This Row],[Type]],Journal!$C$2:$C$160)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="16" t="s">
         <v>10</v>
       </c>
@@ -6180,16 +6273,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="11">
         <f>SUMIF(Journal!$D$2:$D$160,Tableau13[[#This Row],[Type]],Journal!$C$2:$C$160)</f>
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
         <v>6</v>
       </c>
@@ -6198,16 +6291,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="11">
         <f>SUMIF(Journal!$D$2:$D$160,Tableau13[[#This Row],[Type]],Journal!$C$2:$C$160)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
         <v>13</v>
       </c>
@@ -6216,1967 +6309,1967 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" s="11"/>
     </row>
-    <row r="11" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
       <c r="B11" s="11"/>
     </row>
-    <row r="12" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
       <c r="B12" s="11"/>
     </row>
-    <row r="13" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
       <c r="B13" s="11"/>
     </row>
-    <row r="14" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
       <c r="B14" s="11"/>
     </row>
-    <row r="15" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
       <c r="B15" s="11"/>
     </row>
-    <row r="16" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
       <c r="B16" s="11"/>
     </row>
-    <row r="17" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
       <c r="B17" s="11"/>
     </row>
-    <row r="18" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
       <c r="B18" s="11"/>
     </row>
-    <row r="19" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
       <c r="B19" s="11"/>
     </row>
-    <row r="20" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
       <c r="B20" s="11"/>
     </row>
-    <row r="21" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6"/>
       <c r="B21" s="11"/>
     </row>
-    <row r="22" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
       <c r="B22" s="11"/>
     </row>
-    <row r="23" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
     </row>
-    <row r="24" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6"/>
       <c r="B24" s="11"/>
     </row>
-    <row r="25" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6"/>
       <c r="B25" s="11"/>
     </row>
-    <row r="26" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6"/>
       <c r="B26" s="11"/>
     </row>
-    <row r="27" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6"/>
       <c r="B27" s="11"/>
     </row>
-    <row r="28" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6"/>
       <c r="B28" s="11"/>
     </row>
-    <row r="29" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="6"/>
       <c r="B29" s="11"/>
     </row>
-    <row r="30" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6"/>
       <c r="B30" s="11"/>
     </row>
-    <row r="31" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="6"/>
       <c r="B31" s="11"/>
     </row>
-    <row r="32" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="6"/>
       <c r="B32" s="11"/>
     </row>
-    <row r="33" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="6"/>
       <c r="B33" s="11"/>
     </row>
-    <row r="34" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6"/>
       <c r="B34" s="11"/>
     </row>
-    <row r="35" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="6"/>
       <c r="B35" s="11"/>
     </row>
-    <row r="36" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="6"/>
       <c r="B36" s="11"/>
     </row>
-    <row r="37" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="6"/>
       <c r="B37" s="11"/>
     </row>
-    <row r="38" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6"/>
       <c r="B38" s="11"/>
     </row>
-    <row r="39" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="6"/>
       <c r="B39" s="11"/>
     </row>
-    <row r="40" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="6"/>
       <c r="B40" s="11"/>
     </row>
-    <row r="41" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6"/>
       <c r="B41" s="11"/>
     </row>
-    <row r="42" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="6"/>
       <c r="B42" s="11"/>
     </row>
-    <row r="43" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="6"/>
       <c r="B43" s="11"/>
     </row>
-    <row r="44" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="6"/>
       <c r="B44" s="11"/>
     </row>
-    <row r="45" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="6"/>
       <c r="B45" s="11"/>
     </row>
-    <row r="46" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="6"/>
       <c r="B46" s="11"/>
     </row>
-    <row r="47" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="6"/>
       <c r="B47" s="11"/>
     </row>
-    <row r="48" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6"/>
       <c r="B48" s="11"/>
     </row>
-    <row r="49" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6"/>
       <c r="B49" s="11"/>
     </row>
-    <row r="50" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6"/>
       <c r="B50" s="11"/>
     </row>
-    <row r="51" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="6"/>
       <c r="B51" s="11"/>
     </row>
-    <row r="52" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="6"/>
       <c r="B52" s="11"/>
     </row>
-    <row r="53" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="6"/>
       <c r="B53" s="11"/>
     </row>
-    <row r="54" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="6"/>
       <c r="B54" s="11"/>
     </row>
-    <row r="55" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="6"/>
       <c r="B55" s="11"/>
     </row>
-    <row r="56" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6"/>
       <c r="B56" s="11"/>
     </row>
-    <row r="57" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6"/>
       <c r="B57" s="11"/>
     </row>
-    <row r="58" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6"/>
       <c r="B58" s="11"/>
     </row>
-    <row r="59" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="6"/>
       <c r="B59" s="11"/>
     </row>
-    <row r="60" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="6"/>
       <c r="B60" s="11"/>
     </row>
-    <row r="61" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="6"/>
       <c r="B61" s="11"/>
     </row>
-    <row r="62" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="6"/>
       <c r="B62" s="11"/>
     </row>
-    <row r="63" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="6"/>
       <c r="B63" s="11"/>
     </row>
-    <row r="64" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="6"/>
       <c r="B64" s="11"/>
     </row>
-    <row r="65" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="6"/>
       <c r="B65" s="11"/>
     </row>
-    <row r="66" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="6"/>
       <c r="B66" s="11"/>
     </row>
-    <row r="67" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="6"/>
       <c r="B67" s="11"/>
     </row>
-    <row r="68" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="6"/>
       <c r="B68" s="11"/>
     </row>
-    <row r="69" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="6"/>
       <c r="B69" s="11"/>
     </row>
-    <row r="70" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="6"/>
       <c r="B70" s="11"/>
     </row>
-    <row r="71" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="6"/>
       <c r="B71" s="11"/>
     </row>
-    <row r="72" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="6"/>
       <c r="B72" s="11"/>
     </row>
-    <row r="73" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="6"/>
       <c r="B73" s="11"/>
     </row>
-    <row r="74" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="6"/>
       <c r="B74" s="11"/>
     </row>
-    <row r="75" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="6"/>
       <c r="B75" s="11"/>
     </row>
-    <row r="76" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="6"/>
       <c r="B76" s="11"/>
     </row>
-    <row r="77" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="6"/>
       <c r="B77" s="11"/>
     </row>
-    <row r="78" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="6"/>
       <c r="B78" s="11"/>
     </row>
-    <row r="79" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="6"/>
       <c r="B79" s="11"/>
     </row>
-    <row r="80" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6"/>
       <c r="B80" s="11"/>
     </row>
-    <row r="81" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6"/>
       <c r="B81" s="11"/>
     </row>
-    <row r="82" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6"/>
       <c r="B82" s="11"/>
     </row>
-    <row r="83" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="6"/>
       <c r="B83" s="11"/>
     </row>
-    <row r="84" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="6"/>
       <c r="B84" s="11"/>
     </row>
-    <row r="85" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="6"/>
       <c r="B85" s="11"/>
     </row>
-    <row r="86" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="6"/>
       <c r="B86" s="11"/>
     </row>
-    <row r="87" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="6"/>
       <c r="B87" s="11"/>
     </row>
-    <row r="88" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6"/>
       <c r="B88" s="11"/>
     </row>
-    <row r="89" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6"/>
       <c r="B89" s="11"/>
     </row>
-    <row r="90" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6"/>
       <c r="B90" s="11"/>
     </row>
-    <row r="91" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="6"/>
       <c r="B91" s="11"/>
     </row>
-    <row r="92" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="6"/>
       <c r="B92" s="11"/>
     </row>
-    <row r="93" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="6"/>
       <c r="B93" s="11"/>
     </row>
-    <row r="94" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="6"/>
       <c r="B94" s="11"/>
     </row>
-    <row r="95" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="6"/>
       <c r="B95" s="11"/>
     </row>
-    <row r="96" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="6"/>
       <c r="B96" s="11"/>
     </row>
-    <row r="97" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="6"/>
       <c r="B97" s="11"/>
     </row>
-    <row r="98" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="6"/>
       <c r="B98" s="11"/>
     </row>
-    <row r="99" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="6"/>
       <c r="B99" s="11"/>
     </row>
-    <row r="100" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="6"/>
       <c r="B100" s="11"/>
     </row>
-    <row r="101" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="6"/>
       <c r="B101" s="11"/>
     </row>
-    <row r="102" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="6"/>
       <c r="B102" s="11"/>
     </row>
-    <row r="103" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="6"/>
       <c r="B103" s="11"/>
     </row>
-    <row r="104" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="6"/>
       <c r="B104" s="11"/>
     </row>
-    <row r="105" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="6"/>
       <c r="B105" s="11"/>
     </row>
-    <row r="106" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="6"/>
       <c r="B106" s="11"/>
     </row>
-    <row r="107" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="6"/>
       <c r="B107" s="11"/>
     </row>
-    <row r="108" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="6"/>
       <c r="B108" s="11"/>
     </row>
-    <row r="109" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="6"/>
       <c r="B109" s="11"/>
     </row>
-    <row r="110" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="6"/>
       <c r="B110" s="11"/>
     </row>
-    <row r="111" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="6"/>
       <c r="B111" s="11"/>
     </row>
-    <row r="112" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="6"/>
       <c r="B112" s="11"/>
     </row>
-    <row r="113" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="6"/>
       <c r="B113" s="11"/>
     </row>
-    <row r="114" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="6"/>
       <c r="B114" s="11"/>
     </row>
-    <row r="115" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="6"/>
       <c r="B115" s="11"/>
     </row>
-    <row r="116" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="6"/>
       <c r="B116" s="11"/>
     </row>
-    <row r="117" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="6"/>
       <c r="B117" s="11"/>
     </row>
-    <row r="118" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="6"/>
       <c r="B118" s="11"/>
     </row>
-    <row r="119" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="6"/>
       <c r="B119" s="11"/>
     </row>
-    <row r="120" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="6"/>
       <c r="B120" s="11"/>
     </row>
-    <row r="121" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="6"/>
       <c r="B121" s="11"/>
     </row>
-    <row r="122" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="6"/>
       <c r="B122" s="11"/>
     </row>
-    <row r="123" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="6"/>
       <c r="B123" s="11"/>
     </row>
-    <row r="124" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="6"/>
       <c r="B124" s="11"/>
     </row>
-    <row r="125" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="6"/>
       <c r="B125" s="11"/>
     </row>
-    <row r="126" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="6"/>
       <c r="B126" s="11"/>
     </row>
-    <row r="127" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="6"/>
       <c r="B127" s="11"/>
     </row>
-    <row r="128" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="6"/>
       <c r="B128" s="11"/>
     </row>
-    <row r="129" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="6"/>
       <c r="B129" s="11"/>
     </row>
-    <row r="130" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="6"/>
       <c r="B130" s="11"/>
     </row>
-    <row r="131" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="6"/>
       <c r="B131" s="11"/>
     </row>
-    <row r="132" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="6"/>
       <c r="B132" s="11"/>
     </row>
-    <row r="133" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="6"/>
       <c r="B133" s="11"/>
     </row>
-    <row r="134" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="6"/>
       <c r="B134" s="11"/>
     </row>
-    <row r="135" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="6"/>
       <c r="B135" s="11"/>
     </row>
-    <row r="136" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="6"/>
       <c r="B136" s="11"/>
     </row>
-    <row r="137" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="6"/>
       <c r="B137" s="11"/>
     </row>
-    <row r="138" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="6"/>
       <c r="B138" s="11"/>
     </row>
-    <row r="139" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="6"/>
       <c r="B139" s="11"/>
     </row>
-    <row r="140" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="6"/>
       <c r="B140" s="11"/>
     </row>
-    <row r="141" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="6"/>
       <c r="B141" s="11"/>
     </row>
-    <row r="142" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="6"/>
       <c r="B142" s="11"/>
     </row>
-    <row r="143" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="6"/>
       <c r="B143" s="11"/>
     </row>
-    <row r="144" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="6"/>
       <c r="B144" s="11"/>
     </row>
-    <row r="145" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="6"/>
       <c r="B145" s="11"/>
     </row>
-    <row r="146" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="6"/>
       <c r="B146" s="11"/>
     </row>
-    <row r="147" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="6"/>
       <c r="B147" s="11"/>
     </row>
-    <row r="148" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="6"/>
       <c r="B148" s="11"/>
     </row>
-    <row r="149" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="6"/>
       <c r="B149" s="11"/>
     </row>
-    <row r="150" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="6"/>
       <c r="B150" s="11"/>
     </row>
-    <row r="151" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="6"/>
       <c r="B151" s="11"/>
     </row>
-    <row r="152" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="6"/>
       <c r="B152" s="11"/>
     </row>
-    <row r="153" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="6"/>
       <c r="B153" s="11"/>
     </row>
-    <row r="154" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="6"/>
       <c r="B154" s="11"/>
     </row>
-    <row r="155" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="6"/>
       <c r="B155" s="11"/>
     </row>
-    <row r="156" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="6"/>
       <c r="B156" s="11"/>
     </row>
-    <row r="157" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="6"/>
       <c r="B157" s="11"/>
     </row>
-    <row r="158" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="6"/>
       <c r="B158" s="11"/>
     </row>
-    <row r="159" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="6"/>
       <c r="B159" s="11"/>
     </row>
-    <row r="160" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="6"/>
       <c r="B160" s="11"/>
     </row>
-    <row r="161" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="6"/>
       <c r="B161" s="11"/>
     </row>
-    <row r="162" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="6"/>
       <c r="B162" s="11"/>
     </row>
-    <row r="163" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="6"/>
       <c r="B163" s="11"/>
     </row>
-    <row r="164" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="6"/>
       <c r="B164" s="11"/>
     </row>
-    <row r="165" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="6"/>
       <c r="B165" s="11"/>
     </row>
-    <row r="166" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="6"/>
       <c r="B166" s="11"/>
     </row>
-    <row r="167" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="6"/>
       <c r="B167" s="11"/>
     </row>
-    <row r="168" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="6"/>
       <c r="B168" s="11"/>
     </row>
-    <row r="169" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="6"/>
       <c r="B169" s="11"/>
     </row>
-    <row r="170" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="6"/>
       <c r="B170" s="11"/>
     </row>
-    <row r="171" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="6"/>
       <c r="B171" s="11"/>
     </row>
-    <row r="172" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="6"/>
       <c r="B172" s="11"/>
     </row>
-    <row r="173" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="6"/>
       <c r="B173" s="11"/>
     </row>
-    <row r="174" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="6"/>
       <c r="B174" s="11"/>
     </row>
-    <row r="175" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="6"/>
       <c r="B175" s="11"/>
     </row>
-    <row r="176" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="6"/>
       <c r="B176" s="11"/>
     </row>
-    <row r="177" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="6"/>
       <c r="B177" s="11"/>
     </row>
-    <row r="178" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="6"/>
       <c r="B178" s="11"/>
     </row>
-    <row r="179" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="6"/>
       <c r="B179" s="11"/>
     </row>
-    <row r="180" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="6"/>
       <c r="B180" s="11"/>
     </row>
-    <row r="181" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="6"/>
       <c r="B181" s="11"/>
     </row>
-    <row r="182" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="6"/>
       <c r="B182" s="11"/>
     </row>
-    <row r="183" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="6"/>
       <c r="B183" s="11"/>
     </row>
-    <row r="184" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="6"/>
       <c r="B184" s="11"/>
     </row>
-    <row r="185" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="6"/>
       <c r="B185" s="11"/>
     </row>
-    <row r="186" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="6"/>
       <c r="B186" s="11"/>
     </row>
-    <row r="187" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="6"/>
       <c r="B187" s="11"/>
     </row>
-    <row r="188" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="6"/>
       <c r="B188" s="11"/>
     </row>
-    <row r="189" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="6"/>
       <c r="B189" s="11"/>
     </row>
-    <row r="190" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="6"/>
       <c r="B190" s="11"/>
     </row>
-    <row r="191" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="6"/>
       <c r="B191" s="11"/>
     </row>
-    <row r="192" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="6"/>
       <c r="B192" s="11"/>
     </row>
-    <row r="193" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="6"/>
       <c r="B193" s="11"/>
     </row>
-    <row r="194" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="6"/>
       <c r="B194" s="11"/>
     </row>
-    <row r="195" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="6"/>
       <c r="B195" s="11"/>
     </row>
-    <row r="196" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="6"/>
       <c r="B196" s="11"/>
     </row>
-    <row r="197" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="6"/>
       <c r="B197" s="11"/>
     </row>
-    <row r="198" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="6"/>
       <c r="B198" s="11"/>
     </row>
-    <row r="199" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="6"/>
       <c r="B199" s="11"/>
     </row>
-    <row r="200" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="6"/>
       <c r="B200" s="11"/>
     </row>
-    <row r="201" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="6"/>
       <c r="B201" s="11"/>
     </row>
-    <row r="202" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="6"/>
       <c r="B202" s="11"/>
     </row>
-    <row r="203" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="6"/>
       <c r="B203" s="11"/>
     </row>
-    <row r="204" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="6"/>
       <c r="B204" s="11"/>
     </row>
-    <row r="205" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="6"/>
       <c r="B205" s="11"/>
     </row>
-    <row r="206" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="6"/>
       <c r="B206" s="11"/>
     </row>
-    <row r="207" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="6"/>
       <c r="B207" s="11"/>
     </row>
-    <row r="208" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="6"/>
       <c r="B208" s="11"/>
     </row>
-    <row r="209" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="6"/>
       <c r="B209" s="11"/>
     </row>
-    <row r="210" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="6"/>
       <c r="B210" s="11"/>
     </row>
-    <row r="211" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="6"/>
       <c r="B211" s="11"/>
     </row>
-    <row r="212" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="6"/>
       <c r="B212" s="11"/>
     </row>
-    <row r="213" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="6"/>
       <c r="B213" s="11"/>
     </row>
-    <row r="214" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="6"/>
       <c r="B214" s="11"/>
     </row>
-    <row r="215" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="6"/>
       <c r="B215" s="11"/>
     </row>
-    <row r="216" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="6"/>
       <c r="B216" s="11"/>
     </row>
-    <row r="217" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="6"/>
       <c r="B217" s="11"/>
     </row>
-    <row r="218" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="6"/>
       <c r="B218" s="11"/>
     </row>
-    <row r="219" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="6"/>
       <c r="B219" s="11"/>
     </row>
-    <row r="220" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="6"/>
       <c r="B220" s="11"/>
     </row>
-    <row r="221" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="6"/>
       <c r="B221" s="11"/>
     </row>
-    <row r="222" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="6"/>
       <c r="B222" s="11"/>
     </row>
-    <row r="223" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="6"/>
       <c r="B223" s="11"/>
     </row>
-    <row r="224" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="6"/>
       <c r="B224" s="11"/>
     </row>
-    <row r="225" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="6"/>
       <c r="B225" s="11"/>
     </row>
-    <row r="226" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="6"/>
       <c r="B226" s="11"/>
     </row>
-    <row r="227" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="6"/>
       <c r="B227" s="11"/>
     </row>
-    <row r="228" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="6"/>
       <c r="B228" s="11"/>
     </row>
-    <row r="229" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="6"/>
       <c r="B229" s="11"/>
     </row>
-    <row r="230" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="6"/>
       <c r="B230" s="11"/>
     </row>
-    <row r="231" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="6"/>
       <c r="B231" s="11"/>
     </row>
-    <row r="232" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="6"/>
       <c r="B232" s="11"/>
     </row>
-    <row r="233" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="6"/>
       <c r="B233" s="11"/>
     </row>
-    <row r="234" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="6"/>
       <c r="B234" s="11"/>
     </row>
-    <row r="235" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="6"/>
       <c r="B235" s="11"/>
     </row>
-    <row r="236" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="6"/>
       <c r="B236" s="11"/>
     </row>
-    <row r="237" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="6"/>
       <c r="B237" s="11"/>
     </row>
-    <row r="238" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="6"/>
       <c r="B238" s="11"/>
     </row>
-    <row r="239" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="6"/>
       <c r="B239" s="11"/>
     </row>
-    <row r="240" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="6"/>
       <c r="B240" s="11"/>
     </row>
-    <row r="241" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="6"/>
       <c r="B241" s="11"/>
     </row>
-    <row r="242" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="6"/>
       <c r="B242" s="11"/>
     </row>
-    <row r="243" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="6"/>
       <c r="B243" s="11"/>
     </row>
-    <row r="244" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="6"/>
       <c r="B244" s="11"/>
     </row>
-    <row r="245" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="6"/>
       <c r="B245" s="11"/>
     </row>
-    <row r="246" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="6"/>
       <c r="B246" s="11"/>
     </row>
-    <row r="247" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="6"/>
       <c r="B247" s="11"/>
     </row>
-    <row r="248" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A248" s="6"/>
       <c r="B248" s="11"/>
     </row>
-    <row r="249" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A249" s="6"/>
       <c r="B249" s="11"/>
     </row>
-    <row r="250" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A250" s="6"/>
       <c r="B250" s="11"/>
     </row>
-    <row r="251" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A251" s="6"/>
       <c r="B251" s="11"/>
     </row>
-    <row r="252" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A252" s="6"/>
       <c r="B252" s="11"/>
     </row>
-    <row r="253" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A253" s="6"/>
       <c r="B253" s="11"/>
     </row>
-    <row r="254" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A254" s="6"/>
       <c r="B254" s="11"/>
     </row>
-    <row r="255" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A255" s="6"/>
       <c r="B255" s="11"/>
     </row>
-    <row r="256" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A256" s="6"/>
       <c r="B256" s="11"/>
     </row>
-    <row r="257" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A257" s="6"/>
       <c r="B257" s="11"/>
     </row>
-    <row r="258" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A258" s="6"/>
       <c r="B258" s="11"/>
     </row>
-    <row r="259" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A259" s="6"/>
       <c r="B259" s="11"/>
     </row>
-    <row r="260" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A260" s="6"/>
       <c r="B260" s="11"/>
     </row>
-    <row r="261" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A261" s="6"/>
       <c r="B261" s="11"/>
     </row>
-    <row r="262" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A262" s="6"/>
       <c r="B262" s="11"/>
     </row>
-    <row r="263" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A263" s="6"/>
       <c r="B263" s="11"/>
     </row>
-    <row r="264" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A264" s="6"/>
       <c r="B264" s="11"/>
     </row>
-    <row r="265" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A265" s="6"/>
       <c r="B265" s="11"/>
     </row>
-    <row r="266" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A266" s="6"/>
       <c r="B266" s="11"/>
     </row>
-    <row r="267" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A267" s="6"/>
       <c r="B267" s="11"/>
     </row>
-    <row r="268" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A268" s="6"/>
       <c r="B268" s="11"/>
     </row>
-    <row r="269" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A269" s="6"/>
       <c r="B269" s="11"/>
     </row>
-    <row r="270" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A270" s="6"/>
       <c r="B270" s="11"/>
     </row>
-    <row r="271" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A271" s="6"/>
       <c r="B271" s="11"/>
     </row>
-    <row r="272" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A272" s="6"/>
       <c r="B272" s="11"/>
     </row>
-    <row r="273" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A273" s="6"/>
       <c r="B273" s="11"/>
     </row>
-    <row r="274" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A274" s="6"/>
       <c r="B274" s="11"/>
     </row>
-    <row r="275" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A275" s="6"/>
       <c r="B275" s="11"/>
     </row>
-    <row r="276" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A276" s="6"/>
       <c r="B276" s="11"/>
     </row>
-    <row r="277" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A277" s="6"/>
       <c r="B277" s="11"/>
     </row>
-    <row r="278" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A278" s="6"/>
       <c r="B278" s="11"/>
     </row>
-    <row r="279" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A279" s="6"/>
       <c r="B279" s="11"/>
     </row>
-    <row r="280" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A280" s="6"/>
       <c r="B280" s="11"/>
     </row>
-    <row r="281" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A281" s="6"/>
       <c r="B281" s="11"/>
     </row>
-    <row r="282" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A282" s="6"/>
       <c r="B282" s="11"/>
     </row>
-    <row r="283" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A283" s="6"/>
       <c r="B283" s="11"/>
     </row>
-    <row r="284" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A284" s="6"/>
       <c r="B284" s="11"/>
     </row>
-    <row r="285" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A285" s="6"/>
       <c r="B285" s="11"/>
     </row>
-    <row r="286" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A286" s="6"/>
       <c r="B286" s="11"/>
     </row>
-    <row r="287" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A287" s="6"/>
       <c r="B287" s="11"/>
     </row>
-    <row r="288" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A288" s="6"/>
       <c r="B288" s="11"/>
     </row>
-    <row r="289" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A289" s="6"/>
       <c r="B289" s="11"/>
     </row>
-    <row r="290" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A290" s="6"/>
       <c r="B290" s="11"/>
     </row>
-    <row r="291" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A291" s="6"/>
       <c r="B291" s="11"/>
     </row>
-    <row r="292" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A292" s="6"/>
       <c r="B292" s="11"/>
     </row>
-    <row r="293" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A293" s="6"/>
       <c r="B293" s="11"/>
     </row>
-    <row r="294" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A294" s="6"/>
       <c r="B294" s="11"/>
     </row>
-    <row r="295" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A295" s="6"/>
       <c r="B295" s="11"/>
     </row>
-    <row r="296" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A296" s="6"/>
       <c r="B296" s="11"/>
     </row>
-    <row r="297" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A297" s="6"/>
       <c r="B297" s="11"/>
     </row>
-    <row r="298" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A298" s="6"/>
       <c r="B298" s="11"/>
     </row>
-    <row r="299" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A299" s="6"/>
       <c r="B299" s="11"/>
     </row>
-    <row r="300" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A300" s="6"/>
       <c r="B300" s="11"/>
     </row>
-    <row r="301" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A301" s="6"/>
       <c r="B301" s="11"/>
     </row>
-    <row r="302" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A302" s="6"/>
       <c r="B302" s="11"/>
     </row>
-    <row r="303" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A303" s="6"/>
       <c r="B303" s="11"/>
     </row>
-    <row r="304" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A304" s="6"/>
       <c r="B304" s="11"/>
     </row>
-    <row r="305" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A305" s="6"/>
       <c r="B305" s="11"/>
     </row>
-    <row r="306" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A306" s="6"/>
       <c r="B306" s="11"/>
     </row>
-    <row r="307" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A307" s="6"/>
       <c r="B307" s="11"/>
     </row>
-    <row r="308" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A308" s="6"/>
       <c r="B308" s="11"/>
     </row>
-    <row r="309" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A309" s="6"/>
       <c r="B309" s="11"/>
     </row>
-    <row r="310" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A310" s="6"/>
       <c r="B310" s="11"/>
     </row>
-    <row r="311" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A311" s="6"/>
       <c r="B311" s="11"/>
     </row>
-    <row r="312" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A312" s="6"/>
       <c r="B312" s="11"/>
     </row>
-    <row r="313" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A313" s="6"/>
       <c r="B313" s="11"/>
     </row>
-    <row r="314" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A314" s="6"/>
       <c r="B314" s="11"/>
     </row>
-    <row r="315" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A315" s="6"/>
       <c r="B315" s="11"/>
     </row>
-    <row r="316" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A316" s="6"/>
       <c r="B316" s="11"/>
     </row>
-    <row r="317" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A317" s="6"/>
       <c r="B317" s="11"/>
     </row>
-    <row r="318" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A318" s="6"/>
       <c r="B318" s="11"/>
     </row>
-    <row r="319" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A319" s="6"/>
       <c r="B319" s="11"/>
     </row>
-    <row r="320" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A320" s="6"/>
       <c r="B320" s="11"/>
     </row>
-    <row r="321" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A321" s="6"/>
       <c r="B321" s="11"/>
     </row>
-    <row r="322" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A322" s="6"/>
       <c r="B322" s="11"/>
     </row>
-    <row r="323" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A323" s="6"/>
       <c r="B323" s="11"/>
     </row>
-    <row r="324" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A324" s="6"/>
       <c r="B324" s="11"/>
     </row>
-    <row r="325" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A325" s="6"/>
       <c r="B325" s="11"/>
     </row>
-    <row r="326" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A326" s="6"/>
       <c r="B326" s="11"/>
     </row>
-    <row r="327" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A327" s="6"/>
       <c r="B327" s="11"/>
     </row>
-    <row r="328" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A328" s="6"/>
       <c r="B328" s="11"/>
     </row>
-    <row r="329" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A329" s="6"/>
       <c r="B329" s="11"/>
     </row>
-    <row r="330" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A330" s="6"/>
       <c r="B330" s="11"/>
     </row>
-    <row r="331" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A331" s="6"/>
       <c r="B331" s="11"/>
     </row>
-    <row r="332" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A332" s="6"/>
       <c r="B332" s="11"/>
     </row>
-    <row r="333" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A333" s="6"/>
       <c r="B333" s="11"/>
     </row>
-    <row r="334" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A334" s="6"/>
       <c r="B334" s="11"/>
     </row>
-    <row r="335" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A335" s="6"/>
       <c r="B335" s="11"/>
     </row>
-    <row r="336" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A336" s="6"/>
       <c r="B336" s="11"/>
     </row>
-    <row r="337" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A337" s="6"/>
       <c r="B337" s="11"/>
     </row>
-    <row r="338" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A338" s="6"/>
       <c r="B338" s="11"/>
     </row>
-    <row r="339" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A339" s="6"/>
       <c r="B339" s="11"/>
     </row>
-    <row r="340" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A340" s="6"/>
       <c r="B340" s="11"/>
     </row>
-    <row r="341" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A341" s="6"/>
       <c r="B341" s="11"/>
     </row>
-    <row r="342" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A342" s="6"/>
       <c r="B342" s="11"/>
     </row>
-    <row r="343" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A343" s="6"/>
       <c r="B343" s="11"/>
     </row>
-    <row r="344" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A344" s="6"/>
       <c r="B344" s="11"/>
     </row>
-    <row r="345" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A345" s="6"/>
       <c r="B345" s="11"/>
     </row>
-    <row r="346" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A346" s="6"/>
       <c r="B346" s="11"/>
     </row>
-    <row r="347" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A347" s="6"/>
       <c r="B347" s="11"/>
     </row>
-    <row r="348" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A348" s="6"/>
       <c r="B348" s="11"/>
     </row>
-    <row r="349" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A349" s="6"/>
       <c r="B349" s="11"/>
     </row>
-    <row r="350" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A350" s="6"/>
       <c r="B350" s="11"/>
     </row>
-    <row r="351" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A351" s="6"/>
       <c r="B351" s="11"/>
     </row>
-    <row r="352" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A352" s="6"/>
       <c r="B352" s="11"/>
     </row>
-    <row r="353" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A353" s="6"/>
       <c r="B353" s="11"/>
     </row>
-    <row r="354" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A354" s="6"/>
       <c r="B354" s="11"/>
     </row>
-    <row r="355" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A355" s="6"/>
       <c r="B355" s="11"/>
     </row>
-    <row r="356" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A356" s="6"/>
       <c r="B356" s="11"/>
     </row>
-    <row r="357" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A357" s="6"/>
       <c r="B357" s="11"/>
     </row>
-    <row r="358" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A358" s="6"/>
       <c r="B358" s="11"/>
     </row>
-    <row r="359" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A359" s="6"/>
       <c r="B359" s="11"/>
     </row>
-    <row r="360" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A360" s="6"/>
       <c r="B360" s="11"/>
     </row>
-    <row r="361" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A361" s="6"/>
       <c r="B361" s="11"/>
     </row>
-    <row r="362" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A362" s="6"/>
       <c r="B362" s="11"/>
     </row>
-    <row r="363" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A363" s="6"/>
       <c r="B363" s="11"/>
     </row>
-    <row r="364" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A364" s="6"/>
       <c r="B364" s="11"/>
     </row>
-    <row r="365" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A365" s="6"/>
       <c r="B365" s="11"/>
     </row>
-    <row r="366" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A366" s="6"/>
       <c r="B366" s="11"/>
     </row>
-    <row r="367" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A367" s="6"/>
       <c r="B367" s="11"/>
     </row>
-    <row r="368" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A368" s="6"/>
       <c r="B368" s="11"/>
     </row>
-    <row r="369" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A369" s="6"/>
       <c r="B369" s="11"/>
     </row>
-    <row r="370" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A370" s="6"/>
       <c r="B370" s="11"/>
     </row>
-    <row r="371" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A371" s="6"/>
       <c r="B371" s="11"/>
     </row>
-    <row r="372" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A372" s="6"/>
       <c r="B372" s="11"/>
     </row>
-    <row r="373" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A373" s="6"/>
       <c r="B373" s="11"/>
     </row>
-    <row r="374" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A374" s="6"/>
       <c r="B374" s="11"/>
     </row>
-    <row r="375" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A375" s="6"/>
       <c r="B375" s="11"/>
     </row>
-    <row r="376" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A376" s="6"/>
       <c r="B376" s="11"/>
     </row>
-    <row r="377" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A377" s="6"/>
       <c r="B377" s="11"/>
     </row>
-    <row r="378" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A378" s="6"/>
       <c r="B378" s="11"/>
     </row>
-    <row r="379" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A379" s="6"/>
       <c r="B379" s="11"/>
     </row>
-    <row r="380" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A380" s="6"/>
       <c r="B380" s="11"/>
     </row>
-    <row r="381" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A381" s="6"/>
       <c r="B381" s="11"/>
     </row>
-    <row r="382" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A382" s="6"/>
       <c r="B382" s="11"/>
     </row>
-    <row r="383" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A383" s="6"/>
       <c r="B383" s="11"/>
     </row>
-    <row r="384" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A384" s="6"/>
       <c r="B384" s="11"/>
     </row>
-    <row r="385" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A385" s="6"/>
       <c r="B385" s="11"/>
     </row>
-    <row r="386" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A386" s="6"/>
       <c r="B386" s="11"/>
     </row>
-    <row r="387" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A387" s="6"/>
       <c r="B387" s="11"/>
     </row>
-    <row r="388" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A388" s="6"/>
       <c r="B388" s="11"/>
     </row>
-    <row r="389" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A389" s="6"/>
       <c r="B389" s="11"/>
     </row>
-    <row r="390" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A390" s="6"/>
       <c r="B390" s="11"/>
     </row>
-    <row r="391" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A391" s="6"/>
       <c r="B391" s="11"/>
     </row>
-    <row r="392" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A392" s="6"/>
       <c r="B392" s="11"/>
     </row>
-    <row r="393" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A393" s="6"/>
       <c r="B393" s="11"/>
     </row>
-    <row r="394" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A394" s="6"/>
       <c r="B394" s="11"/>
     </row>
-    <row r="395" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A395" s="6"/>
       <c r="B395" s="11"/>
     </row>
-    <row r="396" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A396" s="6"/>
       <c r="B396" s="11"/>
     </row>
-    <row r="397" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A397" s="6"/>
       <c r="B397" s="11"/>
     </row>
-    <row r="398" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A398" s="6"/>
       <c r="B398" s="11"/>
     </row>
-    <row r="399" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A399" s="6"/>
       <c r="B399" s="11"/>
     </row>
-    <row r="400" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A400" s="6"/>
       <c r="B400" s="11"/>
     </row>
-    <row r="401" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A401" s="6"/>
       <c r="B401" s="11"/>
     </row>
-    <row r="402" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A402" s="6"/>
       <c r="B402" s="11"/>
     </row>
-    <row r="403" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A403" s="6"/>
       <c r="B403" s="11"/>
     </row>
-    <row r="404" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A404" s="6"/>
       <c r="B404" s="11"/>
     </row>
-    <row r="405" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A405" s="6"/>
       <c r="B405" s="11"/>
     </row>
-    <row r="406" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A406" s="6"/>
       <c r="B406" s="11"/>
     </row>
-    <row r="407" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A407" s="6"/>
       <c r="B407" s="11"/>
     </row>
-    <row r="408" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A408" s="6"/>
       <c r="B408" s="11"/>
     </row>
-    <row r="409" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A409" s="6"/>
       <c r="B409" s="11"/>
     </row>
-    <row r="410" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A410" s="6"/>
       <c r="B410" s="11"/>
     </row>
-    <row r="411" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A411" s="6"/>
       <c r="B411" s="11"/>
     </row>
-    <row r="412" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A412" s="6"/>
       <c r="B412" s="11"/>
     </row>
-    <row r="413" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A413" s="6"/>
       <c r="B413" s="11"/>
     </row>
-    <row r="414" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A414" s="6"/>
       <c r="B414" s="11"/>
     </row>
-    <row r="415" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A415" s="6"/>
       <c r="B415" s="11"/>
     </row>
-    <row r="416" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A416" s="6"/>
       <c r="B416" s="11"/>
     </row>
-    <row r="417" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A417" s="6"/>
       <c r="B417" s="11"/>
     </row>
-    <row r="418" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A418" s="6"/>
       <c r="B418" s="11"/>
     </row>
-    <row r="419" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A419" s="6"/>
       <c r="B419" s="11"/>
     </row>
-    <row r="420" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A420" s="6"/>
       <c r="B420" s="11"/>
     </row>
-    <row r="421" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A421" s="6"/>
       <c r="B421" s="11"/>
     </row>
-    <row r="422" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A422" s="6"/>
       <c r="B422" s="11"/>
     </row>
-    <row r="423" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A423" s="6"/>
       <c r="B423" s="11"/>
     </row>
-    <row r="424" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A424" s="6"/>
       <c r="B424" s="11"/>
     </row>
-    <row r="425" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A425" s="6"/>
       <c r="B425" s="11"/>
     </row>
-    <row r="426" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A426" s="6"/>
       <c r="B426" s="11"/>
     </row>
-    <row r="427" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A427" s="6"/>
       <c r="B427" s="11"/>
     </row>
-    <row r="428" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A428" s="6"/>
       <c r="B428" s="11"/>
     </row>
-    <row r="429" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A429" s="6"/>
       <c r="B429" s="11"/>
     </row>
-    <row r="430" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A430" s="6"/>
       <c r="B430" s="11"/>
     </row>
-    <row r="431" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A431" s="6"/>
       <c r="B431" s="11"/>
     </row>
-    <row r="432" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A432" s="6"/>
       <c r="B432" s="11"/>
     </row>
-    <row r="433" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A433" s="6"/>
       <c r="B433" s="11"/>
     </row>
-    <row r="434" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A434" s="6"/>
       <c r="B434" s="11"/>
     </row>
-    <row r="435" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A435" s="6"/>
       <c r="B435" s="11"/>
     </row>
-    <row r="436" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A436" s="6"/>
       <c r="B436" s="11"/>
     </row>
-    <row r="437" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A437" s="6"/>
       <c r="B437" s="11"/>
     </row>
-    <row r="438" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A438" s="6"/>
       <c r="B438" s="11"/>
     </row>
-    <row r="439" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A439" s="6"/>
       <c r="B439" s="11"/>
     </row>
-    <row r="440" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A440" s="6"/>
       <c r="B440" s="11"/>
     </row>
-    <row r="441" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A441" s="6"/>
       <c r="B441" s="11"/>
     </row>
-    <row r="442" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A442" s="6"/>
       <c r="B442" s="11"/>
     </row>
-    <row r="443" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A443" s="6"/>
       <c r="B443" s="11"/>
     </row>
-    <row r="444" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A444" s="6"/>
       <c r="B444" s="11"/>
     </row>
-    <row r="445" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A445" s="6"/>
       <c r="B445" s="11"/>
     </row>
-    <row r="446" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A446" s="6"/>
       <c r="B446" s="11"/>
     </row>
-    <row r="447" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A447" s="6"/>
       <c r="B447" s="11"/>
     </row>
-    <row r="448" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A448" s="6"/>
       <c r="B448" s="11"/>
     </row>
-    <row r="449" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A449" s="6"/>
       <c r="B449" s="11"/>
     </row>
-    <row r="450" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A450" s="6"/>
       <c r="B450" s="11"/>
     </row>
-    <row r="451" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A451" s="6"/>
       <c r="B451" s="11"/>
     </row>
-    <row r="452" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A452" s="6"/>
       <c r="B452" s="11"/>
     </row>
-    <row r="453" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A453" s="6"/>
       <c r="B453" s="11"/>
     </row>
-    <row r="454" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A454" s="6"/>
       <c r="B454" s="11"/>
     </row>
-    <row r="455" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A455" s="6"/>
       <c r="B455" s="11"/>
     </row>
-    <row r="456" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A456" s="6"/>
       <c r="B456" s="11"/>
     </row>
-    <row r="457" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A457" s="6"/>
       <c r="B457" s="11"/>
     </row>
-    <row r="458" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A458" s="6"/>
       <c r="B458" s="11"/>
     </row>
-    <row r="459" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A459" s="6"/>
       <c r="B459" s="11"/>
     </row>
-    <row r="460" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A460" s="6"/>
       <c r="B460" s="11"/>
     </row>
-    <row r="461" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A461" s="6"/>
       <c r="B461" s="11"/>
     </row>
-    <row r="462" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A462" s="6"/>
       <c r="B462" s="11"/>
     </row>
-    <row r="463" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A463" s="6"/>
       <c r="B463" s="11"/>
     </row>
-    <row r="464" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A464" s="6"/>
       <c r="B464" s="11"/>
     </row>
-    <row r="465" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A465" s="6"/>
       <c r="B465" s="11"/>
     </row>
-    <row r="466" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A466" s="6"/>
       <c r="B466" s="11"/>
     </row>
-    <row r="467" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A467" s="6"/>
       <c r="B467" s="11"/>
     </row>
-    <row r="468" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A468" s="6"/>
       <c r="B468" s="11"/>
     </row>
-    <row r="469" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A469" s="6"/>
       <c r="B469" s="11"/>
     </row>
-    <row r="470" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A470" s="6"/>
       <c r="B470" s="11"/>
     </row>
-    <row r="471" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A471" s="6"/>
       <c r="B471" s="11"/>
     </row>
-    <row r="472" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A472" s="6"/>
       <c r="B472" s="11"/>
     </row>
-    <row r="473" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A473" s="6"/>
       <c r="B473" s="11"/>
     </row>
-    <row r="474" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A474" s="6"/>
       <c r="B474" s="11"/>
     </row>
-    <row r="475" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A475" s="6"/>
       <c r="B475" s="11"/>
     </row>
-    <row r="476" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A476" s="6"/>
       <c r="B476" s="11"/>
     </row>
-    <row r="477" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A477" s="6"/>
       <c r="B477" s="11"/>
     </row>
-    <row r="478" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A478" s="6"/>
       <c r="B478" s="11"/>
     </row>
-    <row r="479" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A479" s="6"/>
       <c r="B479" s="11"/>
     </row>
-    <row r="480" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A480" s="6"/>
       <c r="B480" s="11"/>
     </row>
-    <row r="481" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A481" s="6"/>
       <c r="B481" s="11"/>
     </row>
-    <row r="482" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A482" s="6"/>
       <c r="B482" s="11"/>
     </row>
-    <row r="483" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A483" s="6"/>
       <c r="B483" s="11"/>
     </row>
-    <row r="484" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A484" s="6"/>
       <c r="B484" s="11"/>
     </row>
-    <row r="485" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A485" s="6"/>
       <c r="B485" s="11"/>
     </row>
-    <row r="486" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A486" s="6"/>
       <c r="B486" s="11"/>
     </row>
-    <row r="487" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A487" s="6"/>
       <c r="B487" s="11"/>
     </row>
-    <row r="488" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A488" s="6"/>
       <c r="B488" s="11"/>
     </row>
-    <row r="489" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A489" s="6"/>
       <c r="B489" s="11"/>
     </row>
-    <row r="490" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A490" s="6"/>
       <c r="B490" s="11"/>
     </row>
-    <row r="491" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A491" s="6"/>
       <c r="B491" s="11"/>
     </row>
-    <row r="492" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A492" s="6"/>
       <c r="B492" s="11"/>
     </row>
-    <row r="493" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A493" s="6"/>
       <c r="B493" s="11"/>
     </row>
-    <row r="494" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A494" s="6"/>
       <c r="B494" s="11"/>
     </row>
-    <row r="495" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A495" s="6"/>
       <c r="B495" s="11"/>
     </row>
-    <row r="496" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A496" s="6"/>
       <c r="B496" s="11"/>
     </row>
-    <row r="497" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A497" s="6"/>
       <c r="B497" s="11"/>
     </row>
-    <row r="498" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A498" s="6"/>
       <c r="B498" s="11"/>
     </row>
-    <row r="499" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A499" s="6"/>
       <c r="B499" s="11"/>
     </row>
-    <row r="500" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A500" s="6"/>
       <c r="B500" s="11"/>
     </row>
@@ -8207,52 +8300,52 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.94921875" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
     </row>
   </sheetData>

--- a/docs/worklogs/Trystan_Gaillard_worklog.xlsx
+++ b/docs/worklogs/Trystan_Gaillard_worklog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sytabram/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b132f601c3eccc05/Bureau/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F20DBE-DD60-7E48-8039-0F2923CAB73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BD6DB54-862F-4965-AFE8-EA5E64BC9789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="660" windowWidth="30100" windowHeight="21680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="60">
   <si>
     <t>Jour</t>
   </si>
@@ -128,9 +128,6 @@
     <t>Brasage des câbles pour les phares.</t>
   </si>
   <si>
-    <t>Documentation des LEDs</t>
-  </si>
-  <si>
     <t>Jeu. 22 janvier 2026</t>
   </si>
   <si>
@@ -143,43 +140,85 @@
     <t>Je n'avais pas mon ordinateur portable.</t>
   </si>
   <si>
-    <t>Debut du brasage du moteur</t>
-  </si>
-  <si>
     <t>Ven. 23 janvier 2026</t>
-  </si>
-  <si>
-    <t>Brassage du moteur</t>
-  </si>
-  <si>
-    <t>Notre classe était en visite à HEIGvd</t>
-  </si>
-  <si>
-    <t>Long car brasage assez complexe (je n'ai pas réussi à finir pendant cette session)</t>
   </si>
   <si>
     <t>Lun. 26 janvier 2026</t>
   </si>
   <si>
-    <t xml:space="preserve">Brassage du moteur </t>
-  </si>
-  <si>
-    <t>Beaucoup trop de temps passer desus mais enfin fini</t>
-  </si>
-  <si>
-    <t>Petit bout du code du moteur</t>
-  </si>
-  <si>
-    <t>Toujours difficile le code pour moi</t>
-  </si>
-  <si>
     <t>Mar. 27 janvier 2026</t>
   </si>
   <si>
-    <t>Réalisation d'un plan pour moteur plan B</t>
+    <t>Mer. 28 janvier 2026</t>
   </si>
   <si>
-    <t>J'ai appris que j'ai également des difficuluté à créer des schémas</t>
+    <t>J'ai appris que j'ai également des difficuluté à réer des schémas.</t>
+  </si>
+  <si>
+    <t>Toujours difficile le code pour moi.</t>
+  </si>
+  <si>
+    <t>Beaucoup trop de temps passer desus mais enfin fini.</t>
+  </si>
+  <si>
+    <t>Long car brasage assez complexe (je n'ai pas réussi à finir pendant cette session).</t>
+  </si>
+  <si>
+    <t>Réalisation d'un plan pour moteur plan B.</t>
+  </si>
+  <si>
+    <t>Petit bout du code du moteur.</t>
+  </si>
+  <si>
+    <t>Brassage du moteur.</t>
+  </si>
+  <si>
+    <t>Notre classe était en visite à HEIGvd.</t>
+  </si>
+  <si>
+    <t>Debut du brasage du moteur.</t>
+  </si>
+  <si>
+    <t>Documentation des LEDs.</t>
+  </si>
+  <si>
+    <t>Meeting avec le chef de projet.</t>
+  </si>
+  <si>
+    <t>Meeting avec le groupe.</t>
+  </si>
+  <si>
+    <t>Brasage du plan b pour le moteur</t>
+  </si>
+  <si>
+    <t>J'ai dû me battre avec mon fer pour qu'il veuille bien braser</t>
+  </si>
+  <si>
+    <t>Ecrire ma conclusion personnel.</t>
+  </si>
+  <si>
+    <t>Test du code du capteur</t>
+  </si>
+  <si>
+    <t>Jeu. 29 janvier 2026</t>
+  </si>
+  <si>
+    <t>J'était absens une période</t>
+  </si>
+  <si>
+    <t>Reveil</t>
+  </si>
+  <si>
+    <t>Amélioration de ma conlusion</t>
+  </si>
+  <si>
+    <t>Dernier meeting + travail avec le groupe</t>
+  </si>
+  <si>
+    <t>Dernier petit test de la voiture (pour ma part)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quelque petit problème mineur </t>
   </si>
 </sst>
 </file>
@@ -189,16 +228,9 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Century Gothic"/>
       <family val="2"/>
@@ -245,12 +277,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -262,43 +294,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -917,25 +946,25 @@
                   <c:v>3.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.25</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>16.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.5</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.25</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1610,7 +1639,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9309100" cy="6070600"/>
+    <xdr:ext cx="9305925" cy="6076950"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1">
@@ -1639,11 +1668,15 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BDEB89E1-6F36-4738-9369-27FC44324FE7}" name="Tableau1" displayName="Tableau1" ref="A1:F300" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:F300" xr:uid="{BDEB89E1-6F36-4738-9369-27FC44324FE7}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F1048576">
-    <sortCondition descending="1" ref="D1:D1048576"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F1048575">
+    <sortCondition descending="1" ref="D1:D1048575"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{8F098A10-6760-4DE7-9A95-ADC92EF787A0}" name="Jour" dataDxfId="9"/>
@@ -1951,20 +1984,20 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.83203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="24.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.375" style="15" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="12" customWidth="1"/>
+    <col min="4" max="4" width="24.75" style="5" customWidth="1"/>
     <col min="5" max="5" width="68.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="82.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="82.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1984,7 +2017,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>16</v>
       </c>
@@ -2004,7 +2037,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
@@ -2021,10 +2054,10 @@
         <v>24</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
@@ -2044,7 +2077,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
@@ -2055,16 +2088,16 @@
         <v>2.25</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>17</v>
       </c>
@@ -2072,79 +2105,79 @@
         <v>1</v>
       </c>
       <c r="C6" s="11">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="14">
         <v>1</v>
       </c>
       <c r="C7" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="14">
+        <v>1</v>
+      </c>
+      <c r="C8" s="11">
         <v>1.25</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E8" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="14">
-        <v>2</v>
-      </c>
-      <c r="C8" s="11">
-        <v>2</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B9" s="14">
         <v>2</v>
       </c>
       <c r="C9" s="11">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
@@ -2152,19 +2185,19 @@
         <v>2</v>
       </c>
       <c r="C10" s="11">
-        <v>3.75</v>
+        <v>0.25</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>25</v>
       </c>
@@ -2172,41 +2205,41 @@
         <v>2</v>
       </c>
       <c r="C11" s="11">
-        <v>0.75</v>
+        <v>3.75</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B12" s="14">
         <v>2</v>
       </c>
       <c r="C12" s="11">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" s="14">
         <v>2</v>
@@ -2215,187 +2248,296 @@
         <v>1.5</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B14" s="14">
         <v>2</v>
       </c>
       <c r="C14" s="11">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B15" s="14">
         <v>2</v>
       </c>
       <c r="C15" s="11">
+        <v>3</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="14">
+        <v>2</v>
+      </c>
+      <c r="C16" s="11">
         <v>2.25</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="17" t="s">
+      <c r="E16" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="14">
-        <v>3</v>
-      </c>
-      <c r="C16" s="11">
-        <v>3</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B17" s="14">
         <v>3</v>
       </c>
       <c r="C17" s="11">
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B18" s="14">
         <v>3</v>
       </c>
       <c r="C18" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="14">
         <v>3</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="C19" s="11">
+        <v>3</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="14"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="6"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="6"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="6"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="6"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="6"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-    </row>
-    <row r="25" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="6"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-    </row>
-    <row r="26" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="6"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-    </row>
-    <row r="27" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="6"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-    </row>
-    <row r="28" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="14">
+        <v>3</v>
+      </c>
+      <c r="C20" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="14">
+        <v>3</v>
+      </c>
+      <c r="C21" s="11">
+        <v>1</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="14">
+        <v>3</v>
+      </c>
+      <c r="C22" s="11">
+        <v>2</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="14">
+        <v>3</v>
+      </c>
+      <c r="C23" s="11">
+        <v>1</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="14">
+        <v>3</v>
+      </c>
+      <c r="C24" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="14">
+        <v>3</v>
+      </c>
+      <c r="C25" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="14">
+        <v>3</v>
+      </c>
+      <c r="C26" s="11">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="14">
+        <v>3</v>
+      </c>
+      <c r="C27" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="14"/>
       <c r="C28" s="11"/>
@@ -2403,7 +2545,7 @@
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
     </row>
-    <row r="29" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="14"/>
       <c r="C29" s="11"/>
@@ -2411,7 +2553,7 @@
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
     </row>
-    <row r="30" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="14"/>
       <c r="C30" s="11"/>
@@ -2419,7 +2561,7 @@
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
     </row>
-    <row r="31" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="14"/>
       <c r="C31" s="11"/>
@@ -2427,7 +2569,7 @@
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
     </row>
-    <row r="32" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="14"/>
       <c r="C32" s="11"/>
@@ -2435,7 +2577,7 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
     </row>
-    <row r="33" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="14"/>
       <c r="C33" s="11"/>
@@ -2443,7 +2585,7 @@
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
     </row>
-    <row r="34" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="14"/>
       <c r="C34" s="11"/>
@@ -2451,7 +2593,7 @@
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
     </row>
-    <row r="35" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="14"/>
       <c r="C35" s="11"/>
@@ -2459,7 +2601,7 @@
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
     </row>
-    <row r="36" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="14"/>
       <c r="C36" s="11"/>
@@ -2467,7 +2609,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
     </row>
-    <row r="37" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
       <c r="B37" s="14"/>
       <c r="C37" s="11"/>
@@ -2475,7 +2617,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
     </row>
-    <row r="38" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="14"/>
       <c r="C38" s="11"/>
@@ -2483,7 +2625,7 @@
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
     </row>
-    <row r="39" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="14"/>
       <c r="C39" s="11"/>
@@ -2491,7 +2633,7 @@
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
     </row>
-    <row r="40" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="14"/>
       <c r="C40" s="11"/>
@@ -2499,7 +2641,7 @@
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
     </row>
-    <row r="41" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="14"/>
       <c r="C41" s="11"/>
@@ -2507,7 +2649,7 @@
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
     </row>
-    <row r="42" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
       <c r="B42" s="14"/>
       <c r="C42" s="11"/>
@@ -2515,7 +2657,7 @@
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
     </row>
-    <row r="43" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
       <c r="B43" s="14"/>
       <c r="C43" s="11"/>
@@ -2523,7 +2665,7 @@
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
     </row>
-    <row r="44" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
       <c r="B44" s="14"/>
       <c r="C44" s="11"/>
@@ -2531,7 +2673,7 @@
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
     </row>
-    <row r="45" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
       <c r="B45" s="14"/>
       <c r="C45" s="11"/>
@@ -2539,7 +2681,7 @@
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
     </row>
-    <row r="46" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
       <c r="B46" s="14"/>
       <c r="C46" s="11"/>
@@ -2547,7 +2689,7 @@
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
     </row>
-    <row r="47" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
       <c r="B47" s="14"/>
       <c r="C47" s="11"/>
@@ -2555,7 +2697,7 @@
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
     </row>
-    <row r="48" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
       <c r="B48" s="14"/>
       <c r="C48" s="11"/>
@@ -2563,7 +2705,7 @@
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
     </row>
-    <row r="49" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
       <c r="B49" s="14"/>
       <c r="C49" s="11"/>
@@ -2571,7 +2713,7 @@
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
     </row>
-    <row r="50" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
       <c r="B50" s="14"/>
       <c r="C50" s="11"/>
@@ -2579,7 +2721,7 @@
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
     </row>
-    <row r="51" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
       <c r="B51" s="14"/>
       <c r="C51" s="11"/>
@@ -2587,7 +2729,7 @@
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
     </row>
-    <row r="52" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
       <c r="B52" s="14"/>
       <c r="C52" s="11"/>
@@ -2595,7 +2737,7 @@
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
     </row>
-    <row r="53" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
       <c r="B53" s="14"/>
       <c r="C53" s="11"/>
@@ -2603,7 +2745,7 @@
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
     </row>
-    <row r="54" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
       <c r="B54" s="14"/>
       <c r="C54" s="11"/>
@@ -2611,7 +2753,7 @@
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
     </row>
-    <row r="55" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
       <c r="B55" s="14"/>
       <c r="C55" s="11"/>
@@ -2619,7 +2761,7 @@
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
     </row>
-    <row r="56" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
       <c r="B56" s="14"/>
       <c r="C56" s="11"/>
@@ -2627,7 +2769,7 @@
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
     </row>
-    <row r="57" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
       <c r="B57" s="14"/>
       <c r="C57" s="11"/>
@@ -2635,7 +2777,7 @@
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
     </row>
-    <row r="58" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
       <c r="B58" s="14"/>
       <c r="C58" s="11"/>
@@ -2643,7 +2785,7 @@
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
     </row>
-    <row r="59" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6"/>
       <c r="B59" s="14"/>
       <c r="C59" s="11"/>
@@ -2651,7 +2793,7 @@
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
     </row>
-    <row r="60" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6"/>
       <c r="B60" s="14"/>
       <c r="C60" s="11"/>
@@ -2659,7 +2801,7 @@
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
     </row>
-    <row r="61" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6"/>
       <c r="B61" s="14"/>
       <c r="C61" s="11"/>
@@ -2667,7 +2809,7 @@
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
     </row>
-    <row r="62" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6"/>
       <c r="B62" s="14"/>
       <c r="C62" s="11"/>
@@ -2675,7 +2817,7 @@
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
     </row>
-    <row r="63" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6"/>
       <c r="B63" s="14"/>
       <c r="C63" s="11"/>
@@ -2683,7 +2825,7 @@
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
     </row>
-    <row r="64" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6"/>
       <c r="B64" s="14"/>
       <c r="C64" s="11"/>
@@ -2691,7 +2833,7 @@
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
     </row>
-    <row r="65" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6"/>
       <c r="B65" s="14"/>
       <c r="C65" s="11"/>
@@ -2699,7 +2841,7 @@
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
     </row>
-    <row r="66" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6"/>
       <c r="B66" s="14"/>
       <c r="C66" s="11"/>
@@ -2707,7 +2849,7 @@
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
     </row>
-    <row r="67" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6"/>
       <c r="B67" s="14"/>
       <c r="C67" s="11"/>
@@ -2715,7 +2857,7 @@
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
     </row>
-    <row r="68" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6"/>
       <c r="B68" s="14"/>
       <c r="C68" s="11"/>
@@ -2723,7 +2865,7 @@
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
     </row>
-    <row r="69" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6"/>
       <c r="B69" s="14"/>
       <c r="C69" s="11"/>
@@ -2731,7 +2873,7 @@
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
     </row>
-    <row r="70" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6"/>
       <c r="B70" s="14"/>
       <c r="C70" s="11"/>
@@ -2739,7 +2881,7 @@
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
     </row>
-    <row r="71" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6"/>
       <c r="B71" s="14"/>
       <c r="C71" s="11"/>
@@ -2747,7 +2889,7 @@
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
     </row>
-    <row r="72" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6"/>
       <c r="B72" s="14"/>
       <c r="C72" s="11"/>
@@ -2755,7 +2897,7 @@
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
     </row>
-    <row r="73" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6"/>
       <c r="B73" s="14"/>
       <c r="C73" s="11"/>
@@ -2763,7 +2905,7 @@
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
     </row>
-    <row r="74" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6"/>
       <c r="B74" s="14"/>
       <c r="C74" s="11"/>
@@ -2771,7 +2913,7 @@
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
     </row>
-    <row r="75" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6"/>
       <c r="B75" s="14"/>
       <c r="C75" s="11"/>
@@ -2779,7 +2921,7 @@
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
     </row>
-    <row r="76" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6"/>
       <c r="B76" s="14"/>
       <c r="C76" s="11"/>
@@ -2787,7 +2929,7 @@
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
     </row>
-    <row r="77" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6"/>
       <c r="B77" s="14"/>
       <c r="C77" s="11"/>
@@ -2795,7 +2937,7 @@
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
     </row>
-    <row r="78" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6"/>
       <c r="B78" s="14"/>
       <c r="C78" s="11"/>
@@ -2803,7 +2945,7 @@
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
     </row>
-    <row r="79" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6"/>
       <c r="B79" s="14"/>
       <c r="C79" s="11"/>
@@ -2811,7 +2953,7 @@
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
     </row>
-    <row r="80" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6"/>
       <c r="B80" s="14"/>
       <c r="C80" s="11"/>
@@ -2819,7 +2961,7 @@
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
     </row>
-    <row r="81" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6"/>
       <c r="B81" s="14"/>
       <c r="C81" s="11"/>
@@ -2827,7 +2969,7 @@
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
     </row>
-    <row r="82" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6"/>
       <c r="B82" s="14"/>
       <c r="C82" s="11"/>
@@ -2835,7 +2977,7 @@
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
     </row>
-    <row r="83" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6"/>
       <c r="B83" s="14"/>
       <c r="C83" s="11"/>
@@ -2843,7 +2985,7 @@
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
     </row>
-    <row r="84" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6"/>
       <c r="B84" s="14"/>
       <c r="C84" s="11"/>
@@ -2851,7 +2993,7 @@
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
     </row>
-    <row r="85" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6"/>
       <c r="B85" s="14"/>
       <c r="C85" s="11"/>
@@ -2859,7 +3001,7 @@
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
     </row>
-    <row r="86" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6"/>
       <c r="B86" s="14"/>
       <c r="C86" s="11"/>
@@ -2867,7 +3009,7 @@
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
     </row>
-    <row r="87" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6"/>
       <c r="B87" s="14"/>
       <c r="C87" s="11"/>
@@ -2875,7 +3017,7 @@
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
     </row>
-    <row r="88" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6"/>
       <c r="B88" s="14"/>
       <c r="C88" s="11"/>
@@ -2883,7 +3025,7 @@
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
     </row>
-    <row r="89" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="6"/>
       <c r="B89" s="14"/>
       <c r="C89" s="11"/>
@@ -2891,7 +3033,7 @@
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
     </row>
-    <row r="90" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6"/>
       <c r="B90" s="14"/>
       <c r="C90" s="11"/>
@@ -2899,7 +3041,7 @@
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
     </row>
-    <row r="91" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6"/>
       <c r="B91" s="14"/>
       <c r="C91" s="11"/>
@@ -2907,7 +3049,7 @@
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
     </row>
-    <row r="92" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="6"/>
       <c r="B92" s="14"/>
       <c r="C92" s="11"/>
@@ -2915,7 +3057,7 @@
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
     </row>
-    <row r="93" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="6"/>
       <c r="B93" s="14"/>
       <c r="C93" s="11"/>
@@ -2923,7 +3065,7 @@
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
     </row>
-    <row r="94" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="6"/>
       <c r="B94" s="14"/>
       <c r="C94" s="11"/>
@@ -2931,7 +3073,7 @@
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
     </row>
-    <row r="95" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6"/>
       <c r="B95" s="14"/>
       <c r="C95" s="11"/>
@@ -2939,7 +3081,7 @@
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
     </row>
-    <row r="96" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6"/>
       <c r="B96" s="14"/>
       <c r="C96" s="11"/>
@@ -2947,7 +3089,7 @@
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
     </row>
-    <row r="97" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="6"/>
       <c r="B97" s="14"/>
       <c r="C97" s="11"/>
@@ -2955,7 +3097,7 @@
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
     </row>
-    <row r="98" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="6"/>
       <c r="B98" s="14"/>
       <c r="C98" s="11"/>
@@ -2963,7 +3105,7 @@
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
     </row>
-    <row r="99" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="6"/>
       <c r="B99" s="14"/>
       <c r="C99" s="11"/>
@@ -2971,7 +3113,7 @@
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
     </row>
-    <row r="100" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="6"/>
       <c r="B100" s="14"/>
       <c r="C100" s="11"/>
@@ -2979,7 +3121,7 @@
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
     </row>
-    <row r="101" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="6"/>
       <c r="B101" s="14"/>
       <c r="C101" s="11"/>
@@ -2987,7 +3129,7 @@
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
     </row>
-    <row r="102" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6"/>
       <c r="B102" s="14"/>
       <c r="C102" s="11"/>
@@ -2995,7 +3137,7 @@
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
     </row>
-    <row r="103" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6"/>
       <c r="B103" s="14"/>
       <c r="C103" s="11"/>
@@ -3003,7 +3145,7 @@
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
     </row>
-    <row r="104" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="6"/>
       <c r="B104" s="14"/>
       <c r="C104" s="11"/>
@@ -3011,7 +3153,7 @@
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
     </row>
-    <row r="105" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="6"/>
       <c r="B105" s="14"/>
       <c r="C105" s="11"/>
@@ -3019,7 +3161,7 @@
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
     </row>
-    <row r="106" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="6"/>
       <c r="B106" s="14"/>
       <c r="C106" s="11"/>
@@ -3027,7 +3169,7 @@
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
     </row>
-    <row r="107" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="6"/>
       <c r="B107" s="14"/>
       <c r="C107" s="11"/>
@@ -3035,7 +3177,7 @@
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
     </row>
-    <row r="108" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="6"/>
       <c r="B108" s="14"/>
       <c r="C108" s="11"/>
@@ -3043,7 +3185,7 @@
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
     </row>
-    <row r="109" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="6"/>
       <c r="B109" s="14"/>
       <c r="C109" s="11"/>
@@ -3051,7 +3193,7 @@
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
     </row>
-    <row r="110" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="6"/>
       <c r="B110" s="14"/>
       <c r="C110" s="11"/>
@@ -3059,7 +3201,7 @@
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
     </row>
-    <row r="111" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="6"/>
       <c r="B111" s="14"/>
       <c r="C111" s="11"/>
@@ -3067,7 +3209,7 @@
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
     </row>
-    <row r="112" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="6"/>
       <c r="B112" s="14"/>
       <c r="C112" s="11"/>
@@ -3075,7 +3217,7 @@
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
     </row>
-    <row r="113" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="6"/>
       <c r="B113" s="14"/>
       <c r="C113" s="11"/>
@@ -3083,7 +3225,7 @@
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
     </row>
-    <row r="114" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="6"/>
       <c r="B114" s="14"/>
       <c r="C114" s="11"/>
@@ -3091,7 +3233,7 @@
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
     </row>
-    <row r="115" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="6"/>
       <c r="B115" s="14"/>
       <c r="C115" s="11"/>
@@ -3099,7 +3241,7 @@
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
     </row>
-    <row r="116" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="6"/>
       <c r="B116" s="14"/>
       <c r="C116" s="11"/>
@@ -3107,7 +3249,7 @@
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
     </row>
-    <row r="117" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="6"/>
       <c r="B117" s="14"/>
       <c r="C117" s="11"/>
@@ -3115,7 +3257,7 @@
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
     </row>
-    <row r="118" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="6"/>
       <c r="B118" s="14"/>
       <c r="C118" s="11"/>
@@ -3123,7 +3265,7 @@
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
     </row>
-    <row r="119" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="6"/>
       <c r="B119" s="14"/>
       <c r="C119" s="11"/>
@@ -3131,7 +3273,7 @@
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
     </row>
-    <row r="120" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="6"/>
       <c r="B120" s="14"/>
       <c r="C120" s="11"/>
@@ -3139,7 +3281,7 @@
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
     </row>
-    <row r="121" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="6"/>
       <c r="B121" s="14"/>
       <c r="C121" s="11"/>
@@ -3147,7 +3289,7 @@
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
     </row>
-    <row r="122" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="6"/>
       <c r="B122" s="14"/>
       <c r="C122" s="11"/>
@@ -3155,7 +3297,7 @@
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
     </row>
-    <row r="123" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="6"/>
       <c r="B123" s="14"/>
       <c r="C123" s="11"/>
@@ -3163,7 +3305,7 @@
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
     </row>
-    <row r="124" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="6"/>
       <c r="B124" s="14"/>
       <c r="C124" s="11"/>
@@ -3171,7 +3313,7 @@
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
     </row>
-    <row r="125" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="6"/>
       <c r="B125" s="14"/>
       <c r="C125" s="11"/>
@@ -3179,7 +3321,7 @@
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
     </row>
-    <row r="126" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="6"/>
       <c r="B126" s="14"/>
       <c r="C126" s="11"/>
@@ -3187,7 +3329,7 @@
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
     </row>
-    <row r="127" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="6"/>
       <c r="B127" s="14"/>
       <c r="C127" s="11"/>
@@ -3195,7 +3337,7 @@
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
     </row>
-    <row r="128" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="6"/>
       <c r="B128" s="14"/>
       <c r="C128" s="11"/>
@@ -3203,7 +3345,7 @@
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
     </row>
-    <row r="129" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="6"/>
       <c r="B129" s="14"/>
       <c r="C129" s="11"/>
@@ -3211,7 +3353,7 @@
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
     </row>
-    <row r="130" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="6"/>
       <c r="B130" s="14"/>
       <c r="C130" s="11"/>
@@ -3219,7 +3361,7 @@
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
     </row>
-    <row r="131" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="6"/>
       <c r="B131" s="14"/>
       <c r="C131" s="11"/>
@@ -3227,7 +3369,7 @@
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
     </row>
-    <row r="132" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="6"/>
       <c r="B132" s="14"/>
       <c r="C132" s="11"/>
@@ -3235,7 +3377,7 @@
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
     </row>
-    <row r="133" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="6"/>
       <c r="B133" s="14"/>
       <c r="C133" s="11"/>
@@ -3243,7 +3385,7 @@
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
     </row>
-    <row r="134" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="6"/>
       <c r="B134" s="14"/>
       <c r="C134" s="11"/>
@@ -3251,7 +3393,7 @@
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
     </row>
-    <row r="135" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="6"/>
       <c r="B135" s="14"/>
       <c r="C135" s="11"/>
@@ -3259,7 +3401,7 @@
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
     </row>
-    <row r="136" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="6"/>
       <c r="B136" s="14"/>
       <c r="C136" s="11"/>
@@ -3267,7 +3409,7 @@
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
     </row>
-    <row r="137" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="6"/>
       <c r="B137" s="14"/>
       <c r="C137" s="11"/>
@@ -3275,7 +3417,7 @@
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
     </row>
-    <row r="138" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="6"/>
       <c r="B138" s="14"/>
       <c r="C138" s="11"/>
@@ -3283,7 +3425,7 @@
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
     </row>
-    <row r="139" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="6"/>
       <c r="B139" s="14"/>
       <c r="C139" s="11"/>
@@ -3291,7 +3433,7 @@
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
     </row>
-    <row r="140" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="6"/>
       <c r="B140" s="14"/>
       <c r="C140" s="11"/>
@@ -3299,7 +3441,7 @@
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
     </row>
-    <row r="141" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="6"/>
       <c r="B141" s="14"/>
       <c r="C141" s="11"/>
@@ -3307,7 +3449,7 @@
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
     </row>
-    <row r="142" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="6"/>
       <c r="B142" s="14"/>
       <c r="C142" s="11"/>
@@ -3315,7 +3457,7 @@
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
     </row>
-    <row r="143" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="6"/>
       <c r="B143" s="14"/>
       <c r="C143" s="11"/>
@@ -3323,7 +3465,7 @@
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
     </row>
-    <row r="144" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="6"/>
       <c r="B144" s="14"/>
       <c r="C144" s="11"/>
@@ -3331,7 +3473,7 @@
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
     </row>
-    <row r="145" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="6"/>
       <c r="B145" s="14"/>
       <c r="C145" s="11"/>
@@ -3339,7 +3481,7 @@
       <c r="E145" s="8"/>
       <c r="F145" s="8"/>
     </row>
-    <row r="146" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="6"/>
       <c r="B146" s="14"/>
       <c r="C146" s="11"/>
@@ -3347,7 +3489,7 @@
       <c r="E146" s="8"/>
       <c r="F146" s="8"/>
     </row>
-    <row r="147" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="6"/>
       <c r="B147" s="14"/>
       <c r="C147" s="11"/>
@@ -3355,7 +3497,7 @@
       <c r="E147" s="8"/>
       <c r="F147" s="8"/>
     </row>
-    <row r="148" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="6"/>
       <c r="B148" s="14"/>
       <c r="C148" s="11"/>
@@ -3363,7 +3505,7 @@
       <c r="E148" s="8"/>
       <c r="F148" s="8"/>
     </row>
-    <row r="149" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="6"/>
       <c r="B149" s="14"/>
       <c r="C149" s="11"/>
@@ -3371,7 +3513,7 @@
       <c r="E149" s="8"/>
       <c r="F149" s="8"/>
     </row>
-    <row r="150" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="6"/>
       <c r="B150" s="14"/>
       <c r="C150" s="11"/>
@@ -3379,7 +3521,7 @@
       <c r="E150" s="8"/>
       <c r="F150" s="8"/>
     </row>
-    <row r="151" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="6"/>
       <c r="B151" s="14"/>
       <c r="C151" s="11"/>
@@ -3387,7 +3529,7 @@
       <c r="E151" s="8"/>
       <c r="F151" s="8"/>
     </row>
-    <row r="152" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="6"/>
       <c r="B152" s="14"/>
       <c r="C152" s="11"/>
@@ -3395,7 +3537,7 @@
       <c r="E152" s="8"/>
       <c r="F152" s="8"/>
     </row>
-    <row r="153" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="6"/>
       <c r="B153" s="14"/>
       <c r="C153" s="11"/>
@@ -3403,7 +3545,7 @@
       <c r="E153" s="8"/>
       <c r="F153" s="8"/>
     </row>
-    <row r="154" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="6"/>
       <c r="B154" s="14"/>
       <c r="C154" s="11"/>
@@ -3411,7 +3553,7 @@
       <c r="E154" s="8"/>
       <c r="F154" s="8"/>
     </row>
-    <row r="155" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="6"/>
       <c r="B155" s="14"/>
       <c r="C155" s="11"/>
@@ -3419,7 +3561,7 @@
       <c r="E155" s="8"/>
       <c r="F155" s="8"/>
     </row>
-    <row r="156" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="6"/>
       <c r="B156" s="14"/>
       <c r="C156" s="11"/>
@@ -3427,7 +3569,7 @@
       <c r="E156" s="8"/>
       <c r="F156" s="8"/>
     </row>
-    <row r="157" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="6"/>
       <c r="B157" s="14"/>
       <c r="C157" s="11"/>
@@ -3435,7 +3577,7 @@
       <c r="E157" s="8"/>
       <c r="F157" s="8"/>
     </row>
-    <row r="158" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="6"/>
       <c r="B158" s="14"/>
       <c r="C158" s="11"/>
@@ -3443,7 +3585,7 @@
       <c r="E158" s="8"/>
       <c r="F158" s="8"/>
     </row>
-    <row r="159" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="6"/>
       <c r="B159" s="14"/>
       <c r="C159" s="11"/>
@@ -3451,7 +3593,7 @@
       <c r="E159" s="8"/>
       <c r="F159" s="8"/>
     </row>
-    <row r="160" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="6"/>
       <c r="B160" s="14"/>
       <c r="C160" s="11"/>
@@ -3459,7 +3601,7 @@
       <c r="E160" s="8"/>
       <c r="F160" s="8"/>
     </row>
-    <row r="161" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="6"/>
       <c r="B161" s="14"/>
       <c r="C161" s="11"/>
@@ -3467,7 +3609,7 @@
       <c r="E161" s="8"/>
       <c r="F161" s="8"/>
     </row>
-    <row r="162" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="6"/>
       <c r="B162" s="14"/>
       <c r="C162" s="11"/>
@@ -3475,7 +3617,7 @@
       <c r="E162" s="8"/>
       <c r="F162" s="8"/>
     </row>
-    <row r="163" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="6"/>
       <c r="B163" s="14"/>
       <c r="C163" s="11"/>
@@ -3483,7 +3625,7 @@
       <c r="E163" s="8"/>
       <c r="F163" s="8"/>
     </row>
-    <row r="164" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="6"/>
       <c r="B164" s="14"/>
       <c r="C164" s="11"/>
@@ -3491,7 +3633,7 @@
       <c r="E164" s="8"/>
       <c r="F164" s="8"/>
     </row>
-    <row r="165" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="6"/>
       <c r="B165" s="14"/>
       <c r="C165" s="11"/>
@@ -3499,7 +3641,7 @@
       <c r="E165" s="8"/>
       <c r="F165" s="8"/>
     </row>
-    <row r="166" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="6"/>
       <c r="B166" s="14"/>
       <c r="C166" s="11"/>
@@ -3507,7 +3649,7 @@
       <c r="E166" s="8"/>
       <c r="F166" s="8"/>
     </row>
-    <row r="167" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="6"/>
       <c r="B167" s="14"/>
       <c r="C167" s="11"/>
@@ -3515,7 +3657,7 @@
       <c r="E167" s="8"/>
       <c r="F167" s="8"/>
     </row>
-    <row r="168" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="6"/>
       <c r="B168" s="14"/>
       <c r="C168" s="11"/>
@@ -3523,7 +3665,7 @@
       <c r="E168" s="8"/>
       <c r="F168" s="8"/>
     </row>
-    <row r="169" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="6"/>
       <c r="B169" s="14"/>
       <c r="C169" s="11"/>
@@ -3531,7 +3673,7 @@
       <c r="E169" s="8"/>
       <c r="F169" s="8"/>
     </row>
-    <row r="170" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="6"/>
       <c r="B170" s="14"/>
       <c r="C170" s="11"/>
@@ -3539,7 +3681,7 @@
       <c r="E170" s="8"/>
       <c r="F170" s="8"/>
     </row>
-    <row r="171" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="6"/>
       <c r="B171" s="14"/>
       <c r="C171" s="11"/>
@@ -3547,7 +3689,7 @@
       <c r="E171" s="8"/>
       <c r="F171" s="8"/>
     </row>
-    <row r="172" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="6"/>
       <c r="B172" s="14"/>
       <c r="C172" s="11"/>
@@ -3555,7 +3697,7 @@
       <c r="E172" s="8"/>
       <c r="F172" s="8"/>
     </row>
-    <row r="173" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="6"/>
       <c r="B173" s="14"/>
       <c r="C173" s="11"/>
@@ -3563,7 +3705,7 @@
       <c r="E173" s="8"/>
       <c r="F173" s="8"/>
     </row>
-    <row r="174" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="6"/>
       <c r="B174" s="14"/>
       <c r="C174" s="11"/>
@@ -3571,7 +3713,7 @@
       <c r="E174" s="8"/>
       <c r="F174" s="8"/>
     </row>
-    <row r="175" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="6"/>
       <c r="B175" s="14"/>
       <c r="C175" s="11"/>
@@ -3579,7 +3721,7 @@
       <c r="E175" s="8"/>
       <c r="F175" s="8"/>
     </row>
-    <row r="176" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="6"/>
       <c r="B176" s="14"/>
       <c r="C176" s="11"/>
@@ -3587,7 +3729,7 @@
       <c r="E176" s="8"/>
       <c r="F176" s="8"/>
     </row>
-    <row r="177" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="6"/>
       <c r="B177" s="14"/>
       <c r="C177" s="11"/>
@@ -3595,7 +3737,7 @@
       <c r="E177" s="8"/>
       <c r="F177" s="8"/>
     </row>
-    <row r="178" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="6"/>
       <c r="B178" s="14"/>
       <c r="C178" s="11"/>
@@ -3603,7 +3745,7 @@
       <c r="E178" s="8"/>
       <c r="F178" s="8"/>
     </row>
-    <row r="179" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="6"/>
       <c r="B179" s="14"/>
       <c r="C179" s="11"/>
@@ -3611,7 +3753,7 @@
       <c r="E179" s="8"/>
       <c r="F179" s="8"/>
     </row>
-    <row r="180" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="6"/>
       <c r="B180" s="14"/>
       <c r="C180" s="11"/>
@@ -3619,7 +3761,7 @@
       <c r="E180" s="8"/>
       <c r="F180" s="8"/>
     </row>
-    <row r="181" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="6"/>
       <c r="B181" s="14"/>
       <c r="C181" s="11"/>
@@ -3627,7 +3769,7 @@
       <c r="E181" s="8"/>
       <c r="F181" s="8"/>
     </row>
-    <row r="182" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="6"/>
       <c r="B182" s="14"/>
       <c r="C182" s="11"/>
@@ -3635,7 +3777,7 @@
       <c r="E182" s="8"/>
       <c r="F182" s="8"/>
     </row>
-    <row r="183" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="6"/>
       <c r="B183" s="14"/>
       <c r="C183" s="11"/>
@@ -3643,7 +3785,7 @@
       <c r="E183" s="8"/>
       <c r="F183" s="8"/>
     </row>
-    <row r="184" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="6"/>
       <c r="B184" s="14"/>
       <c r="C184" s="11"/>
@@ -3651,7 +3793,7 @@
       <c r="E184" s="8"/>
       <c r="F184" s="8"/>
     </row>
-    <row r="185" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="6"/>
       <c r="B185" s="14"/>
       <c r="C185" s="11"/>
@@ -3659,7 +3801,7 @@
       <c r="E185" s="8"/>
       <c r="F185" s="8"/>
     </row>
-    <row r="186" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="6"/>
       <c r="B186" s="14"/>
       <c r="C186" s="11"/>
@@ -3667,7 +3809,7 @@
       <c r="E186" s="8"/>
       <c r="F186" s="8"/>
     </row>
-    <row r="187" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="6"/>
       <c r="B187" s="14"/>
       <c r="C187" s="11"/>
@@ -3675,7 +3817,7 @@
       <c r="E187" s="8"/>
       <c r="F187" s="8"/>
     </row>
-    <row r="188" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="6"/>
       <c r="B188" s="14"/>
       <c r="C188" s="11"/>
@@ -3683,7 +3825,7 @@
       <c r="E188" s="8"/>
       <c r="F188" s="8"/>
     </row>
-    <row r="189" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="6"/>
       <c r="B189" s="14"/>
       <c r="C189" s="11"/>
@@ -3691,7 +3833,7 @@
       <c r="E189" s="8"/>
       <c r="F189" s="8"/>
     </row>
-    <row r="190" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="6"/>
       <c r="B190" s="14"/>
       <c r="C190" s="11"/>
@@ -3699,7 +3841,7 @@
       <c r="E190" s="8"/>
       <c r="F190" s="8"/>
     </row>
-    <row r="191" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="6"/>
       <c r="B191" s="14"/>
       <c r="C191" s="11"/>
@@ -3707,7 +3849,7 @@
       <c r="E191" s="8"/>
       <c r="F191" s="8"/>
     </row>
-    <row r="192" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="6"/>
       <c r="B192" s="14"/>
       <c r="C192" s="11"/>
@@ -3715,7 +3857,7 @@
       <c r="E192" s="8"/>
       <c r="F192" s="8"/>
     </row>
-    <row r="193" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="6"/>
       <c r="B193" s="14"/>
       <c r="C193" s="11"/>
@@ -3723,7 +3865,7 @@
       <c r="E193" s="8"/>
       <c r="F193" s="8"/>
     </row>
-    <row r="194" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="6"/>
       <c r="B194" s="14"/>
       <c r="C194" s="11"/>
@@ -3731,7 +3873,7 @@
       <c r="E194" s="8"/>
       <c r="F194" s="8"/>
     </row>
-    <row r="195" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="6"/>
       <c r="B195" s="14"/>
       <c r="C195" s="11"/>
@@ -3739,7 +3881,7 @@
       <c r="E195" s="8"/>
       <c r="F195" s="8"/>
     </row>
-    <row r="196" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="6"/>
       <c r="B196" s="14"/>
       <c r="C196" s="11"/>
@@ -3747,7 +3889,7 @@
       <c r="E196" s="8"/>
       <c r="F196" s="8"/>
     </row>
-    <row r="197" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="6"/>
       <c r="B197" s="14"/>
       <c r="C197" s="11"/>
@@ -3755,7 +3897,7 @@
       <c r="E197" s="8"/>
       <c r="F197" s="8"/>
     </row>
-    <row r="198" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="6"/>
       <c r="B198" s="14"/>
       <c r="C198" s="11"/>
@@ -3763,7 +3905,7 @@
       <c r="E198" s="8"/>
       <c r="F198" s="8"/>
     </row>
-    <row r="199" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="6"/>
       <c r="B199" s="14"/>
       <c r="C199" s="11"/>
@@ -3771,7 +3913,7 @@
       <c r="E199" s="8"/>
       <c r="F199" s="8"/>
     </row>
-    <row r="200" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="6"/>
       <c r="B200" s="14"/>
       <c r="C200" s="11"/>
@@ -3779,7 +3921,7 @@
       <c r="E200" s="8"/>
       <c r="F200" s="8"/>
     </row>
-    <row r="201" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="6"/>
       <c r="B201" s="14"/>
       <c r="C201" s="11"/>
@@ -3787,7 +3929,7 @@
       <c r="E201" s="8"/>
       <c r="F201" s="8"/>
     </row>
-    <row r="202" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="6"/>
       <c r="B202" s="14"/>
       <c r="C202" s="11"/>
@@ -3795,7 +3937,7 @@
       <c r="E202" s="8"/>
       <c r="F202" s="8"/>
     </row>
-    <row r="203" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="6"/>
       <c r="B203" s="14"/>
       <c r="C203" s="11"/>
@@ -3803,7 +3945,7 @@
       <c r="E203" s="8"/>
       <c r="F203" s="8"/>
     </row>
-    <row r="204" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="6"/>
       <c r="B204" s="14"/>
       <c r="C204" s="11"/>
@@ -3811,7 +3953,7 @@
       <c r="E204" s="8"/>
       <c r="F204" s="8"/>
     </row>
-    <row r="205" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="6"/>
       <c r="B205" s="14"/>
       <c r="C205" s="11"/>
@@ -3819,7 +3961,7 @@
       <c r="E205" s="8"/>
       <c r="F205" s="8"/>
     </row>
-    <row r="206" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="6"/>
       <c r="B206" s="14"/>
       <c r="C206" s="11"/>
@@ -3827,7 +3969,7 @@
       <c r="E206" s="8"/>
       <c r="F206" s="8"/>
     </row>
-    <row r="207" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="6"/>
       <c r="B207" s="14"/>
       <c r="C207" s="11"/>
@@ -3835,7 +3977,7 @@
       <c r="E207" s="8"/>
       <c r="F207" s="8"/>
     </row>
-    <row r="208" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="6"/>
       <c r="B208" s="14"/>
       <c r="C208" s="11"/>
@@ -3843,7 +3985,7 @@
       <c r="E208" s="8"/>
       <c r="F208" s="8"/>
     </row>
-    <row r="209" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="6"/>
       <c r="B209" s="14"/>
       <c r="C209" s="11"/>
@@ -3851,7 +3993,7 @@
       <c r="E209" s="8"/>
       <c r="F209" s="8"/>
     </row>
-    <row r="210" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="6"/>
       <c r="B210" s="14"/>
       <c r="C210" s="11"/>
@@ -3859,7 +4001,7 @@
       <c r="E210" s="8"/>
       <c r="F210" s="8"/>
     </row>
-    <row r="211" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="6"/>
       <c r="B211" s="14"/>
       <c r="C211" s="11"/>
@@ -3867,7 +4009,7 @@
       <c r="E211" s="8"/>
       <c r="F211" s="8"/>
     </row>
-    <row r="212" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="6"/>
       <c r="B212" s="14"/>
       <c r="C212" s="11"/>
@@ -3875,7 +4017,7 @@
       <c r="E212" s="8"/>
       <c r="F212" s="8"/>
     </row>
-    <row r="213" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="6"/>
       <c r="B213" s="14"/>
       <c r="C213" s="11"/>
@@ -3883,7 +4025,7 @@
       <c r="E213" s="8"/>
       <c r="F213" s="8"/>
     </row>
-    <row r="214" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="6"/>
       <c r="B214" s="14"/>
       <c r="C214" s="11"/>
@@ -3891,7 +4033,7 @@
       <c r="E214" s="8"/>
       <c r="F214" s="8"/>
     </row>
-    <row r="215" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="6"/>
       <c r="B215" s="14"/>
       <c r="C215" s="11"/>
@@ -3899,7 +4041,7 @@
       <c r="E215" s="8"/>
       <c r="F215" s="8"/>
     </row>
-    <row r="216" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="6"/>
       <c r="B216" s="14"/>
       <c r="C216" s="11"/>
@@ -3907,7 +4049,7 @@
       <c r="E216" s="8"/>
       <c r="F216" s="8"/>
     </row>
-    <row r="217" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="6"/>
       <c r="B217" s="14"/>
       <c r="C217" s="11"/>
@@ -3915,7 +4057,7 @@
       <c r="E217" s="8"/>
       <c r="F217" s="8"/>
     </row>
-    <row r="218" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="6"/>
       <c r="B218" s="14"/>
       <c r="C218" s="11"/>
@@ -3923,7 +4065,7 @@
       <c r="E218" s="8"/>
       <c r="F218" s="8"/>
     </row>
-    <row r="219" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="6"/>
       <c r="B219" s="14"/>
       <c r="C219" s="11"/>
@@ -3931,7 +4073,7 @@
       <c r="E219" s="8"/>
       <c r="F219" s="8"/>
     </row>
-    <row r="220" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="6"/>
       <c r="B220" s="14"/>
       <c r="C220" s="11"/>
@@ -3939,7 +4081,7 @@
       <c r="E220" s="8"/>
       <c r="F220" s="8"/>
     </row>
-    <row r="221" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="6"/>
       <c r="B221" s="14"/>
       <c r="C221" s="11"/>
@@ -3947,7 +4089,7 @@
       <c r="E221" s="8"/>
       <c r="F221" s="8"/>
     </row>
-    <row r="222" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="6"/>
       <c r="B222" s="14"/>
       <c r="C222" s="11"/>
@@ -3955,7 +4097,7 @@
       <c r="E222" s="8"/>
       <c r="F222" s="8"/>
     </row>
-    <row r="223" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="6"/>
       <c r="B223" s="14"/>
       <c r="C223" s="11"/>
@@ -3963,7 +4105,7 @@
       <c r="E223" s="8"/>
       <c r="F223" s="8"/>
     </row>
-    <row r="224" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="6"/>
       <c r="B224" s="14"/>
       <c r="C224" s="11"/>
@@ -3971,7 +4113,7 @@
       <c r="E224" s="8"/>
       <c r="F224" s="8"/>
     </row>
-    <row r="225" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="6"/>
       <c r="B225" s="14"/>
       <c r="C225" s="11"/>
@@ -3979,7 +4121,7 @@
       <c r="E225" s="8"/>
       <c r="F225" s="8"/>
     </row>
-    <row r="226" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="6"/>
       <c r="B226" s="14"/>
       <c r="C226" s="11"/>
@@ -3987,7 +4129,7 @@
       <c r="E226" s="8"/>
       <c r="F226" s="8"/>
     </row>
-    <row r="227" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="6"/>
       <c r="B227" s="14"/>
       <c r="C227" s="11"/>
@@ -3995,7 +4137,7 @@
       <c r="E227" s="8"/>
       <c r="F227" s="8"/>
     </row>
-    <row r="228" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="6"/>
       <c r="B228" s="14"/>
       <c r="C228" s="11"/>
@@ -4003,7 +4145,7 @@
       <c r="E228" s="8"/>
       <c r="F228" s="8"/>
     </row>
-    <row r="229" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="6"/>
       <c r="B229" s="14"/>
       <c r="C229" s="11"/>
@@ -4011,7 +4153,7 @@
       <c r="E229" s="8"/>
       <c r="F229" s="8"/>
     </row>
-    <row r="230" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="6"/>
       <c r="B230" s="14"/>
       <c r="C230" s="11"/>
@@ -4019,7 +4161,7 @@
       <c r="E230" s="8"/>
       <c r="F230" s="8"/>
     </row>
-    <row r="231" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="6"/>
       <c r="B231" s="14"/>
       <c r="C231" s="11"/>
@@ -4027,7 +4169,7 @@
       <c r="E231" s="8"/>
       <c r="F231" s="8"/>
     </row>
-    <row r="232" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="6"/>
       <c r="B232" s="14"/>
       <c r="C232" s="11"/>
@@ -4035,7 +4177,7 @@
       <c r="E232" s="8"/>
       <c r="F232" s="8"/>
     </row>
-    <row r="233" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="6"/>
       <c r="B233" s="14"/>
       <c r="C233" s="11"/>
@@ -4043,7 +4185,7 @@
       <c r="E233" s="8"/>
       <c r="F233" s="8"/>
     </row>
-    <row r="234" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="6"/>
       <c r="B234" s="14"/>
       <c r="C234" s="11"/>
@@ -4051,7 +4193,7 @@
       <c r="E234" s="8"/>
       <c r="F234" s="8"/>
     </row>
-    <row r="235" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="6"/>
       <c r="B235" s="14"/>
       <c r="C235" s="11"/>
@@ -4059,7 +4201,7 @@
       <c r="E235" s="8"/>
       <c r="F235" s="8"/>
     </row>
-    <row r="236" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="6"/>
       <c r="B236" s="14"/>
       <c r="C236" s="11"/>
@@ -4067,7 +4209,7 @@
       <c r="E236" s="8"/>
       <c r="F236" s="8"/>
     </row>
-    <row r="237" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="6"/>
       <c r="B237" s="14"/>
       <c r="C237" s="11"/>
@@ -4075,7 +4217,7 @@
       <c r="E237" s="8"/>
       <c r="F237" s="8"/>
     </row>
-    <row r="238" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="6"/>
       <c r="B238" s="14"/>
       <c r="C238" s="11"/>
@@ -4083,7 +4225,7 @@
       <c r="E238" s="8"/>
       <c r="F238" s="8"/>
     </row>
-    <row r="239" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="6"/>
       <c r="B239" s="14"/>
       <c r="C239" s="11"/>
@@ -4091,7 +4233,7 @@
       <c r="E239" s="8"/>
       <c r="F239" s="8"/>
     </row>
-    <row r="240" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="6"/>
       <c r="B240" s="14"/>
       <c r="C240" s="11"/>
@@ -4099,7 +4241,7 @@
       <c r="E240" s="8"/>
       <c r="F240" s="8"/>
     </row>
-    <row r="241" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="6"/>
       <c r="B241" s="14"/>
       <c r="C241" s="11"/>
@@ -4107,7 +4249,7 @@
       <c r="E241" s="8"/>
       <c r="F241" s="8"/>
     </row>
-    <row r="242" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="6"/>
       <c r="B242" s="14"/>
       <c r="C242" s="11"/>
@@ -4115,7 +4257,7 @@
       <c r="E242" s="8"/>
       <c r="F242" s="8"/>
     </row>
-    <row r="243" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="6"/>
       <c r="B243" s="14"/>
       <c r="C243" s="11"/>
@@ -4123,7 +4265,7 @@
       <c r="E243" s="8"/>
       <c r="F243" s="8"/>
     </row>
-    <row r="244" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="6"/>
       <c r="B244" s="14"/>
       <c r="C244" s="11"/>
@@ -4131,7 +4273,7 @@
       <c r="E244" s="8"/>
       <c r="F244" s="8"/>
     </row>
-    <row r="245" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="6"/>
       <c r="B245" s="14"/>
       <c r="C245" s="11"/>
@@ -4139,7 +4281,7 @@
       <c r="E245" s="8"/>
       <c r="F245" s="8"/>
     </row>
-    <row r="246" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="6"/>
       <c r="B246" s="14"/>
       <c r="C246" s="11"/>
@@ -4147,7 +4289,7 @@
       <c r="E246" s="8"/>
       <c r="F246" s="8"/>
     </row>
-    <row r="247" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="6"/>
       <c r="B247" s="14"/>
       <c r="C247" s="11"/>
@@ -4155,7 +4297,7 @@
       <c r="E247" s="8"/>
       <c r="F247" s="8"/>
     </row>
-    <row r="248" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="6"/>
       <c r="B248" s="14"/>
       <c r="C248" s="11"/>
@@ -4163,7 +4305,7 @@
       <c r="E248" s="8"/>
       <c r="F248" s="8"/>
     </row>
-    <row r="249" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="6"/>
       <c r="B249" s="14"/>
       <c r="C249" s="11"/>
@@ -4171,7 +4313,7 @@
       <c r="E249" s="8"/>
       <c r="F249" s="8"/>
     </row>
-    <row r="250" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="6"/>
       <c r="B250" s="14"/>
       <c r="C250" s="11"/>
@@ -4179,7 +4321,7 @@
       <c r="E250" s="8"/>
       <c r="F250" s="8"/>
     </row>
-    <row r="251" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="6"/>
       <c r="B251" s="14"/>
       <c r="C251" s="11"/>
@@ -4187,7 +4329,7 @@
       <c r="E251" s="8"/>
       <c r="F251" s="8"/>
     </row>
-    <row r="252" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="6"/>
       <c r="B252" s="14"/>
       <c r="C252" s="11"/>
@@ -4195,7 +4337,7 @@
       <c r="E252" s="8"/>
       <c r="F252" s="8"/>
     </row>
-    <row r="253" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="6"/>
       <c r="B253" s="14"/>
       <c r="C253" s="11"/>
@@ -4203,7 +4345,7 @@
       <c r="E253" s="8"/>
       <c r="F253" s="8"/>
     </row>
-    <row r="254" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="6"/>
       <c r="B254" s="14"/>
       <c r="C254" s="11"/>
@@ -4211,7 +4353,7 @@
       <c r="E254" s="8"/>
       <c r="F254" s="8"/>
     </row>
-    <row r="255" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="6"/>
       <c r="B255" s="14"/>
       <c r="C255" s="11"/>
@@ -4219,7 +4361,7 @@
       <c r="E255" s="8"/>
       <c r="F255" s="8"/>
     </row>
-    <row r="256" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="6"/>
       <c r="B256" s="14"/>
       <c r="C256" s="11"/>
@@ -4227,7 +4369,7 @@
       <c r="E256" s="8"/>
       <c r="F256" s="8"/>
     </row>
-    <row r="257" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="6"/>
       <c r="B257" s="14"/>
       <c r="C257" s="11"/>
@@ -4235,7 +4377,7 @@
       <c r="E257" s="8"/>
       <c r="F257" s="8"/>
     </row>
-    <row r="258" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="6"/>
       <c r="B258" s="14"/>
       <c r="C258" s="11"/>
@@ -4243,7 +4385,7 @@
       <c r="E258" s="8"/>
       <c r="F258" s="8"/>
     </row>
-    <row r="259" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="6"/>
       <c r="B259" s="14"/>
       <c r="C259" s="11"/>
@@ -4251,7 +4393,7 @@
       <c r="E259" s="8"/>
       <c r="F259" s="8"/>
     </row>
-    <row r="260" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="6"/>
       <c r="B260" s="14"/>
       <c r="C260" s="11"/>
@@ -4259,7 +4401,7 @@
       <c r="E260" s="8"/>
       <c r="F260" s="8"/>
     </row>
-    <row r="261" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="6"/>
       <c r="B261" s="14"/>
       <c r="C261" s="11"/>
@@ -4267,7 +4409,7 @@
       <c r="E261" s="8"/>
       <c r="F261" s="8"/>
     </row>
-    <row r="262" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="6"/>
       <c r="B262" s="14"/>
       <c r="C262" s="11"/>
@@ -4275,7 +4417,7 @@
       <c r="E262" s="8"/>
       <c r="F262" s="8"/>
     </row>
-    <row r="263" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="6"/>
       <c r="B263" s="14"/>
       <c r="C263" s="11"/>
@@ -4283,7 +4425,7 @@
       <c r="E263" s="8"/>
       <c r="F263" s="8"/>
     </row>
-    <row r="264" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="6"/>
       <c r="B264" s="14"/>
       <c r="C264" s="11"/>
@@ -4291,7 +4433,7 @@
       <c r="E264" s="8"/>
       <c r="F264" s="8"/>
     </row>
-    <row r="265" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="6"/>
       <c r="B265" s="14"/>
       <c r="C265" s="11"/>
@@ -4299,7 +4441,7 @@
       <c r="E265" s="8"/>
       <c r="F265" s="8"/>
     </row>
-    <row r="266" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="6"/>
       <c r="B266" s="14"/>
       <c r="C266" s="11"/>
@@ -4307,7 +4449,7 @@
       <c r="E266" s="8"/>
       <c r="F266" s="8"/>
     </row>
-    <row r="267" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="6"/>
       <c r="B267" s="14"/>
       <c r="C267" s="11"/>
@@ -4315,7 +4457,7 @@
       <c r="E267" s="8"/>
       <c r="F267" s="8"/>
     </row>
-    <row r="268" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="6"/>
       <c r="B268" s="14"/>
       <c r="C268" s="11"/>
@@ -4323,7 +4465,7 @@
       <c r="E268" s="8"/>
       <c r="F268" s="8"/>
     </row>
-    <row r="269" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="6"/>
       <c r="B269" s="14"/>
       <c r="C269" s="11"/>
@@ -4331,7 +4473,7 @@
       <c r="E269" s="8"/>
       <c r="F269" s="8"/>
     </row>
-    <row r="270" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="6"/>
       <c r="B270" s="14"/>
       <c r="C270" s="11"/>
@@ -4339,7 +4481,7 @@
       <c r="E270" s="8"/>
       <c r="F270" s="8"/>
     </row>
-    <row r="271" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="6"/>
       <c r="B271" s="14"/>
       <c r="C271" s="11"/>
@@ -4347,7 +4489,7 @@
       <c r="E271" s="8"/>
       <c r="F271" s="8"/>
     </row>
-    <row r="272" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="6"/>
       <c r="B272" s="14"/>
       <c r="C272" s="11"/>
@@ -4355,7 +4497,7 @@
       <c r="E272" s="8"/>
       <c r="F272" s="8"/>
     </row>
-    <row r="273" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="6"/>
       <c r="B273" s="14"/>
       <c r="C273" s="11"/>
@@ -4363,7 +4505,7 @@
       <c r="E273" s="8"/>
       <c r="F273" s="8"/>
     </row>
-    <row r="274" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="6"/>
       <c r="B274" s="14"/>
       <c r="C274" s="11"/>
@@ -4371,7 +4513,7 @@
       <c r="E274" s="8"/>
       <c r="F274" s="8"/>
     </row>
-    <row r="275" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="6"/>
       <c r="B275" s="14"/>
       <c r="C275" s="11"/>
@@ -4379,7 +4521,7 @@
       <c r="E275" s="8"/>
       <c r="F275" s="8"/>
     </row>
-    <row r="276" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="6"/>
       <c r="B276" s="14"/>
       <c r="C276" s="11"/>
@@ -4387,7 +4529,7 @@
       <c r="E276" s="8"/>
       <c r="F276" s="8"/>
     </row>
-    <row r="277" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="6"/>
       <c r="B277" s="14"/>
       <c r="C277" s="11"/>
@@ -4395,7 +4537,7 @@
       <c r="E277" s="8"/>
       <c r="F277" s="8"/>
     </row>
-    <row r="278" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="6"/>
       <c r="B278" s="14"/>
       <c r="C278" s="11"/>
@@ -4403,7 +4545,7 @@
       <c r="E278" s="8"/>
       <c r="F278" s="8"/>
     </row>
-    <row r="279" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="6"/>
       <c r="B279" s="14"/>
       <c r="C279" s="11"/>
@@ -4411,7 +4553,7 @@
       <c r="E279" s="8"/>
       <c r="F279" s="8"/>
     </row>
-    <row r="280" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="6"/>
       <c r="B280" s="14"/>
       <c r="C280" s="11"/>
@@ -4419,7 +4561,7 @@
       <c r="E280" s="8"/>
       <c r="F280" s="8"/>
     </row>
-    <row r="281" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="6"/>
       <c r="B281" s="14"/>
       <c r="C281" s="11"/>
@@ -4427,7 +4569,7 @@
       <c r="E281" s="8"/>
       <c r="F281" s="8"/>
     </row>
-    <row r="282" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="6"/>
       <c r="B282" s="14"/>
       <c r="C282" s="11"/>
@@ -4435,7 +4577,7 @@
       <c r="E282" s="8"/>
       <c r="F282" s="8"/>
     </row>
-    <row r="283" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="6"/>
       <c r="B283" s="14"/>
       <c r="C283" s="11"/>
@@ -4443,7 +4585,7 @@
       <c r="E283" s="8"/>
       <c r="F283" s="8"/>
     </row>
-    <row r="284" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="6"/>
       <c r="B284" s="14"/>
       <c r="C284" s="11"/>
@@ -4451,7 +4593,7 @@
       <c r="E284" s="8"/>
       <c r="F284" s="8"/>
     </row>
-    <row r="285" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="6"/>
       <c r="B285" s="14"/>
       <c r="C285" s="11"/>
@@ -4459,7 +4601,7 @@
       <c r="E285" s="8"/>
       <c r="F285" s="8"/>
     </row>
-    <row r="286" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="6"/>
       <c r="B286" s="14"/>
       <c r="C286" s="11"/>
@@ -4467,7 +4609,7 @@
       <c r="E286" s="8"/>
       <c r="F286" s="8"/>
     </row>
-    <row r="287" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="6"/>
       <c r="B287" s="14"/>
       <c r="C287" s="11"/>
@@ -4475,7 +4617,7 @@
       <c r="E287" s="8"/>
       <c r="F287" s="8"/>
     </row>
-    <row r="288" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="6"/>
       <c r="B288" s="14"/>
       <c r="C288" s="11"/>
@@ -4483,7 +4625,7 @@
       <c r="E288" s="8"/>
       <c r="F288" s="8"/>
     </row>
-    <row r="289" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="6"/>
       <c r="B289" s="14"/>
       <c r="C289" s="11"/>
@@ -4491,7 +4633,7 @@
       <c r="E289" s="8"/>
       <c r="F289" s="8"/>
     </row>
-    <row r="290" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="6"/>
       <c r="B290" s="14"/>
       <c r="C290" s="11"/>
@@ -4499,7 +4641,7 @@
       <c r="E290" s="8"/>
       <c r="F290" s="8"/>
     </row>
-    <row r="291" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="6"/>
       <c r="B291" s="14"/>
       <c r="C291" s="11"/>
@@ -4507,7 +4649,7 @@
       <c r="E291" s="8"/>
       <c r="F291" s="8"/>
     </row>
-    <row r="292" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="6"/>
       <c r="B292" s="14"/>
       <c r="C292" s="11"/>
@@ -4515,7 +4657,7 @@
       <c r="E292" s="8"/>
       <c r="F292" s="8"/>
     </row>
-    <row r="293" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="6"/>
       <c r="B293" s="14"/>
       <c r="C293" s="11"/>
@@ -4523,7 +4665,7 @@
       <c r="E293" s="8"/>
       <c r="F293" s="8"/>
     </row>
-    <row r="294" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="6"/>
       <c r="B294" s="14"/>
       <c r="C294" s="11"/>
@@ -4531,7 +4673,7 @@
       <c r="E294" s="8"/>
       <c r="F294" s="8"/>
     </row>
-    <row r="295" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="6"/>
       <c r="B295" s="14"/>
       <c r="C295" s="11"/>
@@ -4539,7 +4681,7 @@
       <c r="E295" s="8"/>
       <c r="F295" s="8"/>
     </row>
-    <row r="296" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="6"/>
       <c r="B296" s="14"/>
       <c r="C296" s="11"/>
@@ -4547,7 +4689,7 @@
       <c r="E296" s="8"/>
       <c r="F296" s="8"/>
     </row>
-    <row r="297" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="6"/>
       <c r="B297" s="14"/>
       <c r="C297" s="11"/>
@@ -4555,7 +4697,7 @@
       <c r="E297" s="8"/>
       <c r="F297" s="8"/>
     </row>
-    <row r="298" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="6"/>
       <c r="B298" s="14"/>
       <c r="C298" s="11"/>
@@ -4563,7 +4705,7 @@
       <c r="E298" s="8"/>
       <c r="F298" s="8"/>
     </row>
-    <row r="299" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="6"/>
       <c r="B299" s="14"/>
       <c r="C299" s="11"/>
@@ -4571,7 +4713,7 @@
       <c r="E299" s="8"/>
       <c r="F299" s="8"/>
     </row>
-    <row r="300" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="6"/>
       <c r="B300" s="14"/>
       <c r="C300" s="11"/>
@@ -4579,7 +4721,7 @@
       <c r="E300" s="8"/>
       <c r="F300" s="8"/>
     </row>
-    <row r="301" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="6"/>
       <c r="B301" s="14"/>
       <c r="C301" s="11"/>
@@ -4587,7 +4729,7 @@
       <c r="E301" s="8"/>
       <c r="F301" s="8"/>
     </row>
-    <row r="302" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="6"/>
       <c r="B302" s="14"/>
       <c r="C302" s="11"/>
@@ -4595,7 +4737,7 @@
       <c r="E302" s="8"/>
       <c r="F302" s="8"/>
     </row>
-    <row r="303" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="6"/>
       <c r="B303" s="14"/>
       <c r="C303" s="11"/>
@@ -4603,7 +4745,7 @@
       <c r="E303" s="8"/>
       <c r="F303" s="8"/>
     </row>
-    <row r="304" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="6"/>
       <c r="B304" s="14"/>
       <c r="C304" s="11"/>
@@ -4611,7 +4753,7 @@
       <c r="E304" s="8"/>
       <c r="F304" s="8"/>
     </row>
-    <row r="305" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="6"/>
       <c r="B305" s="14"/>
       <c r="C305" s="11"/>
@@ -4619,7 +4761,7 @@
       <c r="E305" s="8"/>
       <c r="F305" s="8"/>
     </row>
-    <row r="306" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="6"/>
       <c r="B306" s="14"/>
       <c r="C306" s="11"/>
@@ -4627,7 +4769,7 @@
       <c r="E306" s="8"/>
       <c r="F306" s="8"/>
     </row>
-    <row r="307" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="6"/>
       <c r="B307" s="14"/>
       <c r="C307" s="11"/>
@@ -4635,7 +4777,7 @@
       <c r="E307" s="8"/>
       <c r="F307" s="8"/>
     </row>
-    <row r="308" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="6"/>
       <c r="B308" s="14"/>
       <c r="C308" s="11"/>
@@ -4643,7 +4785,7 @@
       <c r="E308" s="8"/>
       <c r="F308" s="8"/>
     </row>
-    <row r="309" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="6"/>
       <c r="B309" s="14"/>
       <c r="C309" s="11"/>
@@ -4651,7 +4793,7 @@
       <c r="E309" s="8"/>
       <c r="F309" s="8"/>
     </row>
-    <row r="310" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="6"/>
       <c r="B310" s="14"/>
       <c r="C310" s="11"/>
@@ -4659,7 +4801,7 @@
       <c r="E310" s="8"/>
       <c r="F310" s="8"/>
     </row>
-    <row r="311" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="6"/>
       <c r="B311" s="14"/>
       <c r="C311" s="11"/>
@@ -4667,7 +4809,7 @@
       <c r="E311" s="8"/>
       <c r="F311" s="8"/>
     </row>
-    <row r="312" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="6"/>
       <c r="B312" s="14"/>
       <c r="C312" s="11"/>
@@ -4675,7 +4817,7 @@
       <c r="E312" s="8"/>
       <c r="F312" s="8"/>
     </row>
-    <row r="313" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="6"/>
       <c r="B313" s="14"/>
       <c r="C313" s="11"/>
@@ -4683,7 +4825,7 @@
       <c r="E313" s="8"/>
       <c r="F313" s="8"/>
     </row>
-    <row r="314" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="6"/>
       <c r="B314" s="14"/>
       <c r="C314" s="11"/>
@@ -4691,7 +4833,7 @@
       <c r="E314" s="8"/>
       <c r="F314" s="8"/>
     </row>
-    <row r="315" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="6"/>
       <c r="B315" s="14"/>
       <c r="C315" s="11"/>
@@ -4699,7 +4841,7 @@
       <c r="E315" s="8"/>
       <c r="F315" s="8"/>
     </row>
-    <row r="316" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="6"/>
       <c r="B316" s="14"/>
       <c r="C316" s="11"/>
@@ -4707,7 +4849,7 @@
       <c r="E316" s="8"/>
       <c r="F316" s="8"/>
     </row>
-    <row r="317" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="6"/>
       <c r="B317" s="14"/>
       <c r="C317" s="11"/>
@@ -4715,7 +4857,7 @@
       <c r="E317" s="8"/>
       <c r="F317" s="8"/>
     </row>
-    <row r="318" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="6"/>
       <c r="B318" s="14"/>
       <c r="C318" s="11"/>
@@ -4723,7 +4865,7 @@
       <c r="E318" s="8"/>
       <c r="F318" s="8"/>
     </row>
-    <row r="319" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="6"/>
       <c r="B319" s="14"/>
       <c r="C319" s="11"/>
@@ -4731,7 +4873,7 @@
       <c r="E319" s="8"/>
       <c r="F319" s="8"/>
     </row>
-    <row r="320" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="6"/>
       <c r="B320" s="14"/>
       <c r="C320" s="11"/>
@@ -4739,7 +4881,7 @@
       <c r="E320" s="8"/>
       <c r="F320" s="8"/>
     </row>
-    <row r="321" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="6"/>
       <c r="B321" s="14"/>
       <c r="C321" s="11"/>
@@ -4747,7 +4889,7 @@
       <c r="E321" s="8"/>
       <c r="F321" s="8"/>
     </row>
-    <row r="322" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="6"/>
       <c r="B322" s="14"/>
       <c r="C322" s="11"/>
@@ -4755,7 +4897,7 @@
       <c r="E322" s="8"/>
       <c r="F322" s="8"/>
     </row>
-    <row r="323" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="6"/>
       <c r="B323" s="14"/>
       <c r="C323" s="11"/>
@@ -4763,7 +4905,7 @@
       <c r="E323" s="8"/>
       <c r="F323" s="8"/>
     </row>
-    <row r="324" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="6"/>
       <c r="B324" s="14"/>
       <c r="C324" s="11"/>
@@ -4771,7 +4913,7 @@
       <c r="E324" s="8"/>
       <c r="F324" s="8"/>
     </row>
-    <row r="325" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="6"/>
       <c r="B325" s="14"/>
       <c r="C325" s="11"/>
@@ -4779,7 +4921,7 @@
       <c r="E325" s="8"/>
       <c r="F325" s="8"/>
     </row>
-    <row r="326" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="6"/>
       <c r="B326" s="14"/>
       <c r="C326" s="11"/>
@@ -4787,7 +4929,7 @@
       <c r="E326" s="8"/>
       <c r="F326" s="8"/>
     </row>
-    <row r="327" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="6"/>
       <c r="B327" s="14"/>
       <c r="C327" s="11"/>
@@ -4795,7 +4937,7 @@
       <c r="E327" s="8"/>
       <c r="F327" s="8"/>
     </row>
-    <row r="328" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="6"/>
       <c r="B328" s="14"/>
       <c r="C328" s="11"/>
@@ -4803,7 +4945,7 @@
       <c r="E328" s="8"/>
       <c r="F328" s="8"/>
     </row>
-    <row r="329" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="6"/>
       <c r="B329" s="14"/>
       <c r="C329" s="11"/>
@@ -4811,7 +4953,7 @@
       <c r="E329" s="8"/>
       <c r="F329" s="8"/>
     </row>
-    <row r="330" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="6"/>
       <c r="B330" s="14"/>
       <c r="C330" s="11"/>
@@ -4819,7 +4961,7 @@
       <c r="E330" s="8"/>
       <c r="F330" s="8"/>
     </row>
-    <row r="331" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="6"/>
       <c r="B331" s="14"/>
       <c r="C331" s="11"/>
@@ -4827,7 +4969,7 @@
       <c r="E331" s="8"/>
       <c r="F331" s="8"/>
     </row>
-    <row r="332" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="6"/>
       <c r="B332" s="14"/>
       <c r="C332" s="11"/>
@@ -4835,7 +4977,7 @@
       <c r="E332" s="8"/>
       <c r="F332" s="8"/>
     </row>
-    <row r="333" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="6"/>
       <c r="B333" s="14"/>
       <c r="C333" s="11"/>
@@ -4843,7 +4985,7 @@
       <c r="E333" s="8"/>
       <c r="F333" s="8"/>
     </row>
-    <row r="334" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="6"/>
       <c r="B334" s="14"/>
       <c r="C334" s="11"/>
@@ -4851,7 +4993,7 @@
       <c r="E334" s="8"/>
       <c r="F334" s="8"/>
     </row>
-    <row r="335" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="6"/>
       <c r="B335" s="14"/>
       <c r="C335" s="11"/>
@@ -4859,7 +5001,7 @@
       <c r="E335" s="8"/>
       <c r="F335" s="8"/>
     </row>
-    <row r="336" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="6"/>
       <c r="B336" s="14"/>
       <c r="C336" s="11"/>
@@ -4867,7 +5009,7 @@
       <c r="E336" s="8"/>
       <c r="F336" s="8"/>
     </row>
-    <row r="337" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="6"/>
       <c r="B337" s="14"/>
       <c r="C337" s="11"/>
@@ -4875,7 +5017,7 @@
       <c r="E337" s="8"/>
       <c r="F337" s="8"/>
     </row>
-    <row r="338" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="6"/>
       <c r="B338" s="14"/>
       <c r="C338" s="11"/>
@@ -4883,7 +5025,7 @@
       <c r="E338" s="8"/>
       <c r="F338" s="8"/>
     </row>
-    <row r="339" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="6"/>
       <c r="B339" s="14"/>
       <c r="C339" s="11"/>
@@ -4891,7 +5033,7 @@
       <c r="E339" s="8"/>
       <c r="F339" s="8"/>
     </row>
-    <row r="340" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="6"/>
       <c r="B340" s="14"/>
       <c r="C340" s="11"/>
@@ -4899,7 +5041,7 @@
       <c r="E340" s="8"/>
       <c r="F340" s="8"/>
     </row>
-    <row r="341" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="6"/>
       <c r="B341" s="14"/>
       <c r="C341" s="11"/>
@@ -4907,7 +5049,7 @@
       <c r="E341" s="8"/>
       <c r="F341" s="8"/>
     </row>
-    <row r="342" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="6"/>
       <c r="B342" s="14"/>
       <c r="C342" s="11"/>
@@ -4915,7 +5057,7 @@
       <c r="E342" s="8"/>
       <c r="F342" s="8"/>
     </row>
-    <row r="343" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="6"/>
       <c r="B343" s="14"/>
       <c r="C343" s="11"/>
@@ -4923,7 +5065,7 @@
       <c r="E343" s="8"/>
       <c r="F343" s="8"/>
     </row>
-    <row r="344" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="6"/>
       <c r="B344" s="14"/>
       <c r="C344" s="11"/>
@@ -4931,7 +5073,7 @@
       <c r="E344" s="8"/>
       <c r="F344" s="8"/>
     </row>
-    <row r="345" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="6"/>
       <c r="B345" s="14"/>
       <c r="C345" s="11"/>
@@ -4939,7 +5081,7 @@
       <c r="E345" s="8"/>
       <c r="F345" s="8"/>
     </row>
-    <row r="346" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="6"/>
       <c r="B346" s="14"/>
       <c r="C346" s="11"/>
@@ -4947,7 +5089,7 @@
       <c r="E346" s="8"/>
       <c r="F346" s="8"/>
     </row>
-    <row r="347" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="6"/>
       <c r="B347" s="14"/>
       <c r="C347" s="11"/>
@@ -4955,7 +5097,7 @@
       <c r="E347" s="8"/>
       <c r="F347" s="8"/>
     </row>
-    <row r="348" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="6"/>
       <c r="B348" s="14"/>
       <c r="C348" s="11"/>
@@ -4963,7 +5105,7 @@
       <c r="E348" s="8"/>
       <c r="F348" s="8"/>
     </row>
-    <row r="349" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="6"/>
       <c r="B349" s="14"/>
       <c r="C349" s="11"/>
@@ -4971,7 +5113,7 @@
       <c r="E349" s="8"/>
       <c r="F349" s="8"/>
     </row>
-    <row r="350" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="6"/>
       <c r="B350" s="14"/>
       <c r="C350" s="11"/>
@@ -4979,7 +5121,7 @@
       <c r="E350" s="8"/>
       <c r="F350" s="8"/>
     </row>
-    <row r="351" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="6"/>
       <c r="B351" s="14"/>
       <c r="C351" s="11"/>
@@ -4987,7 +5129,7 @@
       <c r="E351" s="8"/>
       <c r="F351" s="8"/>
     </row>
-    <row r="352" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="6"/>
       <c r="B352" s="14"/>
       <c r="C352" s="11"/>
@@ -4995,7 +5137,7 @@
       <c r="E352" s="8"/>
       <c r="F352" s="8"/>
     </row>
-    <row r="353" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="6"/>
       <c r="B353" s="14"/>
       <c r="C353" s="11"/>
@@ -5003,7 +5145,7 @@
       <c r="E353" s="8"/>
       <c r="F353" s="8"/>
     </row>
-    <row r="354" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="6"/>
       <c r="B354" s="14"/>
       <c r="C354" s="11"/>
@@ -5011,7 +5153,7 @@
       <c r="E354" s="8"/>
       <c r="F354" s="8"/>
     </row>
-    <row r="355" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="6"/>
       <c r="B355" s="14"/>
       <c r="C355" s="11"/>
@@ -5019,7 +5161,7 @@
       <c r="E355" s="8"/>
       <c r="F355" s="8"/>
     </row>
-    <row r="356" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="6"/>
       <c r="B356" s="14"/>
       <c r="C356" s="11"/>
@@ -5027,7 +5169,7 @@
       <c r="E356" s="8"/>
       <c r="F356" s="8"/>
     </row>
-    <row r="357" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="6"/>
       <c r="B357" s="14"/>
       <c r="C357" s="11"/>
@@ -5035,7 +5177,7 @@
       <c r="E357" s="8"/>
       <c r="F357" s="8"/>
     </row>
-    <row r="358" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="6"/>
       <c r="B358" s="14"/>
       <c r="C358" s="11"/>
@@ -5043,7 +5185,7 @@
       <c r="E358" s="8"/>
       <c r="F358" s="8"/>
     </row>
-    <row r="359" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="6"/>
       <c r="B359" s="14"/>
       <c r="C359" s="11"/>
@@ -5051,7 +5193,7 @@
       <c r="E359" s="8"/>
       <c r="F359" s="8"/>
     </row>
-    <row r="360" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="6"/>
       <c r="B360" s="14"/>
       <c r="C360" s="11"/>
@@ -5059,7 +5201,7 @@
       <c r="E360" s="8"/>
       <c r="F360" s="8"/>
     </row>
-    <row r="361" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="6"/>
       <c r="B361" s="14"/>
       <c r="C361" s="11"/>
@@ -5067,7 +5209,7 @@
       <c r="E361" s="8"/>
       <c r="F361" s="8"/>
     </row>
-    <row r="362" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="6"/>
       <c r="B362" s="14"/>
       <c r="C362" s="11"/>
@@ -5075,7 +5217,7 @@
       <c r="E362" s="8"/>
       <c r="F362" s="8"/>
     </row>
-    <row r="363" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="6"/>
       <c r="B363" s="14"/>
       <c r="C363" s="11"/>
@@ -5083,7 +5225,7 @@
       <c r="E363" s="8"/>
       <c r="F363" s="8"/>
     </row>
-    <row r="364" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="6"/>
       <c r="B364" s="14"/>
       <c r="C364" s="11"/>
@@ -5091,7 +5233,7 @@
       <c r="E364" s="8"/>
       <c r="F364" s="8"/>
     </row>
-    <row r="365" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="6"/>
       <c r="B365" s="14"/>
       <c r="C365" s="11"/>
@@ -5099,7 +5241,7 @@
       <c r="E365" s="8"/>
       <c r="F365" s="8"/>
     </row>
-    <row r="366" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="6"/>
       <c r="B366" s="14"/>
       <c r="C366" s="11"/>
@@ -5107,7 +5249,7 @@
       <c r="E366" s="8"/>
       <c r="F366" s="8"/>
     </row>
-    <row r="367" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="6"/>
       <c r="B367" s="14"/>
       <c r="C367" s="11"/>
@@ -5115,7 +5257,7 @@
       <c r="E367" s="8"/>
       <c r="F367" s="8"/>
     </row>
-    <row r="368" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="6"/>
       <c r="B368" s="14"/>
       <c r="C368" s="11"/>
@@ -5123,7 +5265,7 @@
       <c r="E368" s="8"/>
       <c r="F368" s="8"/>
     </row>
-    <row r="369" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="6"/>
       <c r="B369" s="14"/>
       <c r="C369" s="11"/>
@@ -5131,7 +5273,7 @@
       <c r="E369" s="8"/>
       <c r="F369" s="8"/>
     </row>
-    <row r="370" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="6"/>
       <c r="B370" s="14"/>
       <c r="C370" s="11"/>
@@ -5139,7 +5281,7 @@
       <c r="E370" s="8"/>
       <c r="F370" s="8"/>
     </row>
-    <row r="371" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="6"/>
       <c r="B371" s="14"/>
       <c r="C371" s="11"/>
@@ -5147,7 +5289,7 @@
       <c r="E371" s="8"/>
       <c r="F371" s="8"/>
     </row>
-    <row r="372" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="6"/>
       <c r="B372" s="14"/>
       <c r="C372" s="11"/>
@@ -5155,7 +5297,7 @@
       <c r="E372" s="8"/>
       <c r="F372" s="8"/>
     </row>
-    <row r="373" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="6"/>
       <c r="B373" s="14"/>
       <c r="C373" s="11"/>
@@ -5163,7 +5305,7 @@
       <c r="E373" s="8"/>
       <c r="F373" s="8"/>
     </row>
-    <row r="374" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="6"/>
       <c r="B374" s="14"/>
       <c r="C374" s="11"/>
@@ -5171,7 +5313,7 @@
       <c r="E374" s="8"/>
       <c r="F374" s="8"/>
     </row>
-    <row r="375" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="6"/>
       <c r="B375" s="14"/>
       <c r="C375" s="11"/>
@@ -5179,7 +5321,7 @@
       <c r="E375" s="8"/>
       <c r="F375" s="8"/>
     </row>
-    <row r="376" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="6"/>
       <c r="B376" s="14"/>
       <c r="C376" s="11"/>
@@ -5187,7 +5329,7 @@
       <c r="E376" s="8"/>
       <c r="F376" s="8"/>
     </row>
-    <row r="377" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="6"/>
       <c r="B377" s="14"/>
       <c r="C377" s="11"/>
@@ -5195,7 +5337,7 @@
       <c r="E377" s="8"/>
       <c r="F377" s="8"/>
     </row>
-    <row r="378" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="6"/>
       <c r="B378" s="14"/>
       <c r="C378" s="11"/>
@@ -5203,7 +5345,7 @@
       <c r="E378" s="8"/>
       <c r="F378" s="8"/>
     </row>
-    <row r="379" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="6"/>
       <c r="B379" s="14"/>
       <c r="C379" s="11"/>
@@ -5211,7 +5353,7 @@
       <c r="E379" s="8"/>
       <c r="F379" s="8"/>
     </row>
-    <row r="380" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="6"/>
       <c r="B380" s="14"/>
       <c r="C380" s="11"/>
@@ -5219,7 +5361,7 @@
       <c r="E380" s="8"/>
       <c r="F380" s="8"/>
     </row>
-    <row r="381" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="6"/>
       <c r="B381" s="14"/>
       <c r="C381" s="11"/>
@@ -5227,7 +5369,7 @@
       <c r="E381" s="8"/>
       <c r="F381" s="8"/>
     </row>
-    <row r="382" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="6"/>
       <c r="B382" s="14"/>
       <c r="C382" s="11"/>
@@ -5235,7 +5377,7 @@
       <c r="E382" s="8"/>
       <c r="F382" s="8"/>
     </row>
-    <row r="383" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="6"/>
       <c r="B383" s="14"/>
       <c r="C383" s="11"/>
@@ -5243,7 +5385,7 @@
       <c r="E383" s="8"/>
       <c r="F383" s="8"/>
     </row>
-    <row r="384" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="6"/>
       <c r="B384" s="14"/>
       <c r="C384" s="11"/>
@@ -5251,7 +5393,7 @@
       <c r="E384" s="8"/>
       <c r="F384" s="8"/>
     </row>
-    <row r="385" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="6"/>
       <c r="B385" s="14"/>
       <c r="C385" s="11"/>
@@ -5259,7 +5401,7 @@
       <c r="E385" s="8"/>
       <c r="F385" s="8"/>
     </row>
-    <row r="386" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="6"/>
       <c r="B386" s="14"/>
       <c r="C386" s="11"/>
@@ -5267,7 +5409,7 @@
       <c r="E386" s="8"/>
       <c r="F386" s="8"/>
     </row>
-    <row r="387" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="6"/>
       <c r="B387" s="14"/>
       <c r="C387" s="11"/>
@@ -5275,7 +5417,7 @@
       <c r="E387" s="8"/>
       <c r="F387" s="8"/>
     </row>
-    <row r="388" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="6"/>
       <c r="B388" s="14"/>
       <c r="C388" s="11"/>
@@ -5283,7 +5425,7 @@
       <c r="E388" s="8"/>
       <c r="F388" s="8"/>
     </row>
-    <row r="389" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="6"/>
       <c r="B389" s="14"/>
       <c r="C389" s="11"/>
@@ -5291,7 +5433,7 @@
       <c r="E389" s="8"/>
       <c r="F389" s="8"/>
     </row>
-    <row r="390" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="6"/>
       <c r="B390" s="14"/>
       <c r="C390" s="11"/>
@@ -5299,7 +5441,7 @@
       <c r="E390" s="8"/>
       <c r="F390" s="8"/>
     </row>
-    <row r="391" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="6"/>
       <c r="B391" s="14"/>
       <c r="C391" s="11"/>
@@ -5307,7 +5449,7 @@
       <c r="E391" s="8"/>
       <c r="F391" s="8"/>
     </row>
-    <row r="392" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="6"/>
       <c r="B392" s="14"/>
       <c r="C392" s="11"/>
@@ -5315,7 +5457,7 @@
       <c r="E392" s="8"/>
       <c r="F392" s="8"/>
     </row>
-    <row r="393" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="6"/>
       <c r="B393" s="14"/>
       <c r="C393" s="11"/>
@@ -5323,7 +5465,7 @@
       <c r="E393" s="8"/>
       <c r="F393" s="8"/>
     </row>
-    <row r="394" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="6"/>
       <c r="B394" s="14"/>
       <c r="C394" s="11"/>
@@ -5331,7 +5473,7 @@
       <c r="E394" s="8"/>
       <c r="F394" s="8"/>
     </row>
-    <row r="395" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="6"/>
       <c r="B395" s="14"/>
       <c r="C395" s="11"/>
@@ -5339,7 +5481,7 @@
       <c r="E395" s="8"/>
       <c r="F395" s="8"/>
     </row>
-    <row r="396" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="6"/>
       <c r="B396" s="14"/>
       <c r="C396" s="11"/>
@@ -5347,7 +5489,7 @@
       <c r="E396" s="8"/>
       <c r="F396" s="8"/>
     </row>
-    <row r="397" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="6"/>
       <c r="B397" s="14"/>
       <c r="C397" s="11"/>
@@ -5355,7 +5497,7 @@
       <c r="E397" s="8"/>
       <c r="F397" s="8"/>
     </row>
-    <row r="398" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="6"/>
       <c r="B398" s="14"/>
       <c r="C398" s="11"/>
@@ -5363,7 +5505,7 @@
       <c r="E398" s="8"/>
       <c r="F398" s="8"/>
     </row>
-    <row r="399" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="6"/>
       <c r="B399" s="14"/>
       <c r="C399" s="11"/>
@@ -5371,7 +5513,7 @@
       <c r="E399" s="8"/>
       <c r="F399" s="8"/>
     </row>
-    <row r="400" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="6"/>
       <c r="B400" s="14"/>
       <c r="C400" s="11"/>
@@ -5379,7 +5521,7 @@
       <c r="E400" s="8"/>
       <c r="F400" s="8"/>
     </row>
-    <row r="401" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="6"/>
       <c r="B401" s="14"/>
       <c r="C401" s="11"/>
@@ -5387,7 +5529,7 @@
       <c r="E401" s="8"/>
       <c r="F401" s="8"/>
     </row>
-    <row r="402" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="6"/>
       <c r="B402" s="14"/>
       <c r="C402" s="11"/>
@@ -5395,7 +5537,7 @@
       <c r="E402" s="8"/>
       <c r="F402" s="8"/>
     </row>
-    <row r="403" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="6"/>
       <c r="B403" s="14"/>
       <c r="C403" s="11"/>
@@ -5403,7 +5545,7 @@
       <c r="E403" s="8"/>
       <c r="F403" s="8"/>
     </row>
-    <row r="404" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="6"/>
       <c r="B404" s="14"/>
       <c r="C404" s="11"/>
@@ -5411,7 +5553,7 @@
       <c r="E404" s="8"/>
       <c r="F404" s="8"/>
     </row>
-    <row r="405" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="6"/>
       <c r="B405" s="14"/>
       <c r="C405" s="11"/>
@@ -5419,7 +5561,7 @@
       <c r="E405" s="8"/>
       <c r="F405" s="8"/>
     </row>
-    <row r="406" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="6"/>
       <c r="B406" s="14"/>
       <c r="C406" s="11"/>
@@ -5427,7 +5569,7 @@
       <c r="E406" s="8"/>
       <c r="F406" s="8"/>
     </row>
-    <row r="407" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="6"/>
       <c r="B407" s="14"/>
       <c r="C407" s="11"/>
@@ -5435,7 +5577,7 @@
       <c r="E407" s="8"/>
       <c r="F407" s="8"/>
     </row>
-    <row r="408" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="6"/>
       <c r="B408" s="14"/>
       <c r="C408" s="11"/>
@@ -5443,7 +5585,7 @@
       <c r="E408" s="8"/>
       <c r="F408" s="8"/>
     </row>
-    <row r="409" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="6"/>
       <c r="B409" s="14"/>
       <c r="C409" s="11"/>
@@ -5451,7 +5593,7 @@
       <c r="E409" s="8"/>
       <c r="F409" s="8"/>
     </row>
-    <row r="410" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="6"/>
       <c r="B410" s="14"/>
       <c r="C410" s="11"/>
@@ -5459,7 +5601,7 @@
       <c r="E410" s="8"/>
       <c r="F410" s="8"/>
     </row>
-    <row r="411" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="6"/>
       <c r="B411" s="14"/>
       <c r="C411" s="11"/>
@@ -5467,7 +5609,7 @@
       <c r="E411" s="8"/>
       <c r="F411" s="8"/>
     </row>
-    <row r="412" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="6"/>
       <c r="B412" s="14"/>
       <c r="C412" s="11"/>
@@ -5475,7 +5617,7 @@
       <c r="E412" s="8"/>
       <c r="F412" s="8"/>
     </row>
-    <row r="413" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="6"/>
       <c r="B413" s="14"/>
       <c r="C413" s="11"/>
@@ -5483,7 +5625,7 @@
       <c r="E413" s="8"/>
       <c r="F413" s="8"/>
     </row>
-    <row r="414" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="6"/>
       <c r="B414" s="14"/>
       <c r="C414" s="11"/>
@@ -5491,7 +5633,7 @@
       <c r="E414" s="8"/>
       <c r="F414" s="8"/>
     </row>
-    <row r="415" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="6"/>
       <c r="B415" s="14"/>
       <c r="C415" s="11"/>
@@ -5499,7 +5641,7 @@
       <c r="E415" s="8"/>
       <c r="F415" s="8"/>
     </row>
-    <row r="416" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="6"/>
       <c r="B416" s="14"/>
       <c r="C416" s="11"/>
@@ -5507,7 +5649,7 @@
       <c r="E416" s="8"/>
       <c r="F416" s="8"/>
     </row>
-    <row r="417" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="6"/>
       <c r="B417" s="14"/>
       <c r="C417" s="11"/>
@@ -5515,7 +5657,7 @@
       <c r="E417" s="8"/>
       <c r="F417" s="8"/>
     </row>
-    <row r="418" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="6"/>
       <c r="B418" s="14"/>
       <c r="C418" s="11"/>
@@ -5523,7 +5665,7 @@
       <c r="E418" s="8"/>
       <c r="F418" s="8"/>
     </row>
-    <row r="419" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="6"/>
       <c r="B419" s="14"/>
       <c r="C419" s="11"/>
@@ -5531,7 +5673,7 @@
       <c r="E419" s="8"/>
       <c r="F419" s="8"/>
     </row>
-    <row r="420" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="6"/>
       <c r="B420" s="14"/>
       <c r="C420" s="11"/>
@@ -5539,7 +5681,7 @@
       <c r="E420" s="8"/>
       <c r="F420" s="8"/>
     </row>
-    <row r="421" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="6"/>
       <c r="B421" s="14"/>
       <c r="C421" s="11"/>
@@ -5547,7 +5689,7 @@
       <c r="E421" s="8"/>
       <c r="F421" s="8"/>
     </row>
-    <row r="422" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="6"/>
       <c r="B422" s="14"/>
       <c r="C422" s="11"/>
@@ -5555,7 +5697,7 @@
       <c r="E422" s="8"/>
       <c r="F422" s="8"/>
     </row>
-    <row r="423" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="6"/>
       <c r="B423" s="14"/>
       <c r="C423" s="11"/>
@@ -5563,7 +5705,7 @@
       <c r="E423" s="8"/>
       <c r="F423" s="8"/>
     </row>
-    <row r="424" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="6"/>
       <c r="B424" s="14"/>
       <c r="C424" s="11"/>
@@ -5571,7 +5713,7 @@
       <c r="E424" s="8"/>
       <c r="F424" s="8"/>
     </row>
-    <row r="425" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="6"/>
       <c r="B425" s="14"/>
       <c r="C425" s="11"/>
@@ -5579,7 +5721,7 @@
       <c r="E425" s="8"/>
       <c r="F425" s="8"/>
     </row>
-    <row r="426" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="6"/>
       <c r="B426" s="14"/>
       <c r="C426" s="11"/>
@@ -5587,7 +5729,7 @@
       <c r="E426" s="8"/>
       <c r="F426" s="8"/>
     </row>
-    <row r="427" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="6"/>
       <c r="B427" s="14"/>
       <c r="C427" s="11"/>
@@ -5595,7 +5737,7 @@
       <c r="E427" s="8"/>
       <c r="F427" s="8"/>
     </row>
-    <row r="428" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="6"/>
       <c r="B428" s="14"/>
       <c r="C428" s="11"/>
@@ -5603,7 +5745,7 @@
       <c r="E428" s="8"/>
       <c r="F428" s="8"/>
     </row>
-    <row r="429" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="6"/>
       <c r="B429" s="14"/>
       <c r="C429" s="11"/>
@@ -5611,7 +5753,7 @@
       <c r="E429" s="8"/>
       <c r="F429" s="8"/>
     </row>
-    <row r="430" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="6"/>
       <c r="B430" s="14"/>
       <c r="C430" s="11"/>
@@ -5619,7 +5761,7 @@
       <c r="E430" s="8"/>
       <c r="F430" s="8"/>
     </row>
-    <row r="431" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="6"/>
       <c r="B431" s="14"/>
       <c r="C431" s="11"/>
@@ -5627,7 +5769,7 @@
       <c r="E431" s="8"/>
       <c r="F431" s="8"/>
     </row>
-    <row r="432" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="6"/>
       <c r="B432" s="14"/>
       <c r="C432" s="11"/>
@@ -5635,7 +5777,7 @@
       <c r="E432" s="8"/>
       <c r="F432" s="8"/>
     </row>
-    <row r="433" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="6"/>
       <c r="B433" s="14"/>
       <c r="C433" s="11"/>
@@ -5643,7 +5785,7 @@
       <c r="E433" s="8"/>
       <c r="F433" s="8"/>
     </row>
-    <row r="434" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="6"/>
       <c r="B434" s="14"/>
       <c r="C434" s="11"/>
@@ -5651,7 +5793,7 @@
       <c r="E434" s="8"/>
       <c r="F434" s="8"/>
     </row>
-    <row r="435" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="6"/>
       <c r="B435" s="14"/>
       <c r="C435" s="11"/>
@@ -5659,7 +5801,7 @@
       <c r="E435" s="8"/>
       <c r="F435" s="8"/>
     </row>
-    <row r="436" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="6"/>
       <c r="B436" s="14"/>
       <c r="C436" s="11"/>
@@ -5667,7 +5809,7 @@
       <c r="E436" s="8"/>
       <c r="F436" s="8"/>
     </row>
-    <row r="437" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="6"/>
       <c r="B437" s="14"/>
       <c r="C437" s="11"/>
@@ -5675,7 +5817,7 @@
       <c r="E437" s="8"/>
       <c r="F437" s="8"/>
     </row>
-    <row r="438" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="6"/>
       <c r="B438" s="14"/>
       <c r="C438" s="11"/>
@@ -5683,7 +5825,7 @@
       <c r="E438" s="8"/>
       <c r="F438" s="8"/>
     </row>
-    <row r="439" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="6"/>
       <c r="B439" s="14"/>
       <c r="C439" s="11"/>
@@ -5691,7 +5833,7 @@
       <c r="E439" s="8"/>
       <c r="F439" s="8"/>
     </row>
-    <row r="440" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="6"/>
       <c r="B440" s="14"/>
       <c r="C440" s="11"/>
@@ -5699,7 +5841,7 @@
       <c r="E440" s="8"/>
       <c r="F440" s="8"/>
     </row>
-    <row r="441" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="6"/>
       <c r="B441" s="14"/>
       <c r="C441" s="11"/>
@@ -5707,7 +5849,7 @@
       <c r="E441" s="8"/>
       <c r="F441" s="8"/>
     </row>
-    <row r="442" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="6"/>
       <c r="B442" s="14"/>
       <c r="C442" s="11"/>
@@ -5715,7 +5857,7 @@
       <c r="E442" s="8"/>
       <c r="F442" s="8"/>
     </row>
-    <row r="443" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="6"/>
       <c r="B443" s="14"/>
       <c r="C443" s="11"/>
@@ -5723,7 +5865,7 @@
       <c r="E443" s="8"/>
       <c r="F443" s="8"/>
     </row>
-    <row r="444" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="6"/>
       <c r="B444" s="14"/>
       <c r="C444" s="11"/>
@@ -5731,7 +5873,7 @@
       <c r="E444" s="8"/>
       <c r="F444" s="8"/>
     </row>
-    <row r="445" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="6"/>
       <c r="B445" s="14"/>
       <c r="C445" s="11"/>
@@ -5739,7 +5881,7 @@
       <c r="E445" s="8"/>
       <c r="F445" s="8"/>
     </row>
-    <row r="446" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="6"/>
       <c r="B446" s="14"/>
       <c r="C446" s="11"/>
@@ -5747,7 +5889,7 @@
       <c r="E446" s="8"/>
       <c r="F446" s="8"/>
     </row>
-    <row r="447" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="6"/>
       <c r="B447" s="14"/>
       <c r="C447" s="11"/>
@@ -5755,7 +5897,7 @@
       <c r="E447" s="8"/>
       <c r="F447" s="8"/>
     </row>
-    <row r="448" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="6"/>
       <c r="B448" s="14"/>
       <c r="C448" s="11"/>
@@ -5763,7 +5905,7 @@
       <c r="E448" s="8"/>
       <c r="F448" s="8"/>
     </row>
-    <row r="449" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="6"/>
       <c r="B449" s="14"/>
       <c r="C449" s="11"/>
@@ -5771,7 +5913,7 @@
       <c r="E449" s="8"/>
       <c r="F449" s="8"/>
     </row>
-    <row r="450" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="6"/>
       <c r="B450" s="14"/>
       <c r="C450" s="11"/>
@@ -5779,7 +5921,7 @@
       <c r="E450" s="8"/>
       <c r="F450" s="8"/>
     </row>
-    <row r="451" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="6"/>
       <c r="B451" s="14"/>
       <c r="C451" s="11"/>
@@ -5787,7 +5929,7 @@
       <c r="E451" s="8"/>
       <c r="F451" s="8"/>
     </row>
-    <row r="452" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="6"/>
       <c r="B452" s="14"/>
       <c r="C452" s="11"/>
@@ -5795,7 +5937,7 @@
       <c r="E452" s="8"/>
       <c r="F452" s="8"/>
     </row>
-    <row r="453" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="6"/>
       <c r="B453" s="14"/>
       <c r="C453" s="11"/>
@@ -5803,7 +5945,7 @@
       <c r="E453" s="8"/>
       <c r="F453" s="8"/>
     </row>
-    <row r="454" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="6"/>
       <c r="B454" s="14"/>
       <c r="C454" s="11"/>
@@ -5811,7 +5953,7 @@
       <c r="E454" s="8"/>
       <c r="F454" s="8"/>
     </row>
-    <row r="455" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="6"/>
       <c r="B455" s="14"/>
       <c r="C455" s="11"/>
@@ -5819,7 +5961,7 @@
       <c r="E455" s="8"/>
       <c r="F455" s="8"/>
     </row>
-    <row r="456" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="6"/>
       <c r="B456" s="14"/>
       <c r="C456" s="11"/>
@@ -5827,7 +5969,7 @@
       <c r="E456" s="8"/>
       <c r="F456" s="8"/>
     </row>
-    <row r="457" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="6"/>
       <c r="B457" s="14"/>
       <c r="C457" s="11"/>
@@ -5835,7 +5977,7 @@
       <c r="E457" s="8"/>
       <c r="F457" s="8"/>
     </row>
-    <row r="458" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="6"/>
       <c r="B458" s="14"/>
       <c r="C458" s="11"/>
@@ -5843,7 +5985,7 @@
       <c r="E458" s="8"/>
       <c r="F458" s="8"/>
     </row>
-    <row r="459" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="6"/>
       <c r="B459" s="14"/>
       <c r="C459" s="11"/>
@@ -5851,7 +5993,7 @@
       <c r="E459" s="8"/>
       <c r="F459" s="8"/>
     </row>
-    <row r="460" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="6"/>
       <c r="B460" s="14"/>
       <c r="C460" s="11"/>
@@ -5859,7 +6001,7 @@
       <c r="E460" s="8"/>
       <c r="F460" s="8"/>
     </row>
-    <row r="461" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="6"/>
       <c r="B461" s="14"/>
       <c r="C461" s="11"/>
@@ -5867,7 +6009,7 @@
       <c r="E461" s="8"/>
       <c r="F461" s="8"/>
     </row>
-    <row r="462" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="6"/>
       <c r="B462" s="14"/>
       <c r="C462" s="11"/>
@@ -5875,7 +6017,7 @@
       <c r="E462" s="8"/>
       <c r="F462" s="8"/>
     </row>
-    <row r="463" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="6"/>
       <c r="B463" s="14"/>
       <c r="C463" s="11"/>
@@ -5883,7 +6025,7 @@
       <c r="E463" s="8"/>
       <c r="F463" s="8"/>
     </row>
-    <row r="464" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="6"/>
       <c r="B464" s="14"/>
       <c r="C464" s="11"/>
@@ -5891,7 +6033,7 @@
       <c r="E464" s="8"/>
       <c r="F464" s="8"/>
     </row>
-    <row r="465" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="6"/>
       <c r="B465" s="14"/>
       <c r="C465" s="11"/>
@@ -5899,7 +6041,7 @@
       <c r="E465" s="8"/>
       <c r="F465" s="8"/>
     </row>
-    <row r="466" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="6"/>
       <c r="B466" s="14"/>
       <c r="C466" s="11"/>
@@ -5907,7 +6049,7 @@
       <c r="E466" s="8"/>
       <c r="F466" s="8"/>
     </row>
-    <row r="467" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="6"/>
       <c r="B467" s="14"/>
       <c r="C467" s="11"/>
@@ -5915,7 +6057,7 @@
       <c r="E467" s="8"/>
       <c r="F467" s="8"/>
     </row>
-    <row r="468" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="6"/>
       <c r="B468" s="14"/>
       <c r="C468" s="11"/>
@@ -5923,7 +6065,7 @@
       <c r="E468" s="8"/>
       <c r="F468" s="8"/>
     </row>
-    <row r="469" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="6"/>
       <c r="B469" s="14"/>
       <c r="C469" s="11"/>
@@ -5931,7 +6073,7 @@
       <c r="E469" s="8"/>
       <c r="F469" s="8"/>
     </row>
-    <row r="470" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="6"/>
       <c r="B470" s="14"/>
       <c r="C470" s="11"/>
@@ -5939,7 +6081,7 @@
       <c r="E470" s="8"/>
       <c r="F470" s="8"/>
     </row>
-    <row r="471" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="6"/>
       <c r="B471" s="14"/>
       <c r="C471" s="11"/>
@@ -5947,7 +6089,7 @@
       <c r="E471" s="8"/>
       <c r="F471" s="8"/>
     </row>
-    <row r="472" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="6"/>
       <c r="B472" s="14"/>
       <c r="C472" s="11"/>
@@ -5955,7 +6097,7 @@
       <c r="E472" s="8"/>
       <c r="F472" s="8"/>
     </row>
-    <row r="473" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="6"/>
       <c r="B473" s="14"/>
       <c r="C473" s="11"/>
@@ -5963,7 +6105,7 @@
       <c r="E473" s="8"/>
       <c r="F473" s="8"/>
     </row>
-    <row r="474" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="6"/>
       <c r="B474" s="14"/>
       <c r="C474" s="11"/>
@@ -5971,7 +6113,7 @@
       <c r="E474" s="8"/>
       <c r="F474" s="8"/>
     </row>
-    <row r="475" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="6"/>
       <c r="B475" s="14"/>
       <c r="C475" s="11"/>
@@ -5979,7 +6121,7 @@
       <c r="E475" s="8"/>
       <c r="F475" s="8"/>
     </row>
-    <row r="476" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="6"/>
       <c r="B476" s="14"/>
       <c r="C476" s="11"/>
@@ -5987,7 +6129,7 @@
       <c r="E476" s="8"/>
       <c r="F476" s="8"/>
     </row>
-    <row r="477" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="6"/>
       <c r="B477" s="14"/>
       <c r="C477" s="11"/>
@@ -5995,7 +6137,7 @@
       <c r="E477" s="8"/>
       <c r="F477" s="8"/>
     </row>
-    <row r="478" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="6"/>
       <c r="B478" s="14"/>
       <c r="C478" s="11"/>
@@ -6003,7 +6145,7 @@
       <c r="E478" s="8"/>
       <c r="F478" s="8"/>
     </row>
-    <row r="479" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="6"/>
       <c r="B479" s="14"/>
       <c r="C479" s="11"/>
@@ -6011,7 +6153,7 @@
       <c r="E479" s="8"/>
       <c r="F479" s="8"/>
     </row>
-    <row r="480" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="6"/>
       <c r="B480" s="14"/>
       <c r="C480" s="11"/>
@@ -6019,7 +6161,7 @@
       <c r="E480" s="8"/>
       <c r="F480" s="8"/>
     </row>
-    <row r="481" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="6"/>
       <c r="B481" s="14"/>
       <c r="C481" s="11"/>
@@ -6027,7 +6169,7 @@
       <c r="E481" s="8"/>
       <c r="F481" s="8"/>
     </row>
-    <row r="482" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="6"/>
       <c r="B482" s="14"/>
       <c r="C482" s="11"/>
@@ -6035,7 +6177,7 @@
       <c r="E482" s="8"/>
       <c r="F482" s="8"/>
     </row>
-    <row r="483" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="6"/>
       <c r="B483" s="14"/>
       <c r="C483" s="11"/>
@@ -6043,7 +6185,7 @@
       <c r="E483" s="8"/>
       <c r="F483" s="8"/>
     </row>
-    <row r="484" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="6"/>
       <c r="B484" s="14"/>
       <c r="C484" s="11"/>
@@ -6051,7 +6193,7 @@
       <c r="E484" s="8"/>
       <c r="F484" s="8"/>
     </row>
-    <row r="485" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="6"/>
       <c r="B485" s="14"/>
       <c r="C485" s="11"/>
@@ -6059,7 +6201,7 @@
       <c r="E485" s="8"/>
       <c r="F485" s="8"/>
     </row>
-    <row r="486" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" s="6"/>
       <c r="B486" s="14"/>
       <c r="C486" s="11"/>
@@ -6067,7 +6209,7 @@
       <c r="E486" s="8"/>
       <c r="F486" s="8"/>
     </row>
-    <row r="487" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="6"/>
       <c r="B487" s="14"/>
       <c r="C487" s="11"/>
@@ -6075,7 +6217,7 @@
       <c r="E487" s="8"/>
       <c r="F487" s="8"/>
     </row>
-    <row r="488" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="6"/>
       <c r="B488" s="14"/>
       <c r="C488" s="11"/>
@@ -6083,7 +6225,7 @@
       <c r="E488" s="8"/>
       <c r="F488" s="8"/>
     </row>
-    <row r="489" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="6"/>
       <c r="B489" s="14"/>
       <c r="C489" s="11"/>
@@ -6091,7 +6233,7 @@
       <c r="E489" s="8"/>
       <c r="F489" s="8"/>
     </row>
-    <row r="490" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="6"/>
       <c r="B490" s="14"/>
       <c r="C490" s="11"/>
@@ -6099,7 +6241,7 @@
       <c r="E490" s="8"/>
       <c r="F490" s="8"/>
     </row>
-    <row r="491" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="6"/>
       <c r="B491" s="14"/>
       <c r="C491" s="11"/>
@@ -6107,7 +6249,7 @@
       <c r="E491" s="8"/>
       <c r="F491" s="8"/>
     </row>
-    <row r="492" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="6"/>
       <c r="B492" s="14"/>
       <c r="C492" s="11"/>
@@ -6115,7 +6257,7 @@
       <c r="E492" s="8"/>
       <c r="F492" s="8"/>
     </row>
-    <row r="493" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="6"/>
       <c r="B493" s="14"/>
       <c r="C493" s="11"/>
@@ -6123,7 +6265,7 @@
       <c r="E493" s="8"/>
       <c r="F493" s="8"/>
     </row>
-    <row r="494" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="6"/>
       <c r="B494" s="14"/>
       <c r="C494" s="11"/>
@@ -6131,7 +6273,7 @@
       <c r="E494" s="8"/>
       <c r="F494" s="8"/>
     </row>
-    <row r="495" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495" s="6"/>
       <c r="B495" s="14"/>
       <c r="C495" s="11"/>
@@ -6139,7 +6281,7 @@
       <c r="E495" s="8"/>
       <c r="F495" s="8"/>
     </row>
-    <row r="496" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="6"/>
       <c r="B496" s="14"/>
       <c r="C496" s="11"/>
@@ -6147,7 +6289,7 @@
       <c r="E496" s="8"/>
       <c r="F496" s="8"/>
     </row>
-    <row r="497" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="6"/>
       <c r="B497" s="14"/>
       <c r="C497" s="11"/>
@@ -6155,7 +6297,7 @@
       <c r="E497" s="8"/>
       <c r="F497" s="8"/>
     </row>
-    <row r="498" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="6"/>
       <c r="B498" s="14"/>
       <c r="C498" s="11"/>
@@ -6163,7 +6305,7 @@
       <c r="E498" s="8"/>
       <c r="F498" s="8"/>
     </row>
-    <row r="499" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="6"/>
       <c r="B499" s="14"/>
       <c r="C499" s="11"/>
@@ -6171,7 +6313,7 @@
       <c r="E499" s="8"/>
       <c r="F499" s="8"/>
     </row>
-    <row r="500" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="6"/>
       <c r="B500" s="14"/>
       <c r="C500" s="11"/>
@@ -6180,7 +6322,7 @@
       <c r="F500" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B300" xr:uid="{E1FCDE41-ACF1-4A68-9483-C062BB428146}">
       <formula1>1</formula1>
@@ -6223,13 +6365,13 @@
       <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.83203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="24.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.25" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
@@ -6237,7 +6379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>7</v>
       </c>
@@ -6246,43 +6388,43 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="11">
         <f>SUMIF(Journal!$D$2:$D$160,Tableau13[[#This Row],[Type]],Journal!$C$2:$C$160)</f>
-        <v>5.25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="11">
         <f>SUMIF(Journal!$D$2:$D$160,Tableau13[[#This Row],[Type]],Journal!$C$2:$C$160)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="11">
         <f>SUMIF(Journal!$D$2:$D$160,Tableau13[[#This Row],[Type]],Journal!$C$2:$C$160)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="11">
         <f>SUMIF(Journal!$D$2:$D$160,Tableau13[[#This Row],[Type]],Journal!$C$2:$C$160)</f>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>6</v>
       </c>
@@ -6291,1985 +6433,1985 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="11">
         <f>SUMIF(Journal!$D$2:$D$160,Tableau13[[#This Row],[Type]],Journal!$C$2:$C$160)</f>
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="11">
         <f>SUMIF(Journal!$D$2:$D$160,Tableau13[[#This Row],[Type]],Journal!$C$2:$C$160)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="11"/>
     </row>
-    <row r="11" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="11"/>
     </row>
-    <row r="12" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="11"/>
     </row>
-    <row r="13" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="11"/>
     </row>
-    <row r="14" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="11"/>
     </row>
-    <row r="15" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="11"/>
     </row>
-    <row r="16" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="11"/>
     </row>
-    <row r="17" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="11"/>
     </row>
-    <row r="18" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="11"/>
     </row>
-    <row r="19" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="11"/>
     </row>
-    <row r="20" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="11"/>
     </row>
-    <row r="21" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="11"/>
     </row>
-    <row r="22" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="11"/>
     </row>
-    <row r="23" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
     </row>
-    <row r="24" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="11"/>
     </row>
-    <row r="25" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
       <c r="B25" s="11"/>
     </row>
-    <row r="26" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="11"/>
     </row>
-    <row r="27" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="11"/>
     </row>
-    <row r="28" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="11"/>
     </row>
-    <row r="29" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="11"/>
     </row>
-    <row r="30" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="11"/>
     </row>
-    <row r="31" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="11"/>
     </row>
-    <row r="32" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="11"/>
     </row>
-    <row r="33" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="11"/>
     </row>
-    <row r="34" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="11"/>
     </row>
-    <row r="35" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="11"/>
     </row>
-    <row r="36" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="11"/>
     </row>
-    <row r="37" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
       <c r="B37" s="11"/>
     </row>
-    <row r="38" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="11"/>
     </row>
-    <row r="39" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="11"/>
     </row>
-    <row r="40" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="11"/>
     </row>
-    <row r="41" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="11"/>
     </row>
-    <row r="42" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
       <c r="B42" s="11"/>
     </row>
-    <row r="43" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
       <c r="B43" s="11"/>
     </row>
-    <row r="44" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
       <c r="B44" s="11"/>
     </row>
-    <row r="45" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
       <c r="B45" s="11"/>
     </row>
-    <row r="46" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
       <c r="B46" s="11"/>
     </row>
-    <row r="47" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
       <c r="B47" s="11"/>
     </row>
-    <row r="48" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
       <c r="B48" s="11"/>
     </row>
-    <row r="49" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
       <c r="B49" s="11"/>
     </row>
-    <row r="50" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
       <c r="B50" s="11"/>
     </row>
-    <row r="51" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
       <c r="B51" s="11"/>
     </row>
-    <row r="52" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
       <c r="B52" s="11"/>
     </row>
-    <row r="53" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
       <c r="B53" s="11"/>
     </row>
-    <row r="54" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
       <c r="B54" s="11"/>
     </row>
-    <row r="55" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
       <c r="B55" s="11"/>
     </row>
-    <row r="56" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
       <c r="B56" s="11"/>
     </row>
-    <row r="57" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
       <c r="B57" s="11"/>
     </row>
-    <row r="58" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
       <c r="B58" s="11"/>
     </row>
-    <row r="59" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6"/>
       <c r="B59" s="11"/>
     </row>
-    <row r="60" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6"/>
       <c r="B60" s="11"/>
     </row>
-    <row r="61" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6"/>
       <c r="B61" s="11"/>
     </row>
-    <row r="62" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6"/>
       <c r="B62" s="11"/>
     </row>
-    <row r="63" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6"/>
       <c r="B63" s="11"/>
     </row>
-    <row r="64" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6"/>
       <c r="B64" s="11"/>
     </row>
-    <row r="65" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6"/>
       <c r="B65" s="11"/>
     </row>
-    <row r="66" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6"/>
       <c r="B66" s="11"/>
     </row>
-    <row r="67" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6"/>
       <c r="B67" s="11"/>
     </row>
-    <row r="68" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6"/>
       <c r="B68" s="11"/>
     </row>
-    <row r="69" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6"/>
       <c r="B69" s="11"/>
     </row>
-    <row r="70" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6"/>
       <c r="B70" s="11"/>
     </row>
-    <row r="71" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6"/>
       <c r="B71" s="11"/>
     </row>
-    <row r="72" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6"/>
       <c r="B72" s="11"/>
     </row>
-    <row r="73" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6"/>
       <c r="B73" s="11"/>
     </row>
-    <row r="74" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6"/>
       <c r="B74" s="11"/>
     </row>
-    <row r="75" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6"/>
       <c r="B75" s="11"/>
     </row>
-    <row r="76" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6"/>
       <c r="B76" s="11"/>
     </row>
-    <row r="77" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6"/>
       <c r="B77" s="11"/>
     </row>
-    <row r="78" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6"/>
       <c r="B78" s="11"/>
     </row>
-    <row r="79" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6"/>
       <c r="B79" s="11"/>
     </row>
-    <row r="80" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6"/>
       <c r="B80" s="11"/>
     </row>
-    <row r="81" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6"/>
       <c r="B81" s="11"/>
     </row>
-    <row r="82" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6"/>
       <c r="B82" s="11"/>
     </row>
-    <row r="83" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6"/>
       <c r="B83" s="11"/>
     </row>
-    <row r="84" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6"/>
       <c r="B84" s="11"/>
     </row>
-    <row r="85" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6"/>
       <c r="B85" s="11"/>
     </row>
-    <row r="86" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6"/>
       <c r="B86" s="11"/>
     </row>
-    <row r="87" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6"/>
       <c r="B87" s="11"/>
     </row>
-    <row r="88" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6"/>
       <c r="B88" s="11"/>
     </row>
-    <row r="89" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="6"/>
       <c r="B89" s="11"/>
     </row>
-    <row r="90" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6"/>
       <c r="B90" s="11"/>
     </row>
-    <row r="91" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6"/>
       <c r="B91" s="11"/>
     </row>
-    <row r="92" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="6"/>
       <c r="B92" s="11"/>
     </row>
-    <row r="93" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="6"/>
       <c r="B93" s="11"/>
     </row>
-    <row r="94" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="6"/>
       <c r="B94" s="11"/>
     </row>
-    <row r="95" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6"/>
       <c r="B95" s="11"/>
     </row>
-    <row r="96" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6"/>
       <c r="B96" s="11"/>
     </row>
-    <row r="97" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="6"/>
       <c r="B97" s="11"/>
     </row>
-    <row r="98" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="6"/>
       <c r="B98" s="11"/>
     </row>
-    <row r="99" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="6"/>
       <c r="B99" s="11"/>
     </row>
-    <row r="100" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="6"/>
       <c r="B100" s="11"/>
     </row>
-    <row r="101" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="6"/>
       <c r="B101" s="11"/>
     </row>
-    <row r="102" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6"/>
       <c r="B102" s="11"/>
     </row>
-    <row r="103" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6"/>
       <c r="B103" s="11"/>
     </row>
-    <row r="104" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="6"/>
       <c r="B104" s="11"/>
     </row>
-    <row r="105" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="6"/>
       <c r="B105" s="11"/>
     </row>
-    <row r="106" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="6"/>
       <c r="B106" s="11"/>
     </row>
-    <row r="107" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="6"/>
       <c r="B107" s="11"/>
     </row>
-    <row r="108" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="6"/>
       <c r="B108" s="11"/>
     </row>
-    <row r="109" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="6"/>
       <c r="B109" s="11"/>
     </row>
-    <row r="110" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="6"/>
       <c r="B110" s="11"/>
     </row>
-    <row r="111" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="6"/>
       <c r="B111" s="11"/>
     </row>
-    <row r="112" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="6"/>
       <c r="B112" s="11"/>
     </row>
-    <row r="113" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="6"/>
       <c r="B113" s="11"/>
     </row>
-    <row r="114" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="6"/>
       <c r="B114" s="11"/>
     </row>
-    <row r="115" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="6"/>
       <c r="B115" s="11"/>
     </row>
-    <row r="116" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="6"/>
       <c r="B116" s="11"/>
     </row>
-    <row r="117" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="6"/>
       <c r="B117" s="11"/>
     </row>
-    <row r="118" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="6"/>
       <c r="B118" s="11"/>
     </row>
-    <row r="119" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="6"/>
       <c r="B119" s="11"/>
     </row>
-    <row r="120" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="6"/>
       <c r="B120" s="11"/>
     </row>
-    <row r="121" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="6"/>
       <c r="B121" s="11"/>
     </row>
-    <row r="122" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="6"/>
       <c r="B122" s="11"/>
     </row>
-    <row r="123" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="6"/>
       <c r="B123" s="11"/>
     </row>
-    <row r="124" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="6"/>
       <c r="B124" s="11"/>
     </row>
-    <row r="125" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="6"/>
       <c r="B125" s="11"/>
     </row>
-    <row r="126" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="6"/>
       <c r="B126" s="11"/>
     </row>
-    <row r="127" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="6"/>
       <c r="B127" s="11"/>
     </row>
-    <row r="128" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="6"/>
       <c r="B128" s="11"/>
     </row>
-    <row r="129" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="6"/>
       <c r="B129" s="11"/>
     </row>
-    <row r="130" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="6"/>
       <c r="B130" s="11"/>
     </row>
-    <row r="131" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="6"/>
       <c r="B131" s="11"/>
     </row>
-    <row r="132" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="6"/>
       <c r="B132" s="11"/>
     </row>
-    <row r="133" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="6"/>
       <c r="B133" s="11"/>
     </row>
-    <row r="134" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="6"/>
       <c r="B134" s="11"/>
     </row>
-    <row r="135" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="6"/>
       <c r="B135" s="11"/>
     </row>
-    <row r="136" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="6"/>
       <c r="B136" s="11"/>
     </row>
-    <row r="137" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="6"/>
       <c r="B137" s="11"/>
     </row>
-    <row r="138" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="6"/>
       <c r="B138" s="11"/>
     </row>
-    <row r="139" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="6"/>
       <c r="B139" s="11"/>
     </row>
-    <row r="140" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="6"/>
       <c r="B140" s="11"/>
     </row>
-    <row r="141" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="6"/>
       <c r="B141" s="11"/>
     </row>
-    <row r="142" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="6"/>
       <c r="B142" s="11"/>
     </row>
-    <row r="143" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="6"/>
       <c r="B143" s="11"/>
     </row>
-    <row r="144" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="6"/>
       <c r="B144" s="11"/>
     </row>
-    <row r="145" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="6"/>
       <c r="B145" s="11"/>
     </row>
-    <row r="146" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="6"/>
       <c r="B146" s="11"/>
     </row>
-    <row r="147" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="6"/>
       <c r="B147" s="11"/>
     </row>
-    <row r="148" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="6"/>
       <c r="B148" s="11"/>
     </row>
-    <row r="149" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="6"/>
       <c r="B149" s="11"/>
     </row>
-    <row r="150" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="6"/>
       <c r="B150" s="11"/>
     </row>
-    <row r="151" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="6"/>
       <c r="B151" s="11"/>
     </row>
-    <row r="152" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="6"/>
       <c r="B152" s="11"/>
     </row>
-    <row r="153" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="6"/>
       <c r="B153" s="11"/>
     </row>
-    <row r="154" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="6"/>
       <c r="B154" s="11"/>
     </row>
-    <row r="155" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="6"/>
       <c r="B155" s="11"/>
     </row>
-    <row r="156" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="6"/>
       <c r="B156" s="11"/>
     </row>
-    <row r="157" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="6"/>
       <c r="B157" s="11"/>
     </row>
-    <row r="158" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="6"/>
       <c r="B158" s="11"/>
     </row>
-    <row r="159" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="6"/>
       <c r="B159" s="11"/>
     </row>
-    <row r="160" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="6"/>
       <c r="B160" s="11"/>
     </row>
-    <row r="161" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="6"/>
       <c r="B161" s="11"/>
     </row>
-    <row r="162" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="6"/>
       <c r="B162" s="11"/>
     </row>
-    <row r="163" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="6"/>
       <c r="B163" s="11"/>
     </row>
-    <row r="164" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="6"/>
       <c r="B164" s="11"/>
     </row>
-    <row r="165" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="6"/>
       <c r="B165" s="11"/>
     </row>
-    <row r="166" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="6"/>
       <c r="B166" s="11"/>
     </row>
-    <row r="167" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="6"/>
       <c r="B167" s="11"/>
     </row>
-    <row r="168" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="6"/>
       <c r="B168" s="11"/>
     </row>
-    <row r="169" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="6"/>
       <c r="B169" s="11"/>
     </row>
-    <row r="170" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="6"/>
       <c r="B170" s="11"/>
     </row>
-    <row r="171" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="6"/>
       <c r="B171" s="11"/>
     </row>
-    <row r="172" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="6"/>
       <c r="B172" s="11"/>
     </row>
-    <row r="173" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="6"/>
       <c r="B173" s="11"/>
     </row>
-    <row r="174" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="6"/>
       <c r="B174" s="11"/>
     </row>
-    <row r="175" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="6"/>
       <c r="B175" s="11"/>
     </row>
-    <row r="176" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="6"/>
       <c r="B176" s="11"/>
     </row>
-    <row r="177" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="6"/>
       <c r="B177" s="11"/>
     </row>
-    <row r="178" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="6"/>
       <c r="B178" s="11"/>
     </row>
-    <row r="179" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="6"/>
       <c r="B179" s="11"/>
     </row>
-    <row r="180" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="6"/>
       <c r="B180" s="11"/>
     </row>
-    <row r="181" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="6"/>
       <c r="B181" s="11"/>
     </row>
-    <row r="182" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="6"/>
       <c r="B182" s="11"/>
     </row>
-    <row r="183" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="6"/>
       <c r="B183" s="11"/>
     </row>
-    <row r="184" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="6"/>
       <c r="B184" s="11"/>
     </row>
-    <row r="185" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="6"/>
       <c r="B185" s="11"/>
     </row>
-    <row r="186" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="6"/>
       <c r="B186" s="11"/>
     </row>
-    <row r="187" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="6"/>
       <c r="B187" s="11"/>
     </row>
-    <row r="188" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="6"/>
       <c r="B188" s="11"/>
     </row>
-    <row r="189" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="6"/>
       <c r="B189" s="11"/>
     </row>
-    <row r="190" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="6"/>
       <c r="B190" s="11"/>
     </row>
-    <row r="191" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="6"/>
       <c r="B191" s="11"/>
     </row>
-    <row r="192" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="6"/>
       <c r="B192" s="11"/>
     </row>
-    <row r="193" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="6"/>
       <c r="B193" s="11"/>
     </row>
-    <row r="194" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="6"/>
       <c r="B194" s="11"/>
     </row>
-    <row r="195" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="6"/>
       <c r="B195" s="11"/>
     </row>
-    <row r="196" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="6"/>
       <c r="B196" s="11"/>
     </row>
-    <row r="197" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="6"/>
       <c r="B197" s="11"/>
     </row>
-    <row r="198" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="6"/>
       <c r="B198" s="11"/>
     </row>
-    <row r="199" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="6"/>
       <c r="B199" s="11"/>
     </row>
-    <row r="200" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="6"/>
       <c r="B200" s="11"/>
     </row>
-    <row r="201" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="6"/>
       <c r="B201" s="11"/>
     </row>
-    <row r="202" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="6"/>
       <c r="B202" s="11"/>
     </row>
-    <row r="203" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="6"/>
       <c r="B203" s="11"/>
     </row>
-    <row r="204" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="6"/>
       <c r="B204" s="11"/>
     </row>
-    <row r="205" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="6"/>
       <c r="B205" s="11"/>
     </row>
-    <row r="206" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="6"/>
       <c r="B206" s="11"/>
     </row>
-    <row r="207" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="6"/>
       <c r="B207" s="11"/>
     </row>
-    <row r="208" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="6"/>
       <c r="B208" s="11"/>
     </row>
-    <row r="209" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="6"/>
       <c r="B209" s="11"/>
     </row>
-    <row r="210" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="6"/>
       <c r="B210" s="11"/>
     </row>
-    <row r="211" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="6"/>
       <c r="B211" s="11"/>
     </row>
-    <row r="212" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="6"/>
       <c r="B212" s="11"/>
     </row>
-    <row r="213" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="6"/>
       <c r="B213" s="11"/>
     </row>
-    <row r="214" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="6"/>
       <c r="B214" s="11"/>
     </row>
-    <row r="215" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="6"/>
       <c r="B215" s="11"/>
     </row>
-    <row r="216" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="6"/>
       <c r="B216" s="11"/>
     </row>
-    <row r="217" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="6"/>
       <c r="B217" s="11"/>
     </row>
-    <row r="218" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="6"/>
       <c r="B218" s="11"/>
     </row>
-    <row r="219" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="6"/>
       <c r="B219" s="11"/>
     </row>
-    <row r="220" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="6"/>
       <c r="B220" s="11"/>
     </row>
-    <row r="221" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="6"/>
       <c r="B221" s="11"/>
     </row>
-    <row r="222" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="6"/>
       <c r="B222" s="11"/>
     </row>
-    <row r="223" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="6"/>
       <c r="B223" s="11"/>
     </row>
-    <row r="224" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="6"/>
       <c r="B224" s="11"/>
     </row>
-    <row r="225" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="6"/>
       <c r="B225" s="11"/>
     </row>
-    <row r="226" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="6"/>
       <c r="B226" s="11"/>
     </row>
-    <row r="227" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="6"/>
       <c r="B227" s="11"/>
     </row>
-    <row r="228" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="6"/>
       <c r="B228" s="11"/>
     </row>
-    <row r="229" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="6"/>
       <c r="B229" s="11"/>
     </row>
-    <row r="230" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="6"/>
       <c r="B230" s="11"/>
     </row>
-    <row r="231" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="6"/>
       <c r="B231" s="11"/>
     </row>
-    <row r="232" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="6"/>
       <c r="B232" s="11"/>
     </row>
-    <row r="233" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="6"/>
       <c r="B233" s="11"/>
     </row>
-    <row r="234" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="6"/>
       <c r="B234" s="11"/>
     </row>
-    <row r="235" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="6"/>
       <c r="B235" s="11"/>
     </row>
-    <row r="236" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="6"/>
       <c r="B236" s="11"/>
     </row>
-    <row r="237" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="6"/>
       <c r="B237" s="11"/>
     </row>
-    <row r="238" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="6"/>
       <c r="B238" s="11"/>
     </row>
-    <row r="239" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="6"/>
       <c r="B239" s="11"/>
     </row>
-    <row r="240" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="6"/>
       <c r="B240" s="11"/>
     </row>
-    <row r="241" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="6"/>
       <c r="B241" s="11"/>
     </row>
-    <row r="242" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="6"/>
       <c r="B242" s="11"/>
     </row>
-    <row r="243" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="6"/>
       <c r="B243" s="11"/>
     </row>
-    <row r="244" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="6"/>
       <c r="B244" s="11"/>
     </row>
-    <row r="245" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="6"/>
       <c r="B245" s="11"/>
     </row>
-    <row r="246" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="6"/>
       <c r="B246" s="11"/>
     </row>
-    <row r="247" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="6"/>
       <c r="B247" s="11"/>
     </row>
-    <row r="248" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="6"/>
       <c r="B248" s="11"/>
     </row>
-    <row r="249" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="6"/>
       <c r="B249" s="11"/>
     </row>
-    <row r="250" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="6"/>
       <c r="B250" s="11"/>
     </row>
-    <row r="251" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="6"/>
       <c r="B251" s="11"/>
     </row>
-    <row r="252" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="6"/>
       <c r="B252" s="11"/>
     </row>
-    <row r="253" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="6"/>
       <c r="B253" s="11"/>
     </row>
-    <row r="254" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="6"/>
       <c r="B254" s="11"/>
     </row>
-    <row r="255" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="6"/>
       <c r="B255" s="11"/>
     </row>
-    <row r="256" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="6"/>
       <c r="B256" s="11"/>
     </row>
-    <row r="257" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="6"/>
       <c r="B257" s="11"/>
     </row>
-    <row r="258" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="6"/>
       <c r="B258" s="11"/>
     </row>
-    <row r="259" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="6"/>
       <c r="B259" s="11"/>
     </row>
-    <row r="260" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="6"/>
       <c r="B260" s="11"/>
     </row>
-    <row r="261" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="6"/>
       <c r="B261" s="11"/>
     </row>
-    <row r="262" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="6"/>
       <c r="B262" s="11"/>
     </row>
-    <row r="263" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="6"/>
       <c r="B263" s="11"/>
     </row>
-    <row r="264" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="6"/>
       <c r="B264" s="11"/>
     </row>
-    <row r="265" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="6"/>
       <c r="B265" s="11"/>
     </row>
-    <row r="266" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="6"/>
       <c r="B266" s="11"/>
     </row>
-    <row r="267" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="6"/>
       <c r="B267" s="11"/>
     </row>
-    <row r="268" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="6"/>
       <c r="B268" s="11"/>
     </row>
-    <row r="269" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="6"/>
       <c r="B269" s="11"/>
     </row>
-    <row r="270" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="6"/>
       <c r="B270" s="11"/>
     </row>
-    <row r="271" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="6"/>
       <c r="B271" s="11"/>
     </row>
-    <row r="272" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="6"/>
       <c r="B272" s="11"/>
     </row>
-    <row r="273" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="6"/>
       <c r="B273" s="11"/>
     </row>
-    <row r="274" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="6"/>
       <c r="B274" s="11"/>
     </row>
-    <row r="275" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="6"/>
       <c r="B275" s="11"/>
     </row>
-    <row r="276" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="6"/>
       <c r="B276" s="11"/>
     </row>
-    <row r="277" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="6"/>
       <c r="B277" s="11"/>
     </row>
-    <row r="278" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="6"/>
       <c r="B278" s="11"/>
     </row>
-    <row r="279" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="6"/>
       <c r="B279" s="11"/>
     </row>
-    <row r="280" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="6"/>
       <c r="B280" s="11"/>
     </row>
-    <row r="281" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="6"/>
       <c r="B281" s="11"/>
     </row>
-    <row r="282" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="6"/>
       <c r="B282" s="11"/>
     </row>
-    <row r="283" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="6"/>
       <c r="B283" s="11"/>
     </row>
-    <row r="284" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="6"/>
       <c r="B284" s="11"/>
     </row>
-    <row r="285" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="6"/>
       <c r="B285" s="11"/>
     </row>
-    <row r="286" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="6"/>
       <c r="B286" s="11"/>
     </row>
-    <row r="287" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="6"/>
       <c r="B287" s="11"/>
     </row>
-    <row r="288" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="6"/>
       <c r="B288" s="11"/>
     </row>
-    <row r="289" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="6"/>
       <c r="B289" s="11"/>
     </row>
-    <row r="290" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="6"/>
       <c r="B290" s="11"/>
     </row>
-    <row r="291" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="6"/>
       <c r="B291" s="11"/>
     </row>
-    <row r="292" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="6"/>
       <c r="B292" s="11"/>
     </row>
-    <row r="293" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="6"/>
       <c r="B293" s="11"/>
     </row>
-    <row r="294" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="6"/>
       <c r="B294" s="11"/>
     </row>
-    <row r="295" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="6"/>
       <c r="B295" s="11"/>
     </row>
-    <row r="296" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="6"/>
       <c r="B296" s="11"/>
     </row>
-    <row r="297" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="6"/>
       <c r="B297" s="11"/>
     </row>
-    <row r="298" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="6"/>
       <c r="B298" s="11"/>
     </row>
-    <row r="299" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="6"/>
       <c r="B299" s="11"/>
     </row>
-    <row r="300" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="6"/>
       <c r="B300" s="11"/>
     </row>
-    <row r="301" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="6"/>
       <c r="B301" s="11"/>
     </row>
-    <row r="302" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="6"/>
       <c r="B302" s="11"/>
     </row>
-    <row r="303" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="6"/>
       <c r="B303" s="11"/>
     </row>
-    <row r="304" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="6"/>
       <c r="B304" s="11"/>
     </row>
-    <row r="305" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="6"/>
       <c r="B305" s="11"/>
     </row>
-    <row r="306" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="6"/>
       <c r="B306" s="11"/>
     </row>
-    <row r="307" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="6"/>
       <c r="B307" s="11"/>
     </row>
-    <row r="308" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="6"/>
       <c r="B308" s="11"/>
     </row>
-    <row r="309" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="6"/>
       <c r="B309" s="11"/>
     </row>
-    <row r="310" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="6"/>
       <c r="B310" s="11"/>
     </row>
-    <row r="311" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="6"/>
       <c r="B311" s="11"/>
     </row>
-    <row r="312" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="6"/>
       <c r="B312" s="11"/>
     </row>
-    <row r="313" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="6"/>
       <c r="B313" s="11"/>
     </row>
-    <row r="314" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="6"/>
       <c r="B314" s="11"/>
     </row>
-    <row r="315" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="6"/>
       <c r="B315" s="11"/>
     </row>
-    <row r="316" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="6"/>
       <c r="B316" s="11"/>
     </row>
-    <row r="317" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="6"/>
       <c r="B317" s="11"/>
     </row>
-    <row r="318" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="6"/>
       <c r="B318" s="11"/>
     </row>
-    <row r="319" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="6"/>
       <c r="B319" s="11"/>
     </row>
-    <row r="320" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="6"/>
       <c r="B320" s="11"/>
     </row>
-    <row r="321" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="6"/>
       <c r="B321" s="11"/>
     </row>
-    <row r="322" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="6"/>
       <c r="B322" s="11"/>
     </row>
-    <row r="323" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="6"/>
       <c r="B323" s="11"/>
     </row>
-    <row r="324" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="6"/>
       <c r="B324" s="11"/>
     </row>
-    <row r="325" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="6"/>
       <c r="B325" s="11"/>
     </row>
-    <row r="326" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="6"/>
       <c r="B326" s="11"/>
     </row>
-    <row r="327" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="6"/>
       <c r="B327" s="11"/>
     </row>
-    <row r="328" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="6"/>
       <c r="B328" s="11"/>
     </row>
-    <row r="329" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="6"/>
       <c r="B329" s="11"/>
     </row>
-    <row r="330" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="6"/>
       <c r="B330" s="11"/>
     </row>
-    <row r="331" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="6"/>
       <c r="B331" s="11"/>
     </row>
-    <row r="332" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="6"/>
       <c r="B332" s="11"/>
     </row>
-    <row r="333" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="6"/>
       <c r="B333" s="11"/>
     </row>
-    <row r="334" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="6"/>
       <c r="B334" s="11"/>
     </row>
-    <row r="335" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="6"/>
       <c r="B335" s="11"/>
     </row>
-    <row r="336" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="6"/>
       <c r="B336" s="11"/>
     </row>
-    <row r="337" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="6"/>
       <c r="B337" s="11"/>
     </row>
-    <row r="338" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="6"/>
       <c r="B338" s="11"/>
     </row>
-    <row r="339" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="6"/>
       <c r="B339" s="11"/>
     </row>
-    <row r="340" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="6"/>
       <c r="B340" s="11"/>
     </row>
-    <row r="341" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="6"/>
       <c r="B341" s="11"/>
     </row>
-    <row r="342" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="6"/>
       <c r="B342" s="11"/>
     </row>
-    <row r="343" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="6"/>
       <c r="B343" s="11"/>
     </row>
-    <row r="344" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="6"/>
       <c r="B344" s="11"/>
     </row>
-    <row r="345" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="6"/>
       <c r="B345" s="11"/>
     </row>
-    <row r="346" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="6"/>
       <c r="B346" s="11"/>
     </row>
-    <row r="347" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="6"/>
       <c r="B347" s="11"/>
     </row>
-    <row r="348" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="6"/>
       <c r="B348" s="11"/>
     </row>
-    <row r="349" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="6"/>
       <c r="B349" s="11"/>
     </row>
-    <row r="350" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="6"/>
       <c r="B350" s="11"/>
     </row>
-    <row r="351" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="6"/>
       <c r="B351" s="11"/>
     </row>
-    <row r="352" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="6"/>
       <c r="B352" s="11"/>
     </row>
-    <row r="353" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="6"/>
       <c r="B353" s="11"/>
     </row>
-    <row r="354" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="6"/>
       <c r="B354" s="11"/>
     </row>
-    <row r="355" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="6"/>
       <c r="B355" s="11"/>
     </row>
-    <row r="356" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="6"/>
       <c r="B356" s="11"/>
     </row>
-    <row r="357" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="6"/>
       <c r="B357" s="11"/>
     </row>
-    <row r="358" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="6"/>
       <c r="B358" s="11"/>
     </row>
-    <row r="359" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="6"/>
       <c r="B359" s="11"/>
     </row>
-    <row r="360" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="6"/>
       <c r="B360" s="11"/>
     </row>
-    <row r="361" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="6"/>
       <c r="B361" s="11"/>
     </row>
-    <row r="362" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="6"/>
       <c r="B362" s="11"/>
     </row>
-    <row r="363" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="6"/>
       <c r="B363" s="11"/>
     </row>
-    <row r="364" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="6"/>
       <c r="B364" s="11"/>
     </row>
-    <row r="365" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="6"/>
       <c r="B365" s="11"/>
     </row>
-    <row r="366" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="6"/>
       <c r="B366" s="11"/>
     </row>
-    <row r="367" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="6"/>
       <c r="B367" s="11"/>
     </row>
-    <row r="368" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="6"/>
       <c r="B368" s="11"/>
     </row>
-    <row r="369" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="6"/>
       <c r="B369" s="11"/>
     </row>
-    <row r="370" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="6"/>
       <c r="B370" s="11"/>
     </row>
-    <row r="371" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="6"/>
       <c r="B371" s="11"/>
     </row>
-    <row r="372" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="6"/>
       <c r="B372" s="11"/>
     </row>
-    <row r="373" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="6"/>
       <c r="B373" s="11"/>
     </row>
-    <row r="374" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="6"/>
       <c r="B374" s="11"/>
     </row>
-    <row r="375" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="6"/>
       <c r="B375" s="11"/>
     </row>
-    <row r="376" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="6"/>
       <c r="B376" s="11"/>
     </row>
-    <row r="377" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="6"/>
       <c r="B377" s="11"/>
     </row>
-    <row r="378" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="6"/>
       <c r="B378" s="11"/>
     </row>
-    <row r="379" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="6"/>
       <c r="B379" s="11"/>
     </row>
-    <row r="380" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="6"/>
       <c r="B380" s="11"/>
     </row>
-    <row r="381" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="6"/>
       <c r="B381" s="11"/>
     </row>
-    <row r="382" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="6"/>
       <c r="B382" s="11"/>
     </row>
-    <row r="383" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="6"/>
       <c r="B383" s="11"/>
     </row>
-    <row r="384" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="6"/>
       <c r="B384" s="11"/>
     </row>
-    <row r="385" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="6"/>
       <c r="B385" s="11"/>
     </row>
-    <row r="386" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="6"/>
       <c r="B386" s="11"/>
     </row>
-    <row r="387" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="6"/>
       <c r="B387" s="11"/>
     </row>
-    <row r="388" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="6"/>
       <c r="B388" s="11"/>
     </row>
-    <row r="389" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="6"/>
       <c r="B389" s="11"/>
     </row>
-    <row r="390" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="6"/>
       <c r="B390" s="11"/>
     </row>
-    <row r="391" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="6"/>
       <c r="B391" s="11"/>
     </row>
-    <row r="392" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="6"/>
       <c r="B392" s="11"/>
     </row>
-    <row r="393" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="6"/>
       <c r="B393" s="11"/>
     </row>
-    <row r="394" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="6"/>
       <c r="B394" s="11"/>
     </row>
-    <row r="395" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="6"/>
       <c r="B395" s="11"/>
     </row>
-    <row r="396" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="6"/>
       <c r="B396" s="11"/>
     </row>
-    <row r="397" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="6"/>
       <c r="B397" s="11"/>
     </row>
-    <row r="398" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="6"/>
       <c r="B398" s="11"/>
     </row>
-    <row r="399" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="6"/>
       <c r="B399" s="11"/>
     </row>
-    <row r="400" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="6"/>
       <c r="B400" s="11"/>
     </row>
-    <row r="401" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="6"/>
       <c r="B401" s="11"/>
     </row>
-    <row r="402" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="6"/>
       <c r="B402" s="11"/>
     </row>
-    <row r="403" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="6"/>
       <c r="B403" s="11"/>
     </row>
-    <row r="404" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="6"/>
       <c r="B404" s="11"/>
     </row>
-    <row r="405" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="6"/>
       <c r="B405" s="11"/>
     </row>
-    <row r="406" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="6"/>
       <c r="B406" s="11"/>
     </row>
-    <row r="407" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="6"/>
       <c r="B407" s="11"/>
     </row>
-    <row r="408" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="6"/>
       <c r="B408" s="11"/>
     </row>
-    <row r="409" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="6"/>
       <c r="B409" s="11"/>
     </row>
-    <row r="410" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="6"/>
       <c r="B410" s="11"/>
     </row>
-    <row r="411" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="6"/>
       <c r="B411" s="11"/>
     </row>
-    <row r="412" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="6"/>
       <c r="B412" s="11"/>
     </row>
-    <row r="413" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="6"/>
       <c r="B413" s="11"/>
     </row>
-    <row r="414" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="6"/>
       <c r="B414" s="11"/>
     </row>
-    <row r="415" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="6"/>
       <c r="B415" s="11"/>
     </row>
-    <row r="416" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="6"/>
       <c r="B416" s="11"/>
     </row>
-    <row r="417" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="6"/>
       <c r="B417" s="11"/>
     </row>
-    <row r="418" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="6"/>
       <c r="B418" s="11"/>
     </row>
-    <row r="419" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="6"/>
       <c r="B419" s="11"/>
     </row>
-    <row r="420" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="6"/>
       <c r="B420" s="11"/>
     </row>
-    <row r="421" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="6"/>
       <c r="B421" s="11"/>
     </row>
-    <row r="422" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="6"/>
       <c r="B422" s="11"/>
     </row>
-    <row r="423" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="6"/>
       <c r="B423" s="11"/>
     </row>
-    <row r="424" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="6"/>
       <c r="B424" s="11"/>
     </row>
-    <row r="425" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="6"/>
       <c r="B425" s="11"/>
     </row>
-    <row r="426" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="6"/>
       <c r="B426" s="11"/>
     </row>
-    <row r="427" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="6"/>
       <c r="B427" s="11"/>
     </row>
-    <row r="428" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="6"/>
       <c r="B428" s="11"/>
     </row>
-    <row r="429" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="6"/>
       <c r="B429" s="11"/>
     </row>
-    <row r="430" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="6"/>
       <c r="B430" s="11"/>
     </row>
-    <row r="431" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="6"/>
       <c r="B431" s="11"/>
     </row>
-    <row r="432" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="6"/>
       <c r="B432" s="11"/>
     </row>
-    <row r="433" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="6"/>
       <c r="B433" s="11"/>
     </row>
-    <row r="434" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="6"/>
       <c r="B434" s="11"/>
     </row>
-    <row r="435" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="6"/>
       <c r="B435" s="11"/>
     </row>
-    <row r="436" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="6"/>
       <c r="B436" s="11"/>
     </row>
-    <row r="437" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="6"/>
       <c r="B437" s="11"/>
     </row>
-    <row r="438" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="6"/>
       <c r="B438" s="11"/>
     </row>
-    <row r="439" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="6"/>
       <c r="B439" s="11"/>
     </row>
-    <row r="440" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="6"/>
       <c r="B440" s="11"/>
     </row>
-    <row r="441" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="6"/>
       <c r="B441" s="11"/>
     </row>
-    <row r="442" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="6"/>
       <c r="B442" s="11"/>
     </row>
-    <row r="443" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="6"/>
       <c r="B443" s="11"/>
     </row>
-    <row r="444" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="6"/>
       <c r="B444" s="11"/>
     </row>
-    <row r="445" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="6"/>
       <c r="B445" s="11"/>
     </row>
-    <row r="446" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="6"/>
       <c r="B446" s="11"/>
     </row>
-    <row r="447" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="6"/>
       <c r="B447" s="11"/>
     </row>
-    <row r="448" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="6"/>
       <c r="B448" s="11"/>
     </row>
-    <row r="449" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="6"/>
       <c r="B449" s="11"/>
     </row>
-    <row r="450" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="6"/>
       <c r="B450" s="11"/>
     </row>
-    <row r="451" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="6"/>
       <c r="B451" s="11"/>
     </row>
-    <row r="452" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="6"/>
       <c r="B452" s="11"/>
     </row>
-    <row r="453" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="6"/>
       <c r="B453" s="11"/>
     </row>
-    <row r="454" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="6"/>
       <c r="B454" s="11"/>
     </row>
-    <row r="455" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="6"/>
       <c r="B455" s="11"/>
     </row>
-    <row r="456" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="6"/>
       <c r="B456" s="11"/>
     </row>
-    <row r="457" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="6"/>
       <c r="B457" s="11"/>
     </row>
-    <row r="458" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="6"/>
       <c r="B458" s="11"/>
     </row>
-    <row r="459" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="6"/>
       <c r="B459" s="11"/>
     </row>
-    <row r="460" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="6"/>
       <c r="B460" s="11"/>
     </row>
-    <row r="461" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="6"/>
       <c r="B461" s="11"/>
     </row>
-    <row r="462" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="6"/>
       <c r="B462" s="11"/>
     </row>
-    <row r="463" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="6"/>
       <c r="B463" s="11"/>
     </row>
-    <row r="464" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="6"/>
       <c r="B464" s="11"/>
     </row>
-    <row r="465" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="6"/>
       <c r="B465" s="11"/>
     </row>
-    <row r="466" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="6"/>
       <c r="B466" s="11"/>
     </row>
-    <row r="467" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="6"/>
       <c r="B467" s="11"/>
     </row>
-    <row r="468" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="6"/>
       <c r="B468" s="11"/>
     </row>
-    <row r="469" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="6"/>
       <c r="B469" s="11"/>
     </row>
-    <row r="470" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="6"/>
       <c r="B470" s="11"/>
     </row>
-    <row r="471" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="6"/>
       <c r="B471" s="11"/>
     </row>
-    <row r="472" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="6"/>
       <c r="B472" s="11"/>
     </row>
-    <row r="473" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="6"/>
       <c r="B473" s="11"/>
     </row>
-    <row r="474" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="6"/>
       <c r="B474" s="11"/>
     </row>
-    <row r="475" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="6"/>
       <c r="B475" s="11"/>
     </row>
-    <row r="476" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="6"/>
       <c r="B476" s="11"/>
     </row>
-    <row r="477" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="6"/>
       <c r="B477" s="11"/>
     </row>
-    <row r="478" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="6"/>
       <c r="B478" s="11"/>
     </row>
-    <row r="479" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="6"/>
       <c r="B479" s="11"/>
     </row>
-    <row r="480" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="6"/>
       <c r="B480" s="11"/>
     </row>
-    <row r="481" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="6"/>
       <c r="B481" s="11"/>
     </row>
-    <row r="482" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="6"/>
       <c r="B482" s="11"/>
     </row>
-    <row r="483" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="6"/>
       <c r="B483" s="11"/>
     </row>
-    <row r="484" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="6"/>
       <c r="B484" s="11"/>
     </row>
-    <row r="485" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="6"/>
       <c r="B485" s="11"/>
     </row>
-    <row r="486" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" s="6"/>
       <c r="B486" s="11"/>
     </row>
-    <row r="487" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="6"/>
       <c r="B487" s="11"/>
     </row>
-    <row r="488" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="6"/>
       <c r="B488" s="11"/>
     </row>
-    <row r="489" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="6"/>
       <c r="B489" s="11"/>
     </row>
-    <row r="490" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="6"/>
       <c r="B490" s="11"/>
     </row>
-    <row r="491" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="6"/>
       <c r="B491" s="11"/>
     </row>
-    <row r="492" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="6"/>
       <c r="B492" s="11"/>
     </row>
-    <row r="493" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="6"/>
       <c r="B493" s="11"/>
     </row>
-    <row r="494" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="6"/>
       <c r="B494" s="11"/>
     </row>
-    <row r="495" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495" s="6"/>
       <c r="B495" s="11"/>
     </row>
-    <row r="496" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="6"/>
       <c r="B496" s="11"/>
     </row>
-    <row r="497" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="6"/>
       <c r="B497" s="11"/>
     </row>
-    <row r="498" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="6"/>
       <c r="B498" s="11"/>
     </row>
-    <row r="499" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="6"/>
       <c r="B499" s="11"/>
     </row>
-    <row r="500" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="6"/>
       <c r="B500" s="11"/>
     </row>
@@ -8300,52 +8442,52 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
     </row>
   </sheetData>

--- a/docs/worklogs/Trystan_Gaillard_worklog.xlsx
+++ b/docs/worklogs/Trystan_Gaillard_worklog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10125"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b132f601c3eccc05/Bureau/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sytabram/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BD6DB54-862F-4965-AFE8-EA5E64BC9789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DC889C-ECF1-8F45-906B-F48A6DC752EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36680" yWindow="6840" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="65">
   <si>
     <t>Jour</t>
   </si>
@@ -83,31 +83,16 @@
     <t>Autre</t>
   </si>
   <si>
-    <t>Découvert du groupe et du projet.</t>
-  </si>
-  <si>
     <t>/</t>
   </si>
   <si>
     <t>Mer. 14 janvier 2026</t>
   </si>
   <si>
-    <t>Jeu. 15. janvier 2026</t>
-  </si>
-  <si>
     <t>Ven. 16 janvier 2026</t>
   </si>
   <si>
     <t>Mar. 20 janvier 2026</t>
-  </si>
-  <si>
-    <t>Analyser et effetuer doumentation.</t>
-  </si>
-  <si>
-    <t>Meeting hebdomadaire avec chef de projet.</t>
-  </si>
-  <si>
-    <t>Réalisation du code afin de faire fonction le dit capteur.</t>
   </si>
   <si>
     <t>Recherche sur le fonctionnement du capteur de distance.</t>
@@ -122,19 +107,10 @@
     <t>Recherche sur le fonctionnement du Novak Brushless 8.5.</t>
   </si>
   <si>
-    <t>Modification et avancement du Powerpoint.</t>
-  </si>
-  <si>
     <t>Brasage des câbles pour les phares.</t>
   </si>
   <si>
     <t>Jeu. 22 janvier 2026</t>
-  </si>
-  <si>
-    <t>Compléxité du moteur.</t>
-  </si>
-  <si>
-    <t>Diffiulté dut à mon faible niveau de Code + première fois en C++.</t>
   </si>
   <si>
     <t>Je n'avais pas mon ordinateur portable.</t>
@@ -152,13 +128,7 @@
     <t>Mer. 28 janvier 2026</t>
   </si>
   <si>
-    <t>J'ai appris que j'ai également des difficuluté à réer des schémas.</t>
-  </si>
-  <si>
     <t>Toujours difficile le code pour moi.</t>
-  </si>
-  <si>
-    <t>Beaucoup trop de temps passer desus mais enfin fini.</t>
   </si>
   <si>
     <t>Long car brasage assez complexe (je n'ai pas réussi à finir pendant cette session).</t>
@@ -170,55 +140,100 @@
     <t>Petit bout du code du moteur.</t>
   </si>
   <si>
-    <t>Brassage du moteur.</t>
-  </si>
-  <si>
-    <t>Notre classe était en visite à HEIGvd.</t>
-  </si>
-  <si>
-    <t>Debut du brasage du moteur.</t>
-  </si>
-  <si>
     <t>Documentation des LEDs.</t>
-  </si>
-  <si>
-    <t>Meeting avec le chef de projet.</t>
-  </si>
-  <si>
-    <t>Meeting avec le groupe.</t>
-  </si>
-  <si>
-    <t>Brasage du plan b pour le moteur</t>
-  </si>
-  <si>
-    <t>J'ai dû me battre avec mon fer pour qu'il veuille bien braser</t>
-  </si>
-  <si>
-    <t>Ecrire ma conclusion personnel.</t>
-  </si>
-  <si>
-    <t>Test du code du capteur</t>
   </si>
   <si>
     <t>Jeu. 29 janvier 2026</t>
   </si>
   <si>
-    <t>J'était absens une période</t>
+    <t>Ven. 30 janvier 2026</t>
   </si>
   <si>
-    <t>Reveil</t>
+    <t>Pitch</t>
   </si>
   <si>
-    <t>Amélioration de ma conlusion</t>
+    <t>Découverte du groupe et du projet.</t>
   </si>
   <si>
-    <t>Dernier meeting + travail avec le groupe</t>
+    <t>Jeu. 15 janvier 2026</t>
   </si>
   <si>
-    <t>Dernier petit test de la voiture (pour ma part)</t>
+    <t>Réalisation du code afin de faire fonctionner ledit capteur.</t>
   </si>
   <si>
-    <t xml:space="preserve">Quelque petit problème mineur </t>
+    <t>Difficulté due à mon faible niveau de code + première fois en C++.</t>
+  </si>
+  <si>
+    <t>Test du code du capteur.</t>
+  </si>
+  <si>
+    <t>Complexité du moteur.</t>
+  </si>
+  <si>
+    <t>Réunion hebdomadaire avec chef de projet.</t>
+  </si>
+  <si>
+    <t>Analyser et effectuer la documentation.</t>
+  </si>
+  <si>
+    <t>Modification et avancement du PowerPoint.</t>
+  </si>
+  <si>
+    <t>Début du brasage du moteur.</t>
+  </si>
+  <si>
+    <t>Brasage du moteur.</t>
+  </si>
+  <si>
+    <t>Notre classe était en visite à la HEIG-VD.</t>
+  </si>
+  <si>
+    <t>Beaucoup trop de temps passé dessus mais enfin fini.</t>
+  </si>
+  <si>
+    <t>J'ai appris que j'ai également des difficultés à créer des schémas.</t>
+  </si>
+  <si>
+    <t>Réunion avec le groupe.</t>
+  </si>
+  <si>
+    <t>Réunion avec le chef de projet.</t>
+  </si>
+  <si>
+    <t>Brasage du plan B pour le moteur.</t>
+  </si>
+  <si>
+    <t>J'ai dû me battre avec mon fer pour qu'il veuille bien braser.</t>
+  </si>
+  <si>
+    <t>Écrire ma conclusion personnelle.</t>
+  </si>
+  <si>
+    <t>J'étais absent une période.</t>
+  </si>
+  <si>
+    <t>Réveil</t>
+  </si>
+  <si>
+    <t>Amélioration de ma conclusion.</t>
+  </si>
+  <si>
+    <t>Dernière réunion + travail avec le groupe.</t>
+  </si>
+  <si>
+    <t>Dernier petit test de la voiture (pour ma part).</t>
+  </si>
+  <si>
+    <t>Quelques petits problèmes mineurs.</t>
+  </si>
+  <si>
+    <t>Présentation du projet avec le groupe.</t>
+  </si>
+  <si>
+    <t>A duré 3 min mais je ne peux pas écrire 0,05 dans le Temps.</t>
+  </si>
+  <si>
+    <t>Petit débriefing du projet avec le groupe.</t>
   </si>
 </sst>
 </file>
@@ -964,7 +979,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.5</c:v>
+                  <c:v>9.5500000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1668,10 +1683,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BDEB89E1-6F36-4738-9369-27FC44324FE7}" name="Tableau1" displayName="Tableau1" ref="A1:F300" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:F300" xr:uid="{BDEB89E1-6F36-4738-9369-27FC44324FE7}"/>
@@ -1980,24 +1991,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F500"/>
+  <dimension ref="A1:J500"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+      <selection pane="bottomLeft" activeCell="F30" sqref="A1:F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="24.875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="15" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="12" customWidth="1"/>
-    <col min="4" max="4" width="24.75" style="5" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="5" customWidth="1"/>
     <col min="5" max="5" width="68.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="82.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="82.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2017,9 +2028,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="14">
         <v>1</v>
@@ -2031,15 +2042,15 @@
         <v>7</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="8" t="s">
+    </row>
+    <row r="3" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="B3" s="14">
         <v>1</v>
@@ -2051,15 +2062,15 @@
         <v>13</v>
       </c>
       <c r="E3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B4" s="14">
         <v>1</v>
@@ -2071,15 +2082,15 @@
         <v>7</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B5" s="14">
         <v>1</v>
@@ -2091,15 +2102,15 @@
         <v>9</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B6" s="14">
         <v>1</v>
@@ -2111,15 +2122,15 @@
         <v>10</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B7" s="14">
         <v>1</v>
@@ -2131,15 +2142,15 @@
         <v>7</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="14">
         <v>1</v>
@@ -2151,15 +2162,15 @@
         <v>13</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="14">
         <v>2</v>
@@ -2171,15 +2182,15 @@
         <v>11</v>
       </c>
       <c r="E9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="B10" s="14">
         <v>2</v>
@@ -2191,15 +2202,15 @@
         <v>11</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B11" s="14">
         <v>2</v>
@@ -2211,15 +2222,15 @@
         <v>9</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B12" s="14">
         <v>2</v>
@@ -2231,15 +2242,15 @@
         <v>11</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B13" s="14">
         <v>2</v>
@@ -2251,15 +2262,15 @@
         <v>11</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B14" s="14">
         <v>2</v>
@@ -2271,15 +2282,15 @@
         <v>9</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B15" s="14">
         <v>2</v>
@@ -2291,15 +2302,15 @@
         <v>9</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B16" s="14">
         <v>2</v>
@@ -2311,15 +2322,18 @@
         <v>12</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B17" s="14">
         <v>3</v>
@@ -2331,15 +2345,21 @@
         <v>9</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="I17">
+        <v>60</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B18" s="14">
         <v>3</v>
@@ -2351,15 +2371,15 @@
         <v>9</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B19" s="14">
         <v>3</v>
@@ -2371,15 +2391,15 @@
         <v>8</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B20" s="14">
         <v>3</v>
@@ -2391,15 +2411,15 @@
         <v>13</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B21" s="14">
         <v>3</v>
@@ -2411,15 +2431,15 @@
         <v>13</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B22" s="14">
         <v>3</v>
@@ -2431,15 +2451,15 @@
         <v>9</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B23" s="14">
         <v>3</v>
@@ -2451,15 +2471,15 @@
         <v>11</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="B24" s="14">
         <v>3</v>
@@ -2471,15 +2491,15 @@
         <v>12</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="B25" s="14">
         <v>3</v>
@@ -2491,15 +2511,15 @@
         <v>11</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="B26" s="14">
         <v>3</v>
@@ -2511,15 +2531,15 @@
         <v>13</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="B27" s="14">
         <v>3</v>
@@ -2531,45 +2551,80 @@
         <v>10</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-    </row>
-    <row r="29" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-    </row>
-    <row r="30" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-    </row>
-    <row r="31" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="14">
+        <v>3</v>
+      </c>
+      <c r="C28" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="14">
+        <v>3</v>
+      </c>
+      <c r="C29" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="14">
+        <v>3</v>
+      </c>
+      <c r="C30" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="14"/>
       <c r="C31" s="11"/>
       <c r="D31" s="7"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
     </row>
-    <row r="32" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="6"/>
       <c r="B32" s="14"/>
       <c r="C32" s="11"/>
@@ -2577,7 +2632,7 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
     </row>
-    <row r="33" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="6"/>
       <c r="B33" s="14"/>
       <c r="C33" s="11"/>
@@ -2585,7 +2640,7 @@
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
     </row>
-    <row r="34" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6"/>
       <c r="B34" s="14"/>
       <c r="C34" s="11"/>
@@ -2593,7 +2648,7 @@
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
     </row>
-    <row r="35" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="6"/>
       <c r="B35" s="14"/>
       <c r="C35" s="11"/>
@@ -2601,7 +2656,7 @@
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
     </row>
-    <row r="36" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="6"/>
       <c r="B36" s="14"/>
       <c r="C36" s="11"/>
@@ -2609,7 +2664,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
     </row>
-    <row r="37" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="6"/>
       <c r="B37" s="14"/>
       <c r="C37" s="11"/>
@@ -2617,7 +2672,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
     </row>
-    <row r="38" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6"/>
       <c r="B38" s="14"/>
       <c r="C38" s="11"/>
@@ -2625,7 +2680,7 @@
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
     </row>
-    <row r="39" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="6"/>
       <c r="B39" s="14"/>
       <c r="C39" s="11"/>
@@ -2633,7 +2688,7 @@
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
     </row>
-    <row r="40" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="6"/>
       <c r="B40" s="14"/>
       <c r="C40" s="11"/>
@@ -2641,7 +2696,7 @@
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
     </row>
-    <row r="41" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6"/>
       <c r="B41" s="14"/>
       <c r="C41" s="11"/>
@@ -2649,7 +2704,7 @@
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
     </row>
-    <row r="42" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="6"/>
       <c r="B42" s="14"/>
       <c r="C42" s="11"/>
@@ -2657,7 +2712,7 @@
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
     </row>
-    <row r="43" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="6"/>
       <c r="B43" s="14"/>
       <c r="C43" s="11"/>
@@ -2665,7 +2720,7 @@
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
     </row>
-    <row r="44" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="6"/>
       <c r="B44" s="14"/>
       <c r="C44" s="11"/>
@@ -2673,7 +2728,7 @@
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
     </row>
-    <row r="45" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="6"/>
       <c r="B45" s="14"/>
       <c r="C45" s="11"/>
@@ -2681,7 +2736,7 @@
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
     </row>
-    <row r="46" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="6"/>
       <c r="B46" s="14"/>
       <c r="C46" s="11"/>
@@ -2689,7 +2744,7 @@
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
     </row>
-    <row r="47" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="6"/>
       <c r="B47" s="14"/>
       <c r="C47" s="11"/>
@@ -2697,7 +2752,7 @@
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
     </row>
-    <row r="48" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6"/>
       <c r="B48" s="14"/>
       <c r="C48" s="11"/>
@@ -2705,7 +2760,7 @@
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
     </row>
-    <row r="49" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6"/>
       <c r="B49" s="14"/>
       <c r="C49" s="11"/>
@@ -2713,7 +2768,7 @@
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
     </row>
-    <row r="50" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6"/>
       <c r="B50" s="14"/>
       <c r="C50" s="11"/>
@@ -2721,7 +2776,7 @@
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
     </row>
-    <row r="51" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="6"/>
       <c r="B51" s="14"/>
       <c r="C51" s="11"/>
@@ -2729,7 +2784,7 @@
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
     </row>
-    <row r="52" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="6"/>
       <c r="B52" s="14"/>
       <c r="C52" s="11"/>
@@ -2737,7 +2792,7 @@
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
     </row>
-    <row r="53" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="6"/>
       <c r="B53" s="14"/>
       <c r="C53" s="11"/>
@@ -2745,7 +2800,7 @@
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
     </row>
-    <row r="54" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="6"/>
       <c r="B54" s="14"/>
       <c r="C54" s="11"/>
@@ -2753,7 +2808,7 @@
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
     </row>
-    <row r="55" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="6"/>
       <c r="B55" s="14"/>
       <c r="C55" s="11"/>
@@ -2761,7 +2816,7 @@
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
     </row>
-    <row r="56" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6"/>
       <c r="B56" s="14"/>
       <c r="C56" s="11"/>
@@ -2769,7 +2824,7 @@
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
     </row>
-    <row r="57" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6"/>
       <c r="B57" s="14"/>
       <c r="C57" s="11"/>
@@ -2777,7 +2832,7 @@
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
     </row>
-    <row r="58" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6"/>
       <c r="B58" s="14"/>
       <c r="C58" s="11"/>
@@ -2785,7 +2840,7 @@
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
     </row>
-    <row r="59" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="6"/>
       <c r="B59" s="14"/>
       <c r="C59" s="11"/>
@@ -2793,7 +2848,7 @@
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
     </row>
-    <row r="60" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="6"/>
       <c r="B60" s="14"/>
       <c r="C60" s="11"/>
@@ -2801,7 +2856,7 @@
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
     </row>
-    <row r="61" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="6"/>
       <c r="B61" s="14"/>
       <c r="C61" s="11"/>
@@ -2809,7 +2864,7 @@
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
     </row>
-    <row r="62" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="6"/>
       <c r="B62" s="14"/>
       <c r="C62" s="11"/>
@@ -2817,7 +2872,7 @@
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
     </row>
-    <row r="63" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="6"/>
       <c r="B63" s="14"/>
       <c r="C63" s="11"/>
@@ -2825,7 +2880,7 @@
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
     </row>
-    <row r="64" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="6"/>
       <c r="B64" s="14"/>
       <c r="C64" s="11"/>
@@ -2833,7 +2888,7 @@
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
     </row>
-    <row r="65" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="6"/>
       <c r="B65" s="14"/>
       <c r="C65" s="11"/>
@@ -2841,7 +2896,7 @@
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
     </row>
-    <row r="66" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="6"/>
       <c r="B66" s="14"/>
       <c r="C66" s="11"/>
@@ -2849,7 +2904,7 @@
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
     </row>
-    <row r="67" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="6"/>
       <c r="B67" s="14"/>
       <c r="C67" s="11"/>
@@ -2857,7 +2912,7 @@
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
     </row>
-    <row r="68" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="6"/>
       <c r="B68" s="14"/>
       <c r="C68" s="11"/>
@@ -2865,7 +2920,7 @@
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
     </row>
-    <row r="69" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="6"/>
       <c r="B69" s="14"/>
       <c r="C69" s="11"/>
@@ -2873,7 +2928,7 @@
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
     </row>
-    <row r="70" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="6"/>
       <c r="B70" s="14"/>
       <c r="C70" s="11"/>
@@ -2881,7 +2936,7 @@
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
     </row>
-    <row r="71" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="6"/>
       <c r="B71" s="14"/>
       <c r="C71" s="11"/>
@@ -2889,7 +2944,7 @@
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
     </row>
-    <row r="72" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="6"/>
       <c r="B72" s="14"/>
       <c r="C72" s="11"/>
@@ -2897,7 +2952,7 @@
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
     </row>
-    <row r="73" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="6"/>
       <c r="B73" s="14"/>
       <c r="C73" s="11"/>
@@ -2905,7 +2960,7 @@
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
     </row>
-    <row r="74" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="6"/>
       <c r="B74" s="14"/>
       <c r="C74" s="11"/>
@@ -2913,7 +2968,7 @@
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
     </row>
-    <row r="75" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="6"/>
       <c r="B75" s="14"/>
       <c r="C75" s="11"/>
@@ -2921,7 +2976,7 @@
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
     </row>
-    <row r="76" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="6"/>
       <c r="B76" s="14"/>
       <c r="C76" s="11"/>
@@ -2929,7 +2984,7 @@
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
     </row>
-    <row r="77" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="6"/>
       <c r="B77" s="14"/>
       <c r="C77" s="11"/>
@@ -2937,7 +2992,7 @@
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
     </row>
-    <row r="78" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="6"/>
       <c r="B78" s="14"/>
       <c r="C78" s="11"/>
@@ -2945,7 +3000,7 @@
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
     </row>
-    <row r="79" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="6"/>
       <c r="B79" s="14"/>
       <c r="C79" s="11"/>
@@ -2953,7 +3008,7 @@
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
     </row>
-    <row r="80" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6"/>
       <c r="B80" s="14"/>
       <c r="C80" s="11"/>
@@ -2961,7 +3016,7 @@
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
     </row>
-    <row r="81" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6"/>
       <c r="B81" s="14"/>
       <c r="C81" s="11"/>
@@ -2969,7 +3024,7 @@
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
     </row>
-    <row r="82" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6"/>
       <c r="B82" s="14"/>
       <c r="C82" s="11"/>
@@ -2977,7 +3032,7 @@
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
     </row>
-    <row r="83" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="6"/>
       <c r="B83" s="14"/>
       <c r="C83" s="11"/>
@@ -2985,7 +3040,7 @@
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
     </row>
-    <row r="84" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="6"/>
       <c r="B84" s="14"/>
       <c r="C84" s="11"/>
@@ -2993,7 +3048,7 @@
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
     </row>
-    <row r="85" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="6"/>
       <c r="B85" s="14"/>
       <c r="C85" s="11"/>
@@ -3001,7 +3056,7 @@
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
     </row>
-    <row r="86" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="6"/>
       <c r="B86" s="14"/>
       <c r="C86" s="11"/>
@@ -3009,7 +3064,7 @@
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
     </row>
-    <row r="87" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="6"/>
       <c r="B87" s="14"/>
       <c r="C87" s="11"/>
@@ -3017,7 +3072,7 @@
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
     </row>
-    <row r="88" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6"/>
       <c r="B88" s="14"/>
       <c r="C88" s="11"/>
@@ -3025,7 +3080,7 @@
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
     </row>
-    <row r="89" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6"/>
       <c r="B89" s="14"/>
       <c r="C89" s="11"/>
@@ -3033,7 +3088,7 @@
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
     </row>
-    <row r="90" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6"/>
       <c r="B90" s="14"/>
       <c r="C90" s="11"/>
@@ -3041,7 +3096,7 @@
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
     </row>
-    <row r="91" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="6"/>
       <c r="B91" s="14"/>
       <c r="C91" s="11"/>
@@ -3049,7 +3104,7 @@
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
     </row>
-    <row r="92" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="6"/>
       <c r="B92" s="14"/>
       <c r="C92" s="11"/>
@@ -3057,7 +3112,7 @@
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
     </row>
-    <row r="93" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="6"/>
       <c r="B93" s="14"/>
       <c r="C93" s="11"/>
@@ -3065,7 +3120,7 @@
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
     </row>
-    <row r="94" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="6"/>
       <c r="B94" s="14"/>
       <c r="C94" s="11"/>
@@ -3073,7 +3128,7 @@
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
     </row>
-    <row r="95" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="6"/>
       <c r="B95" s="14"/>
       <c r="C95" s="11"/>
@@ -3081,7 +3136,7 @@
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
     </row>
-    <row r="96" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="6"/>
       <c r="B96" s="14"/>
       <c r="C96" s="11"/>
@@ -3089,7 +3144,7 @@
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
     </row>
-    <row r="97" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="6"/>
       <c r="B97" s="14"/>
       <c r="C97" s="11"/>
@@ -3097,7 +3152,7 @@
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
     </row>
-    <row r="98" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="6"/>
       <c r="B98" s="14"/>
       <c r="C98" s="11"/>
@@ -3105,7 +3160,7 @@
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
     </row>
-    <row r="99" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="6"/>
       <c r="B99" s="14"/>
       <c r="C99" s="11"/>
@@ -3113,7 +3168,7 @@
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
     </row>
-    <row r="100" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="6"/>
       <c r="B100" s="14"/>
       <c r="C100" s="11"/>
@@ -3121,7 +3176,7 @@
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
     </row>
-    <row r="101" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="6"/>
       <c r="B101" s="14"/>
       <c r="C101" s="11"/>
@@ -3129,7 +3184,7 @@
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
     </row>
-    <row r="102" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="6"/>
       <c r="B102" s="14"/>
       <c r="C102" s="11"/>
@@ -3137,7 +3192,7 @@
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
     </row>
-    <row r="103" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="6"/>
       <c r="B103" s="14"/>
       <c r="C103" s="11"/>
@@ -3145,7 +3200,7 @@
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
     </row>
-    <row r="104" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="6"/>
       <c r="B104" s="14"/>
       <c r="C104" s="11"/>
@@ -3153,7 +3208,7 @@
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
     </row>
-    <row r="105" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="6"/>
       <c r="B105" s="14"/>
       <c r="C105" s="11"/>
@@ -3161,7 +3216,7 @@
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
     </row>
-    <row r="106" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="6"/>
       <c r="B106" s="14"/>
       <c r="C106" s="11"/>
@@ -3169,7 +3224,7 @@
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
     </row>
-    <row r="107" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="6"/>
       <c r="B107" s="14"/>
       <c r="C107" s="11"/>
@@ -3177,7 +3232,7 @@
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
     </row>
-    <row r="108" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="6"/>
       <c r="B108" s="14"/>
       <c r="C108" s="11"/>
@@ -3185,7 +3240,7 @@
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
     </row>
-    <row r="109" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="6"/>
       <c r="B109" s="14"/>
       <c r="C109" s="11"/>
@@ -3193,7 +3248,7 @@
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
     </row>
-    <row r="110" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="6"/>
       <c r="B110" s="14"/>
       <c r="C110" s="11"/>
@@ -3201,7 +3256,7 @@
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
     </row>
-    <row r="111" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="6"/>
       <c r="B111" s="14"/>
       <c r="C111" s="11"/>
@@ -3209,7 +3264,7 @@
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
     </row>
-    <row r="112" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="6"/>
       <c r="B112" s="14"/>
       <c r="C112" s="11"/>
@@ -3217,7 +3272,7 @@
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
     </row>
-    <row r="113" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="6"/>
       <c r="B113" s="14"/>
       <c r="C113" s="11"/>
@@ -3225,7 +3280,7 @@
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
     </row>
-    <row r="114" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="6"/>
       <c r="B114" s="14"/>
       <c r="C114" s="11"/>
@@ -3233,7 +3288,7 @@
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
     </row>
-    <row r="115" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="6"/>
       <c r="B115" s="14"/>
       <c r="C115" s="11"/>
@@ -3241,7 +3296,7 @@
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
     </row>
-    <row r="116" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="6"/>
       <c r="B116" s="14"/>
       <c r="C116" s="11"/>
@@ -3249,7 +3304,7 @@
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
     </row>
-    <row r="117" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="6"/>
       <c r="B117" s="14"/>
       <c r="C117" s="11"/>
@@ -3257,7 +3312,7 @@
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
     </row>
-    <row r="118" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="6"/>
       <c r="B118" s="14"/>
       <c r="C118" s="11"/>
@@ -3265,7 +3320,7 @@
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
     </row>
-    <row r="119" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="6"/>
       <c r="B119" s="14"/>
       <c r="C119" s="11"/>
@@ -3273,7 +3328,7 @@
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
     </row>
-    <row r="120" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="6"/>
       <c r="B120" s="14"/>
       <c r="C120" s="11"/>
@@ -3281,7 +3336,7 @@
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
     </row>
-    <row r="121" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="6"/>
       <c r="B121" s="14"/>
       <c r="C121" s="11"/>
@@ -3289,7 +3344,7 @@
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
     </row>
-    <row r="122" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="6"/>
       <c r="B122" s="14"/>
       <c r="C122" s="11"/>
@@ -3297,7 +3352,7 @@
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
     </row>
-    <row r="123" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="6"/>
       <c r="B123" s="14"/>
       <c r="C123" s="11"/>
@@ -3305,7 +3360,7 @@
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
     </row>
-    <row r="124" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="6"/>
       <c r="B124" s="14"/>
       <c r="C124" s="11"/>
@@ -3313,7 +3368,7 @@
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
     </row>
-    <row r="125" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="6"/>
       <c r="B125" s="14"/>
       <c r="C125" s="11"/>
@@ -3321,7 +3376,7 @@
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
     </row>
-    <row r="126" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="6"/>
       <c r="B126" s="14"/>
       <c r="C126" s="11"/>
@@ -3329,7 +3384,7 @@
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
     </row>
-    <row r="127" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="6"/>
       <c r="B127" s="14"/>
       <c r="C127" s="11"/>
@@ -3337,7 +3392,7 @@
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
     </row>
-    <row r="128" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="6"/>
       <c r="B128" s="14"/>
       <c r="C128" s="11"/>
@@ -3345,7 +3400,7 @@
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
     </row>
-    <row r="129" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="6"/>
       <c r="B129" s="14"/>
       <c r="C129" s="11"/>
@@ -3353,7 +3408,7 @@
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
     </row>
-    <row r="130" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="6"/>
       <c r="B130" s="14"/>
       <c r="C130" s="11"/>
@@ -3361,7 +3416,7 @@
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
     </row>
-    <row r="131" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="6"/>
       <c r="B131" s="14"/>
       <c r="C131" s="11"/>
@@ -3369,7 +3424,7 @@
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
     </row>
-    <row r="132" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="6"/>
       <c r="B132" s="14"/>
       <c r="C132" s="11"/>
@@ -3377,7 +3432,7 @@
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
     </row>
-    <row r="133" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="6"/>
       <c r="B133" s="14"/>
       <c r="C133" s="11"/>
@@ -3385,7 +3440,7 @@
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
     </row>
-    <row r="134" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="6"/>
       <c r="B134" s="14"/>
       <c r="C134" s="11"/>
@@ -3393,7 +3448,7 @@
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
     </row>
-    <row r="135" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="6"/>
       <c r="B135" s="14"/>
       <c r="C135" s="11"/>
@@ -3401,7 +3456,7 @@
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
     </row>
-    <row r="136" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="6"/>
       <c r="B136" s="14"/>
       <c r="C136" s="11"/>
@@ -3409,7 +3464,7 @@
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
     </row>
-    <row r="137" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="6"/>
       <c r="B137" s="14"/>
       <c r="C137" s="11"/>
@@ -3417,7 +3472,7 @@
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
     </row>
-    <row r="138" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="6"/>
       <c r="B138" s="14"/>
       <c r="C138" s="11"/>
@@ -3425,7 +3480,7 @@
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
     </row>
-    <row r="139" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="6"/>
       <c r="B139" s="14"/>
       <c r="C139" s="11"/>
@@ -3433,7 +3488,7 @@
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
     </row>
-    <row r="140" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="6"/>
       <c r="B140" s="14"/>
       <c r="C140" s="11"/>
@@ -3441,7 +3496,7 @@
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
     </row>
-    <row r="141" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="6"/>
       <c r="B141" s="14"/>
       <c r="C141" s="11"/>
@@ -3449,7 +3504,7 @@
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
     </row>
-    <row r="142" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="6"/>
       <c r="B142" s="14"/>
       <c r="C142" s="11"/>
@@ -3457,7 +3512,7 @@
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
     </row>
-    <row r="143" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="6"/>
       <c r="B143" s="14"/>
       <c r="C143" s="11"/>
@@ -3465,7 +3520,7 @@
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
     </row>
-    <row r="144" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="6"/>
       <c r="B144" s="14"/>
       <c r="C144" s="11"/>
@@ -3473,7 +3528,7 @@
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
     </row>
-    <row r="145" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="6"/>
       <c r="B145" s="14"/>
       <c r="C145" s="11"/>
@@ -3481,7 +3536,7 @@
       <c r="E145" s="8"/>
       <c r="F145" s="8"/>
     </row>
-    <row r="146" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="6"/>
       <c r="B146" s="14"/>
       <c r="C146" s="11"/>
@@ -3489,7 +3544,7 @@
       <c r="E146" s="8"/>
       <c r="F146" s="8"/>
     </row>
-    <row r="147" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="6"/>
       <c r="B147" s="14"/>
       <c r="C147" s="11"/>
@@ -3497,7 +3552,7 @@
       <c r="E147" s="8"/>
       <c r="F147" s="8"/>
     </row>
-    <row r="148" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="6"/>
       <c r="B148" s="14"/>
       <c r="C148" s="11"/>
@@ -3505,7 +3560,7 @@
       <c r="E148" s="8"/>
       <c r="F148" s="8"/>
     </row>
-    <row r="149" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="6"/>
       <c r="B149" s="14"/>
       <c r="C149" s="11"/>
@@ -3513,7 +3568,7 @@
       <c r="E149" s="8"/>
       <c r="F149" s="8"/>
     </row>
-    <row r="150" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="6"/>
       <c r="B150" s="14"/>
       <c r="C150" s="11"/>
@@ -3521,7 +3576,7 @@
       <c r="E150" s="8"/>
       <c r="F150" s="8"/>
     </row>
-    <row r="151" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="6"/>
       <c r="B151" s="14"/>
       <c r="C151" s="11"/>
@@ -3529,7 +3584,7 @@
       <c r="E151" s="8"/>
       <c r="F151" s="8"/>
     </row>
-    <row r="152" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="6"/>
       <c r="B152" s="14"/>
       <c r="C152" s="11"/>
@@ -3537,7 +3592,7 @@
       <c r="E152" s="8"/>
       <c r="F152" s="8"/>
     </row>
-    <row r="153" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="6"/>
       <c r="B153" s="14"/>
       <c r="C153" s="11"/>
@@ -3545,7 +3600,7 @@
       <c r="E153" s="8"/>
       <c r="F153" s="8"/>
     </row>
-    <row r="154" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="6"/>
       <c r="B154" s="14"/>
       <c r="C154" s="11"/>
@@ -3553,7 +3608,7 @@
       <c r="E154" s="8"/>
       <c r="F154" s="8"/>
     </row>
-    <row r="155" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="6"/>
       <c r="B155" s="14"/>
       <c r="C155" s="11"/>
@@ -3561,7 +3616,7 @@
       <c r="E155" s="8"/>
       <c r="F155" s="8"/>
     </row>
-    <row r="156" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="6"/>
       <c r="B156" s="14"/>
       <c r="C156" s="11"/>
@@ -3569,7 +3624,7 @@
       <c r="E156" s="8"/>
       <c r="F156" s="8"/>
     </row>
-    <row r="157" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="6"/>
       <c r="B157" s="14"/>
       <c r="C157" s="11"/>
@@ -3577,7 +3632,7 @@
       <c r="E157" s="8"/>
       <c r="F157" s="8"/>
     </row>
-    <row r="158" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="6"/>
       <c r="B158" s="14"/>
       <c r="C158" s="11"/>
@@ -3585,7 +3640,7 @@
       <c r="E158" s="8"/>
       <c r="F158" s="8"/>
     </row>
-    <row r="159" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="6"/>
       <c r="B159" s="14"/>
       <c r="C159" s="11"/>
@@ -3593,7 +3648,7 @@
       <c r="E159" s="8"/>
       <c r="F159" s="8"/>
     </row>
-    <row r="160" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="6"/>
       <c r="B160" s="14"/>
       <c r="C160" s="11"/>
@@ -3601,7 +3656,7 @@
       <c r="E160" s="8"/>
       <c r="F160" s="8"/>
     </row>
-    <row r="161" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="6"/>
       <c r="B161" s="14"/>
       <c r="C161" s="11"/>
@@ -3609,7 +3664,7 @@
       <c r="E161" s="8"/>
       <c r="F161" s="8"/>
     </row>
-    <row r="162" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="6"/>
       <c r="B162" s="14"/>
       <c r="C162" s="11"/>
@@ -3617,7 +3672,7 @@
       <c r="E162" s="8"/>
       <c r="F162" s="8"/>
     </row>
-    <row r="163" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="6"/>
       <c r="B163" s="14"/>
       <c r="C163" s="11"/>
@@ -3625,7 +3680,7 @@
       <c r="E163" s="8"/>
       <c r="F163" s="8"/>
     </row>
-    <row r="164" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="6"/>
       <c r="B164" s="14"/>
       <c r="C164" s="11"/>
@@ -3633,7 +3688,7 @@
       <c r="E164" s="8"/>
       <c r="F164" s="8"/>
     </row>
-    <row r="165" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="6"/>
       <c r="B165" s="14"/>
       <c r="C165" s="11"/>
@@ -3641,7 +3696,7 @@
       <c r="E165" s="8"/>
       <c r="F165" s="8"/>
     </row>
-    <row r="166" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="6"/>
       <c r="B166" s="14"/>
       <c r="C166" s="11"/>
@@ -3649,7 +3704,7 @@
       <c r="E166" s="8"/>
       <c r="F166" s="8"/>
     </row>
-    <row r="167" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="6"/>
       <c r="B167" s="14"/>
       <c r="C167" s="11"/>
@@ -3657,7 +3712,7 @@
       <c r="E167" s="8"/>
       <c r="F167" s="8"/>
     </row>
-    <row r="168" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="6"/>
       <c r="B168" s="14"/>
       <c r="C168" s="11"/>
@@ -3665,7 +3720,7 @@
       <c r="E168" s="8"/>
       <c r="F168" s="8"/>
     </row>
-    <row r="169" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="6"/>
       <c r="B169" s="14"/>
       <c r="C169" s="11"/>
@@ -3673,7 +3728,7 @@
       <c r="E169" s="8"/>
       <c r="F169" s="8"/>
     </row>
-    <row r="170" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="6"/>
       <c r="B170" s="14"/>
       <c r="C170" s="11"/>
@@ -3681,7 +3736,7 @@
       <c r="E170" s="8"/>
       <c r="F170" s="8"/>
     </row>
-    <row r="171" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="6"/>
       <c r="B171" s="14"/>
       <c r="C171" s="11"/>
@@ -3689,7 +3744,7 @@
       <c r="E171" s="8"/>
       <c r="F171" s="8"/>
     </row>
-    <row r="172" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="6"/>
       <c r="B172" s="14"/>
       <c r="C172" s="11"/>
@@ -3697,7 +3752,7 @@
       <c r="E172" s="8"/>
       <c r="F172" s="8"/>
     </row>
-    <row r="173" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="6"/>
       <c r="B173" s="14"/>
       <c r="C173" s="11"/>
@@ -3705,7 +3760,7 @@
       <c r="E173" s="8"/>
       <c r="F173" s="8"/>
     </row>
-    <row r="174" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="6"/>
       <c r="B174" s="14"/>
       <c r="C174" s="11"/>
@@ -3713,7 +3768,7 @@
       <c r="E174" s="8"/>
       <c r="F174" s="8"/>
     </row>
-    <row r="175" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="6"/>
       <c r="B175" s="14"/>
       <c r="C175" s="11"/>
@@ -3721,7 +3776,7 @@
       <c r="E175" s="8"/>
       <c r="F175" s="8"/>
     </row>
-    <row r="176" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="6"/>
       <c r="B176" s="14"/>
       <c r="C176" s="11"/>
@@ -3729,7 +3784,7 @@
       <c r="E176" s="8"/>
       <c r="F176" s="8"/>
     </row>
-    <row r="177" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="6"/>
       <c r="B177" s="14"/>
       <c r="C177" s="11"/>
@@ -3737,7 +3792,7 @@
       <c r="E177" s="8"/>
       <c r="F177" s="8"/>
     </row>
-    <row r="178" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="6"/>
       <c r="B178" s="14"/>
       <c r="C178" s="11"/>
@@ -3745,7 +3800,7 @@
       <c r="E178" s="8"/>
       <c r="F178" s="8"/>
     </row>
-    <row r="179" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="6"/>
       <c r="B179" s="14"/>
       <c r="C179" s="11"/>
@@ -3753,7 +3808,7 @@
       <c r="E179" s="8"/>
       <c r="F179" s="8"/>
     </row>
-    <row r="180" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="6"/>
       <c r="B180" s="14"/>
       <c r="C180" s="11"/>
@@ -3761,7 +3816,7 @@
       <c r="E180" s="8"/>
       <c r="F180" s="8"/>
     </row>
-    <row r="181" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="6"/>
       <c r="B181" s="14"/>
       <c r="C181" s="11"/>
@@ -3769,7 +3824,7 @@
       <c r="E181" s="8"/>
       <c r="F181" s="8"/>
     </row>
-    <row r="182" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="6"/>
       <c r="B182" s="14"/>
       <c r="C182" s="11"/>
@@ -3777,7 +3832,7 @@
       <c r="E182" s="8"/>
       <c r="F182" s="8"/>
     </row>
-    <row r="183" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="6"/>
       <c r="B183" s="14"/>
       <c r="C183" s="11"/>
@@ -3785,7 +3840,7 @@
       <c r="E183" s="8"/>
       <c r="F183" s="8"/>
     </row>
-    <row r="184" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="6"/>
       <c r="B184" s="14"/>
       <c r="C184" s="11"/>
@@ -3793,7 +3848,7 @@
       <c r="E184" s="8"/>
       <c r="F184" s="8"/>
     </row>
-    <row r="185" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="6"/>
       <c r="B185" s="14"/>
       <c r="C185" s="11"/>
@@ -3801,7 +3856,7 @@
       <c r="E185" s="8"/>
       <c r="F185" s="8"/>
     </row>
-    <row r="186" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="6"/>
       <c r="B186" s="14"/>
       <c r="C186" s="11"/>
@@ -3809,7 +3864,7 @@
       <c r="E186" s="8"/>
       <c r="F186" s="8"/>
     </row>
-    <row r="187" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="6"/>
       <c r="B187" s="14"/>
       <c r="C187" s="11"/>
@@ -3817,7 +3872,7 @@
       <c r="E187" s="8"/>
       <c r="F187" s="8"/>
     </row>
-    <row r="188" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="6"/>
       <c r="B188" s="14"/>
       <c r="C188" s="11"/>
@@ -3825,7 +3880,7 @@
       <c r="E188" s="8"/>
       <c r="F188" s="8"/>
     </row>
-    <row r="189" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="6"/>
       <c r="B189" s="14"/>
       <c r="C189" s="11"/>
@@ -3833,7 +3888,7 @@
       <c r="E189" s="8"/>
       <c r="F189" s="8"/>
     </row>
-    <row r="190" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="6"/>
       <c r="B190" s="14"/>
       <c r="C190" s="11"/>
@@ -3841,7 +3896,7 @@
       <c r="E190" s="8"/>
       <c r="F190" s="8"/>
     </row>
-    <row r="191" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="6"/>
       <c r="B191" s="14"/>
       <c r="C191" s="11"/>
@@ -3849,7 +3904,7 @@
       <c r="E191" s="8"/>
       <c r="F191" s="8"/>
     </row>
-    <row r="192" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="6"/>
       <c r="B192" s="14"/>
       <c r="C192" s="11"/>
@@ -3857,7 +3912,7 @@
       <c r="E192" s="8"/>
       <c r="F192" s="8"/>
     </row>
-    <row r="193" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="6"/>
       <c r="B193" s="14"/>
       <c r="C193" s="11"/>
@@ -3865,7 +3920,7 @@
       <c r="E193" s="8"/>
       <c r="F193" s="8"/>
     </row>
-    <row r="194" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="6"/>
       <c r="B194" s="14"/>
       <c r="C194" s="11"/>
@@ -3873,7 +3928,7 @@
       <c r="E194" s="8"/>
       <c r="F194" s="8"/>
     </row>
-    <row r="195" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="6"/>
       <c r="B195" s="14"/>
       <c r="C195" s="11"/>
@@ -3881,7 +3936,7 @@
       <c r="E195" s="8"/>
       <c r="F195" s="8"/>
     </row>
-    <row r="196" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="6"/>
       <c r="B196" s="14"/>
       <c r="C196" s="11"/>
@@ -3889,7 +3944,7 @@
       <c r="E196" s="8"/>
       <c r="F196" s="8"/>
     </row>
-    <row r="197" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="6"/>
       <c r="B197" s="14"/>
       <c r="C197" s="11"/>
@@ -3897,7 +3952,7 @@
       <c r="E197" s="8"/>
       <c r="F197" s="8"/>
     </row>
-    <row r="198" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="6"/>
       <c r="B198" s="14"/>
       <c r="C198" s="11"/>
@@ -3905,7 +3960,7 @@
       <c r="E198" s="8"/>
       <c r="F198" s="8"/>
     </row>
-    <row r="199" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="6"/>
       <c r="B199" s="14"/>
       <c r="C199" s="11"/>
@@ -3913,7 +3968,7 @@
       <c r="E199" s="8"/>
       <c r="F199" s="8"/>
     </row>
-    <row r="200" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="6"/>
       <c r="B200" s="14"/>
       <c r="C200" s="11"/>
@@ -3921,7 +3976,7 @@
       <c r="E200" s="8"/>
       <c r="F200" s="8"/>
     </row>
-    <row r="201" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="6"/>
       <c r="B201" s="14"/>
       <c r="C201" s="11"/>
@@ -3929,7 +3984,7 @@
       <c r="E201" s="8"/>
       <c r="F201" s="8"/>
     </row>
-    <row r="202" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="6"/>
       <c r="B202" s="14"/>
       <c r="C202" s="11"/>
@@ -3937,7 +3992,7 @@
       <c r="E202" s="8"/>
       <c r="F202" s="8"/>
     </row>
-    <row r="203" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="6"/>
       <c r="B203" s="14"/>
       <c r="C203" s="11"/>
@@ -3945,7 +4000,7 @@
       <c r="E203" s="8"/>
       <c r="F203" s="8"/>
     </row>
-    <row r="204" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="6"/>
       <c r="B204" s="14"/>
       <c r="C204" s="11"/>
@@ -3953,7 +4008,7 @@
       <c r="E204" s="8"/>
       <c r="F204" s="8"/>
     </row>
-    <row r="205" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="6"/>
       <c r="B205" s="14"/>
       <c r="C205" s="11"/>
@@ -3961,7 +4016,7 @@
       <c r="E205" s="8"/>
       <c r="F205" s="8"/>
     </row>
-    <row r="206" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="6"/>
       <c r="B206" s="14"/>
       <c r="C206" s="11"/>
@@ -3969,7 +4024,7 @@
       <c r="E206" s="8"/>
       <c r="F206" s="8"/>
     </row>
-    <row r="207" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="6"/>
       <c r="B207" s="14"/>
       <c r="C207" s="11"/>
@@ -3977,7 +4032,7 @@
       <c r="E207" s="8"/>
       <c r="F207" s="8"/>
     </row>
-    <row r="208" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="6"/>
       <c r="B208" s="14"/>
       <c r="C208" s="11"/>
@@ -3985,7 +4040,7 @@
       <c r="E208" s="8"/>
       <c r="F208" s="8"/>
     </row>
-    <row r="209" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="6"/>
       <c r="B209" s="14"/>
       <c r="C209" s="11"/>
@@ -3993,7 +4048,7 @@
       <c r="E209" s="8"/>
       <c r="F209" s="8"/>
     </row>
-    <row r="210" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="6"/>
       <c r="B210" s="14"/>
       <c r="C210" s="11"/>
@@ -4001,7 +4056,7 @@
       <c r="E210" s="8"/>
       <c r="F210" s="8"/>
     </row>
-    <row r="211" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="6"/>
       <c r="B211" s="14"/>
       <c r="C211" s="11"/>
@@ -4009,7 +4064,7 @@
       <c r="E211" s="8"/>
       <c r="F211" s="8"/>
     </row>
-    <row r="212" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="6"/>
       <c r="B212" s="14"/>
       <c r="C212" s="11"/>
@@ -4017,7 +4072,7 @@
       <c r="E212" s="8"/>
       <c r="F212" s="8"/>
     </row>
-    <row r="213" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="6"/>
       <c r="B213" s="14"/>
       <c r="C213" s="11"/>
@@ -4025,7 +4080,7 @@
       <c r="E213" s="8"/>
       <c r="F213" s="8"/>
     </row>
-    <row r="214" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="6"/>
       <c r="B214" s="14"/>
       <c r="C214" s="11"/>
@@ -4033,7 +4088,7 @@
       <c r="E214" s="8"/>
       <c r="F214" s="8"/>
     </row>
-    <row r="215" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="6"/>
       <c r="B215" s="14"/>
       <c r="C215" s="11"/>
@@ -4041,7 +4096,7 @@
       <c r="E215" s="8"/>
       <c r="F215" s="8"/>
     </row>
-    <row r="216" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="6"/>
       <c r="B216" s="14"/>
       <c r="C216" s="11"/>
@@ -4049,7 +4104,7 @@
       <c r="E216" s="8"/>
       <c r="F216" s="8"/>
     </row>
-    <row r="217" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="6"/>
       <c r="B217" s="14"/>
       <c r="C217" s="11"/>
@@ -4057,7 +4112,7 @@
       <c r="E217" s="8"/>
       <c r="F217" s="8"/>
     </row>
-    <row r="218" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="6"/>
       <c r="B218" s="14"/>
       <c r="C218" s="11"/>
@@ -4065,7 +4120,7 @@
       <c r="E218" s="8"/>
       <c r="F218" s="8"/>
     </row>
-    <row r="219" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="6"/>
       <c r="B219" s="14"/>
       <c r="C219" s="11"/>
@@ -4073,7 +4128,7 @@
       <c r="E219" s="8"/>
       <c r="F219" s="8"/>
     </row>
-    <row r="220" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="6"/>
       <c r="B220" s="14"/>
       <c r="C220" s="11"/>
@@ -4081,7 +4136,7 @@
       <c r="E220" s="8"/>
       <c r="F220" s="8"/>
     </row>
-    <row r="221" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="6"/>
       <c r="B221" s="14"/>
       <c r="C221" s="11"/>
@@ -4089,7 +4144,7 @@
       <c r="E221" s="8"/>
       <c r="F221" s="8"/>
     </row>
-    <row r="222" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="6"/>
       <c r="B222" s="14"/>
       <c r="C222" s="11"/>
@@ -4097,7 +4152,7 @@
       <c r="E222" s="8"/>
       <c r="F222" s="8"/>
     </row>
-    <row r="223" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="6"/>
       <c r="B223" s="14"/>
       <c r="C223" s="11"/>
@@ -4105,7 +4160,7 @@
       <c r="E223" s="8"/>
       <c r="F223" s="8"/>
     </row>
-    <row r="224" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="6"/>
       <c r="B224" s="14"/>
       <c r="C224" s="11"/>
@@ -4113,7 +4168,7 @@
       <c r="E224" s="8"/>
       <c r="F224" s="8"/>
     </row>
-    <row r="225" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="6"/>
       <c r="B225" s="14"/>
       <c r="C225" s="11"/>
@@ -4121,7 +4176,7 @@
       <c r="E225" s="8"/>
       <c r="F225" s="8"/>
     </row>
-    <row r="226" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="6"/>
       <c r="B226" s="14"/>
       <c r="C226" s="11"/>
@@ -4129,7 +4184,7 @@
       <c r="E226" s="8"/>
       <c r="F226" s="8"/>
     </row>
-    <row r="227" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="6"/>
       <c r="B227" s="14"/>
       <c r="C227" s="11"/>
@@ -4137,7 +4192,7 @@
       <c r="E227" s="8"/>
       <c r="F227" s="8"/>
     </row>
-    <row r="228" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="6"/>
       <c r="B228" s="14"/>
       <c r="C228" s="11"/>
@@ -4145,7 +4200,7 @@
       <c r="E228" s="8"/>
       <c r="F228" s="8"/>
     </row>
-    <row r="229" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="6"/>
       <c r="B229" s="14"/>
       <c r="C229" s="11"/>
@@ -4153,7 +4208,7 @@
       <c r="E229" s="8"/>
       <c r="F229" s="8"/>
     </row>
-    <row r="230" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="6"/>
       <c r="B230" s="14"/>
       <c r="C230" s="11"/>
@@ -4161,7 +4216,7 @@
       <c r="E230" s="8"/>
       <c r="F230" s="8"/>
     </row>
-    <row r="231" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="6"/>
       <c r="B231" s="14"/>
       <c r="C231" s="11"/>
@@ -4169,7 +4224,7 @@
       <c r="E231" s="8"/>
       <c r="F231" s="8"/>
     </row>
-    <row r="232" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="6"/>
       <c r="B232" s="14"/>
       <c r="C232" s="11"/>
@@ -4177,7 +4232,7 @@
       <c r="E232" s="8"/>
       <c r="F232" s="8"/>
     </row>
-    <row r="233" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="6"/>
       <c r="B233" s="14"/>
       <c r="C233" s="11"/>
@@ -4185,7 +4240,7 @@
       <c r="E233" s="8"/>
       <c r="F233" s="8"/>
     </row>
-    <row r="234" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="6"/>
       <c r="B234" s="14"/>
       <c r="C234" s="11"/>
@@ -4193,7 +4248,7 @@
       <c r="E234" s="8"/>
       <c r="F234" s="8"/>
     </row>
-    <row r="235" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="6"/>
       <c r="B235" s="14"/>
       <c r="C235" s="11"/>
@@ -4201,7 +4256,7 @@
       <c r="E235" s="8"/>
       <c r="F235" s="8"/>
     </row>
-    <row r="236" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="6"/>
       <c r="B236" s="14"/>
       <c r="C236" s="11"/>
@@ -4209,7 +4264,7 @@
       <c r="E236" s="8"/>
       <c r="F236" s="8"/>
     </row>
-    <row r="237" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="6"/>
       <c r="B237" s="14"/>
       <c r="C237" s="11"/>
@@ -4217,7 +4272,7 @@
       <c r="E237" s="8"/>
       <c r="F237" s="8"/>
     </row>
-    <row r="238" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="6"/>
       <c r="B238" s="14"/>
       <c r="C238" s="11"/>
@@ -4225,7 +4280,7 @@
       <c r="E238" s="8"/>
       <c r="F238" s="8"/>
     </row>
-    <row r="239" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="6"/>
       <c r="B239" s="14"/>
       <c r="C239" s="11"/>
@@ -4233,7 +4288,7 @@
       <c r="E239" s="8"/>
       <c r="F239" s="8"/>
     </row>
-    <row r="240" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="6"/>
       <c r="B240" s="14"/>
       <c r="C240" s="11"/>
@@ -4241,7 +4296,7 @@
       <c r="E240" s="8"/>
       <c r="F240" s="8"/>
     </row>
-    <row r="241" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="6"/>
       <c r="B241" s="14"/>
       <c r="C241" s="11"/>
@@ -4249,7 +4304,7 @@
       <c r="E241" s="8"/>
       <c r="F241" s="8"/>
     </row>
-    <row r="242" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="6"/>
       <c r="B242" s="14"/>
       <c r="C242" s="11"/>
@@ -4257,7 +4312,7 @@
       <c r="E242" s="8"/>
       <c r="F242" s="8"/>
     </row>
-    <row r="243" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="6"/>
       <c r="B243" s="14"/>
       <c r="C243" s="11"/>
@@ -4265,7 +4320,7 @@
       <c r="E243" s="8"/>
       <c r="F243" s="8"/>
     </row>
-    <row r="244" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="6"/>
       <c r="B244" s="14"/>
       <c r="C244" s="11"/>
@@ -4273,7 +4328,7 @@
       <c r="E244" s="8"/>
       <c r="F244" s="8"/>
     </row>
-    <row r="245" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="6"/>
       <c r="B245" s="14"/>
       <c r="C245" s="11"/>
@@ -4281,7 +4336,7 @@
       <c r="E245" s="8"/>
       <c r="F245" s="8"/>
     </row>
-    <row r="246" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="6"/>
       <c r="B246" s="14"/>
       <c r="C246" s="11"/>
@@ -4289,7 +4344,7 @@
       <c r="E246" s="8"/>
       <c r="F246" s="8"/>
     </row>
-    <row r="247" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="6"/>
       <c r="B247" s="14"/>
       <c r="C247" s="11"/>
@@ -4297,7 +4352,7 @@
       <c r="E247" s="8"/>
       <c r="F247" s="8"/>
     </row>
-    <row r="248" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A248" s="6"/>
       <c r="B248" s="14"/>
       <c r="C248" s="11"/>
@@ -4305,7 +4360,7 @@
       <c r="E248" s="8"/>
       <c r="F248" s="8"/>
     </row>
-    <row r="249" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A249" s="6"/>
       <c r="B249" s="14"/>
       <c r="C249" s="11"/>
@@ -4313,7 +4368,7 @@
       <c r="E249" s="8"/>
       <c r="F249" s="8"/>
     </row>
-    <row r="250" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A250" s="6"/>
       <c r="B250" s="14"/>
       <c r="C250" s="11"/>
@@ -4321,7 +4376,7 @@
       <c r="E250" s="8"/>
       <c r="F250" s="8"/>
     </row>
-    <row r="251" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A251" s="6"/>
       <c r="B251" s="14"/>
       <c r="C251" s="11"/>
@@ -4329,7 +4384,7 @@
       <c r="E251" s="8"/>
       <c r="F251" s="8"/>
     </row>
-    <row r="252" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A252" s="6"/>
       <c r="B252" s="14"/>
       <c r="C252" s="11"/>
@@ -4337,7 +4392,7 @@
       <c r="E252" s="8"/>
       <c r="F252" s="8"/>
     </row>
-    <row r="253" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A253" s="6"/>
       <c r="B253" s="14"/>
       <c r="C253" s="11"/>
@@ -4345,7 +4400,7 @@
       <c r="E253" s="8"/>
       <c r="F253" s="8"/>
     </row>
-    <row r="254" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A254" s="6"/>
       <c r="B254" s="14"/>
       <c r="C254" s="11"/>
@@ -4353,7 +4408,7 @@
       <c r="E254" s="8"/>
       <c r="F254" s="8"/>
     </row>
-    <row r="255" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A255" s="6"/>
       <c r="B255" s="14"/>
       <c r="C255" s="11"/>
@@ -4361,7 +4416,7 @@
       <c r="E255" s="8"/>
       <c r="F255" s="8"/>
     </row>
-    <row r="256" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A256" s="6"/>
       <c r="B256" s="14"/>
       <c r="C256" s="11"/>
@@ -4369,7 +4424,7 @@
       <c r="E256" s="8"/>
       <c r="F256" s="8"/>
     </row>
-    <row r="257" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A257" s="6"/>
       <c r="B257" s="14"/>
       <c r="C257" s="11"/>
@@ -4377,7 +4432,7 @@
       <c r="E257" s="8"/>
       <c r="F257" s="8"/>
     </row>
-    <row r="258" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A258" s="6"/>
       <c r="B258" s="14"/>
       <c r="C258" s="11"/>
@@ -4385,7 +4440,7 @@
       <c r="E258" s="8"/>
       <c r="F258" s="8"/>
     </row>
-    <row r="259" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A259" s="6"/>
       <c r="B259" s="14"/>
       <c r="C259" s="11"/>
@@ -4393,7 +4448,7 @@
       <c r="E259" s="8"/>
       <c r="F259" s="8"/>
     </row>
-    <row r="260" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A260" s="6"/>
       <c r="B260" s="14"/>
       <c r="C260" s="11"/>
@@ -4401,7 +4456,7 @@
       <c r="E260" s="8"/>
       <c r="F260" s="8"/>
     </row>
-    <row r="261" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A261" s="6"/>
       <c r="B261" s="14"/>
       <c r="C261" s="11"/>
@@ -4409,7 +4464,7 @@
       <c r="E261" s="8"/>
       <c r="F261" s="8"/>
     </row>
-    <row r="262" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A262" s="6"/>
       <c r="B262" s="14"/>
       <c r="C262" s="11"/>
@@ -4417,7 +4472,7 @@
       <c r="E262" s="8"/>
       <c r="F262" s="8"/>
     </row>
-    <row r="263" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A263" s="6"/>
       <c r="B263" s="14"/>
       <c r="C263" s="11"/>
@@ -4425,7 +4480,7 @@
       <c r="E263" s="8"/>
       <c r="F263" s="8"/>
     </row>
-    <row r="264" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A264" s="6"/>
       <c r="B264" s="14"/>
       <c r="C264" s="11"/>
@@ -4433,7 +4488,7 @@
       <c r="E264" s="8"/>
       <c r="F264" s="8"/>
     </row>
-    <row r="265" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A265" s="6"/>
       <c r="B265" s="14"/>
       <c r="C265" s="11"/>
@@ -4441,7 +4496,7 @@
       <c r="E265" s="8"/>
       <c r="F265" s="8"/>
     </row>
-    <row r="266" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A266" s="6"/>
       <c r="B266" s="14"/>
       <c r="C266" s="11"/>
@@ -4449,7 +4504,7 @@
       <c r="E266" s="8"/>
       <c r="F266" s="8"/>
     </row>
-    <row r="267" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A267" s="6"/>
       <c r="B267" s="14"/>
       <c r="C267" s="11"/>
@@ -4457,7 +4512,7 @@
       <c r="E267" s="8"/>
       <c r="F267" s="8"/>
     </row>
-    <row r="268" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A268" s="6"/>
       <c r="B268" s="14"/>
       <c r="C268" s="11"/>
@@ -4465,7 +4520,7 @@
       <c r="E268" s="8"/>
       <c r="F268" s="8"/>
     </row>
-    <row r="269" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A269" s="6"/>
       <c r="B269" s="14"/>
       <c r="C269" s="11"/>
@@ -4473,7 +4528,7 @@
       <c r="E269" s="8"/>
       <c r="F269" s="8"/>
     </row>
-    <row r="270" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A270" s="6"/>
       <c r="B270" s="14"/>
       <c r="C270" s="11"/>
@@ -4481,7 +4536,7 @@
       <c r="E270" s="8"/>
       <c r="F270" s="8"/>
     </row>
-    <row r="271" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A271" s="6"/>
       <c r="B271" s="14"/>
       <c r="C271" s="11"/>
@@ -4489,7 +4544,7 @@
       <c r="E271" s="8"/>
       <c r="F271" s="8"/>
     </row>
-    <row r="272" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A272" s="6"/>
       <c r="B272" s="14"/>
       <c r="C272" s="11"/>
@@ -4497,7 +4552,7 @@
       <c r="E272" s="8"/>
       <c r="F272" s="8"/>
     </row>
-    <row r="273" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A273" s="6"/>
       <c r="B273" s="14"/>
       <c r="C273" s="11"/>
@@ -4505,7 +4560,7 @@
       <c r="E273" s="8"/>
       <c r="F273" s="8"/>
     </row>
-    <row r="274" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A274" s="6"/>
       <c r="B274" s="14"/>
       <c r="C274" s="11"/>
@@ -4513,7 +4568,7 @@
       <c r="E274" s="8"/>
       <c r="F274" s="8"/>
     </row>
-    <row r="275" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A275" s="6"/>
       <c r="B275" s="14"/>
       <c r="C275" s="11"/>
@@ -4521,7 +4576,7 @@
       <c r="E275" s="8"/>
       <c r="F275" s="8"/>
     </row>
-    <row r="276" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A276" s="6"/>
       <c r="B276" s="14"/>
       <c r="C276" s="11"/>
@@ -4529,7 +4584,7 @@
       <c r="E276" s="8"/>
       <c r="F276" s="8"/>
     </row>
-    <row r="277" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A277" s="6"/>
       <c r="B277" s="14"/>
       <c r="C277" s="11"/>
@@ -4537,7 +4592,7 @@
       <c r="E277" s="8"/>
       <c r="F277" s="8"/>
     </row>
-    <row r="278" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A278" s="6"/>
       <c r="B278" s="14"/>
       <c r="C278" s="11"/>
@@ -4545,7 +4600,7 @@
       <c r="E278" s="8"/>
       <c r="F278" s="8"/>
     </row>
-    <row r="279" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A279" s="6"/>
       <c r="B279" s="14"/>
       <c r="C279" s="11"/>
@@ -4553,7 +4608,7 @@
       <c r="E279" s="8"/>
       <c r="F279" s="8"/>
     </row>
-    <row r="280" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A280" s="6"/>
       <c r="B280" s="14"/>
       <c r="C280" s="11"/>
@@ -4561,7 +4616,7 @@
       <c r="E280" s="8"/>
       <c r="F280" s="8"/>
     </row>
-    <row r="281" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A281" s="6"/>
       <c r="B281" s="14"/>
       <c r="C281" s="11"/>
@@ -4569,7 +4624,7 @@
       <c r="E281" s="8"/>
       <c r="F281" s="8"/>
     </row>
-    <row r="282" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A282" s="6"/>
       <c r="B282" s="14"/>
       <c r="C282" s="11"/>
@@ -4577,7 +4632,7 @@
       <c r="E282" s="8"/>
       <c r="F282" s="8"/>
     </row>
-    <row r="283" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A283" s="6"/>
       <c r="B283" s="14"/>
       <c r="C283" s="11"/>
@@ -4585,7 +4640,7 @@
       <c r="E283" s="8"/>
       <c r="F283" s="8"/>
     </row>
-    <row r="284" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A284" s="6"/>
       <c r="B284" s="14"/>
       <c r="C284" s="11"/>
@@ -4593,7 +4648,7 @@
       <c r="E284" s="8"/>
       <c r="F284" s="8"/>
     </row>
-    <row r="285" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A285" s="6"/>
       <c r="B285" s="14"/>
       <c r="C285" s="11"/>
@@ -4601,7 +4656,7 @@
       <c r="E285" s="8"/>
       <c r="F285" s="8"/>
     </row>
-    <row r="286" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A286" s="6"/>
       <c r="B286" s="14"/>
       <c r="C286" s="11"/>
@@ -4609,7 +4664,7 @@
       <c r="E286" s="8"/>
       <c r="F286" s="8"/>
     </row>
-    <row r="287" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A287" s="6"/>
       <c r="B287" s="14"/>
       <c r="C287" s="11"/>
@@ -4617,7 +4672,7 @@
       <c r="E287" s="8"/>
       <c r="F287" s="8"/>
     </row>
-    <row r="288" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A288" s="6"/>
       <c r="B288" s="14"/>
       <c r="C288" s="11"/>
@@ -4625,7 +4680,7 @@
       <c r="E288" s="8"/>
       <c r="F288" s="8"/>
     </row>
-    <row r="289" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A289" s="6"/>
       <c r="B289" s="14"/>
       <c r="C289" s="11"/>
@@ -4633,7 +4688,7 @@
       <c r="E289" s="8"/>
       <c r="F289" s="8"/>
     </row>
-    <row r="290" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A290" s="6"/>
       <c r="B290" s="14"/>
       <c r="C290" s="11"/>
@@ -4641,7 +4696,7 @@
       <c r="E290" s="8"/>
       <c r="F290" s="8"/>
     </row>
-    <row r="291" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A291" s="6"/>
       <c r="B291" s="14"/>
       <c r="C291" s="11"/>
@@ -4649,7 +4704,7 @@
       <c r="E291" s="8"/>
       <c r="F291" s="8"/>
     </row>
-    <row r="292" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A292" s="6"/>
       <c r="B292" s="14"/>
       <c r="C292" s="11"/>
@@ -4657,7 +4712,7 @@
       <c r="E292" s="8"/>
       <c r="F292" s="8"/>
     </row>
-    <row r="293" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A293" s="6"/>
       <c r="B293" s="14"/>
       <c r="C293" s="11"/>
@@ -4665,7 +4720,7 @@
       <c r="E293" s="8"/>
       <c r="F293" s="8"/>
     </row>
-    <row r="294" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A294" s="6"/>
       <c r="B294" s="14"/>
       <c r="C294" s="11"/>
@@ -4673,7 +4728,7 @@
       <c r="E294" s="8"/>
       <c r="F294" s="8"/>
     </row>
-    <row r="295" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A295" s="6"/>
       <c r="B295" s="14"/>
       <c r="C295" s="11"/>
@@ -4681,7 +4736,7 @@
       <c r="E295" s="8"/>
       <c r="F295" s="8"/>
     </row>
-    <row r="296" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A296" s="6"/>
       <c r="B296" s="14"/>
       <c r="C296" s="11"/>
@@ -4689,7 +4744,7 @@
       <c r="E296" s="8"/>
       <c r="F296" s="8"/>
     </row>
-    <row r="297" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A297" s="6"/>
       <c r="B297" s="14"/>
       <c r="C297" s="11"/>
@@ -4697,7 +4752,7 @@
       <c r="E297" s="8"/>
       <c r="F297" s="8"/>
     </row>
-    <row r="298" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A298" s="6"/>
       <c r="B298" s="14"/>
       <c r="C298" s="11"/>
@@ -4705,7 +4760,7 @@
       <c r="E298" s="8"/>
       <c r="F298" s="8"/>
     </row>
-    <row r="299" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A299" s="6"/>
       <c r="B299" s="14"/>
       <c r="C299" s="11"/>
@@ -4713,7 +4768,7 @@
       <c r="E299" s="8"/>
       <c r="F299" s="8"/>
     </row>
-    <row r="300" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A300" s="6"/>
       <c r="B300" s="14"/>
       <c r="C300" s="11"/>
@@ -4721,7 +4776,7 @@
       <c r="E300" s="8"/>
       <c r="F300" s="8"/>
     </row>
-    <row r="301" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A301" s="6"/>
       <c r="B301" s="14"/>
       <c r="C301" s="11"/>
@@ -4729,7 +4784,7 @@
       <c r="E301" s="8"/>
       <c r="F301" s="8"/>
     </row>
-    <row r="302" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A302" s="6"/>
       <c r="B302" s="14"/>
       <c r="C302" s="11"/>
@@ -4737,7 +4792,7 @@
       <c r="E302" s="8"/>
       <c r="F302" s="8"/>
     </row>
-    <row r="303" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A303" s="6"/>
       <c r="B303" s="14"/>
       <c r="C303" s="11"/>
@@ -4745,7 +4800,7 @@
       <c r="E303" s="8"/>
       <c r="F303" s="8"/>
     </row>
-    <row r="304" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A304" s="6"/>
       <c r="B304" s="14"/>
       <c r="C304" s="11"/>
@@ -4753,7 +4808,7 @@
       <c r="E304" s="8"/>
       <c r="F304" s="8"/>
     </row>
-    <row r="305" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A305" s="6"/>
       <c r="B305" s="14"/>
       <c r="C305" s="11"/>
@@ -4761,7 +4816,7 @@
       <c r="E305" s="8"/>
       <c r="F305" s="8"/>
     </row>
-    <row r="306" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A306" s="6"/>
       <c r="B306" s="14"/>
       <c r="C306" s="11"/>
@@ -4769,7 +4824,7 @@
       <c r="E306" s="8"/>
       <c r="F306" s="8"/>
     </row>
-    <row r="307" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A307" s="6"/>
       <c r="B307" s="14"/>
       <c r="C307" s="11"/>
@@ -4777,7 +4832,7 @@
       <c r="E307" s="8"/>
       <c r="F307" s="8"/>
     </row>
-    <row r="308" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A308" s="6"/>
       <c r="B308" s="14"/>
       <c r="C308" s="11"/>
@@ -4785,7 +4840,7 @@
       <c r="E308" s="8"/>
       <c r="F308" s="8"/>
     </row>
-    <row r="309" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A309" s="6"/>
       <c r="B309" s="14"/>
       <c r="C309" s="11"/>
@@ -4793,7 +4848,7 @@
       <c r="E309" s="8"/>
       <c r="F309" s="8"/>
     </row>
-    <row r="310" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A310" s="6"/>
       <c r="B310" s="14"/>
       <c r="C310" s="11"/>
@@ -4801,7 +4856,7 @@
       <c r="E310" s="8"/>
       <c r="F310" s="8"/>
     </row>
-    <row r="311" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A311" s="6"/>
       <c r="B311" s="14"/>
       <c r="C311" s="11"/>
@@ -4809,7 +4864,7 @@
       <c r="E311" s="8"/>
       <c r="F311" s="8"/>
     </row>
-    <row r="312" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A312" s="6"/>
       <c r="B312" s="14"/>
       <c r="C312" s="11"/>
@@ -4817,7 +4872,7 @@
       <c r="E312" s="8"/>
       <c r="F312" s="8"/>
     </row>
-    <row r="313" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A313" s="6"/>
       <c r="B313" s="14"/>
       <c r="C313" s="11"/>
@@ -4825,7 +4880,7 @@
       <c r="E313" s="8"/>
       <c r="F313" s="8"/>
     </row>
-    <row r="314" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A314" s="6"/>
       <c r="B314" s="14"/>
       <c r="C314" s="11"/>
@@ -4833,7 +4888,7 @@
       <c r="E314" s="8"/>
       <c r="F314" s="8"/>
     </row>
-    <row r="315" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A315" s="6"/>
       <c r="B315" s="14"/>
       <c r="C315" s="11"/>
@@ -4841,7 +4896,7 @@
       <c r="E315" s="8"/>
       <c r="F315" s="8"/>
     </row>
-    <row r="316" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A316" s="6"/>
       <c r="B316" s="14"/>
       <c r="C316" s="11"/>
@@ -4849,7 +4904,7 @@
       <c r="E316" s="8"/>
       <c r="F316" s="8"/>
     </row>
-    <row r="317" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A317" s="6"/>
       <c r="B317" s="14"/>
       <c r="C317" s="11"/>
@@ -4857,7 +4912,7 @@
       <c r="E317" s="8"/>
       <c r="F317" s="8"/>
     </row>
-    <row r="318" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A318" s="6"/>
       <c r="B318" s="14"/>
       <c r="C318" s="11"/>
@@ -4865,7 +4920,7 @@
       <c r="E318" s="8"/>
       <c r="F318" s="8"/>
     </row>
-    <row r="319" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A319" s="6"/>
       <c r="B319" s="14"/>
       <c r="C319" s="11"/>
@@ -4873,7 +4928,7 @@
       <c r="E319" s="8"/>
       <c r="F319" s="8"/>
     </row>
-    <row r="320" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A320" s="6"/>
       <c r="B320" s="14"/>
       <c r="C320" s="11"/>
@@ -4881,7 +4936,7 @@
       <c r="E320" s="8"/>
       <c r="F320" s="8"/>
     </row>
-    <row r="321" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A321" s="6"/>
       <c r="B321" s="14"/>
       <c r="C321" s="11"/>
@@ -4889,7 +4944,7 @@
       <c r="E321" s="8"/>
       <c r="F321" s="8"/>
     </row>
-    <row r="322" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A322" s="6"/>
       <c r="B322" s="14"/>
       <c r="C322" s="11"/>
@@ -4897,7 +4952,7 @@
       <c r="E322" s="8"/>
       <c r="F322" s="8"/>
     </row>
-    <row r="323" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A323" s="6"/>
       <c r="B323" s="14"/>
       <c r="C323" s="11"/>
@@ -4905,7 +4960,7 @@
       <c r="E323" s="8"/>
       <c r="F323" s="8"/>
     </row>
-    <row r="324" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A324" s="6"/>
       <c r="B324" s="14"/>
       <c r="C324" s="11"/>
@@ -4913,7 +4968,7 @@
       <c r="E324" s="8"/>
       <c r="F324" s="8"/>
     </row>
-    <row r="325" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A325" s="6"/>
       <c r="B325" s="14"/>
       <c r="C325" s="11"/>
@@ -4921,7 +4976,7 @@
       <c r="E325" s="8"/>
       <c r="F325" s="8"/>
     </row>
-    <row r="326" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A326" s="6"/>
       <c r="B326" s="14"/>
       <c r="C326" s="11"/>
@@ -4929,7 +4984,7 @@
       <c r="E326" s="8"/>
       <c r="F326" s="8"/>
     </row>
-    <row r="327" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A327" s="6"/>
       <c r="B327" s="14"/>
       <c r="C327" s="11"/>
@@ -4937,7 +4992,7 @@
       <c r="E327" s="8"/>
       <c r="F327" s="8"/>
     </row>
-    <row r="328" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A328" s="6"/>
       <c r="B328" s="14"/>
       <c r="C328" s="11"/>
@@ -4945,7 +5000,7 @@
       <c r="E328" s="8"/>
       <c r="F328" s="8"/>
     </row>
-    <row r="329" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A329" s="6"/>
       <c r="B329" s="14"/>
       <c r="C329" s="11"/>
@@ -4953,7 +5008,7 @@
       <c r="E329" s="8"/>
       <c r="F329" s="8"/>
     </row>
-    <row r="330" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A330" s="6"/>
       <c r="B330" s="14"/>
       <c r="C330" s="11"/>
@@ -4961,7 +5016,7 @@
       <c r="E330" s="8"/>
       <c r="F330" s="8"/>
     </row>
-    <row r="331" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A331" s="6"/>
       <c r="B331" s="14"/>
       <c r="C331" s="11"/>
@@ -4969,7 +5024,7 @@
       <c r="E331" s="8"/>
       <c r="F331" s="8"/>
     </row>
-    <row r="332" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A332" s="6"/>
       <c r="B332" s="14"/>
       <c r="C332" s="11"/>
@@ -4977,7 +5032,7 @@
       <c r="E332" s="8"/>
       <c r="F332" s="8"/>
     </row>
-    <row r="333" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A333" s="6"/>
       <c r="B333" s="14"/>
       <c r="C333" s="11"/>
@@ -4985,7 +5040,7 @@
       <c r="E333" s="8"/>
       <c r="F333" s="8"/>
     </row>
-    <row r="334" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A334" s="6"/>
       <c r="B334" s="14"/>
       <c r="C334" s="11"/>
@@ -4993,7 +5048,7 @@
       <c r="E334" s="8"/>
       <c r="F334" s="8"/>
     </row>
-    <row r="335" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A335" s="6"/>
       <c r="B335" s="14"/>
       <c r="C335" s="11"/>
@@ -5001,7 +5056,7 @@
       <c r="E335" s="8"/>
       <c r="F335" s="8"/>
     </row>
-    <row r="336" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A336" s="6"/>
       <c r="B336" s="14"/>
       <c r="C336" s="11"/>
@@ -5009,7 +5064,7 @@
       <c r="E336" s="8"/>
       <c r="F336" s="8"/>
     </row>
-    <row r="337" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A337" s="6"/>
       <c r="B337" s="14"/>
       <c r="C337" s="11"/>
@@ -5017,7 +5072,7 @@
       <c r="E337" s="8"/>
       <c r="F337" s="8"/>
     </row>
-    <row r="338" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A338" s="6"/>
       <c r="B338" s="14"/>
       <c r="C338" s="11"/>
@@ -5025,7 +5080,7 @@
       <c r="E338" s="8"/>
       <c r="F338" s="8"/>
     </row>
-    <row r="339" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A339" s="6"/>
       <c r="B339" s="14"/>
       <c r="C339" s="11"/>
@@ -5033,7 +5088,7 @@
       <c r="E339" s="8"/>
       <c r="F339" s="8"/>
     </row>
-    <row r="340" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A340" s="6"/>
       <c r="B340" s="14"/>
       <c r="C340" s="11"/>
@@ -5041,7 +5096,7 @@
       <c r="E340" s="8"/>
       <c r="F340" s="8"/>
     </row>
-    <row r="341" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A341" s="6"/>
       <c r="B341" s="14"/>
       <c r="C341" s="11"/>
@@ -5049,7 +5104,7 @@
       <c r="E341" s="8"/>
       <c r="F341" s="8"/>
     </row>
-    <row r="342" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A342" s="6"/>
       <c r="B342" s="14"/>
       <c r="C342" s="11"/>
@@ -5057,7 +5112,7 @@
       <c r="E342" s="8"/>
       <c r="F342" s="8"/>
     </row>
-    <row r="343" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A343" s="6"/>
       <c r="B343" s="14"/>
       <c r="C343" s="11"/>
@@ -5065,7 +5120,7 @@
       <c r="E343" s="8"/>
       <c r="F343" s="8"/>
     </row>
-    <row r="344" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A344" s="6"/>
       <c r="B344" s="14"/>
       <c r="C344" s="11"/>
@@ -5073,7 +5128,7 @@
       <c r="E344" s="8"/>
       <c r="F344" s="8"/>
     </row>
-    <row r="345" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A345" s="6"/>
       <c r="B345" s="14"/>
       <c r="C345" s="11"/>
@@ -5081,7 +5136,7 @@
       <c r="E345" s="8"/>
       <c r="F345" s="8"/>
     </row>
-    <row r="346" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A346" s="6"/>
       <c r="B346" s="14"/>
       <c r="C346" s="11"/>
@@ -5089,7 +5144,7 @@
       <c r="E346" s="8"/>
       <c r="F346" s="8"/>
     </row>
-    <row r="347" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A347" s="6"/>
       <c r="B347" s="14"/>
       <c r="C347" s="11"/>
@@ -5097,7 +5152,7 @@
       <c r="E347" s="8"/>
       <c r="F347" s="8"/>
     </row>
-    <row r="348" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A348" s="6"/>
       <c r="B348" s="14"/>
       <c r="C348" s="11"/>
@@ -5105,7 +5160,7 @@
       <c r="E348" s="8"/>
       <c r="F348" s="8"/>
     </row>
-    <row r="349" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A349" s="6"/>
       <c r="B349" s="14"/>
       <c r="C349" s="11"/>
@@ -5113,7 +5168,7 @@
       <c r="E349" s="8"/>
       <c r="F349" s="8"/>
     </row>
-    <row r="350" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A350" s="6"/>
       <c r="B350" s="14"/>
       <c r="C350" s="11"/>
@@ -5121,7 +5176,7 @@
       <c r="E350" s="8"/>
       <c r="F350" s="8"/>
     </row>
-    <row r="351" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A351" s="6"/>
       <c r="B351" s="14"/>
       <c r="C351" s="11"/>
@@ -5129,7 +5184,7 @@
       <c r="E351" s="8"/>
       <c r="F351" s="8"/>
     </row>
-    <row r="352" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A352" s="6"/>
       <c r="B352" s="14"/>
       <c r="C352" s="11"/>
@@ -5137,7 +5192,7 @@
       <c r="E352" s="8"/>
       <c r="F352" s="8"/>
     </row>
-    <row r="353" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A353" s="6"/>
       <c r="B353" s="14"/>
       <c r="C353" s="11"/>
@@ -5145,7 +5200,7 @@
       <c r="E353" s="8"/>
       <c r="F353" s="8"/>
     </row>
-    <row r="354" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A354" s="6"/>
       <c r="B354" s="14"/>
       <c r="C354" s="11"/>
@@ -5153,7 +5208,7 @@
       <c r="E354" s="8"/>
       <c r="F354" s="8"/>
     </row>
-    <row r="355" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A355" s="6"/>
       <c r="B355" s="14"/>
       <c r="C355" s="11"/>
@@ -5161,7 +5216,7 @@
       <c r="E355" s="8"/>
       <c r="F355" s="8"/>
     </row>
-    <row r="356" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A356" s="6"/>
       <c r="B356" s="14"/>
       <c r="C356" s="11"/>
@@ -5169,7 +5224,7 @@
       <c r="E356" s="8"/>
       <c r="F356" s="8"/>
     </row>
-    <row r="357" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A357" s="6"/>
       <c r="B357" s="14"/>
       <c r="C357" s="11"/>
@@ -5177,7 +5232,7 @@
       <c r="E357" s="8"/>
       <c r="F357" s="8"/>
     </row>
-    <row r="358" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A358" s="6"/>
       <c r="B358" s="14"/>
       <c r="C358" s="11"/>
@@ -5185,7 +5240,7 @@
       <c r="E358" s="8"/>
       <c r="F358" s="8"/>
     </row>
-    <row r="359" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A359" s="6"/>
       <c r="B359" s="14"/>
       <c r="C359" s="11"/>
@@ -5193,7 +5248,7 @@
       <c r="E359" s="8"/>
       <c r="F359" s="8"/>
     </row>
-    <row r="360" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A360" s="6"/>
       <c r="B360" s="14"/>
       <c r="C360" s="11"/>
@@ -5201,7 +5256,7 @@
       <c r="E360" s="8"/>
       <c r="F360" s="8"/>
     </row>
-    <row r="361" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A361" s="6"/>
       <c r="B361" s="14"/>
       <c r="C361" s="11"/>
@@ -5209,7 +5264,7 @@
       <c r="E361" s="8"/>
       <c r="F361" s="8"/>
     </row>
-    <row r="362" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A362" s="6"/>
       <c r="B362" s="14"/>
       <c r="C362" s="11"/>
@@ -5217,7 +5272,7 @@
       <c r="E362" s="8"/>
       <c r="F362" s="8"/>
     </row>
-    <row r="363" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A363" s="6"/>
       <c r="B363" s="14"/>
       <c r="C363" s="11"/>
@@ -5225,7 +5280,7 @@
       <c r="E363" s="8"/>
       <c r="F363" s="8"/>
     </row>
-    <row r="364" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A364" s="6"/>
       <c r="B364" s="14"/>
       <c r="C364" s="11"/>
@@ -5233,7 +5288,7 @@
       <c r="E364" s="8"/>
       <c r="F364" s="8"/>
     </row>
-    <row r="365" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A365" s="6"/>
       <c r="B365" s="14"/>
       <c r="C365" s="11"/>
@@ -5241,7 +5296,7 @@
       <c r="E365" s="8"/>
       <c r="F365" s="8"/>
     </row>
-    <row r="366" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A366" s="6"/>
       <c r="B366" s="14"/>
       <c r="C366" s="11"/>
@@ -5249,7 +5304,7 @@
       <c r="E366" s="8"/>
       <c r="F366" s="8"/>
     </row>
-    <row r="367" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A367" s="6"/>
       <c r="B367" s="14"/>
       <c r="C367" s="11"/>
@@ -5257,7 +5312,7 @@
       <c r="E367" s="8"/>
       <c r="F367" s="8"/>
     </row>
-    <row r="368" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A368" s="6"/>
       <c r="B368" s="14"/>
       <c r="C368" s="11"/>
@@ -5265,7 +5320,7 @@
       <c r="E368" s="8"/>
       <c r="F368" s="8"/>
     </row>
-    <row r="369" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A369" s="6"/>
       <c r="B369" s="14"/>
       <c r="C369" s="11"/>
@@ -5273,7 +5328,7 @@
       <c r="E369" s="8"/>
       <c r="F369" s="8"/>
     </row>
-    <row r="370" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A370" s="6"/>
       <c r="B370" s="14"/>
       <c r="C370" s="11"/>
@@ -5281,7 +5336,7 @@
       <c r="E370" s="8"/>
       <c r="F370" s="8"/>
     </row>
-    <row r="371" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A371" s="6"/>
       <c r="B371" s="14"/>
       <c r="C371" s="11"/>
@@ -5289,7 +5344,7 @@
       <c r="E371" s="8"/>
       <c r="F371" s="8"/>
     </row>
-    <row r="372" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A372" s="6"/>
       <c r="B372" s="14"/>
       <c r="C372" s="11"/>
@@ -5297,7 +5352,7 @@
       <c r="E372" s="8"/>
       <c r="F372" s="8"/>
     </row>
-    <row r="373" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A373" s="6"/>
       <c r="B373" s="14"/>
       <c r="C373" s="11"/>
@@ -5305,7 +5360,7 @@
       <c r="E373" s="8"/>
       <c r="F373" s="8"/>
     </row>
-    <row r="374" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A374" s="6"/>
       <c r="B374" s="14"/>
       <c r="C374" s="11"/>
@@ -5313,7 +5368,7 @@
       <c r="E374" s="8"/>
       <c r="F374" s="8"/>
     </row>
-    <row r="375" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A375" s="6"/>
       <c r="B375" s="14"/>
       <c r="C375" s="11"/>
@@ -5321,7 +5376,7 @@
       <c r="E375" s="8"/>
       <c r="F375" s="8"/>
     </row>
-    <row r="376" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A376" s="6"/>
       <c r="B376" s="14"/>
       <c r="C376" s="11"/>
@@ -5329,7 +5384,7 @@
       <c r="E376" s="8"/>
       <c r="F376" s="8"/>
     </row>
-    <row r="377" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A377" s="6"/>
       <c r="B377" s="14"/>
       <c r="C377" s="11"/>
@@ -5337,7 +5392,7 @@
       <c r="E377" s="8"/>
       <c r="F377" s="8"/>
     </row>
-    <row r="378" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A378" s="6"/>
       <c r="B378" s="14"/>
       <c r="C378" s="11"/>
@@ -5345,7 +5400,7 @@
       <c r="E378" s="8"/>
       <c r="F378" s="8"/>
     </row>
-    <row r="379" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A379" s="6"/>
       <c r="B379" s="14"/>
       <c r="C379" s="11"/>
@@ -5353,7 +5408,7 @@
       <c r="E379" s="8"/>
       <c r="F379" s="8"/>
     </row>
-    <row r="380" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A380" s="6"/>
       <c r="B380" s="14"/>
       <c r="C380" s="11"/>
@@ -5361,7 +5416,7 @@
       <c r="E380" s="8"/>
       <c r="F380" s="8"/>
     </row>
-    <row r="381" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A381" s="6"/>
       <c r="B381" s="14"/>
       <c r="C381" s="11"/>
@@ -5369,7 +5424,7 @@
       <c r="E381" s="8"/>
       <c r="F381" s="8"/>
     </row>
-    <row r="382" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A382" s="6"/>
       <c r="B382" s="14"/>
       <c r="C382" s="11"/>
@@ -5377,7 +5432,7 @@
       <c r="E382" s="8"/>
       <c r="F382" s="8"/>
     </row>
-    <row r="383" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A383" s="6"/>
       <c r="B383" s="14"/>
       <c r="C383" s="11"/>
@@ -5385,7 +5440,7 @@
       <c r="E383" s="8"/>
       <c r="F383" s="8"/>
     </row>
-    <row r="384" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A384" s="6"/>
       <c r="B384" s="14"/>
       <c r="C384" s="11"/>
@@ -5393,7 +5448,7 @@
       <c r="E384" s="8"/>
       <c r="F384" s="8"/>
     </row>
-    <row r="385" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A385" s="6"/>
       <c r="B385" s="14"/>
       <c r="C385" s="11"/>
@@ -5401,7 +5456,7 @@
       <c r="E385" s="8"/>
       <c r="F385" s="8"/>
     </row>
-    <row r="386" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A386" s="6"/>
       <c r="B386" s="14"/>
       <c r="C386" s="11"/>
@@ -5409,7 +5464,7 @@
       <c r="E386" s="8"/>
       <c r="F386" s="8"/>
     </row>
-    <row r="387" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A387" s="6"/>
       <c r="B387" s="14"/>
       <c r="C387" s="11"/>
@@ -5417,7 +5472,7 @@
       <c r="E387" s="8"/>
       <c r="F387" s="8"/>
     </row>
-    <row r="388" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A388" s="6"/>
       <c r="B388" s="14"/>
       <c r="C388" s="11"/>
@@ -5425,7 +5480,7 @@
       <c r="E388" s="8"/>
       <c r="F388" s="8"/>
     </row>
-    <row r="389" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A389" s="6"/>
       <c r="B389" s="14"/>
       <c r="C389" s="11"/>
@@ -5433,7 +5488,7 @@
       <c r="E389" s="8"/>
       <c r="F389" s="8"/>
     </row>
-    <row r="390" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A390" s="6"/>
       <c r="B390" s="14"/>
       <c r="C390" s="11"/>
@@ -5441,7 +5496,7 @@
       <c r="E390" s="8"/>
       <c r="F390" s="8"/>
     </row>
-    <row r="391" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A391" s="6"/>
       <c r="B391" s="14"/>
       <c r="C391" s="11"/>
@@ -5449,7 +5504,7 @@
       <c r="E391" s="8"/>
       <c r="F391" s="8"/>
     </row>
-    <row r="392" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A392" s="6"/>
       <c r="B392" s="14"/>
       <c r="C392" s="11"/>
@@ -5457,7 +5512,7 @@
       <c r="E392" s="8"/>
       <c r="F392" s="8"/>
     </row>
-    <row r="393" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A393" s="6"/>
       <c r="B393" s="14"/>
       <c r="C393" s="11"/>
@@ -5465,7 +5520,7 @@
       <c r="E393" s="8"/>
       <c r="F393" s="8"/>
     </row>
-    <row r="394" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A394" s="6"/>
       <c r="B394" s="14"/>
       <c r="C394" s="11"/>
@@ -5473,7 +5528,7 @@
       <c r="E394" s="8"/>
       <c r="F394" s="8"/>
     </row>
-    <row r="395" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A395" s="6"/>
       <c r="B395" s="14"/>
       <c r="C395" s="11"/>
@@ -5481,7 +5536,7 @@
       <c r="E395" s="8"/>
       <c r="F395" s="8"/>
     </row>
-    <row r="396" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A396" s="6"/>
       <c r="B396" s="14"/>
       <c r="C396" s="11"/>
@@ -5489,7 +5544,7 @@
       <c r="E396" s="8"/>
       <c r="F396" s="8"/>
     </row>
-    <row r="397" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A397" s="6"/>
       <c r="B397" s="14"/>
       <c r="C397" s="11"/>
@@ -5497,7 +5552,7 @@
       <c r="E397" s="8"/>
       <c r="F397" s="8"/>
     </row>
-    <row r="398" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A398" s="6"/>
       <c r="B398" s="14"/>
       <c r="C398" s="11"/>
@@ -5505,7 +5560,7 @@
       <c r="E398" s="8"/>
       <c r="F398" s="8"/>
     </row>
-    <row r="399" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A399" s="6"/>
       <c r="B399" s="14"/>
       <c r="C399" s="11"/>
@@ -5513,7 +5568,7 @@
       <c r="E399" s="8"/>
       <c r="F399" s="8"/>
     </row>
-    <row r="400" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A400" s="6"/>
       <c r="B400" s="14"/>
       <c r="C400" s="11"/>
@@ -5521,7 +5576,7 @@
       <c r="E400" s="8"/>
       <c r="F400" s="8"/>
     </row>
-    <row r="401" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A401" s="6"/>
       <c r="B401" s="14"/>
       <c r="C401" s="11"/>
@@ -5529,7 +5584,7 @@
       <c r="E401" s="8"/>
       <c r="F401" s="8"/>
     </row>
-    <row r="402" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A402" s="6"/>
       <c r="B402" s="14"/>
       <c r="C402" s="11"/>
@@ -5537,7 +5592,7 @@
       <c r="E402" s="8"/>
       <c r="F402" s="8"/>
     </row>
-    <row r="403" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A403" s="6"/>
       <c r="B403" s="14"/>
       <c r="C403" s="11"/>
@@ -5545,7 +5600,7 @@
       <c r="E403" s="8"/>
       <c r="F403" s="8"/>
     </row>
-    <row r="404" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A404" s="6"/>
       <c r="B404" s="14"/>
       <c r="C404" s="11"/>
@@ -5553,7 +5608,7 @@
       <c r="E404" s="8"/>
       <c r="F404" s="8"/>
     </row>
-    <row r="405" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A405" s="6"/>
       <c r="B405" s="14"/>
       <c r="C405" s="11"/>
@@ -5561,7 +5616,7 @@
       <c r="E405" s="8"/>
       <c r="F405" s="8"/>
     </row>
-    <row r="406" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A406" s="6"/>
       <c r="B406" s="14"/>
       <c r="C406" s="11"/>
@@ -5569,7 +5624,7 @@
       <c r="E406" s="8"/>
       <c r="F406" s="8"/>
     </row>
-    <row r="407" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A407" s="6"/>
       <c r="B407" s="14"/>
       <c r="C407" s="11"/>
@@ -5577,7 +5632,7 @@
       <c r="E407" s="8"/>
       <c r="F407" s="8"/>
     </row>
-    <row r="408" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A408" s="6"/>
       <c r="B408" s="14"/>
       <c r="C408" s="11"/>
@@ -5585,7 +5640,7 @@
       <c r="E408" s="8"/>
       <c r="F408" s="8"/>
     </row>
-    <row r="409" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A409" s="6"/>
       <c r="B409" s="14"/>
       <c r="C409" s="11"/>
@@ -5593,7 +5648,7 @@
       <c r="E409" s="8"/>
       <c r="F409" s="8"/>
     </row>
-    <row r="410" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A410" s="6"/>
       <c r="B410" s="14"/>
       <c r="C410" s="11"/>
@@ -5601,7 +5656,7 @@
       <c r="E410" s="8"/>
       <c r="F410" s="8"/>
     </row>
-    <row r="411" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A411" s="6"/>
       <c r="B411" s="14"/>
       <c r="C411" s="11"/>
@@ -5609,7 +5664,7 @@
       <c r="E411" s="8"/>
       <c r="F411" s="8"/>
     </row>
-    <row r="412" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A412" s="6"/>
       <c r="B412" s="14"/>
       <c r="C412" s="11"/>
@@ -5617,7 +5672,7 @@
       <c r="E412" s="8"/>
       <c r="F412" s="8"/>
     </row>
-    <row r="413" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A413" s="6"/>
       <c r="B413" s="14"/>
       <c r="C413" s="11"/>
@@ -5625,7 +5680,7 @@
       <c r="E413" s="8"/>
       <c r="F413" s="8"/>
     </row>
-    <row r="414" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A414" s="6"/>
       <c r="B414" s="14"/>
       <c r="C414" s="11"/>
@@ -5633,7 +5688,7 @@
       <c r="E414" s="8"/>
       <c r="F414" s="8"/>
     </row>
-    <row r="415" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A415" s="6"/>
       <c r="B415" s="14"/>
       <c r="C415" s="11"/>
@@ -5641,7 +5696,7 @@
       <c r="E415" s="8"/>
       <c r="F415" s="8"/>
     </row>
-    <row r="416" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A416" s="6"/>
       <c r="B416" s="14"/>
       <c r="C416" s="11"/>
@@ -5649,7 +5704,7 @@
       <c r="E416" s="8"/>
       <c r="F416" s="8"/>
     </row>
-    <row r="417" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A417" s="6"/>
       <c r="B417" s="14"/>
       <c r="C417" s="11"/>
@@ -5657,7 +5712,7 @@
       <c r="E417" s="8"/>
       <c r="F417" s="8"/>
     </row>
-    <row r="418" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A418" s="6"/>
       <c r="B418" s="14"/>
       <c r="C418" s="11"/>
@@ -5665,7 +5720,7 @@
       <c r="E418" s="8"/>
       <c r="F418" s="8"/>
     </row>
-    <row r="419" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A419" s="6"/>
       <c r="B419" s="14"/>
       <c r="C419" s="11"/>
@@ -5673,7 +5728,7 @@
       <c r="E419" s="8"/>
       <c r="F419" s="8"/>
     </row>
-    <row r="420" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A420" s="6"/>
       <c r="B420" s="14"/>
       <c r="C420" s="11"/>
@@ -5681,7 +5736,7 @@
       <c r="E420" s="8"/>
       <c r="F420" s="8"/>
     </row>
-    <row r="421" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A421" s="6"/>
       <c r="B421" s="14"/>
       <c r="C421" s="11"/>
@@ -5689,7 +5744,7 @@
       <c r="E421" s="8"/>
       <c r="F421" s="8"/>
     </row>
-    <row r="422" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A422" s="6"/>
       <c r="B422" s="14"/>
       <c r="C422" s="11"/>
@@ -5697,7 +5752,7 @@
       <c r="E422" s="8"/>
       <c r="F422" s="8"/>
     </row>
-    <row r="423" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A423" s="6"/>
       <c r="B423" s="14"/>
       <c r="C423" s="11"/>
@@ -5705,7 +5760,7 @@
       <c r="E423" s="8"/>
       <c r="F423" s="8"/>
     </row>
-    <row r="424" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A424" s="6"/>
       <c r="B424" s="14"/>
       <c r="C424" s="11"/>
@@ -5713,7 +5768,7 @@
       <c r="E424" s="8"/>
       <c r="F424" s="8"/>
     </row>
-    <row r="425" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A425" s="6"/>
       <c r="B425" s="14"/>
       <c r="C425" s="11"/>
@@ -5721,7 +5776,7 @@
       <c r="E425" s="8"/>
       <c r="F425" s="8"/>
     </row>
-    <row r="426" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A426" s="6"/>
       <c r="B426" s="14"/>
       <c r="C426" s="11"/>
@@ -5729,7 +5784,7 @@
       <c r="E426" s="8"/>
       <c r="F426" s="8"/>
     </row>
-    <row r="427" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A427" s="6"/>
       <c r="B427" s="14"/>
       <c r="C427" s="11"/>
@@ -5737,7 +5792,7 @@
       <c r="E427" s="8"/>
       <c r="F427" s="8"/>
     </row>
-    <row r="428" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A428" s="6"/>
       <c r="B428" s="14"/>
       <c r="C428" s="11"/>
@@ -5745,7 +5800,7 @@
       <c r="E428" s="8"/>
       <c r="F428" s="8"/>
     </row>
-    <row r="429" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A429" s="6"/>
       <c r="B429" s="14"/>
       <c r="C429" s="11"/>
@@ -5753,7 +5808,7 @@
       <c r="E429" s="8"/>
       <c r="F429" s="8"/>
     </row>
-    <row r="430" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A430" s="6"/>
       <c r="B430" s="14"/>
       <c r="C430" s="11"/>
@@ -5761,7 +5816,7 @@
       <c r="E430" s="8"/>
       <c r="F430" s="8"/>
     </row>
-    <row r="431" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A431" s="6"/>
       <c r="B431" s="14"/>
       <c r="C431" s="11"/>
@@ -5769,7 +5824,7 @@
       <c r="E431" s="8"/>
       <c r="F431" s="8"/>
     </row>
-    <row r="432" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A432" s="6"/>
       <c r="B432" s="14"/>
       <c r="C432" s="11"/>
@@ -5777,7 +5832,7 @@
       <c r="E432" s="8"/>
       <c r="F432" s="8"/>
     </row>
-    <row r="433" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A433" s="6"/>
       <c r="B433" s="14"/>
       <c r="C433" s="11"/>
@@ -5785,7 +5840,7 @@
       <c r="E433" s="8"/>
       <c r="F433" s="8"/>
     </row>
-    <row r="434" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A434" s="6"/>
       <c r="B434" s="14"/>
       <c r="C434" s="11"/>
@@ -5793,7 +5848,7 @@
       <c r="E434" s="8"/>
       <c r="F434" s="8"/>
     </row>
-    <row r="435" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A435" s="6"/>
       <c r="B435" s="14"/>
       <c r="C435" s="11"/>
@@ -5801,7 +5856,7 @@
       <c r="E435" s="8"/>
       <c r="F435" s="8"/>
     </row>
-    <row r="436" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A436" s="6"/>
       <c r="B436" s="14"/>
       <c r="C436" s="11"/>
@@ -5809,7 +5864,7 @@
       <c r="E436" s="8"/>
       <c r="F436" s="8"/>
     </row>
-    <row r="437" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A437" s="6"/>
       <c r="B437" s="14"/>
       <c r="C437" s="11"/>
@@ -5817,7 +5872,7 @@
       <c r="E437" s="8"/>
       <c r="F437" s="8"/>
     </row>
-    <row r="438" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A438" s="6"/>
       <c r="B438" s="14"/>
       <c r="C438" s="11"/>
@@ -5825,7 +5880,7 @@
       <c r="E438" s="8"/>
       <c r="F438" s="8"/>
     </row>
-    <row r="439" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A439" s="6"/>
       <c r="B439" s="14"/>
       <c r="C439" s="11"/>
@@ -5833,7 +5888,7 @@
       <c r="E439" s="8"/>
       <c r="F439" s="8"/>
     </row>
-    <row r="440" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A440" s="6"/>
       <c r="B440" s="14"/>
       <c r="C440" s="11"/>
@@ -5841,7 +5896,7 @@
       <c r="E440" s="8"/>
       <c r="F440" s="8"/>
     </row>
-    <row r="441" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A441" s="6"/>
       <c r="B441" s="14"/>
       <c r="C441" s="11"/>
@@ -5849,7 +5904,7 @@
       <c r="E441" s="8"/>
       <c r="F441" s="8"/>
     </row>
-    <row r="442" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A442" s="6"/>
       <c r="B442" s="14"/>
       <c r="C442" s="11"/>
@@ -5857,7 +5912,7 @@
       <c r="E442" s="8"/>
       <c r="F442" s="8"/>
     </row>
-    <row r="443" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A443" s="6"/>
       <c r="B443" s="14"/>
       <c r="C443" s="11"/>
@@ -5865,7 +5920,7 @@
       <c r="E443" s="8"/>
       <c r="F443" s="8"/>
     </row>
-    <row r="444" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A444" s="6"/>
       <c r="B444" s="14"/>
       <c r="C444" s="11"/>
@@ -5873,7 +5928,7 @@
       <c r="E444" s="8"/>
       <c r="F444" s="8"/>
     </row>
-    <row r="445" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A445" s="6"/>
       <c r="B445" s="14"/>
       <c r="C445" s="11"/>
@@ -5881,7 +5936,7 @@
       <c r="E445" s="8"/>
       <c r="F445" s="8"/>
     </row>
-    <row r="446" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A446" s="6"/>
       <c r="B446" s="14"/>
       <c r="C446" s="11"/>
@@ -5889,7 +5944,7 @@
       <c r="E446" s="8"/>
       <c r="F446" s="8"/>
     </row>
-    <row r="447" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A447" s="6"/>
       <c r="B447" s="14"/>
       <c r="C447" s="11"/>
@@ -5897,7 +5952,7 @@
       <c r="E447" s="8"/>
       <c r="F447" s="8"/>
     </row>
-    <row r="448" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A448" s="6"/>
       <c r="B448" s="14"/>
       <c r="C448" s="11"/>
@@ -5905,7 +5960,7 @@
       <c r="E448" s="8"/>
       <c r="F448" s="8"/>
     </row>
-    <row r="449" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A449" s="6"/>
       <c r="B449" s="14"/>
       <c r="C449" s="11"/>
@@ -5913,7 +5968,7 @@
       <c r="E449" s="8"/>
       <c r="F449" s="8"/>
     </row>
-    <row r="450" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A450" s="6"/>
       <c r="B450" s="14"/>
       <c r="C450" s="11"/>
@@ -5921,7 +5976,7 @@
       <c r="E450" s="8"/>
       <c r="F450" s="8"/>
     </row>
-    <row r="451" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A451" s="6"/>
       <c r="B451" s="14"/>
       <c r="C451" s="11"/>
@@ -5929,7 +5984,7 @@
       <c r="E451" s="8"/>
       <c r="F451" s="8"/>
     </row>
-    <row r="452" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A452" s="6"/>
       <c r="B452" s="14"/>
       <c r="C452" s="11"/>
@@ -5937,7 +5992,7 @@
       <c r="E452" s="8"/>
       <c r="F452" s="8"/>
     </row>
-    <row r="453" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A453" s="6"/>
       <c r="B453" s="14"/>
       <c r="C453" s="11"/>
@@ -5945,7 +6000,7 @@
       <c r="E453" s="8"/>
       <c r="F453" s="8"/>
     </row>
-    <row r="454" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A454" s="6"/>
       <c r="B454" s="14"/>
       <c r="C454" s="11"/>
@@ -5953,7 +6008,7 @@
       <c r="E454" s="8"/>
       <c r="F454" s="8"/>
     </row>
-    <row r="455" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A455" s="6"/>
       <c r="B455" s="14"/>
       <c r="C455" s="11"/>
@@ -5961,7 +6016,7 @@
       <c r="E455" s="8"/>
       <c r="F455" s="8"/>
     </row>
-    <row r="456" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A456" s="6"/>
       <c r="B456" s="14"/>
       <c r="C456" s="11"/>
@@ -5969,7 +6024,7 @@
       <c r="E456" s="8"/>
       <c r="F456" s="8"/>
     </row>
-    <row r="457" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A457" s="6"/>
       <c r="B457" s="14"/>
       <c r="C457" s="11"/>
@@ -5977,7 +6032,7 @@
       <c r="E457" s="8"/>
       <c r="F457" s="8"/>
     </row>
-    <row r="458" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A458" s="6"/>
       <c r="B458" s="14"/>
       <c r="C458" s="11"/>
@@ -5985,7 +6040,7 @@
       <c r="E458" s="8"/>
       <c r="F458" s="8"/>
     </row>
-    <row r="459" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A459" s="6"/>
       <c r="B459" s="14"/>
       <c r="C459" s="11"/>
@@ -5993,7 +6048,7 @@
       <c r="E459" s="8"/>
       <c r="F459" s="8"/>
     </row>
-    <row r="460" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A460" s="6"/>
       <c r="B460" s="14"/>
       <c r="C460" s="11"/>
@@ -6001,7 +6056,7 @@
       <c r="E460" s="8"/>
       <c r="F460" s="8"/>
     </row>
-    <row r="461" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A461" s="6"/>
       <c r="B461" s="14"/>
       <c r="C461" s="11"/>
@@ -6009,7 +6064,7 @@
       <c r="E461" s="8"/>
       <c r="F461" s="8"/>
     </row>
-    <row r="462" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A462" s="6"/>
       <c r="B462" s="14"/>
       <c r="C462" s="11"/>
@@ -6017,7 +6072,7 @@
       <c r="E462" s="8"/>
       <c r="F462" s="8"/>
     </row>
-    <row r="463" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A463" s="6"/>
       <c r="B463" s="14"/>
       <c r="C463" s="11"/>
@@ -6025,7 +6080,7 @@
       <c r="E463" s="8"/>
       <c r="F463" s="8"/>
     </row>
-    <row r="464" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A464" s="6"/>
       <c r="B464" s="14"/>
       <c r="C464" s="11"/>
@@ -6033,7 +6088,7 @@
       <c r="E464" s="8"/>
       <c r="F464" s="8"/>
     </row>
-    <row r="465" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A465" s="6"/>
       <c r="B465" s="14"/>
       <c r="C465" s="11"/>
@@ -6041,7 +6096,7 @@
       <c r="E465" s="8"/>
       <c r="F465" s="8"/>
     </row>
-    <row r="466" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A466" s="6"/>
       <c r="B466" s="14"/>
       <c r="C466" s="11"/>
@@ -6049,7 +6104,7 @@
       <c r="E466" s="8"/>
       <c r="F466" s="8"/>
     </row>
-    <row r="467" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A467" s="6"/>
       <c r="B467" s="14"/>
       <c r="C467" s="11"/>
@@ -6057,7 +6112,7 @@
       <c r="E467" s="8"/>
       <c r="F467" s="8"/>
     </row>
-    <row r="468" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A468" s="6"/>
       <c r="B468" s="14"/>
       <c r="C468" s="11"/>
@@ -6065,7 +6120,7 @@
       <c r="E468" s="8"/>
       <c r="F468" s="8"/>
     </row>
-    <row r="469" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A469" s="6"/>
       <c r="B469" s="14"/>
       <c r="C469" s="11"/>
@@ -6073,7 +6128,7 @@
       <c r="E469" s="8"/>
       <c r="F469" s="8"/>
     </row>
-    <row r="470" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A470" s="6"/>
       <c r="B470" s="14"/>
       <c r="C470" s="11"/>
@@ -6081,7 +6136,7 @@
       <c r="E470" s="8"/>
       <c r="F470" s="8"/>
     </row>
-    <row r="471" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A471" s="6"/>
       <c r="B471" s="14"/>
       <c r="C471" s="11"/>
@@ -6089,7 +6144,7 @@
       <c r="E471" s="8"/>
       <c r="F471" s="8"/>
     </row>
-    <row r="472" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A472" s="6"/>
       <c r="B472" s="14"/>
       <c r="C472" s="11"/>
@@ -6097,7 +6152,7 @@
       <c r="E472" s="8"/>
       <c r="F472" s="8"/>
     </row>
-    <row r="473" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A473" s="6"/>
       <c r="B473" s="14"/>
       <c r="C473" s="11"/>
@@ -6105,7 +6160,7 @@
       <c r="E473" s="8"/>
       <c r="F473" s="8"/>
     </row>
-    <row r="474" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A474" s="6"/>
       <c r="B474" s="14"/>
       <c r="C474" s="11"/>
@@ -6113,7 +6168,7 @@
       <c r="E474" s="8"/>
       <c r="F474" s="8"/>
     </row>
-    <row r="475" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A475" s="6"/>
       <c r="B475" s="14"/>
       <c r="C475" s="11"/>
@@ -6121,7 +6176,7 @@
       <c r="E475" s="8"/>
       <c r="F475" s="8"/>
     </row>
-    <row r="476" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A476" s="6"/>
       <c r="B476" s="14"/>
       <c r="C476" s="11"/>
@@ -6129,7 +6184,7 @@
       <c r="E476" s="8"/>
       <c r="F476" s="8"/>
     </row>
-    <row r="477" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A477" s="6"/>
       <c r="B477" s="14"/>
       <c r="C477" s="11"/>
@@ -6137,7 +6192,7 @@
       <c r="E477" s="8"/>
       <c r="F477" s="8"/>
     </row>
-    <row r="478" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A478" s="6"/>
       <c r="B478" s="14"/>
       <c r="C478" s="11"/>
@@ -6145,7 +6200,7 @@
       <c r="E478" s="8"/>
       <c r="F478" s="8"/>
     </row>
-    <row r="479" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A479" s="6"/>
       <c r="B479" s="14"/>
       <c r="C479" s="11"/>
@@ -6153,7 +6208,7 @@
       <c r="E479" s="8"/>
       <c r="F479" s="8"/>
     </row>
-    <row r="480" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A480" s="6"/>
       <c r="B480" s="14"/>
       <c r="C480" s="11"/>
@@ -6161,7 +6216,7 @@
       <c r="E480" s="8"/>
       <c r="F480" s="8"/>
     </row>
-    <row r="481" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A481" s="6"/>
       <c r="B481" s="14"/>
       <c r="C481" s="11"/>
@@ -6169,7 +6224,7 @@
       <c r="E481" s="8"/>
       <c r="F481" s="8"/>
     </row>
-    <row r="482" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A482" s="6"/>
       <c r="B482" s="14"/>
       <c r="C482" s="11"/>
@@ -6177,7 +6232,7 @@
       <c r="E482" s="8"/>
       <c r="F482" s="8"/>
     </row>
-    <row r="483" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A483" s="6"/>
       <c r="B483" s="14"/>
       <c r="C483" s="11"/>
@@ -6185,7 +6240,7 @@
       <c r="E483" s="8"/>
       <c r="F483" s="8"/>
     </row>
-    <row r="484" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A484" s="6"/>
       <c r="B484" s="14"/>
       <c r="C484" s="11"/>
@@ -6193,7 +6248,7 @@
       <c r="E484" s="8"/>
       <c r="F484" s="8"/>
     </row>
-    <row r="485" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A485" s="6"/>
       <c r="B485" s="14"/>
       <c r="C485" s="11"/>
@@ -6201,7 +6256,7 @@
       <c r="E485" s="8"/>
       <c r="F485" s="8"/>
     </row>
-    <row r="486" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A486" s="6"/>
       <c r="B486" s="14"/>
       <c r="C486" s="11"/>
@@ -6209,7 +6264,7 @@
       <c r="E486" s="8"/>
       <c r="F486" s="8"/>
     </row>
-    <row r="487" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A487" s="6"/>
       <c r="B487" s="14"/>
       <c r="C487" s="11"/>
@@ -6217,7 +6272,7 @@
       <c r="E487" s="8"/>
       <c r="F487" s="8"/>
     </row>
-    <row r="488" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A488" s="6"/>
       <c r="B488" s="14"/>
       <c r="C488" s="11"/>
@@ -6225,7 +6280,7 @@
       <c r="E488" s="8"/>
       <c r="F488" s="8"/>
     </row>
-    <row r="489" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A489" s="6"/>
       <c r="B489" s="14"/>
       <c r="C489" s="11"/>
@@ -6233,7 +6288,7 @@
       <c r="E489" s="8"/>
       <c r="F489" s="8"/>
     </row>
-    <row r="490" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A490" s="6"/>
       <c r="B490" s="14"/>
       <c r="C490" s="11"/>
@@ -6241,7 +6296,7 @@
       <c r="E490" s="8"/>
       <c r="F490" s="8"/>
     </row>
-    <row r="491" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A491" s="6"/>
       <c r="B491" s="14"/>
       <c r="C491" s="11"/>
@@ -6249,7 +6304,7 @@
       <c r="E491" s="8"/>
       <c r="F491" s="8"/>
     </row>
-    <row r="492" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A492" s="6"/>
       <c r="B492" s="14"/>
       <c r="C492" s="11"/>
@@ -6257,7 +6312,7 @@
       <c r="E492" s="8"/>
       <c r="F492" s="8"/>
     </row>
-    <row r="493" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A493" s="6"/>
       <c r="B493" s="14"/>
       <c r="C493" s="11"/>
@@ -6265,7 +6320,7 @@
       <c r="E493" s="8"/>
       <c r="F493" s="8"/>
     </row>
-    <row r="494" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A494" s="6"/>
       <c r="B494" s="14"/>
       <c r="C494" s="11"/>
@@ -6273,7 +6328,7 @@
       <c r="E494" s="8"/>
       <c r="F494" s="8"/>
     </row>
-    <row r="495" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A495" s="6"/>
       <c r="B495" s="14"/>
       <c r="C495" s="11"/>
@@ -6281,7 +6336,7 @@
       <c r="E495" s="8"/>
       <c r="F495" s="8"/>
     </row>
-    <row r="496" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A496" s="6"/>
       <c r="B496" s="14"/>
       <c r="C496" s="11"/>
@@ -6289,7 +6344,7 @@
       <c r="E496" s="8"/>
       <c r="F496" s="8"/>
     </row>
-    <row r="497" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A497" s="6"/>
       <c r="B497" s="14"/>
       <c r="C497" s="11"/>
@@ -6297,7 +6352,7 @@
       <c r="E497" s="8"/>
       <c r="F497" s="8"/>
     </row>
-    <row r="498" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A498" s="6"/>
       <c r="B498" s="14"/>
       <c r="C498" s="11"/>
@@ -6305,7 +6360,7 @@
       <c r="E498" s="8"/>
       <c r="F498" s="8"/>
     </row>
-    <row r="499" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A499" s="6"/>
       <c r="B499" s="14"/>
       <c r="C499" s="11"/>
@@ -6313,7 +6368,7 @@
       <c r="E499" s="8"/>
       <c r="F499" s="8"/>
     </row>
-    <row r="500" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A500" s="6"/>
       <c r="B500" s="14"/>
       <c r="C500" s="11"/>
@@ -6335,9 +6390,6 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="B1:D1" listDataValidation="1"/>
-  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -6365,13 +6417,13 @@
       <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="24.875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.25" style="12" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
@@ -6379,7 +6431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="16" t="s">
         <v>7</v>
       </c>
@@ -6388,7 +6440,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
         <v>8</v>
       </c>
@@ -6397,7 +6449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="16" t="s">
         <v>9</v>
       </c>
@@ -6406,7 +6458,7 @@
         <v>16.25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="16" t="s">
         <v>10</v>
       </c>
@@ -6415,7 +6467,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="16" t="s">
         <v>11</v>
       </c>
@@ -6424,7 +6476,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
         <v>6</v>
       </c>
@@ -6433,7 +6485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
@@ -6442,1976 +6494,1976 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="11">
         <f>SUMIF(Journal!$D$2:$D$160,Tableau13[[#This Row],[Type]],Journal!$C$2:$C$160)</f>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9.5500000000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" s="11"/>
     </row>
-    <row r="11" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
       <c r="B11" s="11"/>
     </row>
-    <row r="12" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
       <c r="B12" s="11"/>
     </row>
-    <row r="13" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
       <c r="B13" s="11"/>
     </row>
-    <row r="14" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
       <c r="B14" s="11"/>
     </row>
-    <row r="15" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
       <c r="B15" s="11"/>
     </row>
-    <row r="16" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
       <c r="B16" s="11"/>
     </row>
-    <row r="17" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
       <c r="B17" s="11"/>
     </row>
-    <row r="18" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
       <c r="B18" s="11"/>
     </row>
-    <row r="19" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
       <c r="B19" s="11"/>
     </row>
-    <row r="20" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
       <c r="B20" s="11"/>
     </row>
-    <row r="21" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6"/>
       <c r="B21" s="11"/>
     </row>
-    <row r="22" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
       <c r="B22" s="11"/>
     </row>
-    <row r="23" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
     </row>
-    <row r="24" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6"/>
       <c r="B24" s="11"/>
     </row>
-    <row r="25" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6"/>
       <c r="B25" s="11"/>
     </row>
-    <row r="26" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6"/>
       <c r="B26" s="11"/>
     </row>
-    <row r="27" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6"/>
       <c r="B27" s="11"/>
     </row>
-    <row r="28" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6"/>
       <c r="B28" s="11"/>
     </row>
-    <row r="29" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="6"/>
       <c r="B29" s="11"/>
     </row>
-    <row r="30" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6"/>
       <c r="B30" s="11"/>
     </row>
-    <row r="31" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="6"/>
       <c r="B31" s="11"/>
     </row>
-    <row r="32" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="6"/>
       <c r="B32" s="11"/>
     </row>
-    <row r="33" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="6"/>
       <c r="B33" s="11"/>
     </row>
-    <row r="34" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6"/>
       <c r="B34" s="11"/>
     </row>
-    <row r="35" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="6"/>
       <c r="B35" s="11"/>
     </row>
-    <row r="36" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="6"/>
       <c r="B36" s="11"/>
     </row>
-    <row r="37" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="6"/>
       <c r="B37" s="11"/>
     </row>
-    <row r="38" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6"/>
       <c r="B38" s="11"/>
     </row>
-    <row r="39" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="6"/>
       <c r="B39" s="11"/>
     </row>
-    <row r="40" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="6"/>
       <c r="B40" s="11"/>
     </row>
-    <row r="41" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6"/>
       <c r="B41" s="11"/>
     </row>
-    <row r="42" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="6"/>
       <c r="B42" s="11"/>
     </row>
-    <row r="43" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="6"/>
       <c r="B43" s="11"/>
     </row>
-    <row r="44" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="6"/>
       <c r="B44" s="11"/>
     </row>
-    <row r="45" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="6"/>
       <c r="B45" s="11"/>
     </row>
-    <row r="46" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="6"/>
       <c r="B46" s="11"/>
     </row>
-    <row r="47" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="6"/>
       <c r="B47" s="11"/>
     </row>
-    <row r="48" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6"/>
       <c r="B48" s="11"/>
     </row>
-    <row r="49" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6"/>
       <c r="B49" s="11"/>
     </row>
-    <row r="50" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6"/>
       <c r="B50" s="11"/>
     </row>
-    <row r="51" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="6"/>
       <c r="B51" s="11"/>
     </row>
-    <row r="52" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="6"/>
       <c r="B52" s="11"/>
     </row>
-    <row r="53" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="6"/>
       <c r="B53" s="11"/>
     </row>
-    <row r="54" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="6"/>
       <c r="B54" s="11"/>
     </row>
-    <row r="55" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="6"/>
       <c r="B55" s="11"/>
     </row>
-    <row r="56" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6"/>
       <c r="B56" s="11"/>
     </row>
-    <row r="57" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6"/>
       <c r="B57" s="11"/>
     </row>
-    <row r="58" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6"/>
       <c r="B58" s="11"/>
     </row>
-    <row r="59" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="6"/>
       <c r="B59" s="11"/>
     </row>
-    <row r="60" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="6"/>
       <c r="B60" s="11"/>
     </row>
-    <row r="61" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="6"/>
       <c r="B61" s="11"/>
     </row>
-    <row r="62" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="6"/>
       <c r="B62" s="11"/>
     </row>
-    <row r="63" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="6"/>
       <c r="B63" s="11"/>
     </row>
-    <row r="64" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="6"/>
       <c r="B64" s="11"/>
     </row>
-    <row r="65" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="6"/>
       <c r="B65" s="11"/>
     </row>
-    <row r="66" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="6"/>
       <c r="B66" s="11"/>
     </row>
-    <row r="67" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="6"/>
       <c r="B67" s="11"/>
     </row>
-    <row r="68" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="6"/>
       <c r="B68" s="11"/>
     </row>
-    <row r="69" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="6"/>
       <c r="B69" s="11"/>
     </row>
-    <row r="70" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="6"/>
       <c r="B70" s="11"/>
     </row>
-    <row r="71" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="6"/>
       <c r="B71" s="11"/>
     </row>
-    <row r="72" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="6"/>
       <c r="B72" s="11"/>
     </row>
-    <row r="73" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="6"/>
       <c r="B73" s="11"/>
     </row>
-    <row r="74" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="6"/>
       <c r="B74" s="11"/>
     </row>
-    <row r="75" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="6"/>
       <c r="B75" s="11"/>
     </row>
-    <row r="76" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="6"/>
       <c r="B76" s="11"/>
     </row>
-    <row r="77" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="6"/>
       <c r="B77" s="11"/>
     </row>
-    <row r="78" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="6"/>
       <c r="B78" s="11"/>
     </row>
-    <row r="79" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="6"/>
       <c r="B79" s="11"/>
     </row>
-    <row r="80" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6"/>
       <c r="B80" s="11"/>
     </row>
-    <row r="81" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6"/>
       <c r="B81" s="11"/>
     </row>
-    <row r="82" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6"/>
       <c r="B82" s="11"/>
     </row>
-    <row r="83" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="6"/>
       <c r="B83" s="11"/>
     </row>
-    <row r="84" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="6"/>
       <c r="B84" s="11"/>
     </row>
-    <row r="85" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="6"/>
       <c r="B85" s="11"/>
     </row>
-    <row r="86" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="6"/>
       <c r="B86" s="11"/>
     </row>
-    <row r="87" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="6"/>
       <c r="B87" s="11"/>
     </row>
-    <row r="88" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6"/>
       <c r="B88" s="11"/>
     </row>
-    <row r="89" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6"/>
       <c r="B89" s="11"/>
     </row>
-    <row r="90" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6"/>
       <c r="B90" s="11"/>
     </row>
-    <row r="91" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="6"/>
       <c r="B91" s="11"/>
     </row>
-    <row r="92" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="6"/>
       <c r="B92" s="11"/>
     </row>
-    <row r="93" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="6"/>
       <c r="B93" s="11"/>
     </row>
-    <row r="94" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="6"/>
       <c r="B94" s="11"/>
     </row>
-    <row r="95" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="6"/>
       <c r="B95" s="11"/>
     </row>
-    <row r="96" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="6"/>
       <c r="B96" s="11"/>
     </row>
-    <row r="97" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="6"/>
       <c r="B97" s="11"/>
     </row>
-    <row r="98" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="6"/>
       <c r="B98" s="11"/>
     </row>
-    <row r="99" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="6"/>
       <c r="B99" s="11"/>
     </row>
-    <row r="100" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="6"/>
       <c r="B100" s="11"/>
     </row>
-    <row r="101" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="6"/>
       <c r="B101" s="11"/>
     </row>
-    <row r="102" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="6"/>
       <c r="B102" s="11"/>
     </row>
-    <row r="103" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="6"/>
       <c r="B103" s="11"/>
     </row>
-    <row r="104" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="6"/>
       <c r="B104" s="11"/>
     </row>
-    <row r="105" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="6"/>
       <c r="B105" s="11"/>
     </row>
-    <row r="106" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="6"/>
       <c r="B106" s="11"/>
     </row>
-    <row r="107" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="6"/>
       <c r="B107" s="11"/>
     </row>
-    <row r="108" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="6"/>
       <c r="B108" s="11"/>
     </row>
-    <row r="109" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="6"/>
       <c r="B109" s="11"/>
     </row>
-    <row r="110" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="6"/>
       <c r="B110" s="11"/>
     </row>
-    <row r="111" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="6"/>
       <c r="B111" s="11"/>
     </row>
-    <row r="112" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="6"/>
       <c r="B112" s="11"/>
     </row>
-    <row r="113" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="6"/>
       <c r="B113" s="11"/>
     </row>
-    <row r="114" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="6"/>
       <c r="B114" s="11"/>
     </row>
-    <row r="115" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="6"/>
       <c r="B115" s="11"/>
     </row>
-    <row r="116" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="6"/>
       <c r="B116" s="11"/>
     </row>
-    <row r="117" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="6"/>
       <c r="B117" s="11"/>
     </row>
-    <row r="118" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="6"/>
       <c r="B118" s="11"/>
     </row>
-    <row r="119" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="6"/>
       <c r="B119" s="11"/>
     </row>
-    <row r="120" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="6"/>
       <c r="B120" s="11"/>
     </row>
-    <row r="121" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="6"/>
       <c r="B121" s="11"/>
     </row>
-    <row r="122" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="6"/>
       <c r="B122" s="11"/>
     </row>
-    <row r="123" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="6"/>
       <c r="B123" s="11"/>
     </row>
-    <row r="124" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="6"/>
       <c r="B124" s="11"/>
     </row>
-    <row r="125" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="6"/>
       <c r="B125" s="11"/>
     </row>
-    <row r="126" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="6"/>
       <c r="B126" s="11"/>
     </row>
-    <row r="127" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="6"/>
       <c r="B127" s="11"/>
     </row>
-    <row r="128" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="6"/>
       <c r="B128" s="11"/>
     </row>
-    <row r="129" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="6"/>
       <c r="B129" s="11"/>
     </row>
-    <row r="130" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="6"/>
       <c r="B130" s="11"/>
     </row>
-    <row r="131" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="6"/>
       <c r="B131" s="11"/>
     </row>
-    <row r="132" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="6"/>
       <c r="B132" s="11"/>
     </row>
-    <row r="133" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="6"/>
       <c r="B133" s="11"/>
     </row>
-    <row r="134" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="6"/>
       <c r="B134" s="11"/>
     </row>
-    <row r="135" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="6"/>
       <c r="B135" s="11"/>
     </row>
-    <row r="136" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="6"/>
       <c r="B136" s="11"/>
     </row>
-    <row r="137" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="6"/>
       <c r="B137" s="11"/>
     </row>
-    <row r="138" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="6"/>
       <c r="B138" s="11"/>
     </row>
-    <row r="139" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="6"/>
       <c r="B139" s="11"/>
     </row>
-    <row r="140" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="6"/>
       <c r="B140" s="11"/>
     </row>
-    <row r="141" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="6"/>
       <c r="B141" s="11"/>
     </row>
-    <row r="142" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="6"/>
       <c r="B142" s="11"/>
     </row>
-    <row r="143" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="6"/>
       <c r="B143" s="11"/>
     </row>
-    <row r="144" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="6"/>
       <c r="B144" s="11"/>
     </row>
-    <row r="145" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="6"/>
       <c r="B145" s="11"/>
     </row>
-    <row r="146" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="6"/>
       <c r="B146" s="11"/>
     </row>
-    <row r="147" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="6"/>
       <c r="B147" s="11"/>
     </row>
-    <row r="148" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="6"/>
       <c r="B148" s="11"/>
     </row>
-    <row r="149" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="6"/>
       <c r="B149" s="11"/>
     </row>
-    <row r="150" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="6"/>
       <c r="B150" s="11"/>
     </row>
-    <row r="151" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="6"/>
       <c r="B151" s="11"/>
     </row>
-    <row r="152" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="6"/>
       <c r="B152" s="11"/>
     </row>
-    <row r="153" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="6"/>
       <c r="B153" s="11"/>
     </row>
-    <row r="154" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="6"/>
       <c r="B154" s="11"/>
     </row>
-    <row r="155" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="6"/>
       <c r="B155" s="11"/>
     </row>
-    <row r="156" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="6"/>
       <c r="B156" s="11"/>
     </row>
-    <row r="157" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="6"/>
       <c r="B157" s="11"/>
     </row>
-    <row r="158" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="6"/>
       <c r="B158" s="11"/>
     </row>
-    <row r="159" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="6"/>
       <c r="B159" s="11"/>
     </row>
-    <row r="160" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="6"/>
       <c r="B160" s="11"/>
     </row>
-    <row r="161" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="6"/>
       <c r="B161" s="11"/>
     </row>
-    <row r="162" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="6"/>
       <c r="B162" s="11"/>
     </row>
-    <row r="163" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="6"/>
       <c r="B163" s="11"/>
     </row>
-    <row r="164" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="6"/>
       <c r="B164" s="11"/>
     </row>
-    <row r="165" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="6"/>
       <c r="B165" s="11"/>
     </row>
-    <row r="166" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="6"/>
       <c r="B166" s="11"/>
     </row>
-    <row r="167" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="6"/>
       <c r="B167" s="11"/>
     </row>
-    <row r="168" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="6"/>
       <c r="B168" s="11"/>
     </row>
-    <row r="169" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="6"/>
       <c r="B169" s="11"/>
     </row>
-    <row r="170" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="6"/>
       <c r="B170" s="11"/>
     </row>
-    <row r="171" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="6"/>
       <c r="B171" s="11"/>
     </row>
-    <row r="172" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="6"/>
       <c r="B172" s="11"/>
     </row>
-    <row r="173" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="6"/>
       <c r="B173" s="11"/>
     </row>
-    <row r="174" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="6"/>
       <c r="B174" s="11"/>
     </row>
-    <row r="175" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="6"/>
       <c r="B175" s="11"/>
     </row>
-    <row r="176" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="6"/>
       <c r="B176" s="11"/>
     </row>
-    <row r="177" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="6"/>
       <c r="B177" s="11"/>
     </row>
-    <row r="178" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="6"/>
       <c r="B178" s="11"/>
     </row>
-    <row r="179" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="6"/>
       <c r="B179" s="11"/>
     </row>
-    <row r="180" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="6"/>
       <c r="B180" s="11"/>
     </row>
-    <row r="181" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="6"/>
       <c r="B181" s="11"/>
     </row>
-    <row r="182" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="6"/>
       <c r="B182" s="11"/>
     </row>
-    <row r="183" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="6"/>
       <c r="B183" s="11"/>
     </row>
-    <row r="184" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="6"/>
       <c r="B184" s="11"/>
     </row>
-    <row r="185" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="6"/>
       <c r="B185" s="11"/>
     </row>
-    <row r="186" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="6"/>
       <c r="B186" s="11"/>
     </row>
-    <row r="187" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="6"/>
       <c r="B187" s="11"/>
     </row>
-    <row r="188" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="6"/>
       <c r="B188" s="11"/>
     </row>
-    <row r="189" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="6"/>
       <c r="B189" s="11"/>
     </row>
-    <row r="190" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="6"/>
       <c r="B190" s="11"/>
     </row>
-    <row r="191" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="6"/>
       <c r="B191" s="11"/>
     </row>
-    <row r="192" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="6"/>
       <c r="B192" s="11"/>
     </row>
-    <row r="193" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="6"/>
       <c r="B193" s="11"/>
     </row>
-    <row r="194" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="6"/>
       <c r="B194" s="11"/>
     </row>
-    <row r="195" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="6"/>
       <c r="B195" s="11"/>
     </row>
-    <row r="196" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="6"/>
       <c r="B196" s="11"/>
     </row>
-    <row r="197" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="6"/>
       <c r="B197" s="11"/>
     </row>
-    <row r="198" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="6"/>
       <c r="B198" s="11"/>
     </row>
-    <row r="199" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="6"/>
       <c r="B199" s="11"/>
     </row>
-    <row r="200" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="6"/>
       <c r="B200" s="11"/>
     </row>
-    <row r="201" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="6"/>
       <c r="B201" s="11"/>
     </row>
-    <row r="202" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="6"/>
       <c r="B202" s="11"/>
     </row>
-    <row r="203" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="6"/>
       <c r="B203" s="11"/>
     </row>
-    <row r="204" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="6"/>
       <c r="B204" s="11"/>
     </row>
-    <row r="205" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="6"/>
       <c r="B205" s="11"/>
     </row>
-    <row r="206" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="6"/>
       <c r="B206" s="11"/>
     </row>
-    <row r="207" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="6"/>
       <c r="B207" s="11"/>
     </row>
-    <row r="208" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="6"/>
       <c r="B208" s="11"/>
     </row>
-    <row r="209" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="6"/>
       <c r="B209" s="11"/>
     </row>
-    <row r="210" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="6"/>
       <c r="B210" s="11"/>
     </row>
-    <row r="211" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="6"/>
       <c r="B211" s="11"/>
     </row>
-    <row r="212" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="6"/>
       <c r="B212" s="11"/>
     </row>
-    <row r="213" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="6"/>
       <c r="B213" s="11"/>
     </row>
-    <row r="214" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="6"/>
       <c r="B214" s="11"/>
     </row>
-    <row r="215" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="6"/>
       <c r="B215" s="11"/>
     </row>
-    <row r="216" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="6"/>
       <c r="B216" s="11"/>
     </row>
-    <row r="217" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="6"/>
       <c r="B217" s="11"/>
     </row>
-    <row r="218" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="6"/>
       <c r="B218" s="11"/>
     </row>
-    <row r="219" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="6"/>
       <c r="B219" s="11"/>
     </row>
-    <row r="220" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="6"/>
       <c r="B220" s="11"/>
     </row>
-    <row r="221" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="6"/>
       <c r="B221" s="11"/>
     </row>
-    <row r="222" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="6"/>
       <c r="B222" s="11"/>
     </row>
-    <row r="223" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="6"/>
       <c r="B223" s="11"/>
     </row>
-    <row r="224" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="6"/>
       <c r="B224" s="11"/>
     </row>
-    <row r="225" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="6"/>
       <c r="B225" s="11"/>
     </row>
-    <row r="226" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="6"/>
       <c r="B226" s="11"/>
     </row>
-    <row r="227" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="6"/>
       <c r="B227" s="11"/>
     </row>
-    <row r="228" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="6"/>
       <c r="B228" s="11"/>
     </row>
-    <row r="229" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="6"/>
       <c r="B229" s="11"/>
     </row>
-    <row r="230" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="6"/>
       <c r="B230" s="11"/>
     </row>
-    <row r="231" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="6"/>
       <c r="B231" s="11"/>
     </row>
-    <row r="232" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="6"/>
       <c r="B232" s="11"/>
     </row>
-    <row r="233" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="6"/>
       <c r="B233" s="11"/>
     </row>
-    <row r="234" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="6"/>
       <c r="B234" s="11"/>
     </row>
-    <row r="235" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="6"/>
       <c r="B235" s="11"/>
     </row>
-    <row r="236" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="6"/>
       <c r="B236" s="11"/>
     </row>
-    <row r="237" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="6"/>
       <c r="B237" s="11"/>
     </row>
-    <row r="238" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="6"/>
       <c r="B238" s="11"/>
     </row>
-    <row r="239" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="6"/>
       <c r="B239" s="11"/>
     </row>
-    <row r="240" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="6"/>
       <c r="B240" s="11"/>
     </row>
-    <row r="241" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="6"/>
       <c r="B241" s="11"/>
     </row>
-    <row r="242" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="6"/>
       <c r="B242" s="11"/>
     </row>
-    <row r="243" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="6"/>
       <c r="B243" s="11"/>
     </row>
-    <row r="244" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="6"/>
       <c r="B244" s="11"/>
     </row>
-    <row r="245" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="6"/>
       <c r="B245" s="11"/>
     </row>
-    <row r="246" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="6"/>
       <c r="B246" s="11"/>
     </row>
-    <row r="247" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="6"/>
       <c r="B247" s="11"/>
     </row>
-    <row r="248" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A248" s="6"/>
       <c r="B248" s="11"/>
     </row>
-    <row r="249" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A249" s="6"/>
       <c r="B249" s="11"/>
     </row>
-    <row r="250" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A250" s="6"/>
       <c r="B250" s="11"/>
     </row>
-    <row r="251" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A251" s="6"/>
       <c r="B251" s="11"/>
     </row>
-    <row r="252" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A252" s="6"/>
       <c r="B252" s="11"/>
     </row>
-    <row r="253" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A253" s="6"/>
       <c r="B253" s="11"/>
     </row>
-    <row r="254" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A254" s="6"/>
       <c r="B254" s="11"/>
     </row>
-    <row r="255" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A255" s="6"/>
       <c r="B255" s="11"/>
     </row>
-    <row r="256" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A256" s="6"/>
       <c r="B256" s="11"/>
     </row>
-    <row r="257" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A257" s="6"/>
       <c r="B257" s="11"/>
     </row>
-    <row r="258" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A258" s="6"/>
       <c r="B258" s="11"/>
     </row>
-    <row r="259" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A259" s="6"/>
       <c r="B259" s="11"/>
     </row>
-    <row r="260" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A260" s="6"/>
       <c r="B260" s="11"/>
     </row>
-    <row r="261" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A261" s="6"/>
       <c r="B261" s="11"/>
     </row>
-    <row r="262" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A262" s="6"/>
       <c r="B262" s="11"/>
     </row>
-    <row r="263" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A263" s="6"/>
       <c r="B263" s="11"/>
     </row>
-    <row r="264" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A264" s="6"/>
       <c r="B264" s="11"/>
     </row>
-    <row r="265" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A265" s="6"/>
       <c r="B265" s="11"/>
     </row>
-    <row r="266" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A266" s="6"/>
       <c r="B266" s="11"/>
     </row>
-    <row r="267" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A267" s="6"/>
       <c r="B267" s="11"/>
     </row>
-    <row r="268" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A268" s="6"/>
       <c r="B268" s="11"/>
     </row>
-    <row r="269" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A269" s="6"/>
       <c r="B269" s="11"/>
     </row>
-    <row r="270" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A270" s="6"/>
       <c r="B270" s="11"/>
     </row>
-    <row r="271" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A271" s="6"/>
       <c r="B271" s="11"/>
     </row>
-    <row r="272" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A272" s="6"/>
       <c r="B272" s="11"/>
     </row>
-    <row r="273" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A273" s="6"/>
       <c r="B273" s="11"/>
     </row>
-    <row r="274" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A274" s="6"/>
       <c r="B274" s="11"/>
     </row>
-    <row r="275" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A275" s="6"/>
       <c r="B275" s="11"/>
     </row>
-    <row r="276" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A276" s="6"/>
       <c r="B276" s="11"/>
     </row>
-    <row r="277" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A277" s="6"/>
       <c r="B277" s="11"/>
     </row>
-    <row r="278" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A278" s="6"/>
       <c r="B278" s="11"/>
     </row>
-    <row r="279" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A279" s="6"/>
       <c r="B279" s="11"/>
     </row>
-    <row r="280" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A280" s="6"/>
       <c r="B280" s="11"/>
     </row>
-    <row r="281" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A281" s="6"/>
       <c r="B281" s="11"/>
     </row>
-    <row r="282" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A282" s="6"/>
       <c r="B282" s="11"/>
     </row>
-    <row r="283" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A283" s="6"/>
       <c r="B283" s="11"/>
     </row>
-    <row r="284" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A284" s="6"/>
       <c r="B284" s="11"/>
     </row>
-    <row r="285" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A285" s="6"/>
       <c r="B285" s="11"/>
     </row>
-    <row r="286" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A286" s="6"/>
       <c r="B286" s="11"/>
     </row>
-    <row r="287" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A287" s="6"/>
       <c r="B287" s="11"/>
     </row>
-    <row r="288" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A288" s="6"/>
       <c r="B288" s="11"/>
     </row>
-    <row r="289" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A289" s="6"/>
       <c r="B289" s="11"/>
     </row>
-    <row r="290" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A290" s="6"/>
       <c r="B290" s="11"/>
     </row>
-    <row r="291" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A291" s="6"/>
       <c r="B291" s="11"/>
     </row>
-    <row r="292" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A292" s="6"/>
       <c r="B292" s="11"/>
     </row>
-    <row r="293" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A293" s="6"/>
       <c r="B293" s="11"/>
     </row>
-    <row r="294" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A294" s="6"/>
       <c r="B294" s="11"/>
     </row>
-    <row r="295" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A295" s="6"/>
       <c r="B295" s="11"/>
     </row>
-    <row r="296" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A296" s="6"/>
       <c r="B296" s="11"/>
     </row>
-    <row r="297" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A297" s="6"/>
       <c r="B297" s="11"/>
     </row>
-    <row r="298" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A298" s="6"/>
       <c r="B298" s="11"/>
     </row>
-    <row r="299" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A299" s="6"/>
       <c r="B299" s="11"/>
     </row>
-    <row r="300" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A300" s="6"/>
       <c r="B300" s="11"/>
     </row>
-    <row r="301" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A301" s="6"/>
       <c r="B301" s="11"/>
     </row>
-    <row r="302" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A302" s="6"/>
       <c r="B302" s="11"/>
     </row>
-    <row r="303" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A303" s="6"/>
       <c r="B303" s="11"/>
     </row>
-    <row r="304" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A304" s="6"/>
       <c r="B304" s="11"/>
     </row>
-    <row r="305" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A305" s="6"/>
       <c r="B305" s="11"/>
     </row>
-    <row r="306" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A306" s="6"/>
       <c r="B306" s="11"/>
     </row>
-    <row r="307" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A307" s="6"/>
       <c r="B307" s="11"/>
     </row>
-    <row r="308" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A308" s="6"/>
       <c r="B308" s="11"/>
     </row>
-    <row r="309" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A309" s="6"/>
       <c r="B309" s="11"/>
     </row>
-    <row r="310" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A310" s="6"/>
       <c r="B310" s="11"/>
     </row>
-    <row r="311" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A311" s="6"/>
       <c r="B311" s="11"/>
     </row>
-    <row r="312" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A312" s="6"/>
       <c r="B312" s="11"/>
     </row>
-    <row r="313" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A313" s="6"/>
       <c r="B313" s="11"/>
     </row>
-    <row r="314" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A314" s="6"/>
       <c r="B314" s="11"/>
     </row>
-    <row r="315" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A315" s="6"/>
       <c r="B315" s="11"/>
     </row>
-    <row r="316" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A316" s="6"/>
       <c r="B316" s="11"/>
     </row>
-    <row r="317" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A317" s="6"/>
       <c r="B317" s="11"/>
     </row>
-    <row r="318" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A318" s="6"/>
       <c r="B318" s="11"/>
     </row>
-    <row r="319" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A319" s="6"/>
       <c r="B319" s="11"/>
     </row>
-    <row r="320" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A320" s="6"/>
       <c r="B320" s="11"/>
     </row>
-    <row r="321" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A321" s="6"/>
       <c r="B321" s="11"/>
     </row>
-    <row r="322" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A322" s="6"/>
       <c r="B322" s="11"/>
     </row>
-    <row r="323" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A323" s="6"/>
       <c r="B323" s="11"/>
     </row>
-    <row r="324" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A324" s="6"/>
       <c r="B324" s="11"/>
     </row>
-    <row r="325" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A325" s="6"/>
       <c r="B325" s="11"/>
     </row>
-    <row r="326" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A326" s="6"/>
       <c r="B326" s="11"/>
     </row>
-    <row r="327" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A327" s="6"/>
       <c r="B327" s="11"/>
     </row>
-    <row r="328" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A328" s="6"/>
       <c r="B328" s="11"/>
     </row>
-    <row r="329" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A329" s="6"/>
       <c r="B329" s="11"/>
     </row>
-    <row r="330" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A330" s="6"/>
       <c r="B330" s="11"/>
     </row>
-    <row r="331" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A331" s="6"/>
       <c r="B331" s="11"/>
     </row>
-    <row r="332" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A332" s="6"/>
       <c r="B332" s="11"/>
     </row>
-    <row r="333" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A333" s="6"/>
       <c r="B333" s="11"/>
     </row>
-    <row r="334" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A334" s="6"/>
       <c r="B334" s="11"/>
     </row>
-    <row r="335" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A335" s="6"/>
       <c r="B335" s="11"/>
     </row>
-    <row r="336" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A336" s="6"/>
       <c r="B336" s="11"/>
     </row>
-    <row r="337" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A337" s="6"/>
       <c r="B337" s="11"/>
     </row>
-    <row r="338" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A338" s="6"/>
       <c r="B338" s="11"/>
     </row>
-    <row r="339" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A339" s="6"/>
       <c r="B339" s="11"/>
     </row>
-    <row r="340" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A340" s="6"/>
       <c r="B340" s="11"/>
     </row>
-    <row r="341" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A341" s="6"/>
       <c r="B341" s="11"/>
     </row>
-    <row r="342" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A342" s="6"/>
       <c r="B342" s="11"/>
     </row>
-    <row r="343" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A343" s="6"/>
       <c r="B343" s="11"/>
     </row>
-    <row r="344" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A344" s="6"/>
       <c r="B344" s="11"/>
     </row>
-    <row r="345" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A345" s="6"/>
       <c r="B345" s="11"/>
     </row>
-    <row r="346" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A346" s="6"/>
       <c r="B346" s="11"/>
     </row>
-    <row r="347" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A347" s="6"/>
       <c r="B347" s="11"/>
     </row>
-    <row r="348" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A348" s="6"/>
       <c r="B348" s="11"/>
     </row>
-    <row r="349" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A349" s="6"/>
       <c r="B349" s="11"/>
     </row>
-    <row r="350" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A350" s="6"/>
       <c r="B350" s="11"/>
     </row>
-    <row r="351" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A351" s="6"/>
       <c r="B351" s="11"/>
     </row>
-    <row r="352" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A352" s="6"/>
       <c r="B352" s="11"/>
     </row>
-    <row r="353" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A353" s="6"/>
       <c r="B353" s="11"/>
     </row>
-    <row r="354" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A354" s="6"/>
       <c r="B354" s="11"/>
     </row>
-    <row r="355" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A355" s="6"/>
       <c r="B355" s="11"/>
     </row>
-    <row r="356" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A356" s="6"/>
       <c r="B356" s="11"/>
     </row>
-    <row r="357" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A357" s="6"/>
       <c r="B357" s="11"/>
     </row>
-    <row r="358" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A358" s="6"/>
       <c r="B358" s="11"/>
     </row>
-    <row r="359" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A359" s="6"/>
       <c r="B359" s="11"/>
     </row>
-    <row r="360" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A360" s="6"/>
       <c r="B360" s="11"/>
     </row>
-    <row r="361" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A361" s="6"/>
       <c r="B361" s="11"/>
     </row>
-    <row r="362" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A362" s="6"/>
       <c r="B362" s="11"/>
     </row>
-    <row r="363" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A363" s="6"/>
       <c r="B363" s="11"/>
     </row>
-    <row r="364" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A364" s="6"/>
       <c r="B364" s="11"/>
     </row>
-    <row r="365" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A365" s="6"/>
       <c r="B365" s="11"/>
     </row>
-    <row r="366" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A366" s="6"/>
       <c r="B366" s="11"/>
     </row>
-    <row r="367" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A367" s="6"/>
       <c r="B367" s="11"/>
     </row>
-    <row r="368" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A368" s="6"/>
       <c r="B368" s="11"/>
     </row>
-    <row r="369" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A369" s="6"/>
       <c r="B369" s="11"/>
     </row>
-    <row r="370" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A370" s="6"/>
       <c r="B370" s="11"/>
     </row>
-    <row r="371" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A371" s="6"/>
       <c r="B371" s="11"/>
     </row>
-    <row r="372" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A372" s="6"/>
       <c r="B372" s="11"/>
     </row>
-    <row r="373" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A373" s="6"/>
       <c r="B373" s="11"/>
     </row>
-    <row r="374" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A374" s="6"/>
       <c r="B374" s="11"/>
     </row>
-    <row r="375" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A375" s="6"/>
       <c r="B375" s="11"/>
     </row>
-    <row r="376" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A376" s="6"/>
       <c r="B376" s="11"/>
     </row>
-    <row r="377" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A377" s="6"/>
       <c r="B377" s="11"/>
     </row>
-    <row r="378" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A378" s="6"/>
       <c r="B378" s="11"/>
     </row>
-    <row r="379" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A379" s="6"/>
       <c r="B379" s="11"/>
     </row>
-    <row r="380" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A380" s="6"/>
       <c r="B380" s="11"/>
     </row>
-    <row r="381" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A381" s="6"/>
       <c r="B381" s="11"/>
     </row>
-    <row r="382" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A382" s="6"/>
       <c r="B382" s="11"/>
     </row>
-    <row r="383" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A383" s="6"/>
       <c r="B383" s="11"/>
     </row>
-    <row r="384" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A384" s="6"/>
       <c r="B384" s="11"/>
     </row>
-    <row r="385" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A385" s="6"/>
       <c r="B385" s="11"/>
     </row>
-    <row r="386" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A386" s="6"/>
       <c r="B386" s="11"/>
     </row>
-    <row r="387" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A387" s="6"/>
       <c r="B387" s="11"/>
     </row>
-    <row r="388" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A388" s="6"/>
       <c r="B388" s="11"/>
     </row>
-    <row r="389" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A389" s="6"/>
       <c r="B389" s="11"/>
     </row>
-    <row r="390" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A390" s="6"/>
       <c r="B390" s="11"/>
     </row>
-    <row r="391" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A391" s="6"/>
       <c r="B391" s="11"/>
     </row>
-    <row r="392" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A392" s="6"/>
       <c r="B392" s="11"/>
     </row>
-    <row r="393" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A393" s="6"/>
       <c r="B393" s="11"/>
     </row>
-    <row r="394" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A394" s="6"/>
       <c r="B394" s="11"/>
     </row>
-    <row r="395" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A395" s="6"/>
       <c r="B395" s="11"/>
     </row>
-    <row r="396" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A396" s="6"/>
       <c r="B396" s="11"/>
     </row>
-    <row r="397" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A397" s="6"/>
       <c r="B397" s="11"/>
     </row>
-    <row r="398" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A398" s="6"/>
       <c r="B398" s="11"/>
     </row>
-    <row r="399" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A399" s="6"/>
       <c r="B399" s="11"/>
     </row>
-    <row r="400" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A400" s="6"/>
       <c r="B400" s="11"/>
     </row>
-    <row r="401" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A401" s="6"/>
       <c r="B401" s="11"/>
     </row>
-    <row r="402" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A402" s="6"/>
       <c r="B402" s="11"/>
     </row>
-    <row r="403" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A403" s="6"/>
       <c r="B403" s="11"/>
     </row>
-    <row r="404" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A404" s="6"/>
       <c r="B404" s="11"/>
     </row>
-    <row r="405" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A405" s="6"/>
       <c r="B405" s="11"/>
     </row>
-    <row r="406" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A406" s="6"/>
       <c r="B406" s="11"/>
     </row>
-    <row r="407" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A407" s="6"/>
       <c r="B407" s="11"/>
     </row>
-    <row r="408" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A408" s="6"/>
       <c r="B408" s="11"/>
     </row>
-    <row r="409" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A409" s="6"/>
       <c r="B409" s="11"/>
     </row>
-    <row r="410" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A410" s="6"/>
       <c r="B410" s="11"/>
     </row>
-    <row r="411" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A411" s="6"/>
       <c r="B411" s="11"/>
     </row>
-    <row r="412" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A412" s="6"/>
       <c r="B412" s="11"/>
     </row>
-    <row r="413" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A413" s="6"/>
       <c r="B413" s="11"/>
     </row>
-    <row r="414" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A414" s="6"/>
       <c r="B414" s="11"/>
     </row>
-    <row r="415" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A415" s="6"/>
       <c r="B415" s="11"/>
     </row>
-    <row r="416" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A416" s="6"/>
       <c r="B416" s="11"/>
     </row>
-    <row r="417" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A417" s="6"/>
       <c r="B417" s="11"/>
     </row>
-    <row r="418" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A418" s="6"/>
       <c r="B418" s="11"/>
     </row>
-    <row r="419" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A419" s="6"/>
       <c r="B419" s="11"/>
     </row>
-    <row r="420" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A420" s="6"/>
       <c r="B420" s="11"/>
     </row>
-    <row r="421" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A421" s="6"/>
       <c r="B421" s="11"/>
     </row>
-    <row r="422" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A422" s="6"/>
       <c r="B422" s="11"/>
     </row>
-    <row r="423" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A423" s="6"/>
       <c r="B423" s="11"/>
     </row>
-    <row r="424" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A424" s="6"/>
       <c r="B424" s="11"/>
     </row>
-    <row r="425" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A425" s="6"/>
       <c r="B425" s="11"/>
     </row>
-    <row r="426" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A426" s="6"/>
       <c r="B426" s="11"/>
     </row>
-    <row r="427" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A427" s="6"/>
       <c r="B427" s="11"/>
     </row>
-    <row r="428" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A428" s="6"/>
       <c r="B428" s="11"/>
     </row>
-    <row r="429" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A429" s="6"/>
       <c r="B429" s="11"/>
     </row>
-    <row r="430" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A430" s="6"/>
       <c r="B430" s="11"/>
     </row>
-    <row r="431" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A431" s="6"/>
       <c r="B431" s="11"/>
     </row>
-    <row r="432" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A432" s="6"/>
       <c r="B432" s="11"/>
     </row>
-    <row r="433" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A433" s="6"/>
       <c r="B433" s="11"/>
     </row>
-    <row r="434" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A434" s="6"/>
       <c r="B434" s="11"/>
     </row>
-    <row r="435" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A435" s="6"/>
       <c r="B435" s="11"/>
     </row>
-    <row r="436" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A436" s="6"/>
       <c r="B436" s="11"/>
     </row>
-    <row r="437" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A437" s="6"/>
       <c r="B437" s="11"/>
     </row>
-    <row r="438" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A438" s="6"/>
       <c r="B438" s="11"/>
     </row>
-    <row r="439" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A439" s="6"/>
       <c r="B439" s="11"/>
     </row>
-    <row r="440" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A440" s="6"/>
       <c r="B440" s="11"/>
     </row>
-    <row r="441" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A441" s="6"/>
       <c r="B441" s="11"/>
     </row>
-    <row r="442" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A442" s="6"/>
       <c r="B442" s="11"/>
     </row>
-    <row r="443" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A443" s="6"/>
       <c r="B443" s="11"/>
     </row>
-    <row r="444" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A444" s="6"/>
       <c r="B444" s="11"/>
     </row>
-    <row r="445" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A445" s="6"/>
       <c r="B445" s="11"/>
     </row>
-    <row r="446" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A446" s="6"/>
       <c r="B446" s="11"/>
     </row>
-    <row r="447" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A447" s="6"/>
       <c r="B447" s="11"/>
     </row>
-    <row r="448" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A448" s="6"/>
       <c r="B448" s="11"/>
     </row>
-    <row r="449" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A449" s="6"/>
       <c r="B449" s="11"/>
     </row>
-    <row r="450" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A450" s="6"/>
       <c r="B450" s="11"/>
     </row>
-    <row r="451" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A451" s="6"/>
       <c r="B451" s="11"/>
     </row>
-    <row r="452" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A452" s="6"/>
       <c r="B452" s="11"/>
     </row>
-    <row r="453" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A453" s="6"/>
       <c r="B453" s="11"/>
     </row>
-    <row r="454" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A454" s="6"/>
       <c r="B454" s="11"/>
     </row>
-    <row r="455" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A455" s="6"/>
       <c r="B455" s="11"/>
     </row>
-    <row r="456" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A456" s="6"/>
       <c r="B456" s="11"/>
     </row>
-    <row r="457" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A457" s="6"/>
       <c r="B457" s="11"/>
     </row>
-    <row r="458" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A458" s="6"/>
       <c r="B458" s="11"/>
     </row>
-    <row r="459" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A459" s="6"/>
       <c r="B459" s="11"/>
     </row>
-    <row r="460" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A460" s="6"/>
       <c r="B460" s="11"/>
     </row>
-    <row r="461" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A461" s="6"/>
       <c r="B461" s="11"/>
     </row>
-    <row r="462" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A462" s="6"/>
       <c r="B462" s="11"/>
     </row>
-    <row r="463" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A463" s="6"/>
       <c r="B463" s="11"/>
     </row>
-    <row r="464" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A464" s="6"/>
       <c r="B464" s="11"/>
     </row>
-    <row r="465" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A465" s="6"/>
       <c r="B465" s="11"/>
     </row>
-    <row r="466" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A466" s="6"/>
       <c r="B466" s="11"/>
     </row>
-    <row r="467" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A467" s="6"/>
       <c r="B467" s="11"/>
     </row>
-    <row r="468" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A468" s="6"/>
       <c r="B468" s="11"/>
     </row>
-    <row r="469" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A469" s="6"/>
       <c r="B469" s="11"/>
     </row>
-    <row r="470" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A470" s="6"/>
       <c r="B470" s="11"/>
     </row>
-    <row r="471" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A471" s="6"/>
       <c r="B471" s="11"/>
     </row>
-    <row r="472" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A472" s="6"/>
       <c r="B472" s="11"/>
     </row>
-    <row r="473" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A473" s="6"/>
       <c r="B473" s="11"/>
     </row>
-    <row r="474" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A474" s="6"/>
       <c r="B474" s="11"/>
     </row>
-    <row r="475" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A475" s="6"/>
       <c r="B475" s="11"/>
     </row>
-    <row r="476" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A476" s="6"/>
       <c r="B476" s="11"/>
     </row>
-    <row r="477" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A477" s="6"/>
       <c r="B477" s="11"/>
     </row>
-    <row r="478" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A478" s="6"/>
       <c r="B478" s="11"/>
     </row>
-    <row r="479" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A479" s="6"/>
       <c r="B479" s="11"/>
     </row>
-    <row r="480" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A480" s="6"/>
       <c r="B480" s="11"/>
     </row>
-    <row r="481" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A481" s="6"/>
       <c r="B481" s="11"/>
     </row>
-    <row r="482" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A482" s="6"/>
       <c r="B482" s="11"/>
     </row>
-    <row r="483" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A483" s="6"/>
       <c r="B483" s="11"/>
     </row>
-    <row r="484" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A484" s="6"/>
       <c r="B484" s="11"/>
     </row>
-    <row r="485" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A485" s="6"/>
       <c r="B485" s="11"/>
     </row>
-    <row r="486" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A486" s="6"/>
       <c r="B486" s="11"/>
     </row>
-    <row r="487" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A487" s="6"/>
       <c r="B487" s="11"/>
     </row>
-    <row r="488" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A488" s="6"/>
       <c r="B488" s="11"/>
     </row>
-    <row r="489" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A489" s="6"/>
       <c r="B489" s="11"/>
     </row>
-    <row r="490" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A490" s="6"/>
       <c r="B490" s="11"/>
     </row>
-    <row r="491" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A491" s="6"/>
       <c r="B491" s="11"/>
     </row>
-    <row r="492" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A492" s="6"/>
       <c r="B492" s="11"/>
     </row>
-    <row r="493" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A493" s="6"/>
       <c r="B493" s="11"/>
     </row>
-    <row r="494" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A494" s="6"/>
       <c r="B494" s="11"/>
     </row>
-    <row r="495" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A495" s="6"/>
       <c r="B495" s="11"/>
     </row>
-    <row r="496" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A496" s="6"/>
       <c r="B496" s="11"/>
     </row>
-    <row r="497" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A497" s="6"/>
       <c r="B497" s="11"/>
     </row>
-    <row r="498" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A498" s="6"/>
       <c r="B498" s="11"/>
     </row>
-    <row r="499" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A499" s="6"/>
       <c r="B499" s="11"/>
     </row>
-    <row r="500" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A500" s="6"/>
       <c r="B500" s="11"/>
     </row>
@@ -8442,52 +8494,52 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
     </row>
   </sheetData>
